--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6517" uniqueCount="3273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6519" uniqueCount="3273">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -9853,14 +9853,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -10013,103 +10012,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10440,10 +10439,10 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="R156" activeCellId="0" sqref="R156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="P156" activeCellId="0" sqref="P156:Q156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16704,18 +16703,18 @@
       <c r="F142" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G142" s="6" t="b">
+      <c r="G142" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I142" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J142" s="6" t="b">
+      <c r="I142" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16742,18 +16741,18 @@
       <c r="F143" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G143" s="6" t="b">
+      <c r="G143" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I143" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J143" s="6" t="b">
+      <c r="I143" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16786,18 +16785,18 @@
       <c r="F144" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G144" s="6" t="b">
+      <c r="G144" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I144" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J144" s="6" t="b">
+      <c r="I144" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16824,18 +16823,18 @@
       <c r="F145" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G145" s="6" t="b">
+      <c r="G145" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I145" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J145" s="6" t="b">
+      <c r="I145" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16868,18 +16867,18 @@
       <c r="F146" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G146" s="6" t="b">
+      <c r="G146" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I146" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="6" t="b">
+      <c r="I146" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J146" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16906,18 +16905,18 @@
       <c r="F147" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G147" s="6" t="b">
+      <c r="G147" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I147" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J147" s="6" t="b">
+      <c r="I147" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J147" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16959,18 +16958,18 @@
       <c r="F148" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="6" t="b">
+      <c r="G148" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I148" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J148" s="6" t="b">
+      <c r="I148" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J148" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17009,18 +17008,18 @@
       <c r="F149" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G149" s="6" t="b">
+      <c r="G149" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I149" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J149" s="6" t="b">
+      <c r="I149" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17047,18 +17046,18 @@
       <c r="F150" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G150" s="6" t="b">
+      <c r="G150" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I150" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J150" s="6" t="b">
+      <c r="I150" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17100,18 +17099,18 @@
       <c r="F151" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G151" s="6" t="b">
+      <c r="G151" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I151" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="6" t="b">
+      <c r="I151" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17144,18 +17143,18 @@
       <c r="F152" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G152" s="6" t="b">
+      <c r="G152" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I152" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J152" s="6" t="b">
+      <c r="I152" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17182,18 +17181,18 @@
       <c r="F153" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G153" s="6" t="b">
+      <c r="G153" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I153" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J153" s="6" t="b">
+      <c r="I153" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J153" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17235,18 +17234,18 @@
       <c r="F154" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G154" s="6" t="b">
+      <c r="G154" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I154" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J154" s="6" t="b">
+      <c r="I154" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17279,18 +17278,18 @@
       <c r="F155" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G155" s="6" t="b">
+      <c r="G155" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I155" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J155" s="6" t="b">
+      <c r="I155" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J155" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17317,18 +17316,18 @@
       <c r="F156" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G156" s="6" t="b">
+      <c r="G156" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I156" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J156" s="6" t="b">
+      <c r="I156" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17343,6 +17342,12 @@
       </c>
       <c r="N156" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="R156" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -17368,18 +17373,18 @@
       <c r="F157" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G157" s="6" t="b">
+      <c r="G157" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I157" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J157" s="6" t="b">
+      <c r="I157" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J157" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17412,18 +17417,18 @@
       <c r="F158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G158" s="6" t="b">
+      <c r="G158" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I158" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J158" s="6" t="b">
+      <c r="I158" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J158" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17450,18 +17455,18 @@
       <c r="F159" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G159" s="6" t="b">
+      <c r="G159" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I159" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J159" s="6" t="b">
+      <c r="I159" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17497,18 +17502,18 @@
       <c r="F160" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G160" s="6" t="b">
+      <c r="G160" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I160" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J160" s="6" t="b">
+      <c r="I160" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J160" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17541,18 +17546,18 @@
       <c r="F161" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G161" s="6" t="b">
+      <c r="G161" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I161" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J161" s="6" t="b">
+      <c r="I161" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J161" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17579,18 +17584,18 @@
       <c r="F162" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G162" s="6" t="b">
+      <c r="G162" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I162" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J162" s="6" t="b">
+      <c r="I162" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17626,18 +17631,18 @@
       <c r="F163" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G163" s="6" t="b">
+      <c r="G163" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I163" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J163" s="6" t="b">
+      <c r="I163" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17664,18 +17669,18 @@
       <c r="F164" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G164" s="6" t="b">
+      <c r="G164" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I164" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J164" s="6" t="b">
+      <c r="I164" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17711,18 +17716,18 @@
       <c r="F165" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G165" s="6" t="b">
+      <c r="G165" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I165" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J165" s="6" t="b">
+      <c r="I165" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17749,18 +17754,18 @@
       <c r="F166" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G166" s="6" t="b">
+      <c r="G166" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I166" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J166" s="6" t="b">
+      <c r="I166" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17796,18 +17801,18 @@
       <c r="F167" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G167" s="6" t="b">
+      <c r="G167" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I167" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J167" s="6" t="b">
+      <c r="I167" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J167" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17840,18 +17845,18 @@
       <c r="F168" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G168" s="6" t="b">
+      <c r="G168" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I168" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J168" s="6" t="b">
+      <c r="I168" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J168" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17878,18 +17883,18 @@
       <c r="F169" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G169" s="6" t="b">
+      <c r="G169" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I169" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J169" s="6" t="b">
+      <c r="I169" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J169" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17931,18 +17936,18 @@
       <c r="F170" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G170" s="6" t="b">
+      <c r="G170" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I170" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J170" s="6" t="b">
+      <c r="I170" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17981,18 +17986,18 @@
       <c r="F171" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G171" s="6" t="b">
+      <c r="G171" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I171" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J171" s="6" t="b">
+      <c r="I171" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18019,18 +18024,18 @@
       <c r="F172" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G172" s="6" t="b">
+      <c r="G172" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I172" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J172" s="6" t="b">
+      <c r="I172" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J172" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18072,18 +18077,18 @@
       <c r="F173" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G173" s="6" t="b">
+      <c r="G173" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I173" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J173" s="6" t="b">
+      <c r="I173" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18116,18 +18121,18 @@
       <c r="F174" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G174" s="6" t="b">
+      <c r="G174" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I174" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J174" s="6" t="b">
+      <c r="I174" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26180,7 +26185,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="P156:Q156 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26590,7 +26595,7 @@
   <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D271" activeCellId="0" sqref="D271"/>
+      <selection pane="topLeft" activeCell="D271" activeCellId="1" sqref="P156:Q156 D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30319,7 +30324,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="1" sqref="P156:Q156 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30696,10 +30701,10 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C624" activeCellId="0" sqref="C624"/>
+      <selection pane="bottomLeft" activeCell="C624" activeCellId="1" sqref="P156:Q156 C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">character!$A$1:$R$367</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">v3_translate!$A$1:$E$625</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">v3_translate!$A$1:$E$629</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -6012,6 +6012,33 @@
     <t xml:space="preserve">2024-03-21 00:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">book.char362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叡聖騎士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Sentinel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book.char364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叛逆者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book.char366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">太乙真人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiyi Zhenren</t>
+  </si>
+  <si>
     <t xml:space="preserve">book.char37</t>
   </si>
   <si>
@@ -6732,6 +6759,12 @@
     <t xml:space="preserve">Kuchinawa</t>
   </si>
   <si>
+    <t xml:space="preserve">c101000381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xianhua</t>
+  </si>
+  <si>
     <t xml:space="preserve">c101010011</t>
   </si>
   <si>
@@ -9949,53 +9982,19 @@
   </si>
   <si>
     <t xml:space="preserve">Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c101000381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xianhua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book.char362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叡聖騎士</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Sentinel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book.char364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叛逆者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book.char366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">太乙真人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiyi Zhenren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -10155,108 +10154,108 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -26692,15 +26691,15 @@
       <c r="D2" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="E2" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="b">
+      <c r="E2" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26719,15 +26718,15 @@
       <c r="D3" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="E3" s="7" t="b">
+      <c r="E3" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="b">
+      <c r="F3" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26744,15 +26743,15 @@
         <v>2000000003</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="7" t="b">
+      <c r="E4" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="b">
+      <c r="F4" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26774,15 +26773,15 @@
         <v>2000000004</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7" t="b">
+      <c r="E5" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="b">
+      <c r="F5" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26804,15 +26803,15 @@
         <v>2000000005</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="7" t="b">
+      <c r="E6" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="b">
+      <c r="F6" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26836,15 +26835,15 @@
       <c r="D7" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="E7" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="b">
+      <c r="E7" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26862,15 +26861,15 @@
         <v>2000000007</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="7" t="b">
+      <c r="E8" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="b">
+      <c r="F8" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26894,15 +26893,15 @@
       <c r="D9" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="E9" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="b">
+      <c r="E9" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26922,15 +26921,15 @@
       <c r="D10" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="E10" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="b">
+      <c r="E10" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26947,15 +26946,15 @@
       <c r="C11" s="1" t="n">
         <v>2000000010</v>
       </c>
-      <c r="E11" s="7" t="b">
+      <c r="E11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="b">
+      <c r="F11" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26979,15 +26978,15 @@
       <c r="D12" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="E12" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="b">
+      <c r="E12" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27005,15 +27004,15 @@
       <c r="D13" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="E13" s="7" t="b">
+      <c r="E13" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="b">
+      <c r="F13" s="3" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31212,7 +31211,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C629" activeCellId="0" sqref="C629"/>
+      <selection pane="bottomLeft" activeCell="B632" activeCellId="0" sqref="B632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34369,54 +34368,54 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="25" t="s">
         <v>1994</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C186" s="4" t="s">
+      <c r="B186" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="C186" s="25" t="s">
         <v>1995</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="25" t="s">
         <v>1996</v>
       </c>
-      <c r="E186" s="24" t="s">
-        <v>1459</v>
+      <c r="E186" s="19" t="n">
+        <v>45394</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="25" t="s">
         <v>1997</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C187" s="4" t="s">
+      <c r="B187" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="C187" s="25" t="s">
         <v>1998</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="25" t="s">
         <v>1999</v>
       </c>
-      <c r="E187" s="23" t="s">
-        <v>1431</v>
+      <c r="E187" s="19" t="n">
+        <v>45394</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="25" t="s">
         <v>2000</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C188" s="4" t="s">
+      <c r="B188" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="C188" s="25" t="s">
         <v>2001</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="25" t="s">
         <v>2002</v>
       </c>
-      <c r="E188" s="23" t="s">
-        <v>1431</v>
+      <c r="E188" s="19" t="n">
+        <v>45394</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34424,7 +34423,7 @@
         <v>2003</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>2004</v>
@@ -34432,8 +34431,8 @@
       <c r="D189" s="4" t="s">
         <v>2005</v>
       </c>
-      <c r="E189" s="23" t="s">
-        <v>1431</v>
+      <c r="E189" s="24" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34441,7 +34440,7 @@
         <v>2006</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>2007</v>
@@ -34458,7 +34457,7 @@
         <v>2009</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>2010</v>
@@ -34466,8 +34465,8 @@
       <c r="D191" s="4" t="s">
         <v>2011</v>
       </c>
-      <c r="E191" s="24" t="s">
-        <v>1459</v>
+      <c r="E191" s="23" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34475,7 +34474,7 @@
         <v>2012</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>2013</v>
@@ -34492,7 +34491,7 @@
         <v>2015</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>2016</v>
@@ -34509,7 +34508,7 @@
         <v>2018</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>2019</v>
@@ -34517,8 +34516,8 @@
       <c r="D194" s="4" t="s">
         <v>2020</v>
       </c>
-      <c r="E194" s="23" t="s">
-        <v>1431</v>
+      <c r="E194" s="24" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34526,7 +34525,7 @@
         <v>2021</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>2022</v>
@@ -34534,8 +34533,8 @@
       <c r="D195" s="4" t="s">
         <v>2023</v>
       </c>
-      <c r="E195" s="24" t="s">
-        <v>1459</v>
+      <c r="E195" s="23" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34543,7 +34542,7 @@
         <v>2024</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>2025</v>
@@ -34560,7 +34559,7 @@
         <v>2027</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>2028</v>
@@ -34577,7 +34576,7 @@
         <v>2030</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>2031</v>
@@ -34585,8 +34584,8 @@
       <c r="D198" s="4" t="s">
         <v>2032</v>
       </c>
-      <c r="E198" s="23" t="s">
-        <v>1431</v>
+      <c r="E198" s="24" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34594,7 +34593,7 @@
         <v>2033</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>2034</v>
@@ -34611,7 +34610,7 @@
         <v>2036</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>2037</v>
@@ -34628,7 +34627,7 @@
         <v>2039</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>2040</v>
@@ -34645,7 +34644,7 @@
         <v>2042</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>2043</v>
@@ -34662,7 +34661,7 @@
         <v>2045</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>2046</v>
@@ -34670,8 +34669,8 @@
       <c r="D203" s="4" t="s">
         <v>2047</v>
       </c>
-      <c r="E203" s="24" t="s">
-        <v>1459</v>
+      <c r="E203" s="23" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34679,7 +34678,7 @@
         <v>2048</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>2049</v>
@@ -34696,7 +34695,7 @@
         <v>2051</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>2052</v>
@@ -34713,7 +34712,7 @@
         <v>2054</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>2055</v>
@@ -34721,8 +34720,8 @@
       <c r="D206" s="4" t="s">
         <v>2056</v>
       </c>
-      <c r="E206" s="23" t="s">
-        <v>1431</v>
+      <c r="E206" s="24" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34730,7 +34729,7 @@
         <v>2057</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>2058</v>
@@ -34747,7 +34746,7 @@
         <v>2060</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>2061</v>
@@ -34764,7 +34763,7 @@
         <v>2063</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>2064</v>
@@ -34781,7 +34780,7 @@
         <v>2066</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>2067</v>
@@ -34798,7 +34797,7 @@
         <v>2069</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>2070</v>
@@ -34815,7 +34814,7 @@
         <v>2072</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>2073</v>
@@ -34832,7 +34831,7 @@
         <v>2075</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>2076</v>
@@ -34849,7 +34848,7 @@
         <v>2078</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>2079</v>
@@ -34866,7 +34865,7 @@
         <v>2081</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>2082</v>
@@ -34883,7 +34882,7 @@
         <v>2084</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>2085</v>
@@ -34900,7 +34899,7 @@
         <v>2087</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>2088</v>
@@ -34917,7 +34916,7 @@
         <v>2090</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>2091</v>
@@ -34934,7 +34933,7 @@
         <v>2093</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>2094</v>
@@ -34951,7 +34950,7 @@
         <v>2096</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2097</v>
@@ -34968,7 +34967,7 @@
         <v>2099</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2100</v>
@@ -34985,7 +34984,7 @@
         <v>2102</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>2103</v>
@@ -35002,7 +35001,7 @@
         <v>2105</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2106</v>
@@ -35019,7 +35018,7 @@
         <v>2108</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2109</v>
@@ -35036,7 +35035,7 @@
         <v>2111</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2112</v>
@@ -35053,7 +35052,7 @@
         <v>2114</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2115</v>
@@ -35070,7 +35069,7 @@
         <v>2117</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>2118</v>
@@ -35087,7 +35086,7 @@
         <v>2120</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>2121</v>
@@ -35104,7 +35103,7 @@
         <v>2123</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>713</v>
+        <v>197</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>2124</v>
@@ -35121,7 +35120,7 @@
         <v>2126</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>714</v>
+        <v>200</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2127</v>
@@ -35130,21 +35129,21 @@
         <v>2128</v>
       </c>
       <c r="E230" s="23" t="s">
-        <v>2129</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>2130</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="C231" s="4" t="s">
+      <c r="D231" s="4" t="s">
         <v>2131</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>2132</v>
       </c>
       <c r="E231" s="23" t="s">
         <v>1431</v>
@@ -35152,16 +35151,16 @@
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>2133</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C232" s="4" t="s">
+      <c r="D232" s="4" t="s">
         <v>2134</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>2135</v>
       </c>
       <c r="E232" s="23" t="s">
         <v>1431</v>
@@ -35169,19 +35168,19 @@
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>2136</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="C233" s="4" t="s">
+      <c r="D233" s="4" t="s">
         <v>2137</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="E233" s="23" t="s">
         <v>2138</v>
-      </c>
-      <c r="E233" s="23" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35189,7 +35188,7 @@
         <v>2139</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>2140</v>
@@ -35206,7 +35205,7 @@
         <v>2142</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>2143</v>
@@ -35215,7 +35214,7 @@
         <v>2144</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>2129</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35223,7 +35222,7 @@
         <v>2145</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>2146</v>
@@ -35232,7 +35231,7 @@
         <v>2147</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>1431</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35240,7 +35239,7 @@
         <v>2148</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>2149</v>
@@ -35257,7 +35256,7 @@
         <v>2151</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2152</v>
@@ -35266,7 +35265,7 @@
         <v>2153</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>1933</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35274,7 +35273,7 @@
         <v>2154</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>2155</v>
@@ -35283,7 +35282,7 @@
         <v>2156</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>1966</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35291,7 +35290,7 @@
         <v>2157</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>2158</v>
@@ -35300,7 +35299,7 @@
         <v>2159</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>1974</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35308,64 +35307,64 @@
         <v>2160</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>18</v>
+        <v>730</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1186</v>
+        <v>2161</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>1431</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>2163</v>
+        <v>733</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1313</v>
+        <v>2164</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>1431</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>30</v>
+        <v>734</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1255</v>
+        <v>2167</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="E243" s="23" t="s">
-        <v>1431</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1254</v>
+        <v>1186</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="E244" s="23" t="s">
         <v>1431</v>
@@ -35373,16 +35372,16 @@
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>44</v>
+        <v>2172</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>1253</v>
+        <v>1313</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="E245" s="23" t="s">
         <v>1431</v>
@@ -35390,16 +35389,16 @@
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1092</v>
+        <v>1255</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="E246" s="23" t="s">
         <v>1431</v>
@@ -35407,16 +35406,16 @@
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>2174</v>
+        <v>37</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="E247" s="23" t="s">
         <v>1431</v>
@@ -35424,16 +35423,16 @@
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1239</v>
+        <v>1253</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="E248" s="23" t="s">
         <v>1431</v>
@@ -35441,16 +35440,16 @@
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>477</v>
+        <v>57</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1315</v>
+        <v>1092</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="E249" s="23" t="s">
         <v>1431</v>
@@ -35458,16 +35457,16 @@
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>66</v>
+        <v>2183</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>884</v>
+        <v>1269</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="E250" s="23" t="s">
         <v>1431</v>
@@ -35475,16 +35474,16 @@
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="E251" s="23" t="s">
         <v>1431</v>
@@ -35492,16 +35491,16 @@
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>975</v>
+        <v>1315</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="E252" s="23" t="s">
         <v>1431</v>
@@ -35509,16 +35508,16 @@
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>2187</v>
+        <v>66</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1262</v>
+        <v>884</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="E253" s="23" t="s">
         <v>1431</v>
@@ -35526,16 +35525,16 @@
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>630</v>
+        <v>68</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1298</v>
+        <v>1241</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="E254" s="23" t="s">
         <v>1431</v>
@@ -35543,16 +35542,16 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1177</v>
+        <v>975</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="E255" s="23" t="s">
         <v>1431</v>
@@ -35560,16 +35559,16 @@
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>80</v>
+        <v>2196</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1282</v>
+        <v>1262</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="E256" s="23" t="s">
         <v>1431</v>
@@ -35577,16 +35576,16 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>82</v>
+        <v>630</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1234</v>
+        <v>1298</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="E257" s="23" t="s">
         <v>1431</v>
@@ -35594,16 +35593,16 @@
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>2198</v>
+        <v>76</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1288</v>
+        <v>1177</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="E258" s="23" t="s">
         <v>1431</v>
@@ -35611,16 +35610,16 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1225</v>
+        <v>1282</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="E259" s="23" t="s">
         <v>1431</v>
@@ -35628,16 +35627,16 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1273</v>
+        <v>1234</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="E260" s="23" t="s">
         <v>1431</v>
@@ -35645,16 +35644,16 @@
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>91</v>
+        <v>2207</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1152</v>
+        <v>1288</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="E261" s="23" t="s">
         <v>1431</v>
@@ -35662,16 +35661,16 @@
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1129</v>
+        <v>1225</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="E262" s="23" t="s">
         <v>1431</v>
@@ -35679,16 +35678,16 @@
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1024</v>
+        <v>1273</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="E263" s="23" t="s">
         <v>1431</v>
@@ -35696,16 +35695,16 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>903</v>
+        <v>1152</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="E264" s="23" t="s">
         <v>1431</v>
@@ -35713,16 +35712,16 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>886</v>
+        <v>1129</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="E265" s="23" t="s">
         <v>1431</v>
@@ -35730,16 +35729,16 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>892</v>
+        <v>1024</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="E266" s="23" t="s">
         <v>1431</v>
@@ -35747,16 +35746,16 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>466</v>
+        <v>107</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="E267" s="23" t="s">
         <v>1431</v>
@@ -35764,16 +35763,16 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>840</v>
+        <v>886</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="E268" s="23" t="s">
         <v>1431</v>
@@ -35781,16 +35780,16 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>556</v>
+        <v>114</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="E269" s="23" t="s">
         <v>1431</v>
@@ -35798,16 +35797,16 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>784</v>
+        <v>862</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="E270" s="23" t="s">
         <v>1431</v>
@@ -35815,16 +35814,16 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>615</v>
+        <v>485</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1318</v>
+        <v>840</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="E271" s="23" t="s">
         <v>1431</v>
@@ -35832,16 +35831,16 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>2227</v>
+        <v>787</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="E272" s="23" t="s">
         <v>1431</v>
@@ -35849,16 +35848,16 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>2230</v>
+        <v>784</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E273" s="23" t="s">
         <v>1431</v>
@@ -35866,33 +35865,33 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>690</v>
+        <v>615</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1363</v>
+        <v>1318</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E274" s="24" t="s">
-        <v>1993</v>
+        <v>2234</v>
+      </c>
+      <c r="E274" s="23" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>116</v>
+        <v>607</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1248</v>
+        <v>2236</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="E275" s="23" t="s">
         <v>1431</v>
@@ -35900,16 +35899,16 @@
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>2237</v>
+        <v>623</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>1296</v>
+        <v>2239</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="E276" s="23" t="s">
         <v>1431</v>
@@ -35917,50 +35916,50 @@
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>124</v>
+        <v>690</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1310</v>
+        <v>1363</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="E277" s="23" t="s">
-        <v>1431</v>
+        <v>2242</v>
+      </c>
+      <c r="E277" s="24" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="4" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D278" s="4" t="s">
-        <v>2242</v>
-      </c>
-      <c r="E278" s="23" t="s">
-        <v>1431</v>
+      <c r="A278" s="25" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D278" s="25" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E278" s="19" t="n">
+        <v>45394</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1073</v>
+        <v>1248</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="E279" s="23" t="s">
         <v>1431</v>
@@ -35968,16 +35967,16 @@
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="E280" s="23" t="s">
         <v>1431</v>
@@ -35985,16 +35984,16 @@
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1227</v>
+        <v>1310</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="E281" s="23" t="s">
         <v>1431</v>
@@ -36002,16 +36001,16 @@
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1201</v>
+        <v>1214</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="E282" s="23" t="s">
         <v>1431</v>
@@ -36019,16 +36018,16 @@
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="E283" s="23" t="s">
         <v>1431</v>
@@ -36036,16 +36035,16 @@
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>153</v>
+        <v>2257</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1078</v>
+        <v>1300</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="E284" s="23" t="s">
         <v>1431</v>
@@ -36053,16 +36052,16 @@
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1050</v>
+        <v>1227</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="E285" s="23" t="s">
         <v>1431</v>
@@ -36070,16 +36069,16 @@
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>511</v>
+        <v>143</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>822</v>
+        <v>1201</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="E286" s="23" t="s">
         <v>1431</v>
@@ -36087,16 +36086,16 @@
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>525</v>
+        <v>148</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>2261</v>
+        <v>1063</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="E287" s="23" t="s">
         <v>1431</v>
@@ -36104,16 +36103,16 @@
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>568</v>
+        <v>153</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>2264</v>
+        <v>1078</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="E288" s="23" t="s">
         <v>1431</v>
@@ -36121,16 +36120,16 @@
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>596</v>
+        <v>156</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>755</v>
+        <v>1050</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="E289" s="23" t="s">
         <v>1431</v>
@@ -36138,33 +36137,33 @@
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>670</v>
+        <v>511</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1353</v>
+        <v>822</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>1974</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>162</v>
+        <v>525</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1247</v>
+        <v>2272</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="E291" s="23" t="s">
         <v>1431</v>
@@ -36172,16 +36171,16 @@
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>166</v>
+        <v>568</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1285</v>
+        <v>2275</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="E292" s="23" t="s">
         <v>1431</v>
@@ -36189,16 +36188,16 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>168</v>
+        <v>596</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1250</v>
+        <v>755</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="E293" s="23" t="s">
         <v>1431</v>
@@ -36206,33 +36205,33 @@
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>173</v>
+        <v>670</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1264</v>
+        <v>1353</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="E294" s="23" t="s">
-        <v>1431</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="E295" s="23" t="s">
         <v>1431</v>
@@ -36240,16 +36239,16 @@
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1243</v>
+        <v>1285</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="E296" s="23" t="s">
         <v>1431</v>
@@ -36257,16 +36256,16 @@
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1207</v>
+        <v>1250</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="E297" s="23" t="s">
         <v>1431</v>
@@ -36274,16 +36273,16 @@
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1191</v>
+        <v>1264</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="E298" s="23" t="s">
         <v>1431</v>
@@ -36291,16 +36290,16 @@
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1157</v>
+        <v>1257</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="E299" s="23" t="s">
         <v>1431</v>
@@ -36308,16 +36307,16 @@
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1045</v>
+        <v>1243</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="E300" s="23" t="s">
         <v>1431</v>
@@ -36325,16 +36324,16 @@
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1036</v>
+        <v>1207</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="E301" s="23" t="s">
         <v>1431</v>
@@ -36342,16 +36341,16 @@
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>977</v>
+        <v>1191</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="E302" s="23" t="s">
         <v>1431</v>
@@ -36359,16 +36358,16 @@
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>919</v>
+        <v>1157</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="E303" s="23" t="s">
         <v>1431</v>
@@ -36376,16 +36375,16 @@
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>900</v>
+        <v>1045</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="E304" s="23" t="s">
         <v>1431</v>
@@ -36393,16 +36392,16 @@
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>576</v>
+        <v>210</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>769</v>
+        <v>1036</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="E305" s="23" t="s">
         <v>1431</v>
@@ -36410,50 +36409,50 @@
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>639</v>
+        <v>214</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1333</v>
+        <v>977</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="E306" s="23" t="s">
-        <v>1943</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>667</v>
+        <v>187</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>2303</v>
+        <v>919</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="E307" s="23" t="s">
-        <v>1970</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>2306</v>
+        <v>216</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="E308" s="23" t="s">
         <v>1431</v>
@@ -36461,16 +36460,16 @@
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="E309" s="23" t="s">
         <v>1431</v>
@@ -36478,19 +36477,19 @@
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>2311</v>
+        <v>639</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>2312</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>1431</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36498,16 +36497,16 @@
         <v>2313</v>
       </c>
       <c r="B311" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>2314</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>1302</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>2315</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>1431</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36518,7 +36517,7 @@
         <v>2317</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>2318</v>
@@ -36532,13 +36531,13 @@
         <v>2319</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="D313" s="4" t="s">
         <v>2320</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>2321</v>
       </c>
       <c r="E313" s="23" t="s">
         <v>1431</v>
@@ -36546,13 +36545,13 @@
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>2322</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="C314" s="4" t="s">
-        <v>1237</v>
+        <v>1283</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>2323</v>
@@ -36569,7 +36568,7 @@
         <v>2325</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1277</v>
+        <v>1302</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>2326</v>
@@ -36583,13 +36582,13 @@
         <v>2327</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>227</v>
+        <v>2328</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1196</v>
+        <v>1267</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E316" s="23" t="s">
         <v>1431</v>
@@ -36597,16 +36596,16 @@
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>232</v>
+        <v>2331</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1176</v>
+        <v>1304</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="E317" s="23" t="s">
         <v>1431</v>
@@ -36614,16 +36613,16 @@
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1145</v>
+        <v>1237</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="E318" s="23" t="s">
         <v>1431</v>
@@ -36631,16 +36630,16 @@
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>241</v>
+        <v>2336</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1116</v>
+        <v>1277</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="E319" s="23" t="s">
         <v>1431</v>
@@ -36648,16 +36647,16 @@
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1068</v>
+        <v>1196</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="E320" s="23" t="s">
         <v>1431</v>
@@ -36665,16 +36664,16 @@
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>454</v>
+        <v>232</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1056</v>
+        <v>1176</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="E321" s="23" t="s">
         <v>1431</v>
@@ -36682,16 +36681,16 @@
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>962</v>
+        <v>1145</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="E322" s="23" t="s">
         <v>1431</v>
@@ -36699,16 +36698,16 @@
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>913</v>
+        <v>1116</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="E323" s="23" t="s">
         <v>1431</v>
@@ -36716,16 +36715,16 @@
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>869</v>
+        <v>1068</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="E324" s="23" t="s">
         <v>1431</v>
@@ -36733,16 +36732,16 @@
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>585</v>
+        <v>454</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>2346</v>
+        <v>1056</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="E325" s="23" t="s">
         <v>1431</v>
@@ -36750,33 +36749,33 @@
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>680</v>
+        <v>249</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1356</v>
+        <v>962</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="E326" s="23" t="s">
-        <v>1981</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>2351</v>
+        <v>267</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1271</v>
+        <v>913</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="E327" s="23" t="s">
         <v>1431</v>
@@ -36784,16 +36783,16 @@
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1279</v>
+        <v>869</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="E328" s="23" t="s">
         <v>1431</v>
@@ -36801,16 +36800,16 @@
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>258</v>
+        <v>585</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1252</v>
+        <v>2357</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="E329" s="23" t="s">
         <v>1431</v>
@@ -36818,33 +36817,33 @@
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>2358</v>
+        <v>680</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1292</v>
+        <v>1356</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E330" s="23" t="s">
-        <v>1431</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>269</v>
+        <v>2362</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1295</v>
+        <v>1271</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="E331" s="23" t="s">
         <v>1431</v>
@@ -36852,16 +36851,16 @@
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>271</v>
+        <v>490</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1047</v>
+        <v>1279</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="E332" s="23" t="s">
         <v>1431</v>
@@ -36869,16 +36868,16 @@
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="E333" s="23" t="s">
         <v>1431</v>
@@ -36886,16 +36885,16 @@
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>275</v>
+        <v>2369</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1229</v>
+        <v>1292</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="E334" s="23" t="s">
         <v>1431</v>
@@ -36903,16 +36902,16 @@
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1217</v>
+        <v>1295</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="E335" s="23" t="s">
         <v>1431</v>
@@ -36920,16 +36919,16 @@
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1134</v>
+        <v>1047</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="E336" s="23" t="s">
         <v>1431</v>
@@ -36937,16 +36936,16 @@
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1090</v>
+        <v>1276</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="E337" s="23" t="s">
         <v>1431</v>
@@ -36954,16 +36953,16 @@
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1016</v>
+        <v>1229</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="E338" s="23" t="s">
         <v>1431</v>
@@ -36971,16 +36970,16 @@
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1000</v>
+        <v>1217</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="E339" s="23" t="s">
         <v>1431</v>
@@ -36988,16 +36987,16 @@
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>957</v>
+        <v>1134</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="E340" s="23" t="s">
         <v>1431</v>
@@ -37005,16 +37004,16 @@
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>897</v>
+        <v>1090</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="E341" s="23" t="s">
         <v>1431</v>
@@ -37022,16 +37021,16 @@
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>507</v>
+        <v>292</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>2383</v>
+        <v>1016</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="E342" s="23" t="s">
         <v>1431</v>
@@ -37039,16 +37038,16 @@
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>551</v>
+        <v>297</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>2386</v>
+        <v>1000</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E343" s="23" t="s">
         <v>1431</v>
@@ -37056,33 +37055,33 @@
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>675</v>
+        <v>301</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1328</v>
+        <v>957</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="E344" s="23" t="s">
-        <v>1925</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1199</v>
+        <v>897</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="E345" s="23" t="s">
         <v>1431</v>
@@ -37090,16 +37089,16 @@
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>611</v>
+        <v>507</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1294</v>
+        <v>2394</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="E346" s="23" t="s">
         <v>1431</v>
@@ -37107,16 +37106,16 @@
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>2395</v>
+        <v>551</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1280</v>
+        <v>2397</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="E347" s="23" t="s">
         <v>1431</v>
@@ -37124,33 +37123,33 @@
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>2398</v>
+        <v>675</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="E348" s="23" t="s">
-        <v>1431</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1245</v>
+        <v>1199</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="E349" s="23" t="s">
         <v>1431</v>
@@ -37158,13 +37157,13 @@
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>2403</v>
+        <v>611</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>2404</v>
@@ -37178,13 +37177,13 @@
         <v>2405</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>314</v>
+        <v>2406</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1209</v>
+        <v>1280</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="E351" s="23" t="s">
         <v>1431</v>
@@ -37192,16 +37191,16 @@
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>320</v>
+        <v>2409</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1168</v>
+        <v>1316</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="E352" s="23" t="s">
         <v>1431</v>
@@ -37209,16 +37208,16 @@
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1138</v>
+        <v>1245</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="E353" s="23" t="s">
         <v>1431</v>
@@ -37226,16 +37225,16 @@
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>327</v>
+        <v>2414</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1106</v>
+        <v>1306</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="E354" s="23" t="s">
         <v>1431</v>
@@ -37243,16 +37242,16 @@
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1043</v>
+        <v>1209</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="E355" s="23" t="s">
         <v>1431</v>
@@ -37260,16 +37259,16 @@
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1038</v>
+        <v>1168</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="E356" s="23" t="s">
         <v>1431</v>
@@ -37277,16 +37276,16 @@
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>942</v>
+        <v>1138</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="E357" s="23" t="s">
         <v>1431</v>
@@ -37294,16 +37293,16 @@
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>894</v>
+        <v>1106</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="E358" s="23" t="s">
         <v>1431</v>
@@ -37311,16 +37310,16 @@
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>502</v>
+        <v>333</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>824</v>
+        <v>1043</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="E359" s="23" t="s">
         <v>1431</v>
@@ -37328,16 +37327,16 @@
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>471</v>
+        <v>337</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>853</v>
+        <v>1038</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="E360" s="23" t="s">
         <v>1431</v>
@@ -37345,50 +37344,50 @@
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>634</v>
+        <v>341</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1331</v>
+        <v>942</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="E361" s="23" t="s">
-        <v>1925</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>659</v>
+        <v>331</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1336</v>
+        <v>894</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1954</v>
+        <v>2431</v>
       </c>
       <c r="E362" s="23" t="s">
-        <v>1955</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>2429</v>
+        <v>502</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1308</v>
+        <v>824</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="E363" s="23" t="s">
         <v>1431</v>
@@ -37396,16 +37395,16 @@
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>346</v>
+        <v>471</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1256</v>
+        <v>853</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="E364" s="23" t="s">
         <v>1431</v>
@@ -37413,36 +37412,36 @@
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>2434</v>
+        <v>634</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1311</v>
+        <v>1331</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="E365" s="23" t="s">
-        <v>1431</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>2437</v>
+        <v>659</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1258</v>
+        <v>1336</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>2438</v>
+        <v>1954</v>
       </c>
       <c r="E366" s="23" t="s">
-        <v>1431</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37453,7 +37452,7 @@
         <v>2440</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1286</v>
+        <v>1308</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>2441</v>
@@ -37467,10 +37466,10 @@
         <v>2442</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1231</v>
+        <v>1256</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>2443</v>
@@ -37484,13 +37483,13 @@
         <v>2444</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>355</v>
+        <v>2445</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1216</v>
+        <v>1311</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="E369" s="23" t="s">
         <v>1431</v>
@@ -37498,16 +37497,16 @@
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>362</v>
+        <v>2448</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1179</v>
+        <v>1258</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="E370" s="23" t="s">
         <v>1431</v>
@@ -37515,16 +37514,16 @@
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>369</v>
+        <v>2451</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1159</v>
+        <v>1286</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="E371" s="23" t="s">
         <v>1431</v>
@@ -37532,16 +37531,16 @@
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>1143</v>
+        <v>1231</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="E372" s="23" t="s">
         <v>1431</v>
@@ -37549,16 +37548,16 @@
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>1059</v>
+        <v>1216</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="E373" s="23" t="s">
         <v>1431</v>
@@ -37566,16 +37565,16 @@
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>916</v>
+        <v>1179</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="E374" s="23" t="s">
         <v>1431</v>
@@ -37583,16 +37582,16 @@
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>845</v>
+        <v>1159</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="E375" s="23" t="s">
         <v>1431</v>
@@ -37600,16 +37599,16 @@
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>516</v>
+        <v>373</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>819</v>
+        <v>1143</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="E376" s="23" t="s">
         <v>1431</v>
@@ -37617,16 +37616,16 @@
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>968</v>
+        <v>1059</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="E377" s="23" t="s">
         <v>1431</v>
@@ -37634,16 +37633,16 @@
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>2463</v>
+        <v>367</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1274</v>
+        <v>916</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="E378" s="23" t="s">
         <v>1431</v>
@@ -37651,16 +37650,16 @@
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>952</v>
+        <v>845</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="E379" s="23" t="s">
         <v>1431</v>
@@ -37668,16 +37667,16 @@
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>384</v>
+        <v>516</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1236</v>
+        <v>819</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="E380" s="23" t="s">
         <v>1431</v>
@@ -37685,16 +37684,16 @@
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1232</v>
+        <v>968</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="E381" s="23" t="s">
         <v>1431</v>
@@ -37702,16 +37701,16 @@
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="E382" s="23" t="s">
         <v>1431</v>
@@ -37719,16 +37718,16 @@
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1164</v>
+        <v>952</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="E383" s="23" t="s">
         <v>1431</v>
@@ -37736,16 +37735,16 @@
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1101</v>
+        <v>1236</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="E384" s="23" t="s">
         <v>1431</v>
@@ -37753,16 +37752,16 @@
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1028</v>
+        <v>1232</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="E385" s="23" t="s">
         <v>1431</v>
@@ -37770,16 +37769,16 @@
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>409</v>
+        <v>2483</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>925</v>
+        <v>1290</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="E386" s="23" t="s">
         <v>1431</v>
@@ -37787,16 +37786,16 @@
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>872</v>
+        <v>1164</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="E387" s="23" t="s">
         <v>1431</v>
@@ -37804,16 +37803,16 @@
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>618</v>
+        <v>400</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>738</v>
+        <v>1101</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="E388" s="23" t="s">
         <v>1431</v>
@@ -37821,16 +37820,16 @@
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1113</v>
+        <v>1028</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="E389" s="23" t="s">
         <v>1431</v>
@@ -37838,16 +37837,16 @@
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1076</v>
+        <v>925</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="E390" s="23" t="s">
         <v>1431</v>
@@ -37855,16 +37854,16 @@
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1012</v>
+        <v>872</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="E391" s="23" t="s">
         <v>1431</v>
@@ -37872,16 +37871,16 @@
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>421</v>
+        <v>618</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1009</v>
+        <v>738</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="E392" s="23" t="s">
         <v>1431</v>
@@ -37889,16 +37888,16 @@
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="E393" s="23" t="s">
         <v>1431</v>
@@ -37906,16 +37905,16 @@
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="E394" s="23" t="s">
         <v>1431</v>
@@ -37923,16 +37922,16 @@
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="E395" s="23" t="s">
         <v>1431</v>
@@ -37940,16 +37939,16 @@
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="E396" s="23" t="s">
         <v>1431</v>
@@ -37957,16 +37956,16 @@
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>996</v>
+        <v>1080</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="E397" s="23" t="s">
         <v>1431</v>
@@ -37974,16 +37973,16 @@
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>992</v>
+        <v>1085</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="E398" s="23" t="s">
         <v>1431</v>
@@ -37991,16 +37990,16 @@
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>907</v>
+        <v>989</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="E399" s="23" t="s">
         <v>1431</v>
@@ -38008,16 +38007,16 @@
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>904</v>
+        <v>998</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="E400" s="23" t="s">
         <v>1431</v>
@@ -38025,16 +38024,16 @@
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>909</v>
+        <v>996</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="E401" s="23" t="s">
         <v>1431</v>
@@ -38042,16 +38041,16 @@
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>864</v>
+        <v>992</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="E402" s="23" t="s">
         <v>1431</v>
@@ -38059,16 +38058,16 @@
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>808</v>
+        <v>907</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="E403" s="23" t="s">
         <v>1431</v>
@@ -38076,16 +38075,16 @@
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>534</v>
+        <v>437</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>804</v>
+        <v>904</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="E404" s="23" t="s">
         <v>1431</v>
@@ -38093,16 +38092,16 @@
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>799</v>
+        <v>909</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="E405" s="23" t="s">
         <v>1431</v>
@@ -38110,16 +38109,16 @@
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>806</v>
+        <v>864</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="E406" s="23" t="s">
         <v>1431</v>
@@ -38127,67 +38126,67 @@
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>644</v>
+        <v>529</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>1341</v>
+        <v>808</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="E407" s="23" t="s">
-        <v>1955</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>649</v>
+        <v>534</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>1339</v>
+        <v>804</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="E408" s="23" t="s">
-        <v>1955</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>654</v>
+        <v>539</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>1343</v>
+        <v>799</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="E409" s="23" t="s">
-        <v>1955</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>1184</v>
+        <v>806</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="E410" s="23" t="s">
         <v>1431</v>
@@ -38195,67 +38194,67 @@
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>443</v>
+        <v>644</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>1166</v>
+        <v>1341</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="E411" s="23" t="s">
-        <v>1431</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>1265</v>
+        <v>1339</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="E412" s="23" t="s">
-        <v>1431</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>445</v>
+        <v>654</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>1108</v>
+        <v>1343</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="E413" s="23" t="s">
-        <v>1431</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>963</v>
+        <v>1184</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="E414" s="23" t="s">
         <v>1431</v>
@@ -38263,16 +38262,16 @@
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>1219</v>
+        <v>1166</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="E415" s="23" t="s">
         <v>1431</v>
@@ -38280,16 +38279,16 @@
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>452</v>
+        <v>698</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>1170</v>
+        <v>1265</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="E416" s="23" t="s">
         <v>1431</v>
@@ -38297,16 +38296,16 @@
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>1188</v>
+        <v>1108</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="E417" s="23" t="s">
         <v>1431</v>
@@ -38314,16 +38313,16 @@
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>1147</v>
+        <v>963</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="E418" s="23" t="s">
         <v>1431</v>
@@ -38331,16 +38330,16 @@
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>2547</v>
+        <v>1219</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="E419" s="23" t="s">
         <v>1431</v>
@@ -38348,16 +38347,16 @@
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>2550</v>
+        <v>1170</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="E420" s="23" t="s">
         <v>1431</v>
@@ -38365,13 +38364,13 @@
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>64</v>
+        <v>456</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>2553</v>
+        <v>1188</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>2554</v>
@@ -38385,13 +38384,13 @@
         <v>2555</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
       <c r="C422" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D422" s="4" t="s">
         <v>2556</v>
-      </c>
-      <c r="D422" s="4" t="s">
-        <v>2557</v>
       </c>
       <c r="E422" s="23" t="s">
         <v>1431</v>
@@ -38399,16 +38398,16 @@
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C423" s="4" t="s">
         <v>2558</v>
       </c>
-      <c r="B423" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C423" s="4" t="s">
+      <c r="D423" s="4" t="s">
         <v>2559</v>
-      </c>
-      <c r="D423" s="4" t="s">
-        <v>2560</v>
       </c>
       <c r="E423" s="23" t="s">
         <v>1431</v>
@@ -38416,16 +38415,16 @@
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C424" s="4" t="s">
         <v>2561</v>
       </c>
-      <c r="B424" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C424" s="4" t="s">
+      <c r="D424" s="4" t="s">
         <v>2562</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>2563</v>
       </c>
       <c r="E424" s="23" t="s">
         <v>1431</v>
@@ -38433,16 +38432,16 @@
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="B425" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C425" s="4" t="s">
+      <c r="D425" s="4" t="s">
         <v>2565</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>2566</v>
       </c>
       <c r="E425" s="23" t="s">
         <v>1431</v>
@@ -38450,16 +38449,16 @@
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C426" s="4" t="s">
         <v>2567</v>
       </c>
-      <c r="B426" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C426" s="4" t="s">
+      <c r="D426" s="4" t="s">
         <v>2568</v>
-      </c>
-      <c r="D426" s="4" t="s">
-        <v>2569</v>
       </c>
       <c r="E426" s="23" t="s">
         <v>1431</v>
@@ -38467,16 +38466,16 @@
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C427" s="4" t="s">
         <v>2570</v>
       </c>
-      <c r="B427" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C427" s="4" t="s">
+      <c r="D427" s="4" t="s">
         <v>2571</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>2572</v>
       </c>
       <c r="E427" s="23" t="s">
         <v>1431</v>
@@ -38484,16 +38483,16 @@
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>2573</v>
       </c>
-      <c r="B428" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C428" s="4" t="s">
+      <c r="D428" s="4" t="s">
         <v>2574</v>
-      </c>
-      <c r="D428" s="4" t="s">
-        <v>2575</v>
       </c>
       <c r="E428" s="23" t="s">
         <v>1431</v>
@@ -38501,16 +38500,16 @@
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C429" s="4" t="s">
         <v>2576</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C429" s="4" t="s">
+      <c r="D429" s="4" t="s">
         <v>2577</v>
-      </c>
-      <c r="D429" s="4" t="s">
-        <v>2578</v>
       </c>
       <c r="E429" s="23" t="s">
         <v>1431</v>
@@ -38518,152 +38517,152 @@
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C430" s="4" t="s">
         <v>2579</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C430" s="4" t="s">
+      <c r="D430" s="4" t="s">
         <v>2580</v>
       </c>
-      <c r="D430" s="4" t="s">
-        <v>2581</v>
-      </c>
       <c r="E430" s="23" t="s">
-        <v>2582</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D431" s="4" t="s">
         <v>2583</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>2584</v>
-      </c>
-      <c r="D431" s="4" t="s">
-        <v>2585</v>
-      </c>
       <c r="E431" s="23" t="s">
-        <v>2582</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D432" s="4" t="s">
         <v>2586</v>
       </c>
-      <c r="B432" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C432" s="4" t="s">
-        <v>2587</v>
-      </c>
-      <c r="D432" s="4" t="s">
-        <v>2588</v>
-      </c>
       <c r="E432" s="23" t="s">
-        <v>2582</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D433" s="4" t="s">
         <v>2589</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C433" s="4" t="s">
-        <v>2590</v>
-      </c>
-      <c r="D433" s="4" t="s">
-        <v>2591</v>
-      </c>
-      <c r="E433" s="24" t="s">
-        <v>2592</v>
+      <c r="E433" s="23" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E434" s="23" t="s">
         <v>2593</v>
-      </c>
-      <c r="B434" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C434" s="4" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D434" s="4" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E434" s="23" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D435" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D435" s="4" t="s">
-        <v>2598</v>
-      </c>
       <c r="E435" s="23" t="s">
-        <v>1431</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D436" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="B436" s="4" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>2600</v>
-      </c>
-      <c r="D436" s="4" t="s">
-        <v>2601</v>
-      </c>
       <c r="E436" s="23" t="s">
-        <v>1431</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D437" s="4" t="s">
         <v>2602</v>
       </c>
-      <c r="B437" s="4" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C437" s="4" t="s">
+      <c r="E437" s="24" t="s">
         <v>2603</v>
-      </c>
-      <c r="D437" s="4" t="s">
-        <v>2604</v>
-      </c>
-      <c r="E437" s="23" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C438" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="B438" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C438" s="4" t="s">
+      <c r="D438" s="4" t="s">
         <v>2606</v>
-      </c>
-      <c r="D438" s="4" t="s">
-        <v>2607</v>
       </c>
       <c r="E438" s="23" t="s">
         <v>1431</v>
@@ -38671,16 +38670,16 @@
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C439" s="4" t="s">
         <v>2608</v>
       </c>
-      <c r="B439" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C439" s="4" t="s">
+      <c r="D439" s="4" t="s">
         <v>2609</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>2610</v>
       </c>
       <c r="E439" s="23" t="s">
         <v>1431</v>
@@ -38688,16 +38687,16 @@
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C440" s="4" t="s">
         <v>2611</v>
       </c>
-      <c r="B440" s="4" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C440" s="4" t="s">
+      <c r="D440" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="D440" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="E440" s="23" t="s">
         <v>1431</v>
@@ -38705,16 +38704,16 @@
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C441" s="4" t="s">
         <v>2614</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C441" s="4" t="s">
+      <c r="D441" s="4" t="s">
         <v>2615</v>
-      </c>
-      <c r="D441" s="4" t="s">
-        <v>2616</v>
       </c>
       <c r="E441" s="23" t="s">
         <v>1431</v>
@@ -38722,16 +38721,16 @@
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C442" s="4" t="s">
         <v>2617</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C442" s="4" t="s">
+      <c r="D442" s="4" t="s">
         <v>2618</v>
-      </c>
-      <c r="D442" s="4" t="s">
-        <v>2619</v>
       </c>
       <c r="E442" s="23" t="s">
         <v>1431</v>
@@ -38739,16 +38738,16 @@
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>2620</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C443" s="4" t="s">
+      <c r="D443" s="4" t="s">
         <v>2621</v>
-      </c>
-      <c r="D443" s="4" t="s">
-        <v>2622</v>
       </c>
       <c r="E443" s="23" t="s">
         <v>1431</v>
@@ -38756,1047 +38755,1047 @@
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C444" s="4" t="s">
         <v>2623</v>
       </c>
-      <c r="B444" s="4" t="s">
+      <c r="D444" s="4" t="s">
         <v>2624</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D444" s="4" t="s">
-        <v>2626</v>
-      </c>
       <c r="E444" s="23" t="s">
-        <v>2627</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>2629</v>
+        <v>1414</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="E445" s="23" t="s">
-        <v>2627</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>2633</v>
+        <v>1417</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="E446" s="23" t="s">
-        <v>2627</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>2637</v>
+        <v>451</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>2638</v>
+        <v>2632</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>2639</v>
+        <v>2633</v>
       </c>
       <c r="E447" s="23" t="s">
-        <v>2627</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>2640</v>
+        <v>2634</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>2641</v>
+        <v>2635</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>2642</v>
+        <v>2636</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="E448" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>2644</v>
+        <v>2639</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>2645</v>
+        <v>2640</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>2646</v>
+        <v>2641</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>2647</v>
+        <v>2642</v>
       </c>
       <c r="E449" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
       <c r="E450" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>2654</v>
+        <v>2649</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>2655</v>
+        <v>2650</v>
       </c>
       <c r="E451" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C452" s="25" t="s">
-        <v>2658</v>
+        <v>2652</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>2653</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E452" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>2661</v>
+        <v>2656</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>2663</v>
+        <v>2658</v>
       </c>
       <c r="E453" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>2665</v>
+        <v>2660</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>2666</v>
+        <v>2661</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>2667</v>
+        <v>2662</v>
       </c>
       <c r="E454" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="s">
-        <v>2668</v>
+        <v>2663</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>2669</v>
+        <v>2664</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>2670</v>
+        <v>2665</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>2671</v>
+        <v>2666</v>
       </c>
       <c r="E455" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
-        <v>2672</v>
+        <v>2667</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>2673</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>2674</v>
+        <v>2668</v>
+      </c>
+      <c r="C456" s="26" t="s">
+        <v>2669</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>2675</v>
+        <v>2670</v>
       </c>
       <c r="E456" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>2676</v>
+        <v>2671</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>2677</v>
+        <v>2672</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>2678</v>
+        <v>2673</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>2679</v>
+        <v>2674</v>
       </c>
       <c r="E457" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
-        <v>2680</v>
+        <v>2675</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>2681</v>
+        <v>2676</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>2682</v>
+        <v>2677</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>2683</v>
+        <v>2678</v>
       </c>
       <c r="E458" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
-        <v>2684</v>
+        <v>2679</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>2685</v>
+        <v>2680</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>2686</v>
+        <v>2681</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>2687</v>
+        <v>2682</v>
       </c>
       <c r="E459" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
-        <v>2688</v>
+        <v>2683</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>2689</v>
+        <v>2684</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>2690</v>
+        <v>2685</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>2691</v>
+        <v>2686</v>
       </c>
       <c r="E460" s="23" t="s">
-        <v>2692</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
-        <v>2693</v>
+        <v>2687</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>2695</v>
+        <v>2689</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>2696</v>
+        <v>2690</v>
       </c>
       <c r="E461" s="23" t="s">
-        <v>2697</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
-        <v>2698</v>
+        <v>2691</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>2699</v>
+        <v>2692</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>2700</v>
+        <v>2693</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>2701</v>
+        <v>2694</v>
       </c>
       <c r="E462" s="23" t="s">
-        <v>2702</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
-        <v>2703</v>
+        <v>2695</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>2704</v>
+        <v>2696</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>2705</v>
+        <v>2697</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>2706</v>
+        <v>2698</v>
       </c>
       <c r="E463" s="23" t="s">
-        <v>2702</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
-        <v>2707</v>
+        <v>2699</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>2708</v>
+        <v>2700</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>2709</v>
+        <v>2701</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>2710</v>
+        <v>2702</v>
       </c>
       <c r="E464" s="23" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
-        <v>2711</v>
+        <v>2704</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>2712</v>
+        <v>2705</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>2713</v>
+        <v>2706</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>2714</v>
+        <v>2707</v>
       </c>
       <c r="E465" s="23" t="s">
-        <v>2627</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>2717</v>
+        <v>2711</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="E466" s="23" t="s">
-        <v>2627</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="s">
-        <v>2719</v>
+        <v>2714</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>2720</v>
+        <v>2715</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>2721</v>
+        <v>2716</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="E467" s="23" t="s">
-        <v>2627</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="s">
-        <v>2723</v>
+        <v>2718</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>2724</v>
+        <v>2719</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>2725</v>
+        <v>2720</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>2726</v>
+        <v>2721</v>
       </c>
       <c r="E468" s="23" t="s">
-        <v>2627</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
-        <v>2727</v>
+        <v>2722</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>712</v>
+        <v>2723</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
       <c r="E469" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
       <c r="E470" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>17</v>
+        <v>2731</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="E471" s="23" t="s">
-        <v>1974</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D472" s="4" t="s">
         <v>2737</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>2738</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>2739</v>
-      </c>
-      <c r="D472" s="4" t="s">
-        <v>2740</v>
-      </c>
       <c r="E472" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>7</v>
+        <v>712</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="E473" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D474" s="4" t="s">
         <v>2744</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>2745</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>2746</v>
-      </c>
-      <c r="D474" s="4" t="s">
-        <v>2747</v>
-      </c>
       <c r="E474" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>2749</v>
+        <v>17</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>2750</v>
+        <v>2746</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>2751</v>
+        <v>2747</v>
       </c>
       <c r="E475" s="23" t="s">
-        <v>2627</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>2753</v>
+        <v>2749</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
       <c r="E476" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>2757</v>
+        <v>7</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>2758</v>
+        <v>2753</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="E477" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="E478" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>2765</v>
-      </c>
-      <c r="C479" s="25" t="s">
-        <v>2766</v>
+        <v>2760</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>2761</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="E479" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="E480" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>2773</v>
+        <v>2768</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="E481" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="E482" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>2781</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>2782</v>
+        <v>2776</v>
+      </c>
+      <c r="C483" s="26" t="s">
+        <v>2777</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="E483" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="E484" s="23" t="s">
-        <v>2627</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="E485" s="23" t="s">
-        <v>2702</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="4" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="E486" s="23" t="s">
-        <v>2702</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="E487" s="23" t="s">
-        <v>2702</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>2801</v>
+        <v>2796</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>2802</v>
+        <v>2797</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>2803</v>
+        <v>2798</v>
       </c>
       <c r="E488" s="23" t="s">
-        <v>2702</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>2805</v>
+        <v>2800</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>2807</v>
+        <v>2802</v>
       </c>
       <c r="E489" s="23" t="s">
-        <v>2702</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="s">
-        <v>2808</v>
+        <v>2803</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
       <c r="E490" s="23" t="s">
-        <v>2702</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="4" t="s">
-        <v>2812</v>
+        <v>2807</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>2813</v>
+        <v>2808</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>2815</v>
+        <v>2810</v>
       </c>
       <c r="E491" s="23" t="s">
-        <v>2702</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
-        <v>2816</v>
+        <v>2811</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>2819</v>
+        <v>2814</v>
       </c>
       <c r="E492" s="23" t="s">
-        <v>2702</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="4" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E493" s="23" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A494" s="4" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B494" s="4" t="s">
         <v>2820</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="C494" s="4" t="s">
         <v>2821</v>
       </c>
-      <c r="C493" s="4" t="s">
+      <c r="D494" s="4" t="s">
         <v>2822</v>
       </c>
-      <c r="D493" s="4" t="s">
-        <v>2823</v>
-      </c>
-      <c r="E493" s="23" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="13" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>2825</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>2826</v>
-      </c>
-      <c r="D494" s="4" t="s">
-        <v>2827</v>
-      </c>
       <c r="E494" s="23" t="s">
-        <v>2697</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="s">
-        <v>2828</v>
+        <v>2823</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>2829</v>
+        <v>2824</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>2831</v>
+        <v>2826</v>
       </c>
       <c r="E495" s="23" t="s">
-        <v>2702</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="4" t="s">
-        <v>2832</v>
+        <v>2827</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>4</v>
+        <v>2828</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="E496" s="23" t="s">
-        <v>2627</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E497" s="23" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A498" s="13" t="s">
         <v>2835</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="B498" s="4" t="s">
         <v>2836</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="D497" s="4" t="s">
+      <c r="D498" s="4" t="s">
         <v>2838</v>
       </c>
-      <c r="E497" s="23" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="4" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D498" s="4" t="s">
-        <v>2843</v>
-      </c>
       <c r="E498" s="23" t="s">
-        <v>2627</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="s">
-        <v>2844</v>
+        <v>2839</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>5</v>
+        <v>2840</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="E499" s="23" t="s">
-        <v>2627</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="4" t="s">
-        <v>716</v>
+        <v>2843</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>717</v>
+        <v>4</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="E500" s="23" t="s">
-        <v>2849</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="4" t="s">
-        <v>719</v>
+        <v>2846</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>720</v>
+        <v>2847</v>
       </c>
       <c r="C501" s="4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E501" s="23" t="s">
         <v>2850</v>
-      </c>
-      <c r="D501" s="4" t="s">
-        <v>2851</v>
-      </c>
-      <c r="E501" s="23" t="s">
-        <v>2849</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="4" t="s">
-        <v>722</v>
+        <v>2851</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>723</v>
+        <v>2852</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="E502" s="23" t="s">
-        <v>2849</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="s">
-        <v>726</v>
+        <v>2855</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>2854</v>
+        <v>5</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="E503" s="23" t="s">
-        <v>2849</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="4" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="E504" s="23" t="s">
-        <v>2849</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="s">
-        <v>2859</v>
+        <v>719</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>2860</v>
+        <v>720</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>2861</v>
@@ -39805,206 +39804,208 @@
         <v>2862</v>
       </c>
       <c r="E505" s="23" t="s">
-        <v>1974</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C506" s="4" t="s">
         <v>2863</v>
       </c>
-      <c r="B506" s="4" t="s">
+      <c r="D506" s="4" t="s">
         <v>2864</v>
       </c>
-      <c r="C506" s="4" t="s">
-        <v>2865</v>
-      </c>
-      <c r="D506" s="4" t="s">
-        <v>2866</v>
-      </c>
       <c r="E506" s="23" t="s">
-        <v>1431</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D507" s="4" t="s">
         <v>2867</v>
       </c>
-      <c r="B507" s="4" t="s">
-        <v>2868</v>
-      </c>
-      <c r="C507" s="4" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D507" s="4" t="s">
-        <v>2870</v>
-      </c>
       <c r="E507" s="23" t="s">
-        <v>1431</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="s">
-        <v>2871</v>
+        <v>731</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>2872</v>
+        <v>732</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="E508" s="23" t="s">
-        <v>2627</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>2876</v>
+        <v>2871</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="E509" s="23" t="s">
-        <v>2627</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="4" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="E510" s="23" t="s">
-        <v>2627</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="4" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="E511" s="23" t="s">
-        <v>2887</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
-        <v>2888</v>
+        <v>2882</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>2890</v>
+        <v>2884</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="E512" s="23" t="s">
-        <v>1431</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="4" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>26</v>
+        <v>2887</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="E513" s="23" t="s">
-        <v>1431</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>42</v>
+        <v>2891</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="E514" s="23" t="s">
-        <v>1431</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E515" s="23" t="s">
         <v>2898</v>
-      </c>
-      <c r="B515" s="4" t="s">
-        <v>2899</v>
-      </c>
-      <c r="C515" s="4" t="s">
-        <v>2900</v>
-      </c>
-      <c r="D515" s="4" t="s">
-        <v>2901</v>
-      </c>
-      <c r="E515" s="23" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D516" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="B516" s="4" t="s">
-        <v>2903</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D516" s="3"/>
       <c r="E516" s="23" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D517" s="4" t="s">
         <v>2905</v>
-      </c>
-      <c r="B517" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C517" s="4" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D517" s="4" t="s">
-        <v>2907</v>
       </c>
       <c r="E517" s="23" t="s">
         <v>1431</v>
@@ -40012,16 +40013,16 @@
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D518" s="4" t="s">
         <v>2908</v>
-      </c>
-      <c r="B518" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C518" s="4" t="s">
-        <v>2909</v>
-      </c>
-      <c r="D518" s="4" t="s">
-        <v>2910</v>
       </c>
       <c r="E518" s="23" t="s">
         <v>1431</v>
@@ -40029,50 +40030,48 @@
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C519" s="4" t="s">
         <v>2911</v>
       </c>
-      <c r="B519" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C519" s="4" t="s">
+      <c r="D519" s="4" t="s">
         <v>2912</v>
       </c>
-      <c r="D519" s="4" t="s">
-        <v>2913</v>
-      </c>
       <c r="E519" s="23" t="s">
-        <v>1431</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B520" s="4" t="s">
         <v>2914</v>
-      </c>
-      <c r="B520" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>2915</v>
       </c>
-      <c r="D520" s="4" t="s">
-        <v>2916</v>
-      </c>
+      <c r="D520" s="25"/>
       <c r="E520" s="23" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C521" s="4" t="s">
         <v>2917</v>
       </c>
-      <c r="B521" s="4" t="s">
+      <c r="D521" s="4" t="s">
         <v>2918</v>
-      </c>
-      <c r="C521" s="4" t="s">
-        <v>2919</v>
-      </c>
-      <c r="D521" s="4" t="s">
-        <v>2920</v>
       </c>
       <c r="E521" s="23" t="s">
         <v>1431</v>
@@ -40080,16 +40079,16 @@
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D522" s="4" t="s">
         <v>2921</v>
-      </c>
-      <c r="B522" s="4" t="s">
-        <v>2922</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>2923</v>
-      </c>
-      <c r="D522" s="4" t="s">
-        <v>2924</v>
       </c>
       <c r="E522" s="23" t="s">
         <v>1431</v>
@@ -40097,16 +40096,16 @@
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="4" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>2926</v>
+        <v>19</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="E523" s="23" t="s">
         <v>1431</v>
@@ -40114,16 +40113,16 @@
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="E524" s="23" t="s">
         <v>1431</v>
@@ -40131,16 +40130,16 @@
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>117</v>
+        <v>2929</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="E525" s="23" t="s">
         <v>1431</v>
@@ -40148,16 +40147,16 @@
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D526" s="4" t="s">
         <v>2935</v>
-      </c>
-      <c r="B526" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C526" s="4" t="s">
-        <v>2936</v>
-      </c>
-      <c r="D526" s="4" t="s">
-        <v>2937</v>
       </c>
       <c r="E526" s="23" t="s">
         <v>1431</v>
@@ -40165,16 +40164,16 @@
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C527" s="4" t="s">
         <v>2938</v>
       </c>
-      <c r="B527" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C527" s="4" t="s">
+      <c r="D527" s="4" t="s">
         <v>2939</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>2940</v>
       </c>
       <c r="E527" s="23" t="s">
         <v>1431</v>
@@ -40182,16 +40181,16 @@
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C528" s="4" t="s">
         <v>2941</v>
       </c>
-      <c r="B528" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C528" s="4" t="s">
+      <c r="D528" s="4" t="s">
         <v>2942</v>
-      </c>
-      <c r="D528" s="4" t="s">
-        <v>2943</v>
       </c>
       <c r="E528" s="23" t="s">
         <v>1431</v>
@@ -40199,16 +40198,16 @@
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C529" s="4" t="s">
         <v>2944</v>
       </c>
-      <c r="B529" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C529" s="4" t="s">
+      <c r="D529" s="4" t="s">
         <v>2945</v>
-      </c>
-      <c r="D529" s="4" t="s">
-        <v>2946</v>
       </c>
       <c r="E529" s="23" t="s">
         <v>1431</v>
@@ -40216,16 +40215,16 @@
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C530" s="4" t="s">
         <v>2947</v>
       </c>
-      <c r="B530" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C530" s="4" t="s">
+      <c r="D530" s="4" t="s">
         <v>2948</v>
-      </c>
-      <c r="D530" s="4" t="s">
-        <v>2949</v>
       </c>
       <c r="E530" s="23" t="s">
         <v>1431</v>
@@ -40233,16 +40232,16 @@
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C531" s="4" t="s">
         <v>2950</v>
       </c>
-      <c r="B531" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C531" s="4" t="s">
+      <c r="D531" s="4" t="s">
         <v>2951</v>
-      </c>
-      <c r="D531" s="4" t="s">
-        <v>2952</v>
       </c>
       <c r="E531" s="23" t="s">
         <v>1431</v>
@@ -40250,16 +40249,16 @@
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C532" s="4" t="s">
         <v>2953</v>
       </c>
-      <c r="B532" s="4" t="s">
+      <c r="D532" s="4" t="s">
         <v>2954</v>
-      </c>
-      <c r="C532" s="4" t="s">
-        <v>2955</v>
-      </c>
-      <c r="D532" s="4" t="s">
-        <v>2956</v>
       </c>
       <c r="E532" s="23" t="s">
         <v>1431</v>
@@ -40267,16 +40266,16 @@
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D533" s="4" t="s">
         <v>2957</v>
-      </c>
-      <c r="B533" s="4" t="s">
-        <v>2958</v>
-      </c>
-      <c r="C533" s="4" t="s">
-        <v>2959</v>
-      </c>
-      <c r="D533" s="4" t="s">
-        <v>2960</v>
       </c>
       <c r="E533" s="23" t="s">
         <v>1431</v>
@@ -40284,16 +40283,16 @@
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>2962</v>
+        <v>347</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="E534" s="23" t="s">
         <v>1431</v>
@@ -40301,16 +40300,16 @@
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>2966</v>
+        <v>264</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2967</v>
+        <v>2962</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>2968</v>
+        <v>2963</v>
       </c>
       <c r="E535" s="23" t="s">
         <v>1431</v>
@@ -40318,16 +40317,16 @@
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>2969</v>
+        <v>2964</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>2970</v>
+        <v>2965</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2971</v>
+        <v>2966</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>2972</v>
+        <v>2967</v>
       </c>
       <c r="E536" s="23" t="s">
         <v>1431</v>
@@ -40335,16 +40334,16 @@
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>2973</v>
+        <v>2968</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>2975</v>
+        <v>2970</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>2976</v>
+        <v>2971</v>
       </c>
       <c r="E537" s="23" t="s">
         <v>1431</v>
@@ -40352,16 +40351,16 @@
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>2978</v>
+        <v>2973</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>2979</v>
+        <v>2974</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>2980</v>
+        <v>2975</v>
       </c>
       <c r="E538" s="23" t="s">
         <v>1431</v>
@@ -40369,16 +40368,16 @@
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>2981</v>
+        <v>2976</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>2982</v>
+        <v>2977</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>2983</v>
+        <v>2978</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>2984</v>
+        <v>2979</v>
       </c>
       <c r="E539" s="23" t="s">
         <v>1431</v>
@@ -40386,16 +40385,16 @@
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
-        <v>2985</v>
+        <v>2980</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>2986</v>
+        <v>2981</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>2987</v>
+        <v>2982</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>2988</v>
+        <v>2983</v>
       </c>
       <c r="E540" s="23" t="s">
         <v>1431</v>
@@ -40403,16 +40402,16 @@
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>2989</v>
+        <v>2984</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>2991</v>
+        <v>2986</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>2992</v>
+        <v>2987</v>
       </c>
       <c r="E541" s="23" t="s">
         <v>1431</v>
@@ -40420,16 +40419,16 @@
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>2994</v>
+        <v>2989</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>2995</v>
+        <v>2990</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>2996</v>
+        <v>2991</v>
       </c>
       <c r="E542" s="23" t="s">
         <v>1431</v>
@@ -40437,16 +40436,16 @@
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
-        <v>2997</v>
+        <v>2992</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>2998</v>
+        <v>2993</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>2845</v>
+        <v>2994</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="E543" s="23" t="s">
         <v>1431</v>
@@ -40454,16 +40453,16 @@
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="E544" s="23" t="s">
         <v>1431</v>
@@ -40471,16 +40470,16 @@
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="E545" s="23" t="s">
         <v>1431</v>
@@ -40488,16 +40487,16 @@
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="E546" s="23" t="s">
         <v>1431</v>
@@ -40505,16 +40504,16 @@
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>3014</v>
+        <v>2856</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>3015</v>
+        <v>3010</v>
       </c>
       <c r="E547" s="23" t="s">
         <v>1431</v>
@@ -40522,16 +40521,16 @@
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>3016</v>
+        <v>3011</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="E548" s="23" t="s">
         <v>1431</v>
@@ -40539,16 +40538,16 @@
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>3020</v>
+        <v>3015</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>3022</v>
+        <v>3017</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>3023</v>
+        <v>3018</v>
       </c>
       <c r="E549" s="23" t="s">
         <v>1431</v>
@@ -40556,16 +40555,16 @@
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>3024</v>
+        <v>3019</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="E550" s="23" t="s">
         <v>1431</v>
@@ -40573,16 +40572,16 @@
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="E551" s="23" t="s">
         <v>1431</v>
@@ -40590,16 +40589,16 @@
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>3032</v>
+        <v>3027</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="E552" s="23" t="s">
         <v>1431</v>
@@ -40607,16 +40606,16 @@
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="E553" s="23" t="s">
         <v>1431</v>
@@ -40624,16 +40623,16 @@
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1579</v>
+        <v>3038</v>
       </c>
       <c r="E554" s="23" t="s">
         <v>1431</v>
@@ -40641,16 +40640,16 @@
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="E555" s="23" t="s">
         <v>1431</v>
@@ -40658,16 +40657,16 @@
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="E556" s="23" t="s">
         <v>1431</v>
@@ -40675,16 +40674,16 @@
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="E557" s="23" t="s">
         <v>1431</v>
@@ -40692,16 +40691,16 @@
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>3058</v>
+        <v>1579</v>
       </c>
       <c r="E558" s="23" t="s">
         <v>1431</v>
@@ -40709,16 +40708,16 @@
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>3059</v>
+        <v>3054</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="E559" s="23" t="s">
         <v>1431</v>
@@ -40726,16 +40725,16 @@
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>3065</v>
+        <v>3060</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="E560" s="23" t="s">
         <v>1431</v>
@@ -40743,16 +40742,16 @@
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="E561" s="23" t="s">
         <v>1431</v>
@@ -40760,16 +40759,16 @@
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>3071</v>
+        <v>3066</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="E562" s="23" t="s">
         <v>1431</v>
@@ -40777,16 +40776,16 @@
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="E563" s="23" t="s">
         <v>1431</v>
@@ -40794,16 +40793,16 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="E564" s="23" t="s">
         <v>1431</v>
@@ -40811,16 +40810,16 @@
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
       <c r="E565" s="23" t="s">
         <v>1431</v>
@@ -40828,16 +40827,16 @@
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="E566" s="23" t="s">
         <v>1431</v>
@@ -40845,16 +40844,16 @@
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="E567" s="23" t="s">
         <v>1431</v>
@@ -40862,16 +40861,16 @@
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
       <c r="E568" s="23" t="s">
         <v>1431</v>
@@ -40879,16 +40878,16 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>3100</v>
+        <v>3095</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="E569" s="23" t="s">
         <v>1431</v>
@@ -40896,16 +40895,16 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="E570" s="23" t="s">
         <v>1431</v>
@@ -40913,16 +40912,16 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="E571" s="23" t="s">
         <v>1431</v>
@@ -40930,16 +40929,16 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="E572" s="23" t="s">
         <v>1431</v>
@@ -40947,16 +40946,16 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="E573" s="23" t="s">
         <v>1431</v>
@@ -40964,16 +40963,16 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="E574" s="23" t="s">
         <v>1431</v>
@@ -40981,16 +40980,16 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
       <c r="E575" s="23" t="s">
         <v>1431</v>
@@ -40998,16 +40997,16 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="E576" s="23" t="s">
         <v>1431</v>
@@ -41015,16 +41014,16 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="E577" s="23" t="s">
         <v>1431</v>
@@ -41032,16 +41031,16 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="E578" s="23" t="s">
         <v>1431</v>
@@ -41049,16 +41048,16 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
       <c r="E579" s="23" t="s">
         <v>1431</v>
@@ -41066,16 +41065,16 @@
     </row>
     <row r="580" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="E580" s="23" t="s">
         <v>1431</v>
@@ -41083,16 +41082,16 @@
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="E581" s="23" t="s">
         <v>1431</v>
@@ -41100,16 +41099,16 @@
     </row>
     <row r="582" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="E582" s="23" t="s">
         <v>1431</v>
@@ -41117,16 +41116,16 @@
     </row>
     <row r="583" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1663</v>
+        <v>3153</v>
       </c>
       <c r="E583" s="23" t="s">
         <v>1431</v>
@@ -41134,16 +41133,16 @@
     </row>
     <row r="584" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="E584" s="23" t="s">
         <v>1431</v>
@@ -41151,16 +41150,16 @@
     </row>
     <row r="585" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="E585" s="23" t="s">
         <v>1431</v>
@@ -41168,16 +41167,16 @@
     </row>
     <row r="586" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C586" s="4" t="s">
         <v>3164</v>
       </c>
-      <c r="B586" s="4" t="s">
+      <c r="D586" s="4" t="s">
         <v>3165</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>3166</v>
-      </c>
-      <c r="D586" s="4" t="s">
-        <v>3167</v>
       </c>
       <c r="E586" s="23" t="s">
         <v>1431</v>
@@ -41185,16 +41184,16 @@
     </row>
     <row r="587" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C587" s="4" t="s">
         <v>3168</v>
       </c>
-      <c r="B587" s="4" t="s">
-        <v>3169</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>3170</v>
-      </c>
       <c r="D587" s="4" t="s">
-        <v>3171</v>
+        <v>1663</v>
       </c>
       <c r="E587" s="23" t="s">
         <v>1431</v>
@@ -41202,16 +41201,16 @@
     </row>
     <row r="588" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C588" s="4" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D588" s="4" t="s">
         <v>3172</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C588" s="4" t="s">
-        <v>3174</v>
-      </c>
-      <c r="D588" s="4" t="s">
-        <v>3175</v>
       </c>
       <c r="E588" s="23" t="s">
         <v>1431</v>
@@ -41219,16 +41218,16 @@
     </row>
     <row r="589" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="E589" s="23" t="s">
         <v>1431</v>
@@ -41236,16 +41235,16 @@
     </row>
     <row r="590" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="E590" s="23" t="s">
         <v>1431</v>
@@ -41253,16 +41252,16 @@
     </row>
     <row r="591" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="E591" s="23" t="s">
         <v>1431</v>
@@ -41270,16 +41269,16 @@
     </row>
     <row r="592" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>3190</v>
+        <v>3185</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>3191</v>
+        <v>3186</v>
       </c>
       <c r="E592" s="23" t="s">
         <v>1431</v>
@@ -41287,16 +41286,16 @@
     </row>
     <row r="593" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>3194</v>
+        <v>3189</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="E593" s="23" t="s">
         <v>1431</v>
@@ -41304,16 +41303,16 @@
     </row>
     <row r="594" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>3199</v>
+        <v>3194</v>
       </c>
       <c r="E594" s="23" t="s">
         <v>1431</v>
@@ -41321,16 +41320,16 @@
     </row>
     <row r="595" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>3200</v>
+        <v>3195</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>3201</v>
+        <v>3196</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>3202</v>
+        <v>3197</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="E595" s="23" t="s">
         <v>1431</v>
@@ -41338,16 +41337,16 @@
     </row>
     <row r="596" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>3205</v>
+        <v>3200</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1621</v>
+        <v>3202</v>
       </c>
       <c r="E596" s="23" t="s">
         <v>1431</v>
@@ -41355,16 +41354,16 @@
     </row>
     <row r="597" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="E597" s="23" t="s">
         <v>1431</v>
@@ -41372,16 +41371,16 @@
     </row>
     <row r="598" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="E598" s="23" t="s">
         <v>1431</v>
@@ -41389,16 +41388,16 @@
     </row>
     <row r="599" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="E599" s="23" t="s">
         <v>1431</v>
@@ -41406,16 +41405,16 @@
     </row>
     <row r="600" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>3222</v>
+        <v>1621</v>
       </c>
       <c r="E600" s="23" t="s">
         <v>1431</v>
@@ -41423,16 +41422,16 @@
     </row>
     <row r="601" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>3223</v>
+        <v>3218</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>3224</v>
+        <v>3219</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>3225</v>
+        <v>3220</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="E601" s="23" t="s">
         <v>1431</v>
@@ -41440,16 +41439,16 @@
     </row>
     <row r="602" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>3228</v>
+        <v>3223</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>3229</v>
+        <v>3224</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>3230</v>
+        <v>3225</v>
       </c>
       <c r="E602" s="23" t="s">
         <v>1431</v>
@@ -41457,16 +41456,16 @@
     </row>
     <row r="603" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>3231</v>
+        <v>3226</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>3232</v>
+        <v>3227</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>3233</v>
+        <v>3228</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>3234</v>
+        <v>3229</v>
       </c>
       <c r="E603" s="23" t="s">
         <v>1431</v>
@@ -41474,16 +41473,16 @@
     </row>
     <row r="604" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>3235</v>
+        <v>3230</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>3236</v>
+        <v>3231</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>3238</v>
+        <v>3233</v>
       </c>
       <c r="E604" s="23" t="s">
         <v>1431</v>
@@ -41491,16 +41490,16 @@
     </row>
     <row r="605" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>3239</v>
+        <v>3234</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>3240</v>
+        <v>3235</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>3241</v>
+        <v>3236</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>3242</v>
+        <v>3237</v>
       </c>
       <c r="E605" s="23" t="s">
         <v>1431</v>
@@ -41508,16 +41507,16 @@
     </row>
     <row r="606" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>3244</v>
+        <v>3239</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
       <c r="E606" s="23" t="s">
         <v>1431</v>
@@ -41525,16 +41524,16 @@
     </row>
     <row r="607" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>3247</v>
+        <v>3242</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>3248</v>
+        <v>3243</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>3249</v>
+        <v>3244</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>3250</v>
+        <v>3245</v>
       </c>
       <c r="E607" s="23" t="s">
         <v>1431</v>
@@ -41542,16 +41541,16 @@
     </row>
     <row r="608" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="E608" s="23" t="s">
         <v>1431</v>
@@ -41559,16 +41558,16 @@
     </row>
     <row r="609" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="E609" s="23" t="s">
         <v>1431</v>
@@ -41576,16 +41575,16 @@
     </row>
     <row r="610" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="E610" s="23" t="s">
         <v>1431</v>
@@ -41593,16 +41592,16 @@
     </row>
     <row r="611" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="E611" s="23" t="s">
         <v>1431</v>
@@ -41610,16 +41609,16 @@
     </row>
     <row r="612" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="E612" s="23" t="s">
         <v>1431</v>
@@ -41627,16 +41626,16 @@
     </row>
     <row r="613" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
       <c r="E613" s="23" t="s">
         <v>1431</v>
@@ -41644,16 +41643,16 @@
     </row>
     <row r="614" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="E614" s="23" t="s">
         <v>1431</v>
@@ -41661,16 +41660,16 @@
     </row>
     <row r="615" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="E615" s="23" t="s">
         <v>1431</v>
@@ -41678,152 +41677,152 @@
     </row>
     <row r="616" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="E616" s="23" t="s">
-        <v>1925</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="617" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>3288</v>
+        <v>3283</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="E617" s="23" t="s">
-        <v>1955</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="618" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1428</v>
+        <v>3287</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1429</v>
+        <v>3288</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>1430</v>
+        <v>3289</v>
       </c>
       <c r="E618" s="23" t="s">
-        <v>1925</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="619" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C619" s="4" t="s">
         <v>3292</v>
       </c>
-      <c r="B619" s="4" t="s">
+      <c r="D619" s="4" t="s">
         <v>3293</v>
       </c>
-      <c r="C619" s="25" t="s">
-        <v>3294</v>
-      </c>
-      <c r="D619" s="4" t="s">
-        <v>3295</v>
-      </c>
       <c r="E619" s="23" t="s">
-        <v>1925</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="620" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C620" s="4" t="s">
         <v>3296</v>
       </c>
-      <c r="B620" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C620" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D620" s="4" t="s">
-        <v>27</v>
+        <v>3297</v>
       </c>
       <c r="E620" s="23" t="s">
-        <v>1431</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="621" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>133</v>
+        <v>3299</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>133</v>
+        <v>3300</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>133</v>
+        <v>3301</v>
       </c>
       <c r="E621" s="23" t="s">
-        <v>1431</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>3299</v>
+        <v>1428</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>3299</v>
+        <v>1429</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>3299</v>
+        <v>1430</v>
       </c>
       <c r="E622" s="23" t="s">
-        <v>1431</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C623" s="4" t="s">
-        <v>23</v>
+        <v>3304</v>
+      </c>
+      <c r="C623" s="26" t="s">
+        <v>3305</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>23</v>
+        <v>3306</v>
       </c>
       <c r="E623" s="23" t="s">
-        <v>1431</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>3301</v>
+        <v>3307</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>3302</v>
+        <v>27</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>3303</v>
+        <v>27</v>
       </c>
       <c r="E624" s="23" t="s">
         <v>1431</v>
@@ -41831,87 +41830,87 @@
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="B625" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E625" s="23" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E626" s="23" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E627" s="23" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C628" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D628" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E628" s="23" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B629" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C625" s="4" t="s">
-        <v>3305</v>
-      </c>
-      <c r="D625" s="4" t="s">
-        <v>3306</v>
-      </c>
-      <c r="E625" s="23" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="626" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="B626" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C626" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D626" s="3" t="s">
-        <v>3308</v>
-      </c>
-      <c r="E626" s="26" t="n">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="3" t="s">
-        <v>3309</v>
-      </c>
-      <c r="B627" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C627" s="3" t="s">
-        <v>3310</v>
-      </c>
-      <c r="D627" s="3" t="s">
-        <v>3311</v>
-      </c>
-      <c r="E627" s="26" t="n">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="628" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="3" t="s">
-        <v>3312</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C628" s="3" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D628" s="3" t="s">
-        <v>3314</v>
-      </c>
-      <c r="E628" s="26" t="n">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="629" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="3" t="s">
-        <v>3315</v>
-      </c>
-      <c r="B629" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C629" s="3" t="s">
+      <c r="C629" s="4" t="s">
         <v>3316</v>
       </c>
-      <c r="D629" s="3" t="s">
+      <c r="D629" s="4" t="s">
         <v>3317</v>
       </c>
-      <c r="E629" s="26" t="n">
-        <v>45394</v>
+      <c r="E629" s="23" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -41929,9 +41928,9 @@
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E625">
-    <sortState ref="A2:E625">
-      <sortCondition ref="A2:A625" customList=""/>
+  <autoFilter ref="A1:E629">
+    <sortState ref="A2:E629">
+      <sortCondition ref="A2:A629" customList=""/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1048576">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" state="visible" r:id="rId3"/>
@@ -10585,10 +10585,10 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N366" activeCellId="0" sqref="N366"/>
+      <selection pane="bottomLeft" activeCell="A253" activeCellId="0" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19985,18 +19985,18 @@
       <c r="F213" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G213" s="6" t="b">
+      <c r="G213" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I213" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J213" s="6" t="b">
+      <c r="I213" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J213" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20029,18 +20029,18 @@
       <c r="F214" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G214" s="6" t="b">
+      <c r="G214" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I214" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J214" s="6" t="b">
+      <c r="I214" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J214" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20067,18 +20067,18 @@
       <c r="F215" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G215" s="6" t="b">
+      <c r="G215" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I215" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J215" s="6" t="b">
+      <c r="I215" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J215" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20120,18 +20120,18 @@
       <c r="F216" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G216" s="6" t="b">
+      <c r="G216" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I216" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J216" s="6" t="b">
+      <c r="I216" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J216" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20170,18 +20170,18 @@
       <c r="F217" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G217" s="6" t="b">
+      <c r="G217" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I217" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J217" s="6" t="b">
+      <c r="I217" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J217" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20214,18 +20214,18 @@
       <c r="F218" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G218" s="6" t="b">
+      <c r="G218" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I218" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J218" s="6" t="b">
+      <c r="I218" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J218" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20252,18 +20252,18 @@
       <c r="F219" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G219" s="6" t="b">
+      <c r="G219" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I219" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J219" s="6" t="b">
+      <c r="I219" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J219" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20305,18 +20305,18 @@
       <c r="F220" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G220" s="6" t="b">
+      <c r="G220" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I220" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J220" s="6" t="b">
+      <c r="I220" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J220" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20343,18 +20343,18 @@
       <c r="F221" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G221" s="6" t="b">
+      <c r="G221" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I221" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J221" s="6" t="b">
+      <c r="I221" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J221" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20390,18 +20390,18 @@
       <c r="F222" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G222" s="6" t="b">
+      <c r="G222" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I222" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J222" s="6" t="b">
+      <c r="I222" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J222" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20434,18 +20434,18 @@
       <c r="F223" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G223" s="6" t="b">
+      <c r="G223" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I223" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J223" s="6" t="b">
+      <c r="I223" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J223" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20472,18 +20472,18 @@
       <c r="F224" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G224" s="6" t="b">
+      <c r="G224" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I224" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J224" s="6" t="b">
+      <c r="I224" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J224" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20519,18 +20519,18 @@
       <c r="F225" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G225" s="6" t="b">
+      <c r="G225" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I225" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J225" s="6" t="b">
+      <c r="I225" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J225" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20557,18 +20557,18 @@
       <c r="F226" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G226" s="6" t="b">
+      <c r="G226" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I226" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J226" s="6" t="b">
+      <c r="I226" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J226" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20604,18 +20604,18 @@
       <c r="F227" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G227" s="6" t="b">
+      <c r="G227" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I227" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J227" s="6" t="b">
+      <c r="I227" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J227" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20642,18 +20642,18 @@
       <c r="F228" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G228" s="6" t="b">
+      <c r="G228" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I228" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J228" s="6" t="b">
+      <c r="I228" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J228" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20677,18 +20677,18 @@
       <c r="F229" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G229" s="6" t="b">
+      <c r="G229" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I229" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J229" s="6" t="b">
+      <c r="I229" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J229" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20715,18 +20715,18 @@
       <c r="F230" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G230" s="6" t="b">
+      <c r="G230" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I230" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J230" s="6" t="b">
+      <c r="I230" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J230" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20759,18 +20759,18 @@
       <c r="F231" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G231" s="6" t="b">
+      <c r="G231" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I231" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J231" s="6" t="b">
+      <c r="I231" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J231" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20800,18 +20800,18 @@
       <c r="F232" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G232" s="6" t="b">
+      <c r="G232" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I232" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J232" s="6" t="b">
+      <c r="I232" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J232" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20841,18 +20841,18 @@
       <c r="F233" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G233" s="6" t="b">
+      <c r="G233" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I233" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J233" s="6" t="b">
+      <c r="I233" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J233" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20879,18 +20879,18 @@
       <c r="F234" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G234" s="6" t="b">
+      <c r="G234" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I234" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J234" s="6" t="b">
+      <c r="I234" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J234" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20923,18 +20923,18 @@
       <c r="F235" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G235" s="6" t="b">
+      <c r="G235" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I235" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J235" s="6" t="b">
+      <c r="I235" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J235" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20964,18 +20964,18 @@
       <c r="F236" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G236" s="6" t="b">
+      <c r="G236" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I236" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J236" s="6" t="b">
+      <c r="I236" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J236" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21002,18 +21002,18 @@
       <c r="F237" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G237" s="6" t="b">
+      <c r="G237" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I237" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J237" s="6" t="b">
+      <c r="I237" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J237" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21046,18 +21046,18 @@
       <c r="F238" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G238" s="6" t="b">
+      <c r="G238" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I238" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J238" s="6" t="b">
+      <c r="I238" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J238" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21084,18 +21084,18 @@
       <c r="F239" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G239" s="6" t="b">
+      <c r="G239" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I239" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J239" s="6" t="b">
+      <c r="I239" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J239" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21128,18 +21128,18 @@
       <c r="F240" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G240" s="6" t="b">
+      <c r="G240" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I240" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J240" s="6" t="b">
+      <c r="I240" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J240" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21166,18 +21166,18 @@
       <c r="F241" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G241" s="6" t="b">
+      <c r="G241" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I241" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J241" s="6" t="b">
+      <c r="I241" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J241" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21210,18 +21210,18 @@
       <c r="F242" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G242" s="6" t="b">
+      <c r="G242" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I242" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J242" s="6" t="b">
+      <c r="I242" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J242" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21248,18 +21248,18 @@
       <c r="F243" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G243" s="6" t="b">
+      <c r="G243" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I243" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J243" s="6" t="b">
+      <c r="I243" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J243" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21292,18 +21292,18 @@
       <c r="F244" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G244" s="6" t="b">
+      <c r="G244" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I244" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J244" s="6" t="b">
+      <c r="I244" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J244" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21330,18 +21330,18 @@
       <c r="F245" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G245" s="6" t="b">
+      <c r="G245" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I245" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J245" s="6" t="b">
+      <c r="I245" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J245" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21374,18 +21374,18 @@
       <c r="F246" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G246" s="6" t="b">
+      <c r="G246" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I246" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J246" s="6" t="b">
+      <c r="I246" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J246" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21412,18 +21412,18 @@
       <c r="F247" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G247" s="6" t="b">
+      <c r="G247" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I247" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J247" s="6" t="b">
+      <c r="I247" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J247" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21456,18 +21456,18 @@
       <c r="F248" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G248" s="6" t="b">
+      <c r="G248" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I248" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J248" s="6" t="b">
+      <c r="I248" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J248" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21494,18 +21494,18 @@
       <c r="F249" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G249" s="6" t="b">
+      <c r="G249" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I249" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J249" s="6" t="b">
+      <c r="I249" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J249" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21538,18 +21538,18 @@
       <c r="F250" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G250" s="6" t="b">
+      <c r="G250" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I250" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J250" s="6" t="b">
+      <c r="I250" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J250" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21576,18 +21576,18 @@
       <c r="F251" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G251" s="6" t="b">
+      <c r="G251" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I251" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J251" s="6" t="b">
+      <c r="I251" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J251" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21620,18 +21620,18 @@
       <c r="F252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G252" s="6" t="b">
+      <c r="G252" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I252" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J252" s="6" t="b">
+      <c r="I252" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J252" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21658,18 +21658,18 @@
       <c r="F253" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G253" s="6" t="b">
+      <c r="G253" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I253" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J253" s="6" t="b">
+      <c r="I253" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21681,6 +21681,10 @@
       </c>
       <c r="N253" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="R253" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21702,18 +21706,18 @@
       <c r="F254" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G254" s="6" t="b">
+      <c r="G254" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I254" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J254" s="6" t="b">
+      <c r="I254" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21737,18 +21741,18 @@
       <c r="F255" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G255" s="6" t="b">
+      <c r="G255" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I255" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J255" s="6" t="b">
+      <c r="I255" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21775,18 +21779,18 @@
       <c r="F256" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G256" s="6" t="b">
+      <c r="G256" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I256" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J256" s="6" t="b">
+      <c r="I256" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J256" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21799,7 +21803,7 @@
       <c r="N256" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="R256" s="6" t="b">
+      <c r="R256" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21823,18 +21827,18 @@
       <c r="F257" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G257" s="6" t="b">
+      <c r="G257" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I257" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J257" s="6" t="b">
+      <c r="I257" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J257" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21861,18 +21865,18 @@
       <c r="F258" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G258" s="6" t="b">
+      <c r="G258" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I258" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J258" s="6" t="b">
+      <c r="I258" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J258" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21905,18 +21909,18 @@
       <c r="F259" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G259" s="6" t="b">
+      <c r="G259" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I259" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J259" s="6" t="b">
+      <c r="I259" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J259" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21943,18 +21947,18 @@
       <c r="F260" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G260" s="6" t="b">
+      <c r="G260" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I260" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J260" s="6" t="b">
+      <c r="I260" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J260" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21987,18 +21991,18 @@
       <c r="F261" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G261" s="6" t="b">
+      <c r="G261" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I261" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J261" s="6" t="b">
+      <c r="I261" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J261" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22032,11 +22036,11 @@
       <c r="H262" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I262" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J262" s="6" t="b">
+      <c r="I262" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J262" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22076,11 +22080,11 @@
       <c r="H263" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I263" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J263" s="6" t="b">
+      <c r="I263" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J263" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22114,11 +22118,11 @@
       <c r="H264" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I264" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J264" s="6" t="b">
+      <c r="I264" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J264" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22158,11 +22162,11 @@
       <c r="H265" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I265" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J265" s="6" t="b">
+      <c r="I265" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J265" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22196,11 +22200,11 @@
       <c r="H266" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I266" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J266" s="6" t="b">
+      <c r="I266" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J266" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22240,11 +22244,11 @@
       <c r="H267" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I267" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J267" s="6" t="b">
+      <c r="I267" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J267" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22284,11 +22288,11 @@
       <c r="H268" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I268" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J268" s="6" t="b">
+      <c r="I268" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J268" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22325,11 +22329,11 @@
       <c r="H269" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I269" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J269" s="6" t="b">
+      <c r="I269" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J269" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22369,11 +22373,11 @@
       <c r="H270" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I270" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J270" s="6" t="b">
+      <c r="I270" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J270" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22386,7 +22390,7 @@
       <c r="N270" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O270" s="6" t="b">
+      <c r="O270" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22417,11 +22421,11 @@
       <c r="H271" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I271" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J271" s="6" t="b">
+      <c r="I271" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J271" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22461,11 +22465,11 @@
       <c r="H272" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I272" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J272" s="6" t="b">
+      <c r="I272" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J272" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22499,11 +22503,11 @@
       <c r="H273" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I273" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J273" s="6" t="b">
+      <c r="I273" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J273" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22546,11 +22550,11 @@
       <c r="H274" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I274" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J274" s="6" t="b">
+      <c r="I274" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J274" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22584,11 +22588,11 @@
       <c r="H275" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I275" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J275" s="6" t="b">
+      <c r="I275" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J275" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22625,11 +22629,11 @@
       <c r="H276" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I276" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J276" s="6" t="b">
+      <c r="I276" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J276" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22669,11 +22673,11 @@
       <c r="H277" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I277" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J277" s="6" t="b">
+      <c r="I277" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J277" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22704,11 +22708,11 @@
       <c r="H278" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I278" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J278" s="6" t="b">
+      <c r="I278" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J278" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22742,11 +22746,11 @@
       <c r="H279" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I279" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J279" s="6" t="b">
+      <c r="I279" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J279" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22786,11 +22790,11 @@
       <c r="H280" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I280" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J280" s="6" t="b">
+      <c r="I280" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J280" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22824,11 +22828,11 @@
       <c r="H281" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I281" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J281" s="6" t="b">
+      <c r="I281" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J281" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22865,11 +22869,11 @@
       <c r="H282" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I282" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J282" s="6" t="b">
+      <c r="I282" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J282" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22909,11 +22913,11 @@
       <c r="H283" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I283" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J283" s="6" t="b">
+      <c r="I283" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J283" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22953,11 +22957,11 @@
       <c r="H284" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I284" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J284" s="6" t="b">
+      <c r="I284" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J284" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22997,11 +23001,11 @@
       <c r="H285" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I285" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J285" s="6" t="b">
+      <c r="I285" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J285" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23041,11 +23045,11 @@
       <c r="H286" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I286" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J286" s="6" t="b">
+      <c r="I286" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J286" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23079,11 +23083,11 @@
       <c r="H287" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I287" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J287" s="6" t="b">
+      <c r="I287" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J287" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23122,11 +23126,11 @@
       <c r="H288" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I288" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J288" s="6" t="b">
+      <c r="I288" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J288" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23139,7 +23143,7 @@
       <c r="N288" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O288" s="6" t="b">
+      <c r="O288" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23170,11 +23174,11 @@
       <c r="H289" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I289" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J289" s="6" t="b">
+      <c r="I289" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J289" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23208,11 +23212,11 @@
       <c r="H290" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I290" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J290" s="6" t="b">
+      <c r="I290" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J290" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23252,11 +23256,11 @@
       <c r="H291" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I291" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J291" s="6" t="b">
+      <c r="I291" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J291" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23293,11 +23297,11 @@
       <c r="H292" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I292" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J292" s="6" t="b">
+      <c r="I292" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J292" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23337,11 +23341,11 @@
       <c r="H293" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I293" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J293" s="6" t="b">
+      <c r="I293" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J293" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23381,11 +23385,11 @@
       <c r="H294" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I294" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J294" s="6" t="b">
+      <c r="I294" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J294" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23425,11 +23429,11 @@
       <c r="H295" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I295" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J295" s="6" t="b">
+      <c r="I295" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J295" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23442,7 +23446,7 @@
       <c r="N295" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O295" s="6" t="b">
+      <c r="O295" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23473,11 +23477,11 @@
       <c r="H296" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I296" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J296" s="6" t="b">
+      <c r="I296" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J296" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23511,11 +23515,11 @@
       <c r="H297" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I297" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J297" s="6" t="b">
+      <c r="I297" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J297" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23555,11 +23559,11 @@
       <c r="H298" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I298" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J298" s="6" t="b">
+      <c r="I298" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J298" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23593,11 +23597,11 @@
       <c r="H299" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I299" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J299" s="6" t="b">
+      <c r="I299" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J299" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23637,11 +23641,11 @@
       <c r="H300" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I300" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J300" s="6" t="b">
+      <c r="I300" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J300" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23675,11 +23679,11 @@
       <c r="H301" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I301" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J301" s="6" t="b">
+      <c r="I301" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J301" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23719,11 +23723,11 @@
       <c r="H302" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I302" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J302" s="6" t="b">
+      <c r="I302" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J302" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23757,11 +23761,11 @@
       <c r="H303" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I303" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J303" s="6" t="b">
+      <c r="I303" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J303" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23801,11 +23805,11 @@
       <c r="H304" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I304" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J304" s="6" t="b">
+      <c r="I304" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J304" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23845,11 +23849,11 @@
       <c r="H305" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I305" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J305" s="6" t="b">
+      <c r="I305" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J305" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23863,7 +23867,7 @@
       <c r="N305" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O305" s="6" t="b">
+      <c r="O305" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23894,11 +23898,11 @@
       <c r="H306" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I306" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J306" s="6" t="b">
+      <c r="I306" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J306" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23938,11 +23942,11 @@
       <c r="H307" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I307" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J307" s="6" t="b">
+      <c r="I307" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J307" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23976,11 +23980,11 @@
       <c r="H308" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I308" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J308" s="6" t="b">
+      <c r="I308" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J308" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24020,11 +24024,11 @@
       <c r="H309" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I309" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J309" s="6" t="b">
+      <c r="I309" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J309" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24058,11 +24062,11 @@
       <c r="H310" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I310" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J310" s="6" t="b">
+      <c r="I310" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J310" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24102,11 +24106,11 @@
       <c r="H311" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I311" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J311" s="6" t="b">
+      <c r="I311" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J311" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24146,11 +24150,11 @@
       <c r="H312" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I312" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J312" s="6" t="b">
+      <c r="I312" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J312" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24163,7 +24167,7 @@
       <c r="N312" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O312" s="6" t="b">
+      <c r="O312" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24194,11 +24198,11 @@
       <c r="H313" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I313" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J313" s="6" t="b">
+      <c r="I313" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J313" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24238,11 +24242,11 @@
       <c r="H314" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I314" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J314" s="6" t="b">
+      <c r="I314" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J314" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24283,11 +24287,11 @@
       <c r="H315" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I315" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J315" s="6" t="b">
+      <c r="I315" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J315" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24322,11 +24326,11 @@
       <c r="H316" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I316" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J316" s="6" t="b">
+      <c r="I316" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J316" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24367,11 +24371,11 @@
       <c r="H317" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I317" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J317" s="6" t="b">
+      <c r="I317" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J317" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24412,11 +24416,11 @@
       <c r="H318" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I318" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J318" s="6" t="b">
+      <c r="I318" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J318" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24457,11 +24461,11 @@
       <c r="H319" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I319" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J319" s="6" t="b">
+      <c r="I319" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J319" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24474,7 +24478,7 @@
       <c r="N319" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O319" s="6" t="b">
+      <c r="O319" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24506,11 +24510,11 @@
       <c r="H320" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I320" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J320" s="6" t="b">
+      <c r="I320" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J320" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24551,11 +24555,11 @@
       <c r="H321" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I321" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J321" s="6" t="b">
+      <c r="I321" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J321" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24590,11 +24594,11 @@
       <c r="H322" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I322" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J322" s="6" t="b">
+      <c r="I322" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J322" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24635,11 +24639,11 @@
       <c r="H323" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I323" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J323" s="6" t="b">
+      <c r="I323" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J323" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24675,11 +24679,11 @@
       <c r="H324" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I324" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J324" s="6" t="b">
+      <c r="I324" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J324" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24720,11 +24724,11 @@
       <c r="H325" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I325" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J325" s="6" t="b">
+      <c r="I325" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J325" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24765,11 +24769,11 @@
       <c r="H326" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I326" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J326" s="6" t="b">
+      <c r="I326" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J326" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24810,11 +24814,11 @@
       <c r="H327" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I327" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J327" s="6" t="b">
+      <c r="I327" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J327" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24855,11 +24859,11 @@
       <c r="H328" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I328" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J328" s="6" t="b">
+      <c r="I328" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J328" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24872,7 +24876,7 @@
       <c r="N328" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O328" s="6" t="b">
+      <c r="O328" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -24904,11 +24908,11 @@
       <c r="H329" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I329" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J329" s="6" t="b">
+      <c r="I329" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J329" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24943,11 +24947,11 @@
       <c r="H330" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I330" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J330" s="6" t="b">
+      <c r="I330" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J330" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24985,11 +24989,11 @@
       <c r="H331" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I331" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J331" s="6" t="b">
+      <c r="I331" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J331" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25028,11 +25032,11 @@
       <c r="H332" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I332" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J332" s="6" t="b">
+      <c r="I332" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J332" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25067,11 +25071,11 @@
       <c r="H333" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I333" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J333" s="6" t="b">
+      <c r="I333" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J333" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25112,11 +25116,11 @@
       <c r="H334" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I334" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J334" s="6" t="b">
+      <c r="I334" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J334" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25130,7 +25134,7 @@
       <c r="N334" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O334" s="6" t="b">
+      <c r="O334" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25162,11 +25166,11 @@
       <c r="H335" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I335" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J335" s="6" t="b">
+      <c r="I335" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J335" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25207,11 +25211,11 @@
       <c r="H336" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I336" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J336" s="6" t="b">
+      <c r="I336" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J336" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25246,11 +25250,11 @@
       <c r="H337" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I337" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J337" s="6" t="b">
+      <c r="I337" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J337" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25288,11 +25292,11 @@
       <c r="H338" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I338" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J338" s="6" t="b">
+      <c r="I338" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J338" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25327,11 +25331,11 @@
       <c r="H339" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I339" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J339" s="6" t="b">
+      <c r="I339" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J339" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25344,7 +25348,7 @@
       <c r="N339" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R339" s="6" t="b">
+      <c r="R339" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25375,11 +25379,11 @@
       <c r="H340" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I340" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J340" s="6" t="b">
+      <c r="I340" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J340" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25414,11 +25418,11 @@
       <c r="H341" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I341" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J341" s="6" t="b">
+      <c r="I341" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J341" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25431,7 +25435,7 @@
       <c r="N341" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="R341" s="6" t="b">
+      <c r="R341" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25462,11 +25466,11 @@
       <c r="H342" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I342" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J342" s="6" t="b">
+      <c r="I342" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J342" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25500,11 +25504,11 @@
       <c r="H343" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I343" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J343" s="6" t="b">
+      <c r="I343" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J343" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25517,7 +25521,7 @@
       <c r="N343" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R343" s="6" t="b">
+      <c r="R343" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25548,11 +25552,11 @@
       <c r="H344" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I344" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J344" s="6" t="b">
+      <c r="I344" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J344" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25586,11 +25590,11 @@
       <c r="H345" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I345" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J345" s="6" t="b">
+      <c r="I345" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J345" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25603,7 +25607,7 @@
       <c r="N345" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R345" s="6" t="b">
+      <c r="R345" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25634,11 +25638,11 @@
       <c r="H346" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I346" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J346" s="6" t="b">
+      <c r="I346" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J346" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25672,11 +25676,11 @@
       <c r="H347" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I347" s="6" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J347" s="6" t="b">
+      <c r="I347" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J347" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25689,7 +25693,7 @@
       <c r="N347" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R347" s="6" t="b">
+      <c r="R347" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25775,7 +25779,7 @@
       <c r="N349" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R349" s="6" t="b">
+      <c r="R349" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25823,7 +25827,7 @@
       <c r="N350" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R350" s="6" t="b">
+      <c r="R350" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25871,7 +25875,7 @@
       <c r="N351" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R351" s="6" t="b">
+      <c r="R351" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25920,7 +25924,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R352" s="6" t="b">
+      <c r="R352" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26007,7 +26011,7 @@
       <c r="N354" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R354" s="6" t="b">
+      <c r="R354" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26093,7 +26097,7 @@
       <c r="N356" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R356" s="6" t="b">
+      <c r="R356" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26179,7 +26183,7 @@
       <c r="N358" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R358" s="6" t="b">
+      <c r="R358" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26227,7 +26231,7 @@
       <c r="N359" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R359" s="6" t="b">
+      <c r="R359" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26275,7 +26279,7 @@
       <c r="N360" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R360" s="6" t="b">
+      <c r="R360" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26361,7 +26365,7 @@
       <c r="N362" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R362" s="6" t="b">
+      <c r="R362" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26409,7 +26413,7 @@
       <c r="N363" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R363" s="6" t="b">
+      <c r="R363" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26495,7 +26499,7 @@
       <c r="N365" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R365" s="6" t="b">
+      <c r="R365" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26581,7 +26585,7 @@
       <c r="N367" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R367" s="6" t="b">
+      <c r="R367" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -26691,15 +26695,15 @@
       <c r="D2" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="b">
+      <c r="E2" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26718,15 +26722,15 @@
       <c r="D3" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="E3" s="3" t="b">
+      <c r="E3" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="b">
+      <c r="F3" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26743,15 +26747,15 @@
         <v>2000000003</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="b">
+      <c r="E4" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
+      <c r="F4" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26773,15 +26777,15 @@
         <v>2000000004</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="b">
+      <c r="E5" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="b">
+      <c r="F5" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26803,15 +26807,15 @@
         <v>2000000005</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="b">
+      <c r="E6" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="b">
+      <c r="F6" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26835,15 +26839,15 @@
       <c r="D7" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
+      <c r="E7" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26861,15 +26865,15 @@
         <v>2000000007</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="b">
+      <c r="E8" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
+      <c r="F8" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26893,15 +26897,15 @@
       <c r="D9" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="E9" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
+      <c r="E9" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26921,15 +26925,15 @@
       <c r="D10" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="E10" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="b">
+      <c r="E10" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26946,15 +26950,15 @@
       <c r="C11" s="1" t="n">
         <v>2000000010</v>
       </c>
-      <c r="E11" s="3" t="b">
+      <c r="E11" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="b">
+      <c r="F11" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26978,15 +26982,15 @@
       <c r="D12" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="E12" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="b">
+      <c r="E12" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27004,15 +27008,15 @@
       <c r="D13" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="E13" s="3" t="b">
+      <c r="E13" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="b">
+      <c r="F13" s="7" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31208,7 +31212,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B632" activeCellId="0" sqref="B632"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">character!$A$1:$M$369</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">v3_translate!$A$1:$E$635</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">v3_translate!$A:$E</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="3396">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -8952,7 +8952,1213 @@
     <t xml:space="preserve">You don't have this character for now.</t>
   </si>
   <si>
-    <t xml:space="preserve">personality.103</t>
+    <t xml:space="preserve">personality.p000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">風</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">땅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그림자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">번개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지팡이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">검</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도끼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">창</t>
+  </si>
+  <si>
+    <t xml:space="preserve">槍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">권갑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">망치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">槌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕족</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王族</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엘프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エルフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정령 대화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精霊対話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봉인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">封印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">과학자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科学者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로스트 랩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロストラボ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">만능의 지배자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万能の支配者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power to Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성직자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聖職者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미술</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美術</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">애견가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いぬ好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낯가림</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人見知り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독서가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">読書家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bookworm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔獣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요괴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA스쿨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDAスクール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">북방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">첩자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">忍び</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음유시인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吟遊詩人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メガネ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘체르토 아트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンチェルトアーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerto Artes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천계의 인도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天の導き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiding Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呪い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낮잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お昼寝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동물 대화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動物対話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">죽마고우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹馬の友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childhood Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바르오키</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バルオキー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마음의 괴도단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心の怪盗団</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Thieves of Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간의 상흔의 윤무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時の傷痕の輪舞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scars of the Wheel of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영매 체질</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊媒体質</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit-fused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단것 애호가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘党</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet tooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">채집</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">복수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">復讐者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상사병</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恋わずらい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovesick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기억상실</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記憶喪失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amnesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">명계의 부름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冥の誘い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luring Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용궁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜宮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マシナリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대식가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大食い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">테일즈 오브</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テイルズオブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">귀가 밝음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地獄耳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp Ears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미글랜스 왕궁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミグランス王宮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miglance Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대장간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鍛冶屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">합성인간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合成人間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synth Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라이더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">騎乗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アウトロー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작명가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニックネーマー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicknamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리아레스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フリアレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleareth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">채굴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採掘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드워프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドワーフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장례</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フューネラル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신 몽상 과격단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新夢想過激団</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Radical Dreamers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부천수 애호가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辛党</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">총</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타이탄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">짚단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巻きワラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straw Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드래곤 킬러</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラゴンキラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Killer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연옥계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉獄界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purgatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジオ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">혐묘가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねこ嫌い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Hater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미식</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주인공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主人公</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protagonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">괭이갈매기 애호가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うみねこ好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scallywag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMS사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMS社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時間帝国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronos Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">애묘가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねこ好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밀리터리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミリタリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나무꾼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木こり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodcutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연금술사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">錬金術師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신 시공 초한 유파</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新時空超限流派</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Time Drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보현일도류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普賢一刀流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itto-Ryu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배리몽상단 리더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背理夢想団リーダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradoxical Dreamers Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간의 황자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時の皇子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince of Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래혁명가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未来革命家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Revolutionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아르카디아</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アルカディア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcadia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인도의 트래블러</t>
+  </si>
+  <si>
+    <t xml:space="preserve">導きのトラベラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p106</t>
   </si>
   <si>
     <t xml:space="preserve">마검</t>
@@ -8962,1209 +10168,6 @@
   </si>
   <si>
     <t xml:space="preserve">Demon Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">땅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그림자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">번개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">결정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지팡이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">검</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도끼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">창</t>
-  </si>
-  <si>
-    <t xml:space="preserve">槍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">활</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">권갑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">망치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">槌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왕족</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王族</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エルフ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정령 대화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">精霊対話</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봉인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">封印</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">과학자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科学者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로스트 랩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロストラボ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">만능의 지배자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万能の支配者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power to Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">성직자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聖職者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미술</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美術</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">애견가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いぬ好き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dog lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">낯가림</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人見知り</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독서가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">読書家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bookworm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔獣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요괴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA스쿨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDAスクール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">북방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">첩자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">忍び</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">음유시인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吟遊詩人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">안경</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガネ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">콘체르토 아트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンチェルトアーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concerto Artes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가면</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천계의 인도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天の導き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiding Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저주</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呪い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cursed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">낮잠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お昼寝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동물 대화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">動物対話</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fishman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">죽마고우</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹馬の友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Childhood Friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바르오키</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バルオキー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baruoki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마음의 괴도단</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心の怪盗団</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom Thieves of Hearts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간의 상흔의 윤무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時の傷痕の輪舞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scars of the Wheel of Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">영매 체질</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊媒体質</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit-fused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단것 애호가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘党</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet tooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">채집</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">복수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">復讐者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생물</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상사병</t>
-  </si>
-  <si>
-    <t xml:space="preserve">恋わずらい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lovesick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">東方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">盾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기억상실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記憶喪失</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amnesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">명계의 부름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冥の誘い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luring Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용궁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜宮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マシナリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machinery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대식가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大食い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">테일즈 오브</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テイルズオブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tales of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귀가 밝음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地獄耳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp Ears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미글랜스 왕궁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミグランス王宮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miglance Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대장간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鍛冶屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">합성인간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合成人間</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synth Human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">라이더</t>
-  </si>
-  <si>
-    <t xml:space="preserve">騎乗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mounted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アウトロー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작명가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ニックネーマー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicknamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아레스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フリアレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleareth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">채굴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採掘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드워프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドワーフ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwarf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장례</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フューネラル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신 몽상 과격단</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新夢想過激団</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Radical Dreamers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부천수 애호가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辛党</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spicy Lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">총</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">타이탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">짚단</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巻きワラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straw Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드래곤 킬러</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドラゴンキラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Killer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연옥계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉獄界</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purgatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지오</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジオ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">혐묘가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねこ嫌い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat Hater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미식</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美食</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gourmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주인공</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主人公</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protagonist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">괭이갈매기 애호가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うみねこ好き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scallywag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMS사</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMS社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간 제국</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時間帝国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronos Empire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">애묘가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねこ好き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">밀리터리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミリタリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Military</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나무꾼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木こり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woodcutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연금술사</t>
-  </si>
-  <si>
-    <t xml:space="preserve">錬金術師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신 시공 초한 유파</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新時空超限流派</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Time Drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보현일도류</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普賢一刀流</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itto-Ryu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배리몽상단 리더</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背理夢想団リーダー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradoxical Dreamers Leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간의 황자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時の皇子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince of Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미래혁명가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未来革命家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future Revolutionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아르카디아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アルカディア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인도의 트래블러</t>
-  </si>
-  <si>
-    <t xml:space="preserve">導きのトラベラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traveler</t>
   </si>
   <si>
     <t xml:space="preserve">staralign.false</t>
@@ -10830,7 +10833,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M373" activeCellId="2" sqref="A1:E642 D17 M373"/>
+      <selection pane="bottomLeft" activeCell="M373" activeCellId="0" sqref="M373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21778,7 +21781,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="A1:E642 D17"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22273,7 +22276,7 @@
   <dimension ref="A1:G278"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D233" activeCellId="0" sqref="A1:E642 D17"/>
+      <selection pane="topLeft" activeCell="D233" activeCellId="0" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26126,7 +26129,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A1:E642 D17"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26504,9 +26507,9 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="A1:E642 D17"/>
+      <selection pane="bottomLeft" activeCell="C535" activeCellId="0" sqref="C535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35554,11 +35557,11 @@
       <c r="C532" s="4" t="s">
         <v>2976</v>
       </c>
-      <c r="D532" s="11" t="s">
+      <c r="D532" s="4" t="s">
         <v>2977</v>
       </c>
-      <c r="E532" s="26" t="n">
-        <v>45451</v>
+      <c r="E532" s="24" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35571,23 +35574,25 @@
       <c r="C533" s="4" t="s">
         <v>2980</v>
       </c>
-      <c r="D533" s="3"/>
+      <c r="D533" s="4" t="s">
+        <v>2981</v>
+      </c>
       <c r="E533" s="24" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="E534" s="24" t="s">
         <v>1454</v>
@@ -35595,16 +35600,16 @@
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="E535" s="24" t="s">
         <v>1454</v>
@@ -35612,16 +35617,16 @@
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="E536" s="24" t="s">
         <v>1454</v>
@@ -35629,16 +35634,16 @@
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="E537" s="24" t="s">
         <v>1454</v>
@@ -35646,16 +35651,16 @@
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E538" s="24" t="s">
         <v>1454</v>
@@ -35663,16 +35668,16 @@
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="E539" s="24" t="s">
         <v>1454</v>
@@ -35680,16 +35685,16 @@
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="E540" s="24" t="s">
         <v>1454</v>
@@ -35697,16 +35702,16 @@
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E541" s="24" t="s">
         <v>1454</v>
@@ -35714,16 +35719,16 @@
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="E542" s="24" t="s">
         <v>1454</v>
@@ -35731,16 +35736,16 @@
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E543" s="24" t="s">
         <v>1454</v>
@@ -35748,16 +35753,16 @@
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="E544" s="24" t="s">
         <v>1454</v>
@@ -35765,16 +35770,16 @@
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="E545" s="24" t="s">
         <v>1454</v>
@@ -35782,16 +35787,16 @@
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="E546" s="24" t="s">
         <v>1454</v>
@@ -35799,16 +35804,16 @@
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E547" s="24" t="s">
         <v>1454</v>
@@ -35816,16 +35821,16 @@
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="E548" s="24" t="s">
         <v>1454</v>
@@ -35833,16 +35838,16 @@
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="E549" s="24" t="s">
         <v>1454</v>
@@ -35850,16 +35855,16 @@
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="E550" s="24" t="s">
         <v>1454</v>
@@ -35867,16 +35872,16 @@
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="E551" s="24" t="s">
         <v>1454</v>
@@ -35884,16 +35889,16 @@
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E552" s="24" t="s">
         <v>1454</v>
@@ -35901,16 +35906,16 @@
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E553" s="24" t="s">
         <v>1454</v>
@@ -35918,16 +35923,16 @@
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="E554" s="24" t="s">
         <v>1454</v>
@@ -35935,16 +35940,16 @@
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="E555" s="24" t="s">
         <v>1454</v>
@@ -35952,16 +35957,16 @@
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="E556" s="24" t="s">
         <v>1454</v>
@@ -35969,16 +35974,16 @@
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="E557" s="24" t="s">
         <v>1454</v>
@@ -35986,16 +35991,16 @@
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="E558" s="24" t="s">
         <v>1454</v>
@@ -36003,13 +36008,13 @@
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>3083</v>
+        <v>2915</v>
       </c>
       <c r="D559" s="4" t="s">
         <v>3084</v>
@@ -36026,10 +36031,10 @@
         <v>3086</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>2915</v>
+        <v>3087</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="E560" s="24" t="s">
         <v>1454</v>
@@ -36037,16 +36042,16 @@
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="E561" s="24" t="s">
         <v>1454</v>
@@ -36054,16 +36059,16 @@
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E562" s="24" t="s">
         <v>1454</v>
@@ -36071,16 +36076,16 @@
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E563" s="24" t="s">
         <v>1454</v>
@@ -36088,16 +36093,16 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E564" s="24" t="s">
         <v>1454</v>
@@ -36105,16 +36110,16 @@
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E565" s="24" t="s">
         <v>1454</v>
@@ -36122,16 +36127,16 @@
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="E566" s="24" t="s">
         <v>1454</v>
@@ -36139,16 +36144,16 @@
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="E567" s="24" t="s">
         <v>1454</v>
@@ -36156,16 +36161,16 @@
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E568" s="24" t="s">
         <v>1454</v>
@@ -36173,16 +36178,16 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E569" s="24" t="s">
         <v>1454</v>
@@ -36190,16 +36195,16 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>3127</v>
+        <v>1602</v>
       </c>
       <c r="E570" s="24" t="s">
         <v>1454</v>
@@ -36216,7 +36221,7 @@
         <v>3130</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1602</v>
+        <v>3131</v>
       </c>
       <c r="E571" s="24" t="s">
         <v>1454</v>
@@ -36224,16 +36229,16 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E572" s="24" t="s">
         <v>1454</v>
@@ -36241,16 +36246,16 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E573" s="24" t="s">
         <v>1454</v>
@@ -36258,16 +36263,16 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E574" s="24" t="s">
         <v>1454</v>
@@ -36275,16 +36280,16 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="E575" s="24" t="s">
         <v>1454</v>
@@ -36292,16 +36297,16 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E576" s="24" t="s">
         <v>1454</v>
@@ -36309,16 +36314,16 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="E577" s="24" t="s">
         <v>1454</v>
@@ -36326,16 +36331,16 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E578" s="24" t="s">
         <v>1454</v>
@@ -36343,16 +36348,16 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="E579" s="24" t="s">
         <v>1454</v>
@@ -36360,16 +36365,16 @@
     </row>
     <row r="580" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="E580" s="24" t="s">
         <v>1454</v>
@@ -36377,16 +36382,16 @@
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="E581" s="24" t="s">
         <v>1454</v>
@@ -36394,16 +36399,16 @@
     </row>
     <row r="582" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="E582" s="24" t="s">
         <v>1454</v>
@@ -36411,16 +36416,16 @@
     </row>
     <row r="583" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="E583" s="24" t="s">
         <v>1454</v>
@@ -36428,16 +36433,16 @@
     </row>
     <row r="584" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="E584" s="24" t="s">
         <v>1454</v>
@@ -36445,16 +36450,16 @@
     </row>
     <row r="585" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="E585" s="24" t="s">
         <v>1454</v>
@@ -36462,16 +36467,16 @@
     </row>
     <row r="586" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="E586" s="24" t="s">
         <v>1454</v>
@@ -36479,16 +36484,16 @@
     </row>
     <row r="587" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="E587" s="24" t="s">
         <v>1454</v>
@@ -36496,16 +36501,16 @@
     </row>
     <row r="588" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="E588" s="24" t="s">
         <v>1454</v>
@@ -36513,16 +36518,16 @@
     </row>
     <row r="589" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E589" s="24" t="s">
         <v>1454</v>
@@ -36530,16 +36535,16 @@
     </row>
     <row r="590" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="E590" s="24" t="s">
         <v>1454</v>
@@ -36547,16 +36552,16 @@
     </row>
     <row r="591" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E591" s="24" t="s">
         <v>1454</v>
@@ -36564,16 +36569,16 @@
     </row>
     <row r="592" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="E592" s="24" t="s">
         <v>1454</v>
@@ -36581,16 +36586,16 @@
     </row>
     <row r="593" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="E593" s="24" t="s">
         <v>1454</v>
@@ -36598,16 +36603,16 @@
     </row>
     <row r="594" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="E594" s="24" t="s">
         <v>1454</v>
@@ -36615,16 +36620,16 @@
     </row>
     <row r="595" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E595" s="24" t="s">
         <v>1454</v>
@@ -36632,16 +36637,16 @@
     </row>
     <row r="596" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="E596" s="24" t="s">
         <v>1454</v>
@@ -36649,16 +36654,16 @@
     </row>
     <row r="597" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="E597" s="24" t="s">
         <v>1454</v>
@@ -36666,16 +36671,16 @@
     </row>
     <row r="598" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E598" s="24" t="s">
         <v>1454</v>
@@ -36683,16 +36688,16 @@
     </row>
     <row r="599" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>3242</v>
+        <v>1686</v>
       </c>
       <c r="E599" s="24" t="s">
         <v>1454</v>
@@ -36709,7 +36714,7 @@
         <v>3245</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1686</v>
+        <v>3246</v>
       </c>
       <c r="E600" s="24" t="s">
         <v>1454</v>
@@ -36717,16 +36722,16 @@
     </row>
     <row r="601" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="C601" s="4" t="s">
         <v>3248</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E601" s="24" t="s">
         <v>1454</v>
@@ -36734,16 +36739,16 @@
     </row>
     <row r="602" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>3250</v>
-      </c>
-      <c r="B602" s="4" t="s">
-        <v>3251</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>3251</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="E602" s="24" t="s">
         <v>1454</v>
@@ -36751,16 +36756,16 @@
     </row>
     <row r="603" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E603" s="24" t="s">
         <v>1454</v>
@@ -36768,16 +36773,16 @@
     </row>
     <row r="604" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E604" s="24" t="s">
         <v>1454</v>
@@ -36785,16 +36790,16 @@
     </row>
     <row r="605" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E605" s="24" t="s">
         <v>1454</v>
@@ -36802,16 +36807,16 @@
     </row>
     <row r="606" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E606" s="24" t="s">
         <v>1454</v>
@@ -36819,16 +36824,16 @@
     </row>
     <row r="607" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="E607" s="24" t="s">
         <v>1454</v>
@@ -36836,16 +36841,16 @@
     </row>
     <row r="608" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="E608" s="24" t="s">
         <v>1454</v>
@@ -36853,16 +36858,16 @@
     </row>
     <row r="609" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E609" s="24" t="s">
         <v>1454</v>
@@ -36870,16 +36875,16 @@
     </row>
     <row r="610" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E610" s="24" t="s">
         <v>1454</v>
@@ -36887,16 +36892,16 @@
     </row>
     <row r="611" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E611" s="24" t="s">
         <v>1454</v>
@@ -36904,16 +36909,16 @@
     </row>
     <row r="612" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>3291</v>
+        <v>1644</v>
       </c>
       <c r="E612" s="24" t="s">
         <v>1454</v>
@@ -36930,7 +36935,7 @@
         <v>3294</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>1644</v>
+        <v>3295</v>
       </c>
       <c r="E613" s="24" t="s">
         <v>1454</v>
@@ -36938,16 +36943,16 @@
     </row>
     <row r="614" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="E614" s="24" t="s">
         <v>1454</v>
@@ -36955,16 +36960,16 @@
     </row>
     <row r="615" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="E615" s="24" t="s">
         <v>1454</v>
@@ -36972,16 +36977,16 @@
     </row>
     <row r="616" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="E616" s="24" t="s">
         <v>1454</v>
@@ -36989,16 +36994,16 @@
     </row>
     <row r="617" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="E617" s="24" t="s">
         <v>1454</v>
@@ -37006,16 +37011,16 @@
     </row>
     <row r="618" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="E618" s="24" t="s">
         <v>1454</v>
@@ -37023,16 +37028,16 @@
     </row>
     <row r="619" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="E619" s="24" t="s">
         <v>1454</v>
@@ -37040,16 +37045,16 @@
     </row>
     <row r="620" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="E620" s="24" t="s">
         <v>1454</v>
@@ -37057,16 +37062,16 @@
     </row>
     <row r="621" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="E621" s="24" t="s">
         <v>1454</v>
@@ -37074,16 +37079,16 @@
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="E622" s="24" t="s">
         <v>1454</v>
@@ -37091,16 +37096,16 @@
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="E623" s="24" t="s">
         <v>1454</v>
@@ -37108,16 +37113,16 @@
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E624" s="24" t="s">
         <v>1454</v>
@@ -37125,16 +37130,16 @@
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="E625" s="24" t="s">
         <v>1454</v>
@@ -37142,16 +37147,16 @@
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E626" s="24" t="s">
         <v>1454</v>
@@ -37159,16 +37164,16 @@
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E627" s="24" t="s">
         <v>1454</v>
@@ -37176,16 +37181,16 @@
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E628" s="24" t="s">
         <v>1454</v>
@@ -37193,16 +37198,16 @@
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="E629" s="24" t="s">
         <v>1454</v>
@@ -37210,16 +37215,16 @@
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="E630" s="24" t="s">
         <v>1454</v>
@@ -37227,16 +37232,16 @@
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="E631" s="24" t="s">
         <v>1454</v>
@@ -37244,58 +37249,58 @@
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E632" s="24" t="s">
-        <v>1454</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E633" s="24" t="s">
-        <v>1948</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D634" s="4" t="s">
         <v>3378</v>
       </c>
-      <c r="E634" s="24" t="s">
-        <v>1978</v>
+      <c r="D634" s="11" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E634" s="26" t="n">
+        <v>45451</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>1451</v>
@@ -37312,16 +37317,16 @@
     </row>
     <row r="636" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="C636" s="27" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="E636" s="24" t="s">
         <v>1948</v>
@@ -37329,7 +37334,7 @@
     </row>
     <row r="637" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="B637" s="4" t="s">
         <v>20</v>
@@ -37346,7 +37351,7 @@
     </row>
     <row r="638" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="B638" s="4" t="s">
         <v>120</v>
@@ -37363,16 +37368,16 @@
     </row>
     <row r="639" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="E639" s="24" t="s">
         <v>1454</v>
@@ -37380,7 +37385,7 @@
     </row>
     <row r="640" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>16</v>
@@ -37397,16 +37402,16 @@
     </row>
     <row r="641" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="B641" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="E641" s="24" t="s">
         <v>1454</v>
@@ -37414,16 +37419,16 @@
     </row>
     <row r="642" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="E642" s="24" t="s">
         <v>1454</v>
@@ -37444,7 +37449,7 @@
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E635"/>
+  <autoFilter ref="A:E"/>
   <conditionalFormatting sqref="A631:D1048576 A1:D629 A630:B630 D630">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6"/>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" state="visible" r:id="rId3"/>
@@ -2769,7 +2769,26 @@
     <t xml:space="preserve">フラムラピス</t>
   </si>
   <si>
-    <t xml:space="preserve">聖職者,杖,大食い,タイタン,水</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">聖職者,杖,大食い,タイタン,水,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">魔剣</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">キッド</t>
@@ -10230,7 +10249,7 @@
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10297,6 +10316,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <b val="true"/>
@@ -10479,11 +10505,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10499,7 +10525,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22275,8 +22301,8 @@
   </sheetPr>
   <dimension ref="A1:G278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D233" activeCellId="0" sqref="D233"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26506,8 +26532,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C535" activeCellId="0" sqref="C535"/>
     </sheetView>

--- a/data.xlsx
+++ b/data.xlsx
@@ -6231,6 +6231,15 @@
     <t xml:space="preserve">2024-06-21 00:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">book.char375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エンフォーサー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforcer</t>
+  </si>
+  <si>
     <t xml:space="preserve">book.char39</t>
   </si>
   <si>
@@ -7674,6 +7683,15 @@
     <t xml:space="preserve">Ashtear</t>
   </si>
   <si>
+    <t xml:space="preserve">c101060171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韜晦の討手 レンリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renri (Alter)</t>
+  </si>
+  <si>
     <t xml:space="preserve">c101070011</t>
   </si>
   <si>
@@ -10282,38 +10300,19 @@
   </si>
   <si>
     <t xml:space="preserve">Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c101060171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韜晦の討手 レンリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renri (Alter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book.char375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エンフォーサー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforcer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -10480,111 +10479,111 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -26729,9 +26728,9 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D648" activeCellId="0" sqref="D648"/>
+      <selection pane="bottomLeft" activeCell="D253" activeCellId="0" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30062,7 +30061,7 @@
         <v>2067</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>82</v>
+        <v>716</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>2068</v>
@@ -30070,8 +30069,8 @@
       <c r="D196" s="4" t="s">
         <v>2069</v>
       </c>
-      <c r="E196" s="24" t="s">
-        <v>1469</v>
+      <c r="E196" s="26" t="n">
+        <v>45479</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30079,7 +30078,7 @@
         <v>2070</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>2071</v>
@@ -30096,7 +30095,7 @@
         <v>2073</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>2074</v>
@@ -30113,7 +30112,7 @@
         <v>2076</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>2077</v>
@@ -30130,7 +30129,7 @@
         <v>2079</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>2080</v>
@@ -30138,8 +30137,8 @@
       <c r="D200" s="4" t="s">
         <v>2081</v>
       </c>
-      <c r="E200" s="25" t="s">
-        <v>1497</v>
+      <c r="E200" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30147,7 +30146,7 @@
         <v>2082</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>2083</v>
@@ -30155,8 +30154,8 @@
       <c r="D201" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="E201" s="24" t="s">
-        <v>1469</v>
+      <c r="E201" s="25" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30164,7 +30163,7 @@
         <v>2085</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>2086</v>
@@ -30181,7 +30180,7 @@
         <v>2088</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>2089</v>
@@ -30198,7 +30197,7 @@
         <v>2091</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>2092</v>
@@ -30206,8 +30205,8 @@
       <c r="D204" s="4" t="s">
         <v>2093</v>
       </c>
-      <c r="E204" s="25" t="s">
-        <v>1497</v>
+      <c r="E204" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30215,7 +30214,7 @@
         <v>2094</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>2095</v>
@@ -30223,8 +30222,8 @@
       <c r="D205" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="E205" s="24" t="s">
-        <v>1469</v>
+      <c r="E205" s="25" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30232,7 +30231,7 @@
         <v>2097</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>2098</v>
@@ -30249,7 +30248,7 @@
         <v>2100</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>2101</v>
@@ -30266,7 +30265,7 @@
         <v>2103</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>2104</v>
@@ -30283,7 +30282,7 @@
         <v>2106</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>2107</v>
@@ -30300,7 +30299,7 @@
         <v>2109</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>2110</v>
@@ -30317,7 +30316,7 @@
         <v>2112</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>2113</v>
@@ -30334,7 +30333,7 @@
         <v>2115</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>2116</v>
@@ -30342,8 +30341,8 @@
       <c r="D212" s="4" t="s">
         <v>2117</v>
       </c>
-      <c r="E212" s="25" t="s">
-        <v>1497</v>
+      <c r="E212" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30351,7 +30350,7 @@
         <v>2118</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>2119</v>
@@ -30359,8 +30358,8 @@
       <c r="D213" s="4" t="s">
         <v>2120</v>
       </c>
-      <c r="E213" s="24" t="s">
-        <v>1469</v>
+      <c r="E213" s="25" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30368,7 +30367,7 @@
         <v>2121</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>2122</v>
@@ -30385,7 +30384,7 @@
         <v>2124</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>2125</v>
@@ -30402,7 +30401,7 @@
         <v>2127</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>2128</v>
@@ -30419,7 +30418,7 @@
         <v>2130</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>2131</v>
@@ -30436,7 +30435,7 @@
         <v>2133</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>2134</v>
@@ -30453,7 +30452,7 @@
         <v>2136</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>2137</v>
@@ -30470,7 +30469,7 @@
         <v>2139</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2140</v>
@@ -30487,7 +30486,7 @@
         <v>2142</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2143</v>
@@ -30504,7 +30503,7 @@
         <v>2145</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>2146</v>
@@ -30521,7 +30520,7 @@
         <v>2148</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2149</v>
@@ -30538,7 +30537,7 @@
         <v>2151</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2152</v>
@@ -30555,7 +30554,7 @@
         <v>2154</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2155</v>
@@ -30572,7 +30571,7 @@
         <v>2157</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2158</v>
@@ -30589,7 +30588,7 @@
         <v>2160</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>2161</v>
@@ -30606,7 +30605,7 @@
         <v>2163</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>2164</v>
@@ -30623,7 +30622,7 @@
         <v>2166</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>2167</v>
@@ -30640,7 +30639,7 @@
         <v>2169</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2170</v>
@@ -30657,7 +30656,7 @@
         <v>2172</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>2173</v>
@@ -30674,7 +30673,7 @@
         <v>2175</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>2176</v>
@@ -30691,7 +30690,7 @@
         <v>2178</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>2179</v>
@@ -30708,7 +30707,7 @@
         <v>2181</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>2182</v>
@@ -30725,7 +30724,7 @@
         <v>2184</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>2185</v>
@@ -30742,7 +30741,7 @@
         <v>2187</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>2188</v>
@@ -30759,7 +30758,7 @@
         <v>2190</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>2191</v>
@@ -30776,7 +30775,7 @@
         <v>2193</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>724</v>
+        <v>186</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2194</v>
@@ -30793,7 +30792,7 @@
         <v>2196</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>2197</v>
@@ -30801,8 +30800,8 @@
       <c r="D239" s="4" t="s">
         <v>2198</v>
       </c>
-      <c r="E239" s="25" t="s">
-        <v>2066</v>
+      <c r="E239" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30810,7 +30809,7 @@
         <v>2199</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>2200</v>
@@ -30818,25 +30817,25 @@
       <c r="D240" s="4" t="s">
         <v>2201</v>
       </c>
-      <c r="E240" s="24" t="s">
-        <v>2202</v>
+      <c r="E240" s="25" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>2203</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="C241" s="4" t="s">
+      <c r="D241" s="4" t="s">
         <v>2204</v>
       </c>
-      <c r="D241" s="4" t="s">
+      <c r="E241" s="24" t="s">
         <v>2205</v>
-      </c>
-      <c r="E241" s="24" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30844,7 +30843,7 @@
         <v>2206</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>2207</v>
@@ -30861,7 +30860,7 @@
         <v>2209</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>2210</v>
@@ -30870,7 +30869,7 @@
         <v>2211</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>2202</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30878,7 +30877,7 @@
         <v>2212</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>2213</v>
@@ -30887,7 +30886,7 @@
         <v>2214</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>1469</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30895,7 +30894,7 @@
         <v>2215</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>2216</v>
@@ -30903,8 +30902,8 @@
       <c r="D245" s="4" t="s">
         <v>2217</v>
       </c>
-      <c r="E245" s="25" t="s">
-        <v>2049</v>
+      <c r="E245" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30912,7 +30911,7 @@
         <v>2218</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>2219</v>
@@ -30920,8 +30919,8 @@
       <c r="D246" s="4" t="s">
         <v>2220</v>
       </c>
-      <c r="E246" s="24" t="s">
-        <v>2202</v>
+      <c r="E246" s="25" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30929,7 +30928,7 @@
         <v>2221</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>2222</v>
@@ -30938,7 +30937,7 @@
         <v>2223</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>1469</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30946,7 +30945,7 @@
         <v>2224</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>2225</v>
@@ -30963,7 +30962,7 @@
         <v>2227</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>2228</v>
@@ -30972,7 +30971,7 @@
         <v>2229</v>
       </c>
       <c r="E249" s="24" t="s">
-        <v>1971</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30980,7 +30979,7 @@
         <v>2230</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>2231</v>
@@ -30989,7 +30988,7 @@
         <v>2232</v>
       </c>
       <c r="E250" s="24" t="s">
-        <v>2004</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30997,7 +30996,7 @@
         <v>2233</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>2234</v>
@@ -31005,8 +31004,8 @@
       <c r="D251" s="4" t="s">
         <v>2235</v>
       </c>
-      <c r="E251" s="25" t="s">
-        <v>2059</v>
+      <c r="E251" s="24" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31014,7 +31013,7 @@
         <v>2236</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>2237</v>
@@ -31031,7 +31030,7 @@
         <v>2239</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>2240</v>
@@ -31039,8 +31038,8 @@
       <c r="D253" s="4" t="s">
         <v>2241</v>
       </c>
-      <c r="E253" s="24" t="s">
-        <v>2012</v>
+      <c r="E253" s="25" t="s">
+        <v>2059</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31048,27 +31047,27 @@
         <v>2242</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>13</v>
+        <v>745</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1205</v>
+        <v>2243</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="E254" s="24" t="s">
-        <v>1469</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>2245</v>
+        <v>13</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1332</v>
+        <v>1205</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>2246</v>
@@ -31082,13 +31081,13 @@
         <v>2247</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>23</v>
+        <v>2248</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1274</v>
+        <v>1332</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="E256" s="24" t="s">
         <v>1469</v>
@@ -31096,16 +31095,16 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="E257" s="24" t="s">
         <v>1469</v>
@@ -31113,16 +31112,16 @@
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E258" s="24" t="s">
         <v>1469</v>
@@ -31130,16 +31129,16 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1111</v>
+        <v>1272</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="E259" s="24" t="s">
         <v>1469</v>
@@ -31147,13 +31146,13 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>2256</v>
+        <v>47</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1288</v>
+        <v>1111</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>2257</v>
@@ -31167,13 +31166,13 @@
         <v>2258</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>50</v>
+        <v>2259</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1258</v>
+        <v>1288</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E261" s="24" t="s">
         <v>1469</v>
@@ -31181,16 +31180,16 @@
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>461</v>
+        <v>50</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1334</v>
+        <v>1258</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="E262" s="24" t="s">
         <v>1469</v>
@@ -31198,16 +31197,16 @@
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>55</v>
+        <v>461</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>903</v>
+        <v>1334</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="E263" s="24" t="s">
         <v>1469</v>
@@ -31215,16 +31214,16 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1260</v>
+        <v>903</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="E264" s="24" t="s">
         <v>1469</v>
@@ -31232,16 +31231,16 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>994</v>
+        <v>1260</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="E265" s="24" t="s">
         <v>1469</v>
@@ -31249,13 +31248,13 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>2269</v>
+        <v>61</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1281</v>
+        <v>994</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>2270</v>
@@ -31269,13 +31268,13 @@
         <v>2271</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>616</v>
+        <v>2272</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1317</v>
+        <v>1281</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="E267" s="24" t="s">
         <v>1469</v>
@@ -31283,16 +31282,16 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>65</v>
+        <v>616</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1196</v>
+        <v>1317</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="E268" s="24" t="s">
         <v>1469</v>
@@ -31300,16 +31299,16 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1301</v>
+        <v>1196</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="E269" s="24" t="s">
         <v>1469</v>
@@ -31317,16 +31316,16 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1253</v>
+        <v>1301</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="E270" s="24" t="s">
         <v>1469</v>
@@ -31334,13 +31333,13 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>2280</v>
+        <v>71</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1307</v>
+        <v>1253</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>2281</v>
@@ -31354,13 +31353,13 @@
         <v>2282</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>73</v>
+        <v>2283</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1244</v>
+        <v>1307</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="E272" s="24" t="s">
         <v>1469</v>
@@ -31368,16 +31367,16 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>1292</v>
+        <v>1244</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="E273" s="24" t="s">
         <v>1469</v>
@@ -31385,16 +31384,16 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1171</v>
+        <v>1292</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E274" s="24" t="s">
         <v>1469</v>
@@ -31402,16 +31401,16 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="E275" s="24" t="s">
         <v>1469</v>
@@ -31419,16 +31418,16 @@
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>1043</v>
+        <v>1148</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="E276" s="24" t="s">
         <v>1469</v>
@@ -31436,16 +31435,16 @@
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>922</v>
+        <v>1043</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="E277" s="24" t="s">
         <v>1469</v>
@@ -31453,16 +31452,16 @@
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="E278" s="24" t="s">
         <v>1469</v>
@@ -31470,16 +31469,16 @@
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="E279" s="24" t="s">
         <v>1469</v>
@@ -31487,16 +31486,16 @@
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>450</v>
+        <v>102</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="E280" s="24" t="s">
         <v>1469</v>
@@ -31504,16 +31503,16 @@
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="E281" s="24" t="s">
         <v>1469</v>
@@ -31521,16 +31520,16 @@
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>541</v>
+        <v>469</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="E282" s="24" t="s">
         <v>1469</v>
@@ -31538,16 +31537,16 @@
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="E283" s="24" t="s">
         <v>1469</v>
@@ -31555,16 +31554,16 @@
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1337</v>
+        <v>803</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="E284" s="24" t="s">
         <v>1469</v>
@@ -31572,13 +31571,13 @@
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>2309</v>
+        <v>1337</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>2310</v>
@@ -31592,7 +31591,7 @@
         <v>2311</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>2312</v>
@@ -31609,61 +31608,61 @@
         <v>2314</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1382</v>
+        <v>2315</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>2315</v>
-      </c>
-      <c r="E287" s="25" t="s">
-        <v>2031</v>
+        <v>2316</v>
+      </c>
+      <c r="E287" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="E288" s="25" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>104</v>
+        <v>689</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1267</v>
+        <v>1388</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>2319</v>
-      </c>
-      <c r="E289" s="24" t="s">
-        <v>1469</v>
+        <v>2320</v>
+      </c>
+      <c r="E289" s="25" t="s">
+        <v>2035</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>2321</v>
+        <v>104</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1315</v>
+        <v>1267</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>2322</v>
@@ -31677,13 +31676,13 @@
         <v>2323</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>111</v>
+        <v>2324</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="E291" s="24" t="s">
         <v>1469</v>
@@ -31691,16 +31690,16 @@
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1233</v>
+        <v>1329</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="E292" s="24" t="s">
         <v>1469</v>
@@ -31708,16 +31707,16 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1092</v>
+        <v>1233</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E293" s="24" t="s">
         <v>1469</v>
@@ -31725,13 +31724,13 @@
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>2330</v>
+        <v>124</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1319</v>
+        <v>1092</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>2331</v>
@@ -31745,13 +31744,13 @@
         <v>2332</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>126</v>
+        <v>2333</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1246</v>
+        <v>1319</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="E295" s="24" t="s">
         <v>1469</v>
@@ -31759,16 +31758,16 @@
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1220</v>
+        <v>1246</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="E296" s="24" t="s">
         <v>1469</v>
@@ -31776,16 +31775,16 @@
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1082</v>
+        <v>1220</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="E297" s="24" t="s">
         <v>1469</v>
@@ -31793,16 +31792,16 @@
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="E298" s="24" t="s">
         <v>1469</v>
@@ -31810,16 +31809,16 @@
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1069</v>
+        <v>1097</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="E299" s="24" t="s">
         <v>1469</v>
@@ -31827,16 +31826,16 @@
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>495</v>
+        <v>143</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>841</v>
+        <v>1069</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="E300" s="24" t="s">
         <v>1469</v>
@@ -31844,13 +31843,13 @@
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>2345</v>
+        <v>841</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>2346</v>
@@ -31864,7 +31863,7 @@
         <v>2347</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>2348</v>
@@ -31881,13 +31880,13 @@
         <v>2350</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>774</v>
+        <v>2351</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="E303" s="24" t="s">
         <v>1469</v>
@@ -31895,67 +31894,67 @@
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>656</v>
+        <v>582</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1372</v>
+        <v>774</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="E304" s="24" t="s">
-        <v>2012</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1399</v>
+        <v>1372</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E305" s="25" t="s">
-        <v>2059</v>
+        <v>2356</v>
+      </c>
+      <c r="E305" s="24" t="s">
+        <v>2012</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>149</v>
+        <v>705</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1266</v>
+        <v>1399</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>2357</v>
-      </c>
-      <c r="E306" s="24" t="s">
-        <v>1469</v>
+        <v>2358</v>
+      </c>
+      <c r="E306" s="25" t="s">
+        <v>2059</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1304</v>
+        <v>1266</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E307" s="24" t="s">
         <v>1469</v>
@@ -31963,16 +31962,16 @@
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1269</v>
+        <v>1304</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="E308" s="24" t="s">
         <v>1469</v>
@@ -31980,16 +31979,16 @@
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E309" s="24" t="s">
         <v>1469</v>
@@ -31997,16 +31996,16 @@
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="E310" s="24" t="s">
         <v>1469</v>
@@ -32014,16 +32013,16 @@
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1262</v>
+        <v>1276</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="E311" s="24" t="s">
         <v>1469</v>
@@ -32031,16 +32030,16 @@
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1226</v>
+        <v>1262</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="E312" s="24" t="s">
         <v>1469</v>
@@ -32048,16 +32047,16 @@
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="E313" s="24" t="s">
         <v>1469</v>
@@ -32065,16 +32064,16 @@
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E314" s="24" t="s">
         <v>1469</v>
@@ -32082,16 +32081,16 @@
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1064</v>
+        <v>1176</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="E315" s="24" t="s">
         <v>1469</v>
@@ -32099,16 +32098,16 @@
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="E316" s="24" t="s">
         <v>1469</v>
@@ -32116,16 +32115,16 @@
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>996</v>
+        <v>1055</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E317" s="24" t="s">
         <v>1469</v>
@@ -32133,16 +32132,16 @@
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>938</v>
+        <v>996</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="E318" s="24" t="s">
         <v>1469</v>
@@ -32150,16 +32149,16 @@
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="E319" s="24" t="s">
         <v>1469</v>
@@ -32167,16 +32166,16 @@
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>788</v>
+        <v>919</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="E320" s="24" t="s">
         <v>1469</v>
@@ -32184,36 +32183,36 @@
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1352</v>
+        <v>788</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E321" s="24" t="s">
-        <v>1981</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>2389</v>
+        <v>1352</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>2390</v>
       </c>
       <c r="E322" s="24" t="s">
-        <v>2008</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32221,16 +32220,16 @@
         <v>2391</v>
       </c>
       <c r="B323" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C323" s="4" t="s">
         <v>2392</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>1279</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>2393</v>
       </c>
       <c r="E323" s="24" t="s">
-        <v>1469</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32238,13 +32237,13 @@
         <v>2394</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>577</v>
+        <v>2395</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>777</v>
+        <v>1279</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="E324" s="24" t="s">
         <v>1469</v>
@@ -32252,13 +32251,13 @@
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>2397</v>
+        <v>577</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1302</v>
+        <v>777</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>2398</v>
@@ -32275,7 +32274,7 @@
         <v>2400</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>2401</v>
@@ -32292,7 +32291,7 @@
         <v>2403</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>2404</v>
@@ -32309,7 +32308,7 @@
         <v>2406</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1323</v>
+        <v>1286</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>2407</v>
@@ -32323,13 +32322,13 @@
         <v>2408</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>203</v>
+        <v>2409</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1256</v>
+        <v>1323</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="E329" s="24" t="s">
         <v>1469</v>
@@ -32337,13 +32336,13 @@
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>2411</v>
+        <v>203</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1296</v>
+        <v>1256</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>2412</v>
@@ -32357,13 +32356,13 @@
         <v>2413</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>211</v>
+        <v>2414</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1215</v>
+        <v>1296</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="E331" s="24" t="s">
         <v>1469</v>
@@ -32371,16 +32370,16 @@
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1195</v>
+        <v>1215</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="E332" s="24" t="s">
         <v>1469</v>
@@ -32388,16 +32387,16 @@
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1164</v>
+        <v>1195</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="E333" s="24" t="s">
         <v>1469</v>
@@ -32405,16 +32404,16 @@
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1135</v>
+        <v>1164</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="E334" s="24" t="s">
         <v>1469</v>
@@ -32422,16 +32421,16 @@
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1087</v>
+        <v>1135</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E335" s="24" t="s">
         <v>1469</v>
@@ -32439,16 +32438,16 @@
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>438</v>
+        <v>230</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="E336" s="24" t="s">
         <v>1469</v>
@@ -32456,16 +32455,16 @@
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>981</v>
+        <v>1075</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="E337" s="24" t="s">
         <v>1469</v>
@@ -32473,16 +32472,16 @@
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>932</v>
+        <v>981</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E338" s="24" t="s">
         <v>1469</v>
@@ -32490,16 +32489,16 @@
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>888</v>
+        <v>932</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="E339" s="24" t="s">
         <v>1469</v>
@@ -32507,13 +32506,13 @@
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>571</v>
+        <v>239</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>2432</v>
+        <v>888</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>2433</v>
@@ -32527,50 +32526,50 @@
         <v>2434</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>666</v>
+        <v>571</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1375</v>
+        <v>2435</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E341" s="24" t="s">
-        <v>2019</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>2437</v>
-      </c>
-      <c r="E342" s="25" t="s">
-        <v>2056</v>
+        <v>2438</v>
+      </c>
+      <c r="E342" s="24" t="s">
+        <v>2019</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>2439</v>
+        <v>700</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1290</v>
+        <v>1396</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>2440</v>
       </c>
-      <c r="E343" s="24" t="s">
-        <v>1469</v>
+      <c r="E343" s="25" t="s">
+        <v>2056</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32578,13 +32577,13 @@
         <v>2441</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>474</v>
+        <v>2442</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E344" s="24" t="s">
         <v>1469</v>
@@ -32592,16 +32591,16 @@
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>243</v>
+        <v>474</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1271</v>
+        <v>1298</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="E345" s="24" t="s">
         <v>1469</v>
@@ -32609,13 +32608,13 @@
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>2446</v>
+        <v>243</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1311</v>
+        <v>1271</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>2447</v>
@@ -32629,13 +32628,13 @@
         <v>2448</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>253</v>
+        <v>2449</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E347" s="24" t="s">
         <v>1469</v>
@@ -32643,16 +32642,16 @@
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1066</v>
+        <v>1314</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E348" s="24" t="s">
         <v>1469</v>
@@ -32660,16 +32659,16 @@
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1295</v>
+        <v>1066</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="E349" s="24" t="s">
         <v>1469</v>
@@ -32677,16 +32676,16 @@
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1248</v>
+        <v>1295</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="E350" s="24" t="s">
         <v>1469</v>
@@ -32694,16 +32693,16 @@
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="E351" s="24" t="s">
         <v>1469</v>
@@ -32711,16 +32710,16 @@
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1153</v>
+        <v>1236</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="E352" s="24" t="s">
         <v>1469</v>
@@ -32728,16 +32727,16 @@
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1109</v>
+        <v>1153</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="E353" s="24" t="s">
         <v>1469</v>
@@ -32745,16 +32744,16 @@
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1035</v>
+        <v>1109</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="E354" s="24" t="s">
         <v>1469</v>
@@ -32762,16 +32761,16 @@
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="E355" s="24" t="s">
         <v>1469</v>
@@ -32779,16 +32778,16 @@
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>976</v>
+        <v>1019</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="E356" s="24" t="s">
         <v>1469</v>
@@ -32796,16 +32795,16 @@
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>916</v>
+        <v>976</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="E357" s="24" t="s">
         <v>1469</v>
@@ -32813,13 +32812,13 @@
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>2471</v>
+        <v>916</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>2472</v>
@@ -32833,7 +32832,7 @@
         <v>2473</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>2474</v>
@@ -32850,47 +32849,47 @@
         <v>2476</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>661</v>
+        <v>536</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1347</v>
+        <v>2477</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="E360" s="24" t="s">
-        <v>1963</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>289</v>
+        <v>661</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1218</v>
+        <v>1347</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="E361" s="24" t="s">
-        <v>1469</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>597</v>
+        <v>289</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1313</v>
+        <v>1218</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="E362" s="24" t="s">
         <v>1469</v>
@@ -32898,13 +32897,13 @@
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>2483</v>
+        <v>597</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>2484</v>
@@ -32921,7 +32920,7 @@
         <v>2486</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>2487</v>
@@ -32935,13 +32934,13 @@
         <v>2488</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>295</v>
+        <v>2489</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1264</v>
+        <v>1335</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="E365" s="24" t="s">
         <v>1469</v>
@@ -32949,13 +32948,13 @@
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>2491</v>
+        <v>295</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1325</v>
+        <v>1264</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>2492</v>
@@ -32969,13 +32968,13 @@
         <v>2493</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>299</v>
+        <v>2494</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1228</v>
+        <v>1325</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="E367" s="24" t="s">
         <v>1469</v>
@@ -32983,16 +32982,16 @@
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1187</v>
+        <v>1228</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="E368" s="24" t="s">
         <v>1469</v>
@@ -33000,16 +32999,16 @@
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1157</v>
+        <v>1187</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="E369" s="24" t="s">
         <v>1469</v>
@@ -33017,16 +33016,16 @@
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1125</v>
+        <v>1157</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="E370" s="24" t="s">
         <v>1469</v>
@@ -33034,16 +33033,16 @@
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E371" s="24" t="s">
         <v>1469</v>
@@ -33051,16 +33050,16 @@
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="E372" s="24" t="s">
         <v>1469</v>
@@ -33068,16 +33067,16 @@
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>961</v>
+        <v>1057</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="E373" s="24" t="s">
         <v>1469</v>
@@ -33085,16 +33084,16 @@
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>913</v>
+        <v>961</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="E374" s="24" t="s">
         <v>1469</v>
@@ -33102,16 +33101,16 @@
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="E375" s="24" t="s">
         <v>1469</v>
@@ -33119,16 +33118,16 @@
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>872</v>
+        <v>843</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="E376" s="24" t="s">
         <v>1469</v>
@@ -33136,53 +33135,53 @@
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>620</v>
+        <v>455</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>1350</v>
+        <v>872</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="E377" s="24" t="s">
-        <v>1963</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1992</v>
+        <v>2517</v>
       </c>
       <c r="E378" s="24" t="s">
-        <v>1993</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>2517</v>
+        <v>645</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1327</v>
+        <v>1355</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>2518</v>
+        <v>1992</v>
       </c>
       <c r="E379" s="24" t="s">
-        <v>1469</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33190,13 +33189,13 @@
         <v>2519</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>331</v>
+        <v>2520</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1275</v>
+        <v>1327</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E380" s="24" t="s">
         <v>1469</v>
@@ -33204,13 +33203,13 @@
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>2522</v>
+        <v>331</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1330</v>
+        <v>1275</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>2523</v>
@@ -33227,7 +33226,7 @@
         <v>2525</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1277</v>
+        <v>1330</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>2526</v>
@@ -33244,7 +33243,7 @@
         <v>2528</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1305</v>
+        <v>1277</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>2529</v>
@@ -33258,13 +33257,13 @@
         <v>2530</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>335</v>
+        <v>2531</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1250</v>
+        <v>1305</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="E384" s="24" t="s">
         <v>1469</v>
@@ -33272,16 +33271,16 @@
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="E385" s="24" t="s">
         <v>1469</v>
@@ -33289,16 +33288,16 @@
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1198</v>
+        <v>1235</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="E386" s="24" t="s">
         <v>1469</v>
@@ -33306,16 +33305,16 @@
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1178</v>
+        <v>1198</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="E387" s="24" t="s">
         <v>1469</v>
@@ -33323,16 +33322,16 @@
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1162</v>
+        <v>1178</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="E388" s="24" t="s">
         <v>1469</v>
@@ -33340,16 +33339,16 @@
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1078</v>
+        <v>1162</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="E389" s="24" t="s">
         <v>1469</v>
@@ -33357,16 +33356,16 @@
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>935</v>
+        <v>1078</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="E390" s="24" t="s">
         <v>1469</v>
@@ -33374,16 +33373,16 @@
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>467</v>
+        <v>351</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>864</v>
+        <v>935</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="E391" s="24" t="s">
         <v>1469</v>
@@ -33391,16 +33390,16 @@
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="E392" s="24" t="s">
         <v>1469</v>
@@ -33408,16 +33407,16 @@
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>365</v>
+        <v>501</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>987</v>
+        <v>838</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E393" s="24" t="s">
         <v>1469</v>
@@ -33425,33 +33424,33 @@
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>2551</v>
+        <v>713</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1293</v>
+        <v>2552</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E394" s="24" t="s">
-        <v>1469</v>
+        <v>2553</v>
+      </c>
+      <c r="E394" s="26" t="n">
+        <v>45479</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="E395" s="24" t="s">
         <v>1469</v>
@@ -33459,16 +33458,16 @@
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>368</v>
+        <v>2557</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1255</v>
+        <v>1293</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E396" s="24" t="s">
         <v>1469</v>
@@ -33476,16 +33475,16 @@
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>1251</v>
+        <v>971</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="E397" s="24" t="s">
         <v>1469</v>
@@ -33493,16 +33492,16 @@
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>2560</v>
+        <v>368</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1309</v>
+        <v>1255</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="E398" s="24" t="s">
         <v>1469</v>
@@ -33510,16 +33509,16 @@
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1183</v>
+        <v>1251</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="E399" s="24" t="s">
         <v>1469</v>
@@ -33527,16 +33526,16 @@
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>384</v>
+        <v>2566</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>1120</v>
+        <v>1309</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="E400" s="24" t="s">
         <v>1469</v>
@@ -33544,16 +33543,16 @@
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1047</v>
+        <v>1183</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="E401" s="24" t="s">
         <v>1469</v>
@@ -33561,16 +33560,16 @@
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>944</v>
+        <v>1120</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="E402" s="24" t="s">
         <v>1469</v>
@@ -33578,16 +33577,16 @@
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>891</v>
+        <v>1047</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="E403" s="24" t="s">
         <v>1469</v>
@@ -33595,16 +33594,16 @@
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>604</v>
+        <v>393</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>757</v>
+        <v>944</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="E404" s="24" t="s">
         <v>1469</v>
@@ -33612,33 +33611,33 @@
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="C405" s="11" t="s">
-        <v>2575</v>
+        <v>397</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>891</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>2576</v>
-      </c>
-      <c r="E405" s="25" t="s">
-        <v>2045</v>
+        <v>2577</v>
+      </c>
+      <c r="E405" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>399</v>
+        <v>604</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>1132</v>
+        <v>757</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="E406" s="24" t="s">
         <v>1469</v>
@@ -33646,33 +33645,33 @@
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>1095</v>
+        <v>694</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>2581</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>2580</v>
-      </c>
-      <c r="E407" s="24" t="s">
-        <v>1469</v>
+        <v>2582</v>
+      </c>
+      <c r="E407" s="25" t="s">
+        <v>2045</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>1031</v>
+        <v>1132</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="E408" s="24" t="s">
         <v>1469</v>
@@ -33680,16 +33679,16 @@
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>1028</v>
+        <v>1095</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="E409" s="24" t="s">
         <v>1469</v>
@@ -33697,16 +33696,16 @@
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>1099</v>
+        <v>1031</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="E410" s="24" t="s">
         <v>1469</v>
@@ -33714,16 +33713,16 @@
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>1104</v>
+        <v>1028</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="E411" s="24" t="s">
         <v>1469</v>
@@ -33731,16 +33730,16 @@
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>1008</v>
+        <v>1099</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="E412" s="24" t="s">
         <v>1469</v>
@@ -33748,16 +33747,16 @@
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>1017</v>
+        <v>1104</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="E413" s="24" t="s">
         <v>1469</v>
@@ -33765,16 +33764,16 @@
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="E414" s="24" t="s">
         <v>1469</v>
@@ -33782,16 +33781,16 @@
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="E415" s="24" t="s">
         <v>1469</v>
@@ -33799,16 +33798,16 @@
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>926</v>
+        <v>1015</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="E416" s="24" t="s">
         <v>1469</v>
@@ -33816,16 +33815,16 @@
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>923</v>
+        <v>1011</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="E417" s="24" t="s">
         <v>1469</v>
@@ -33833,16 +33832,16 @@
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="E418" s="24" t="s">
         <v>1469</v>
@@ -33850,16 +33849,16 @@
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="E419" s="24" t="s">
         <v>1469</v>
@@ -33867,16 +33866,16 @@
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>514</v>
+        <v>423</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="E420" s="24" t="s">
         <v>1469</v>
@@ -33884,16 +33883,16 @@
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>823</v>
+        <v>883</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="E421" s="24" t="s">
         <v>1469</v>
@@ -33901,16 +33900,16 @@
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="E422" s="24" t="s">
         <v>1469</v>
@@ -33918,16 +33917,16 @@
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="E423" s="24" t="s">
         <v>1469</v>
@@ -33935,50 +33934,50 @@
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>630</v>
+        <v>524</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1360</v>
+        <v>818</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="E424" s="24" t="s">
-        <v>1993</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>635</v>
+        <v>529</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1358</v>
+        <v>825</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="E425" s="24" t="s">
-        <v>1993</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="E426" s="24" t="s">
         <v>1993</v>
@@ -33986,50 +33985,50 @@
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>425</v>
+        <v>635</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1203</v>
+        <v>1358</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="E427" s="24" t="s">
-        <v>1469</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>427</v>
+        <v>640</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>1185</v>
+        <v>1362</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="E428" s="24" t="s">
-        <v>1469</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>684</v>
+        <v>425</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>1284</v>
+        <v>1203</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="E429" s="24" t="s">
         <v>1469</v>
@@ -34037,16 +34036,16 @@
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>1127</v>
+        <v>1185</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="E430" s="24" t="s">
         <v>1469</v>
@@ -34054,16 +34053,16 @@
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>433</v>
+        <v>684</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>982</v>
+        <v>1284</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="E431" s="24" t="s">
         <v>1469</v>
@@ -34071,16 +34070,16 @@
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>1238</v>
+        <v>1127</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="E432" s="24" t="s">
         <v>1469</v>
@@ -34088,16 +34087,16 @@
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1189</v>
+        <v>982</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E433" s="24" t="s">
         <v>1469</v>
@@ -34105,16 +34104,16 @@
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>1207</v>
+        <v>1238</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="E434" s="24" t="s">
         <v>1469</v>
@@ -34122,16 +34121,16 @@
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>1166</v>
+        <v>1189</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="E435" s="24" t="s">
         <v>1469</v>
@@ -34139,16 +34138,16 @@
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>2638</v>
+        <v>1207</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="E436" s="24" t="s">
         <v>1469</v>
@@ -34156,13 +34155,13 @@
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>33</v>
+        <v>442</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>2641</v>
+        <v>1166</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>2642</v>
@@ -34176,7 +34175,7 @@
         <v>2643</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>2644</v>
@@ -34193,7 +34192,7 @@
         <v>2646</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>2647</v>
@@ -34210,7 +34209,7 @@
         <v>2649</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>2650</v>
@@ -34227,7 +34226,7 @@
         <v>2652</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>2653</v>
@@ -34244,7 +34243,7 @@
         <v>2655</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>2656</v>
@@ -34261,7 +34260,7 @@
         <v>2658</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>2659</v>
@@ -34278,7 +34277,7 @@
         <v>2661</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>2662</v>
@@ -34295,7 +34294,7 @@
         <v>2664</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>2665</v>
@@ -34312,7 +34311,7 @@
         <v>2667</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>2668</v>
@@ -34329,7 +34328,7 @@
         <v>2670</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>2671</v>
@@ -34338,41 +34337,41 @@
         <v>2672</v>
       </c>
       <c r="E447" s="24" t="s">
-        <v>2673</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C448" s="4" t="s">
         <v>2674</v>
       </c>
-      <c r="B448" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C448" s="4" t="s">
+      <c r="D448" s="4" t="s">
         <v>2675</v>
       </c>
-      <c r="D448" s="4" t="s">
-        <v>2676</v>
-      </c>
       <c r="E448" s="24" t="s">
-        <v>2673</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C449" s="4" t="s">
         <v>2677</v>
       </c>
-      <c r="B449" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C449" s="4" t="s">
+      <c r="D449" s="4" t="s">
         <v>2678</v>
       </c>
-      <c r="D449" s="4" t="s">
+      <c r="E449" s="24" t="s">
         <v>2679</v>
-      </c>
-      <c r="E449" s="24" t="s">
-        <v>2673</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34380,7 +34379,7 @@
         <v>2680</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>2681</v>
@@ -34388,42 +34387,42 @@
       <c r="D450" s="4" t="s">
         <v>2682</v>
       </c>
-      <c r="E450" s="25" t="s">
-        <v>2683</v>
+      <c r="E450" s="24" t="s">
+        <v>2679</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C451" s="4" t="s">
         <v>2684</v>
       </c>
-      <c r="B451" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C451" s="4" t="s">
+      <c r="D451" s="4" t="s">
         <v>2685</v>
       </c>
-      <c r="D451" s="4" t="s">
-        <v>2686</v>
-      </c>
       <c r="E451" s="24" t="s">
-        <v>1469</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C452" s="4" t="s">
         <v>2687</v>
       </c>
-      <c r="B452" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C452" s="4" t="s">
+      <c r="D452" s="4" t="s">
         <v>2688</v>
       </c>
-      <c r="D452" s="4" t="s">
+      <c r="E452" s="25" t="s">
         <v>2689</v>
-      </c>
-      <c r="E452" s="24" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34431,7 +34430,7 @@
         <v>2690</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1437</v>
+        <v>293</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>2691</v>
@@ -34448,7 +34447,7 @@
         <v>2693</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>1440</v>
+        <v>402</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>2694</v>
@@ -34465,7 +34464,7 @@
         <v>2696</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>2697</v>
@@ -34482,7 +34481,7 @@
         <v>2699</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>2700</v>
@@ -34499,7 +34498,7 @@
         <v>2702</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>2703</v>
@@ -34516,7 +34515,7 @@
         <v>2705</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>2706</v>
@@ -34533,7 +34532,7 @@
         <v>2708</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>2709</v>
@@ -34550,7 +34549,7 @@
         <v>2711</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>435</v>
+        <v>1452</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>2712</v>
@@ -34567,959 +34566,959 @@
         <v>2714</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C461" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="C461" s="4" t="s">
+      <c r="D461" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="D461" s="4" t="s">
-        <v>2717</v>
-      </c>
       <c r="E461" s="24" t="s">
-        <v>2718</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D462" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="B462" s="4" t="s">
-        <v>2720</v>
-      </c>
-      <c r="C462" s="4" t="s">
-        <v>2721</v>
-      </c>
-      <c r="D462" s="4" t="s">
-        <v>2722</v>
-      </c>
       <c r="E462" s="24" t="s">
-        <v>2718</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D463" s="4" t="s">
         <v>2723</v>
       </c>
-      <c r="B463" s="4" t="s">
+      <c r="E463" s="24" t="s">
         <v>2724</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>2725</v>
-      </c>
-      <c r="D463" s="4" t="s">
-        <v>2726</v>
-      </c>
-      <c r="E463" s="24" t="s">
-        <v>2718</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C464" s="4" t="s">
         <v>2727</v>
       </c>
-      <c r="B464" s="4" t="s">
+      <c r="D464" s="4" t="s">
         <v>2728</v>
       </c>
-      <c r="C464" s="4" t="s">
-        <v>2729</v>
-      </c>
-      <c r="D464" s="4" t="s">
-        <v>2730</v>
-      </c>
       <c r="E464" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C465" s="4" t="s">
         <v>2731</v>
       </c>
-      <c r="B465" s="4" t="s">
+      <c r="D465" s="4" t="s">
         <v>2732</v>
       </c>
-      <c r="C465" s="4" t="s">
-        <v>2733</v>
-      </c>
-      <c r="D465" s="4" t="s">
-        <v>2734</v>
-      </c>
       <c r="E465" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C466" s="4" t="s">
         <v>2735</v>
       </c>
-      <c r="B466" s="4" t="s">
+      <c r="D466" s="4" t="s">
         <v>2736</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>2737</v>
-      </c>
-      <c r="D466" s="4" t="s">
-        <v>2738</v>
-      </c>
       <c r="E466" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C467" s="4" t="s">
         <v>2739</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="D467" s="4" t="s">
         <v>2740</v>
       </c>
-      <c r="C467" s="4" t="s">
-        <v>2741</v>
-      </c>
-      <c r="D467" s="4" t="s">
-        <v>2742</v>
-      </c>
       <c r="E467" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C468" s="4" t="s">
         <v>2743</v>
       </c>
-      <c r="B468" s="4" t="s">
+      <c r="D468" s="4" t="s">
         <v>2744</v>
       </c>
-      <c r="C468" s="4" t="s">
-        <v>2745</v>
-      </c>
-      <c r="D468" s="4" t="s">
-        <v>2746</v>
-      </c>
       <c r="E468" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>2747</v>
       </c>
-      <c r="B469" s="4" t="s">
+      <c r="D469" s="4" t="s">
         <v>2748</v>
       </c>
-      <c r="C469" s="26" t="s">
-        <v>2749</v>
-      </c>
-      <c r="D469" s="4" t="s">
-        <v>2750</v>
-      </c>
       <c r="E469" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>2751</v>
       </c>
-      <c r="B470" s="4" t="s">
+      <c r="D470" s="4" t="s">
         <v>2752</v>
       </c>
-      <c r="C470" s="4" t="s">
-        <v>2753</v>
-      </c>
-      <c r="D470" s="4" t="s">
-        <v>2754</v>
-      </c>
       <c r="E470" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C471" s="27" t="s">
         <v>2755</v>
       </c>
-      <c r="B471" s="4" t="s">
+      <c r="D471" s="4" t="s">
         <v>2756</v>
       </c>
-      <c r="C471" s="4" t="s">
-        <v>2757</v>
-      </c>
-      <c r="D471" s="4" t="s">
-        <v>2758</v>
-      </c>
       <c r="E471" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>2759</v>
       </c>
-      <c r="B472" s="4" t="s">
+      <c r="D472" s="4" t="s">
         <v>2760</v>
       </c>
-      <c r="C472" s="4" t="s">
-        <v>2761</v>
-      </c>
-      <c r="D472" s="4" t="s">
-        <v>2762</v>
-      </c>
       <c r="E472" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C473" s="4" t="s">
         <v>2763</v>
       </c>
-      <c r="B473" s="4" t="s">
+      <c r="D473" s="4" t="s">
         <v>2764</v>
       </c>
-      <c r="C473" s="4" t="s">
-        <v>2765</v>
-      </c>
-      <c r="D473" s="4" t="s">
-        <v>2766</v>
-      </c>
       <c r="E473" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C474" s="4" t="s">
         <v>2767</v>
       </c>
-      <c r="B474" s="4" t="s">
+      <c r="D474" s="4" t="s">
         <v>2768</v>
       </c>
-      <c r="C474" s="4" t="s">
-        <v>2769</v>
-      </c>
-      <c r="D474" s="4" t="s">
-        <v>2770</v>
-      </c>
       <c r="E474" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>2771</v>
       </c>
-      <c r="B475" s="4" t="s">
+      <c r="D475" s="4" t="s">
         <v>2772</v>
       </c>
-      <c r="C475" s="4" t="s">
-        <v>2773</v>
-      </c>
-      <c r="D475" s="4" t="s">
-        <v>2774</v>
-      </c>
       <c r="E475" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>2775</v>
       </c>
-      <c r="B476" s="4" t="s">
+      <c r="D476" s="4" t="s">
         <v>2776</v>
       </c>
-      <c r="C476" s="4" t="s">
-        <v>2777</v>
-      </c>
-      <c r="D476" s="4" t="s">
-        <v>2778</v>
-      </c>
       <c r="E476" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C477" s="4" t="s">
         <v>2779</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="D477" s="4" t="s">
         <v>2780</v>
       </c>
-      <c r="C477" s="4" t="s">
-        <v>2781</v>
-      </c>
-      <c r="D477" s="4" t="s">
-        <v>2782</v>
-      </c>
       <c r="E477" s="24" t="s">
-        <v>2783</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D478" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="B478" s="4" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>2786</v>
-      </c>
-      <c r="D478" s="4" t="s">
-        <v>2787</v>
-      </c>
       <c r="E478" s="24" t="s">
-        <v>2788</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E479" s="24" t="s">
         <v>2789</v>
-      </c>
-      <c r="B479" s="4" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C479" s="4" t="s">
-        <v>2791</v>
-      </c>
-      <c r="D479" s="4" t="s">
-        <v>2792</v>
-      </c>
-      <c r="E479" s="24" t="s">
-        <v>2793</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D480" s="4" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E480" s="24" t="s">
         <v>2794</v>
-      </c>
-      <c r="B480" s="4" t="s">
-        <v>2795</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>2796</v>
-      </c>
-      <c r="D480" s="4" t="s">
-        <v>2797</v>
-      </c>
-      <c r="E480" s="24" t="s">
-        <v>2793</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D481" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="E481" s="24" t="s">
         <v>2799</v>
-      </c>
-      <c r="C481" s="4" t="s">
-        <v>2800</v>
-      </c>
-      <c r="D481" s="4" t="s">
-        <v>2801</v>
-      </c>
-      <c r="E481" s="24" t="s">
-        <v>2793</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C482" s="4" t="s">
         <v>2802</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="D482" s="4" t="s">
         <v>2803</v>
       </c>
-      <c r="C482" s="4" t="s">
-        <v>2804</v>
-      </c>
-      <c r="D482" s="4" t="s">
-        <v>2805</v>
-      </c>
       <c r="E482" s="24" t="s">
-        <v>2718</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C483" s="4" t="s">
         <v>2806</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="D483" s="4" t="s">
         <v>2807</v>
       </c>
-      <c r="C483" s="4" t="s">
-        <v>2808</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>2809</v>
-      </c>
       <c r="E483" s="24" t="s">
-        <v>2718</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C484" s="4" t="s">
         <v>2810</v>
       </c>
-      <c r="B484" s="4" t="s">
+      <c r="D484" s="4" t="s">
         <v>2811</v>
       </c>
-      <c r="C484" s="4" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D484" s="4" t="s">
-        <v>2813</v>
-      </c>
       <c r="E484" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C485" s="4" t="s">
         <v>2814</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="D485" s="4" t="s">
         <v>2815</v>
       </c>
-      <c r="C485" s="4" t="s">
-        <v>2816</v>
-      </c>
-      <c r="D485" s="4" t="s">
-        <v>2817</v>
-      </c>
       <c r="E485" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C486" s="4" t="s">
         <v>2818</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="C486" s="4" t="s">
+      <c r="D486" s="4" t="s">
         <v>2819</v>
       </c>
-      <c r="D486" s="4" t="s">
-        <v>2820</v>
-      </c>
       <c r="E486" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B487" s="4" t="s">
         <v>2821</v>
       </c>
-      <c r="B487" s="4" t="s">
+      <c r="C487" s="4" t="s">
         <v>2822</v>
       </c>
-      <c r="C487" s="4" t="s">
+      <c r="D487" s="4" t="s">
         <v>2823</v>
       </c>
-      <c r="D487" s="4" t="s">
-        <v>2824</v>
-      </c>
       <c r="E487" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>2825</v>
       </c>
-      <c r="B488" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C488" s="4" t="s">
+      <c r="D488" s="4" t="s">
         <v>2826</v>
       </c>
-      <c r="D488" s="4" t="s">
-        <v>2827</v>
-      </c>
       <c r="E488" s="24" t="s">
-        <v>2012</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B489" s="4" t="s">
         <v>2828</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="C489" s="4" t="s">
         <v>2829</v>
       </c>
-      <c r="C489" s="4" t="s">
+      <c r="D489" s="4" t="s">
         <v>2830</v>
       </c>
-      <c r="D489" s="4" t="s">
-        <v>2831</v>
-      </c>
       <c r="E489" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="4" t="s">
         <v>2832</v>
       </c>
-      <c r="B490" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C490" s="4" t="s">
+      <c r="D490" s="4" t="s">
         <v>2833</v>
       </c>
-      <c r="D490" s="4" t="s">
-        <v>2834</v>
-      </c>
       <c r="E490" s="24" t="s">
-        <v>2718</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B491" s="4" t="s">
         <v>2835</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="C491" s="4" t="s">
         <v>2836</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="D491" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="D491" s="4" t="s">
-        <v>2838</v>
-      </c>
       <c r="E491" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>2839</v>
       </c>
-      <c r="B492" s="4" t="s">
+      <c r="D492" s="4" t="s">
         <v>2840</v>
       </c>
-      <c r="C492" s="4" t="s">
-        <v>2841</v>
-      </c>
-      <c r="D492" s="4" t="s">
-        <v>2842</v>
-      </c>
       <c r="E492" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="4" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C493" s="4" t="s">
         <v>2843</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="D493" s="4" t="s">
         <v>2844</v>
       </c>
-      <c r="C493" s="4" t="s">
-        <v>2845</v>
-      </c>
-      <c r="D493" s="4" t="s">
-        <v>2846</v>
-      </c>
       <c r="E493" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="4" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>2847</v>
       </c>
-      <c r="B494" s="4" t="s">
+      <c r="D494" s="4" t="s">
         <v>2848</v>
       </c>
-      <c r="C494" s="4" t="s">
-        <v>2849</v>
-      </c>
-      <c r="D494" s="4" t="s">
-        <v>2850</v>
-      </c>
       <c r="E494" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C495" s="4" t="s">
         <v>2851</v>
       </c>
-      <c r="B495" s="4" t="s">
+      <c r="D495" s="4" t="s">
         <v>2852</v>
       </c>
-      <c r="C495" s="4" t="s">
-        <v>2853</v>
-      </c>
-      <c r="D495" s="4" t="s">
-        <v>2854</v>
-      </c>
       <c r="E495" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>2855</v>
       </c>
-      <c r="B496" s="4" t="s">
+      <c r="D496" s="4" t="s">
         <v>2856</v>
       </c>
-      <c r="C496" s="26" t="s">
-        <v>2857</v>
-      </c>
-      <c r="D496" s="4" t="s">
-        <v>2858</v>
-      </c>
       <c r="E496" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C497" s="4" t="s">
         <v>2859</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="D497" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="C497" s="4" t="s">
-        <v>2861</v>
-      </c>
-      <c r="D497" s="4" t="s">
-        <v>2862</v>
-      </c>
       <c r="E497" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="4" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C498" s="27" t="s">
         <v>2863</v>
       </c>
-      <c r="B498" s="4" t="s">
+      <c r="D498" s="4" t="s">
         <v>2864</v>
       </c>
-      <c r="C498" s="4" t="s">
-        <v>2865</v>
-      </c>
-      <c r="D498" s="4" t="s">
-        <v>2866</v>
-      </c>
       <c r="E498" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C499" s="4" t="s">
         <v>2867</v>
       </c>
-      <c r="B499" s="4" t="s">
+      <c r="D499" s="4" t="s">
         <v>2868</v>
       </c>
-      <c r="C499" s="4" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D499" s="4" t="s">
-        <v>2870</v>
-      </c>
       <c r="E499" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>2871</v>
       </c>
-      <c r="B500" s="4" t="s">
+      <c r="D500" s="4" t="s">
         <v>2872</v>
       </c>
-      <c r="C500" s="4" t="s">
-        <v>2873</v>
-      </c>
-      <c r="D500" s="4" t="s">
-        <v>2874</v>
-      </c>
       <c r="E500" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C501" s="4" t="s">
         <v>2875</v>
       </c>
-      <c r="B501" s="4" t="s">
+      <c r="D501" s="4" t="s">
         <v>2876</v>
       </c>
-      <c r="C501" s="4" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D501" s="4" t="s">
-        <v>2878</v>
-      </c>
       <c r="E501" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C502" s="4" t="s">
         <v>2879</v>
       </c>
-      <c r="B502" s="4" t="s">
+      <c r="D502" s="4" t="s">
         <v>2880</v>
       </c>
-      <c r="C502" s="4" t="s">
-        <v>2881</v>
-      </c>
-      <c r="D502" s="4" t="s">
-        <v>2882</v>
-      </c>
       <c r="E502" s="24" t="s">
-        <v>2793</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C503" s="4" t="s">
         <v>2883</v>
       </c>
-      <c r="B503" s="4" t="s">
+      <c r="D503" s="4" t="s">
         <v>2884</v>
       </c>
-      <c r="C503" s="4" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D503" s="4" t="s">
-        <v>2886</v>
-      </c>
       <c r="E503" s="24" t="s">
-        <v>2793</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C504" s="4" t="s">
         <v>2887</v>
       </c>
-      <c r="B504" s="4" t="s">
+      <c r="D504" s="4" t="s">
         <v>2888</v>
       </c>
-      <c r="C504" s="4" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D504" s="4" t="s">
-        <v>2890</v>
-      </c>
       <c r="E504" s="24" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C505" s="4" t="s">
         <v>2891</v>
       </c>
-      <c r="B505" s="4" t="s">
+      <c r="D505" s="4" t="s">
         <v>2892</v>
       </c>
-      <c r="C505" s="4" t="s">
-        <v>2893</v>
-      </c>
-      <c r="D505" s="4" t="s">
-        <v>2894</v>
-      </c>
       <c r="E505" s="24" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C506" s="4" t="s">
         <v>2895</v>
       </c>
-      <c r="B506" s="4" t="s">
+      <c r="D506" s="4" t="s">
         <v>2896</v>
       </c>
-      <c r="C506" s="4" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D506" s="4" t="s">
-        <v>2898</v>
-      </c>
       <c r="E506" s="24" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C507" s="4" t="s">
         <v>2899</v>
       </c>
-      <c r="B507" s="4" t="s">
+      <c r="D507" s="4" t="s">
         <v>2900</v>
       </c>
-      <c r="C507" s="4" t="s">
-        <v>2901</v>
-      </c>
-      <c r="D507" s="4" t="s">
-        <v>2902</v>
-      </c>
       <c r="E507" s="24" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C508" s="4" t="s">
         <v>2903</v>
       </c>
-      <c r="B508" s="4" t="s">
+      <c r="D508" s="4" t="s">
         <v>2904</v>
       </c>
-      <c r="C508" s="4" t="s">
-        <v>2905</v>
-      </c>
-      <c r="D508" s="4" t="s">
-        <v>2906</v>
-      </c>
       <c r="E508" s="24" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C509" s="4" t="s">
         <v>2907</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="D509" s="4" t="s">
         <v>2908</v>
       </c>
-      <c r="C509" s="4" t="s">
-        <v>2909</v>
-      </c>
-      <c r="D509" s="4" t="s">
-        <v>2910</v>
-      </c>
       <c r="E509" s="24" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="4" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C510" s="4" t="s">
         <v>2911</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="D510" s="4" t="s">
         <v>2912</v>
       </c>
-      <c r="C510" s="4" t="s">
+      <c r="E510" s="24" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A511" s="4" t="s">
         <v>2913</v>
       </c>
-      <c r="D510" s="4" t="s">
+      <c r="B511" s="4" t="s">
         <v>2914</v>
       </c>
-      <c r="E510" s="24" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A511" s="11" t="s">
+      <c r="C511" s="4" t="s">
         <v>2915</v>
       </c>
-      <c r="B511" s="4" t="s">
+      <c r="D511" s="4" t="s">
         <v>2916</v>
       </c>
-      <c r="C511" s="4" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D511" s="4" t="s">
-        <v>2918</v>
-      </c>
       <c r="E511" s="24" t="s">
-        <v>2788</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C512" s="4" t="s">
         <v>2919</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="D512" s="4" t="s">
         <v>2920</v>
       </c>
-      <c r="C512" s="4" t="s">
+      <c r="E512" s="24" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A513" s="11" t="s">
         <v>2921</v>
       </c>
-      <c r="D512" s="4" t="s">
+      <c r="B513" s="4" t="s">
         <v>2922</v>
       </c>
-      <c r="E512" s="24" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A513" s="4" t="s">
+      <c r="C513" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="D513" s="4" t="s">
         <v>2924</v>
       </c>
-      <c r="C513" s="4" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D513" s="4" t="s">
-        <v>2926</v>
-      </c>
       <c r="E513" s="24" t="s">
-        <v>2718</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C514" s="4" t="s">
         <v>2927</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="D514" s="4" t="s">
         <v>2928</v>
       </c>
-      <c r="C514" s="4" t="s">
-        <v>2929</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>2930</v>
-      </c>
       <c r="E514" s="24" t="s">
-        <v>2931</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D515" s="4" t="s">
         <v>2932</v>
       </c>
-      <c r="B515" s="4" t="s">
-        <v>2933</v>
-      </c>
-      <c r="C515" s="4" t="s">
-        <v>2934</v>
-      </c>
-      <c r="D515" s="4" t="s">
-        <v>2935</v>
-      </c>
       <c r="E515" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D516" s="4" t="s">
         <v>2936</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="E516" s="24" t="s">
         <v>2937</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>2938</v>
-      </c>
-      <c r="D516" s="4" t="s">
-        <v>2939</v>
-      </c>
-      <c r="E516" s="24" t="s">
-        <v>2718</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
-        <v>727</v>
+        <v>2938</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>728</v>
+        <v>2939</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>2940</v>
@@ -35528,80 +35527,80 @@
         <v>2941</v>
       </c>
       <c r="E517" s="24" t="s">
-        <v>2942</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="s">
-        <v>730</v>
+        <v>2942</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>731</v>
+        <v>2943</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="E518" s="24" t="s">
-        <v>2942</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="E519" s="24" t="s">
-        <v>2942</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>2947</v>
+        <v>731</v>
       </c>
       <c r="C520" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E520" s="24" t="s">
         <v>2948</v>
-      </c>
-      <c r="D520" s="4" t="s">
-        <v>2949</v>
-      </c>
-      <c r="E520" s="24" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="E521" s="24" t="s">
-        <v>2942</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
-        <v>2952</v>
+        <v>737</v>
       </c>
       <c r="B522" s="4" t="s">
         <v>2953</v>
@@ -35613,15 +35612,15 @@
         <v>2955</v>
       </c>
       <c r="E522" s="24" t="s">
-        <v>2012</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>2956</v>
@@ -35629,8 +35628,8 @@
       <c r="D523" s="4" t="s">
         <v>2957</v>
       </c>
-      <c r="E523" s="25" t="s">
-        <v>2059</v>
+      <c r="E523" s="24" t="s">
+        <v>2948</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35647,134 +35646,134 @@
         <v>2961</v>
       </c>
       <c r="E524" s="24" t="s">
-        <v>1469</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C525" s="4" t="s">
         <v>2962</v>
       </c>
-      <c r="B525" s="4" t="s">
+      <c r="D525" s="4" t="s">
         <v>2963</v>
       </c>
-      <c r="C525" s="4" t="s">
-        <v>2964</v>
-      </c>
-      <c r="D525" s="4" t="s">
-        <v>2965</v>
-      </c>
-      <c r="E525" s="24" t="s">
-        <v>1469</v>
+      <c r="E525" s="25" t="s">
+        <v>2059</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C526" s="4" t="s">
         <v>2966</v>
       </c>
-      <c r="B526" s="4" t="s">
+      <c r="D526" s="4" t="s">
         <v>2967</v>
       </c>
-      <c r="C526" s="4" t="s">
-        <v>2968</v>
-      </c>
-      <c r="D526" s="4" t="s">
-        <v>2969</v>
-      </c>
       <c r="E526" s="24" t="s">
-        <v>2718</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C527" s="4" t="s">
         <v>2970</v>
       </c>
-      <c r="B527" s="4" t="s">
+      <c r="D527" s="4" t="s">
         <v>2971</v>
       </c>
-      <c r="C527" s="4" t="s">
-        <v>2972</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>2973</v>
-      </c>
       <c r="E527" s="24" t="s">
-        <v>2718</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C528" s="4" t="s">
         <v>2974</v>
       </c>
-      <c r="B528" s="4" t="s">
+      <c r="D528" s="4" t="s">
         <v>2975</v>
       </c>
-      <c r="C528" s="4" t="s">
-        <v>2976</v>
-      </c>
-      <c r="D528" s="4" t="s">
-        <v>2977</v>
-      </c>
       <c r="E528" s="24" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C529" s="4" t="s">
         <v>2978</v>
       </c>
-      <c r="B529" s="4" t="s">
+      <c r="D529" s="4" t="s">
         <v>2979</v>
       </c>
-      <c r="C529" s="4" t="s">
-        <v>2980</v>
-      </c>
-      <c r="D529" s="4" t="s">
-        <v>2981</v>
-      </c>
       <c r="E529" s="24" t="s">
-        <v>2982</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D530" s="4" t="s">
         <v>2983</v>
       </c>
-      <c r="B530" s="4" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C530" s="4" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D530" s="4" t="s">
-        <v>2986</v>
-      </c>
       <c r="E530" s="24" t="s">
-        <v>1469</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D531" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="B531" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C531" s="4" t="s">
+      <c r="E531" s="24" t="s">
         <v>2988</v>
-      </c>
-      <c r="D531" s="4" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E531" s="24" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B532" s="4" t="s">
         <v>2990</v>
-      </c>
-      <c r="B532" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>2991</v>
@@ -35791,79 +35790,79 @@
         <v>2993</v>
       </c>
       <c r="B533" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C533" s="4" t="s">
         <v>2994</v>
       </c>
-      <c r="C533" s="4" t="s">
+      <c r="D533" s="4" t="s">
         <v>2995</v>
       </c>
-      <c r="D533" s="4" t="s">
-        <v>2996</v>
-      </c>
       <c r="E533" s="24" t="s">
-        <v>2982</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C534" s="4" t="s">
         <v>2997</v>
       </c>
-      <c r="B534" s="4" t="s">
+      <c r="D534" s="4" t="s">
         <v>2998</v>
       </c>
-      <c r="C534" s="4" t="s">
-        <v>2999</v>
-      </c>
-      <c r="D534" s="3"/>
       <c r="E534" s="24" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B535" s="4" t="s">
         <v>3000</v>
       </c>
-      <c r="B535" s="4" t="s">
+      <c r="C535" s="4" t="s">
         <v>3001</v>
       </c>
-      <c r="C535" s="4" t="s">
+      <c r="D535" s="4" t="s">
         <v>3002</v>
       </c>
-      <c r="D535" s="4" t="s">
-        <v>3003</v>
-      </c>
       <c r="E535" s="24" t="s">
-        <v>1469</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B536" s="4" t="s">
         <v>3004</v>
       </c>
-      <c r="B536" s="4" t="s">
+      <c r="C536" s="4" t="s">
         <v>3005</v>
       </c>
-      <c r="C536" s="4" t="s">
-        <v>3006</v>
-      </c>
-      <c r="D536" s="4" t="s">
-        <v>3007</v>
-      </c>
+      <c r="D536" s="3"/>
       <c r="E536" s="24" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C537" s="4" t="s">
         <v>3008</v>
       </c>
-      <c r="B537" s="4" t="s">
+      <c r="D537" s="4" t="s">
         <v>3009</v>
-      </c>
-      <c r="C537" s="4" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D537" s="4" t="s">
-        <v>3011</v>
       </c>
       <c r="E537" s="24" t="s">
         <v>1469</v>
@@ -35871,16 +35870,16 @@
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C538" s="4" t="s">
         <v>3012</v>
       </c>
-      <c r="B538" s="4" t="s">
+      <c r="D538" s="4" t="s">
         <v>3013</v>
-      </c>
-      <c r="C538" s="4" t="s">
-        <v>3014</v>
-      </c>
-      <c r="D538" s="4" t="s">
-        <v>3015</v>
       </c>
       <c r="E538" s="24" t="s">
         <v>1469</v>
@@ -35888,16 +35887,16 @@
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C539" s="4" t="s">
         <v>3016</v>
       </c>
-      <c r="B539" s="4" t="s">
+      <c r="D539" s="4" t="s">
         <v>3017</v>
-      </c>
-      <c r="C539" s="4" t="s">
-        <v>3018</v>
-      </c>
-      <c r="D539" s="4" t="s">
-        <v>3019</v>
       </c>
       <c r="E539" s="24" t="s">
         <v>1469</v>
@@ -35905,16 +35904,16 @@
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C540" s="4" t="s">
         <v>3020</v>
       </c>
-      <c r="B540" s="4" t="s">
+      <c r="D540" s="4" t="s">
         <v>3021</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>3022</v>
-      </c>
-      <c r="D540" s="4" t="s">
-        <v>3023</v>
       </c>
       <c r="E540" s="24" t="s">
         <v>1469</v>
@@ -35922,16 +35921,16 @@
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C541" s="4" t="s">
         <v>3024</v>
       </c>
-      <c r="B541" s="4" t="s">
+      <c r="D541" s="4" t="s">
         <v>3025</v>
-      </c>
-      <c r="C541" s="4" t="s">
-        <v>3026</v>
-      </c>
-      <c r="D541" s="4" t="s">
-        <v>3027</v>
       </c>
       <c r="E541" s="24" t="s">
         <v>1469</v>
@@ -35939,16 +35938,16 @@
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C542" s="4" t="s">
         <v>3028</v>
       </c>
-      <c r="B542" s="4" t="s">
+      <c r="D542" s="4" t="s">
         <v>3029</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>3030</v>
-      </c>
-      <c r="D542" s="4" t="s">
-        <v>3031</v>
       </c>
       <c r="E542" s="24" t="s">
         <v>1469</v>
@@ -35956,16 +35955,16 @@
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C543" s="4" t="s">
         <v>3032</v>
       </c>
-      <c r="B543" s="4" t="s">
+      <c r="D543" s="4" t="s">
         <v>3033</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>3034</v>
-      </c>
-      <c r="D543" s="4" t="s">
-        <v>3035</v>
       </c>
       <c r="E543" s="24" t="s">
         <v>1469</v>
@@ -35973,16 +35972,16 @@
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C544" s="4" t="s">
         <v>3036</v>
       </c>
-      <c r="B544" s="4" t="s">
+      <c r="D544" s="4" t="s">
         <v>3037</v>
-      </c>
-      <c r="C544" s="4" t="s">
-        <v>3038</v>
-      </c>
-      <c r="D544" s="4" t="s">
-        <v>3039</v>
       </c>
       <c r="E544" s="24" t="s">
         <v>1469</v>
@@ -35990,16 +35989,16 @@
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C545" s="4" t="s">
         <v>3040</v>
       </c>
-      <c r="B545" s="4" t="s">
+      <c r="D545" s="4" t="s">
         <v>3041</v>
-      </c>
-      <c r="C545" s="4" t="s">
-        <v>3042</v>
-      </c>
-      <c r="D545" s="4" t="s">
-        <v>3043</v>
       </c>
       <c r="E545" s="24" t="s">
         <v>1469</v>
@@ -36007,16 +36006,16 @@
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C546" s="4" t="s">
         <v>3044</v>
       </c>
-      <c r="B546" s="4" t="s">
+      <c r="D546" s="4" t="s">
         <v>3045</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>3046</v>
-      </c>
-      <c r="D546" s="4" t="s">
-        <v>3047</v>
       </c>
       <c r="E546" s="24" t="s">
         <v>1469</v>
@@ -36024,16 +36023,16 @@
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C547" s="4" t="s">
         <v>3048</v>
       </c>
-      <c r="B547" s="4" t="s">
+      <c r="D547" s="4" t="s">
         <v>3049</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>3050</v>
-      </c>
-      <c r="D547" s="4" t="s">
-        <v>3051</v>
       </c>
       <c r="E547" s="24" t="s">
         <v>1469</v>
@@ -36041,16 +36040,16 @@
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C548" s="4" t="s">
         <v>3052</v>
       </c>
-      <c r="B548" s="4" t="s">
+      <c r="D548" s="4" t="s">
         <v>3053</v>
-      </c>
-      <c r="C548" s="4" t="s">
-        <v>3054</v>
-      </c>
-      <c r="D548" s="4" t="s">
-        <v>3055</v>
       </c>
       <c r="E548" s="24" t="s">
         <v>1469</v>
@@ -36058,16 +36057,16 @@
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C549" s="4" t="s">
         <v>3056</v>
       </c>
-      <c r="B549" s="4" t="s">
+      <c r="D549" s="4" t="s">
         <v>3057</v>
-      </c>
-      <c r="C549" s="4" t="s">
-        <v>3058</v>
-      </c>
-      <c r="D549" s="4" t="s">
-        <v>3059</v>
       </c>
       <c r="E549" s="24" t="s">
         <v>1469</v>
@@ -36075,16 +36074,16 @@
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C550" s="4" t="s">
         <v>3060</v>
       </c>
-      <c r="B550" s="4" t="s">
+      <c r="D550" s="4" t="s">
         <v>3061</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>3062</v>
-      </c>
-      <c r="D550" s="4" t="s">
-        <v>3063</v>
       </c>
       <c r="E550" s="24" t="s">
         <v>1469</v>
@@ -36092,16 +36091,16 @@
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C551" s="4" t="s">
         <v>3064</v>
       </c>
-      <c r="B551" s="4" t="s">
+      <c r="D551" s="4" t="s">
         <v>3065</v>
-      </c>
-      <c r="C551" s="4" t="s">
-        <v>3066</v>
-      </c>
-      <c r="D551" s="4" t="s">
-        <v>3067</v>
       </c>
       <c r="E551" s="24" t="s">
         <v>1469</v>
@@ -36109,16 +36108,16 @@
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C552" s="4" t="s">
         <v>3068</v>
       </c>
-      <c r="B552" s="4" t="s">
+      <c r="D552" s="4" t="s">
         <v>3069</v>
-      </c>
-      <c r="C552" s="4" t="s">
-        <v>3070</v>
-      </c>
-      <c r="D552" s="4" t="s">
-        <v>3071</v>
       </c>
       <c r="E552" s="24" t="s">
         <v>1469</v>
@@ -36126,16 +36125,16 @@
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C553" s="4" t="s">
         <v>3072</v>
       </c>
-      <c r="B553" s="4" t="s">
+      <c r="D553" s="4" t="s">
         <v>3073</v>
-      </c>
-      <c r="C553" s="4" t="s">
-        <v>3074</v>
-      </c>
-      <c r="D553" s="4" t="s">
-        <v>3075</v>
       </c>
       <c r="E553" s="24" t="s">
         <v>1469</v>
@@ -36143,16 +36142,16 @@
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>3076</v>
       </c>
-      <c r="B554" s="4" t="s">
+      <c r="D554" s="4" t="s">
         <v>3077</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>3078</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>3079</v>
       </c>
       <c r="E554" s="24" t="s">
         <v>1469</v>
@@ -36160,16 +36159,16 @@
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C555" s="4" t="s">
         <v>3080</v>
       </c>
-      <c r="B555" s="4" t="s">
+      <c r="D555" s="4" t="s">
         <v>3081</v>
-      </c>
-      <c r="C555" s="4" t="s">
-        <v>3082</v>
-      </c>
-      <c r="D555" s="4" t="s">
-        <v>3083</v>
       </c>
       <c r="E555" s="24" t="s">
         <v>1469</v>
@@ -36177,16 +36176,16 @@
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C556" s="4" t="s">
         <v>3084</v>
       </c>
-      <c r="B556" s="4" t="s">
+      <c r="D556" s="4" t="s">
         <v>3085</v>
-      </c>
-      <c r="C556" s="4" t="s">
-        <v>3086</v>
-      </c>
-      <c r="D556" s="4" t="s">
-        <v>3087</v>
       </c>
       <c r="E556" s="24" t="s">
         <v>1469</v>
@@ -36194,16 +36193,16 @@
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C557" s="4" t="s">
         <v>3088</v>
       </c>
-      <c r="B557" s="4" t="s">
+      <c r="D557" s="4" t="s">
         <v>3089</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>3090</v>
-      </c>
-      <c r="D557" s="4" t="s">
-        <v>3091</v>
       </c>
       <c r="E557" s="24" t="s">
         <v>1469</v>
@@ -36211,16 +36210,16 @@
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C558" s="4" t="s">
         <v>3092</v>
       </c>
-      <c r="B558" s="4" t="s">
+      <c r="D558" s="4" t="s">
         <v>3093</v>
-      </c>
-      <c r="C558" s="4" t="s">
-        <v>3094</v>
-      </c>
-      <c r="D558" s="4" t="s">
-        <v>3095</v>
       </c>
       <c r="E558" s="24" t="s">
         <v>1469</v>
@@ -36228,16 +36227,16 @@
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C559" s="4" t="s">
         <v>3096</v>
       </c>
-      <c r="B559" s="4" t="s">
+      <c r="D559" s="4" t="s">
         <v>3097</v>
-      </c>
-      <c r="C559" s="4" t="s">
-        <v>3098</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>3099</v>
       </c>
       <c r="E559" s="24" t="s">
         <v>1469</v>
@@ -36245,16 +36244,16 @@
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C560" s="4" t="s">
         <v>3100</v>
       </c>
-      <c r="B560" s="4" t="s">
+      <c r="D560" s="4" t="s">
         <v>3101</v>
-      </c>
-      <c r="C560" s="4" t="s">
-        <v>3102</v>
-      </c>
-      <c r="D560" s="4" t="s">
-        <v>3103</v>
       </c>
       <c r="E560" s="24" t="s">
         <v>1469</v>
@@ -36262,16 +36261,16 @@
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C561" s="4" t="s">
         <v>3104</v>
       </c>
-      <c r="B561" s="4" t="s">
+      <c r="D561" s="4" t="s">
         <v>3105</v>
-      </c>
-      <c r="C561" s="4" t="s">
-        <v>2938</v>
-      </c>
-      <c r="D561" s="4" t="s">
-        <v>3106</v>
       </c>
       <c r="E561" s="24" t="s">
         <v>1469</v>
@@ -36279,16 +36278,16 @@
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B562" s="4" t="s">
         <v>3107</v>
       </c>
-      <c r="B562" s="4" t="s">
+      <c r="C562" s="4" t="s">
         <v>3108</v>
       </c>
-      <c r="C562" s="4" t="s">
+      <c r="D562" s="4" t="s">
         <v>3109</v>
-      </c>
-      <c r="D562" s="4" t="s">
-        <v>3110</v>
       </c>
       <c r="E562" s="24" t="s">
         <v>1469</v>
@@ -36296,16 +36295,16 @@
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B563" s="4" t="s">
         <v>3111</v>
       </c>
-      <c r="B563" s="4" t="s">
+      <c r="C563" s="4" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D563" s="4" t="s">
         <v>3112</v>
-      </c>
-      <c r="C563" s="4" t="s">
-        <v>3113</v>
-      </c>
-      <c r="D563" s="4" t="s">
-        <v>3114</v>
       </c>
       <c r="E563" s="24" t="s">
         <v>1469</v>
@@ -36313,16 +36312,16 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C564" s="4" t="s">
         <v>3115</v>
       </c>
-      <c r="B564" s="4" t="s">
+      <c r="D564" s="4" t="s">
         <v>3116</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>3117</v>
-      </c>
-      <c r="D564" s="4" t="s">
-        <v>3118</v>
       </c>
       <c r="E564" s="24" t="s">
         <v>1469</v>
@@ -36330,16 +36329,16 @@
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C565" s="4" t="s">
         <v>3119</v>
       </c>
-      <c r="B565" s="4" t="s">
+      <c r="D565" s="4" t="s">
         <v>3120</v>
-      </c>
-      <c r="C565" s="4" t="s">
-        <v>3121</v>
-      </c>
-      <c r="D565" s="4" t="s">
-        <v>3122</v>
       </c>
       <c r="E565" s="24" t="s">
         <v>1469</v>
@@ -36347,16 +36346,16 @@
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C566" s="4" t="s">
         <v>3123</v>
       </c>
-      <c r="B566" s="4" t="s">
+      <c r="D566" s="4" t="s">
         <v>3124</v>
-      </c>
-      <c r="C566" s="4" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D566" s="4" t="s">
-        <v>3126</v>
       </c>
       <c r="E566" s="24" t="s">
         <v>1469</v>
@@ -36364,16 +36363,16 @@
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C567" s="4" t="s">
         <v>3127</v>
       </c>
-      <c r="B567" s="4" t="s">
+      <c r="D567" s="4" t="s">
         <v>3128</v>
-      </c>
-      <c r="C567" s="4" t="s">
-        <v>3129</v>
-      </c>
-      <c r="D567" s="4" t="s">
-        <v>3130</v>
       </c>
       <c r="E567" s="24" t="s">
         <v>1469</v>
@@ -36381,16 +36380,16 @@
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C568" s="4" t="s">
         <v>3131</v>
       </c>
-      <c r="B568" s="4" t="s">
+      <c r="D568" s="4" t="s">
         <v>3132</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>3133</v>
-      </c>
-      <c r="D568" s="4" t="s">
-        <v>3134</v>
       </c>
       <c r="E568" s="24" t="s">
         <v>1469</v>
@@ -36398,16 +36397,16 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C569" s="4" t="s">
         <v>3135</v>
       </c>
-      <c r="B569" s="4" t="s">
+      <c r="D569" s="4" t="s">
         <v>3136</v>
-      </c>
-      <c r="C569" s="4" t="s">
-        <v>3137</v>
-      </c>
-      <c r="D569" s="4" t="s">
-        <v>3138</v>
       </c>
       <c r="E569" s="24" t="s">
         <v>1469</v>
@@ -36415,16 +36414,16 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C570" s="4" t="s">
         <v>3139</v>
       </c>
-      <c r="B570" s="4" t="s">
+      <c r="D570" s="4" t="s">
         <v>3140</v>
-      </c>
-      <c r="C570" s="4" t="s">
-        <v>3141</v>
-      </c>
-      <c r="D570" s="4" t="s">
-        <v>3142</v>
       </c>
       <c r="E570" s="24" t="s">
         <v>1469</v>
@@ -36432,16 +36431,16 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C571" s="4" t="s">
         <v>3143</v>
       </c>
-      <c r="B571" s="4" t="s">
+      <c r="D571" s="4" t="s">
         <v>3144</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D571" s="4" t="s">
-        <v>3146</v>
       </c>
       <c r="E571" s="24" t="s">
         <v>1469</v>
@@ -36449,16 +36448,16 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C572" s="4" t="s">
         <v>3147</v>
       </c>
-      <c r="B572" s="4" t="s">
+      <c r="D572" s="4" t="s">
         <v>3148</v>
-      </c>
-      <c r="C572" s="4" t="s">
-        <v>3149</v>
-      </c>
-      <c r="D572" s="4" t="s">
-        <v>1617</v>
       </c>
       <c r="E572" s="24" t="s">
         <v>1469</v>
@@ -36466,16 +36465,16 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B573" s="4" t="s">
         <v>3150</v>
       </c>
-      <c r="B573" s="4" t="s">
+      <c r="C573" s="4" t="s">
         <v>3151</v>
       </c>
-      <c r="C573" s="4" t="s">
+      <c r="D573" s="4" t="s">
         <v>3152</v>
-      </c>
-      <c r="D573" s="4" t="s">
-        <v>3153</v>
       </c>
       <c r="E573" s="24" t="s">
         <v>1469</v>
@@ -36483,16 +36482,16 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B574" s="4" t="s">
         <v>3154</v>
       </c>
-      <c r="B574" s="4" t="s">
+      <c r="C574" s="4" t="s">
         <v>3155</v>
       </c>
-      <c r="C574" s="4" t="s">
-        <v>3156</v>
-      </c>
       <c r="D574" s="4" t="s">
-        <v>3157</v>
+        <v>1617</v>
       </c>
       <c r="E574" s="24" t="s">
         <v>1469</v>
@@ -36500,16 +36499,16 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C575" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="B575" s="4" t="s">
+      <c r="D575" s="4" t="s">
         <v>3159</v>
-      </c>
-      <c r="C575" s="4" t="s">
-        <v>3160</v>
-      </c>
-      <c r="D575" s="4" t="s">
-        <v>3161</v>
       </c>
       <c r="E575" s="24" t="s">
         <v>1469</v>
@@ -36517,16 +36516,16 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C576" s="4" t="s">
         <v>3162</v>
       </c>
-      <c r="B576" s="4" t="s">
+      <c r="D576" s="4" t="s">
         <v>3163</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>3164</v>
-      </c>
-      <c r="D576" s="4" t="s">
-        <v>3165</v>
       </c>
       <c r="E576" s="24" t="s">
         <v>1469</v>
@@ -36534,16 +36533,16 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C577" s="4" t="s">
         <v>3166</v>
       </c>
-      <c r="B577" s="4" t="s">
+      <c r="D577" s="4" t="s">
         <v>3167</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>3168</v>
-      </c>
-      <c r="D577" s="4" t="s">
-        <v>3169</v>
       </c>
       <c r="E577" s="24" t="s">
         <v>1469</v>
@@ -36551,16 +36550,16 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C578" s="4" t="s">
         <v>3170</v>
       </c>
-      <c r="B578" s="4" t="s">
+      <c r="D578" s="4" t="s">
         <v>3171</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>3172</v>
-      </c>
-      <c r="D578" s="4" t="s">
-        <v>3173</v>
       </c>
       <c r="E578" s="24" t="s">
         <v>1469</v>
@@ -36568,16 +36567,16 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C579" s="4" t="s">
         <v>3174</v>
       </c>
-      <c r="B579" s="4" t="s">
+      <c r="D579" s="4" t="s">
         <v>3175</v>
-      </c>
-      <c r="C579" s="4" t="s">
-        <v>3176</v>
-      </c>
-      <c r="D579" s="4" t="s">
-        <v>3177</v>
       </c>
       <c r="E579" s="24" t="s">
         <v>1469</v>
@@ -36585,16 +36584,16 @@
     </row>
     <row r="580" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C580" s="4" t="s">
         <v>3178</v>
       </c>
-      <c r="B580" s="4" t="s">
+      <c r="D580" s="4" t="s">
         <v>3179</v>
-      </c>
-      <c r="C580" s="4" t="s">
-        <v>3180</v>
-      </c>
-      <c r="D580" s="4" t="s">
-        <v>3181</v>
       </c>
       <c r="E580" s="24" t="s">
         <v>1469</v>
@@ -36602,16 +36601,16 @@
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C581" s="4" t="s">
         <v>3182</v>
       </c>
-      <c r="B581" s="4" t="s">
+      <c r="D581" s="4" t="s">
         <v>3183</v>
-      </c>
-      <c r="C581" s="4" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D581" s="4" t="s">
-        <v>3185</v>
       </c>
       <c r="E581" s="24" t="s">
         <v>1469</v>
@@ -36619,16 +36618,16 @@
     </row>
     <row r="582" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C582" s="4" t="s">
         <v>3186</v>
       </c>
-      <c r="B582" s="4" t="s">
+      <c r="D582" s="4" t="s">
         <v>3187</v>
-      </c>
-      <c r="C582" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D582" s="4" t="s">
-        <v>3189</v>
       </c>
       <c r="E582" s="24" t="s">
         <v>1469</v>
@@ -36636,16 +36635,16 @@
     </row>
     <row r="583" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C583" s="4" t="s">
         <v>3190</v>
       </c>
-      <c r="B583" s="4" t="s">
+      <c r="D583" s="4" t="s">
         <v>3191</v>
-      </c>
-      <c r="C583" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="D583" s="4" t="s">
-        <v>3193</v>
       </c>
       <c r="E583" s="24" t="s">
         <v>1469</v>
@@ -36653,16 +36652,16 @@
     </row>
     <row r="584" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C584" s="4" t="s">
         <v>3194</v>
       </c>
-      <c r="B584" s="4" t="s">
+      <c r="D584" s="4" t="s">
         <v>3195</v>
-      </c>
-      <c r="C584" s="4" t="s">
-        <v>3196</v>
-      </c>
-      <c r="D584" s="4" t="s">
-        <v>3197</v>
       </c>
       <c r="E584" s="24" t="s">
         <v>1469</v>
@@ -36670,16 +36669,16 @@
     </row>
     <row r="585" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C585" s="4" t="s">
         <v>3198</v>
       </c>
-      <c r="B585" s="4" t="s">
+      <c r="D585" s="4" t="s">
         <v>3199</v>
-      </c>
-      <c r="C585" s="4" t="s">
-        <v>3200</v>
-      </c>
-      <c r="D585" s="4" t="s">
-        <v>3201</v>
       </c>
       <c r="E585" s="24" t="s">
         <v>1469</v>
@@ -36687,16 +36686,16 @@
     </row>
     <row r="586" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C586" s="4" t="s">
         <v>3202</v>
       </c>
-      <c r="B586" s="4" t="s">
+      <c r="D586" s="4" t="s">
         <v>3203</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>3204</v>
-      </c>
-      <c r="D586" s="4" t="s">
-        <v>3205</v>
       </c>
       <c r="E586" s="24" t="s">
         <v>1469</v>
@@ -36704,16 +36703,16 @@
     </row>
     <row r="587" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C587" s="4" t="s">
         <v>3206</v>
       </c>
-      <c r="B587" s="4" t="s">
+      <c r="D587" s="4" t="s">
         <v>3207</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>3208</v>
-      </c>
-      <c r="D587" s="4" t="s">
-        <v>3209</v>
       </c>
       <c r="E587" s="24" t="s">
         <v>1469</v>
@@ -36721,16 +36720,16 @@
     </row>
     <row r="588" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C588" s="4" t="s">
         <v>3210</v>
       </c>
-      <c r="B588" s="4" t="s">
+      <c r="D588" s="4" t="s">
         <v>3211</v>
-      </c>
-      <c r="C588" s="4" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D588" s="4" t="s">
-        <v>3213</v>
       </c>
       <c r="E588" s="24" t="s">
         <v>1469</v>
@@ -36738,16 +36737,16 @@
     </row>
     <row r="589" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C589" s="4" t="s">
         <v>3214</v>
       </c>
-      <c r="B589" s="4" t="s">
+      <c r="D589" s="4" t="s">
         <v>3215</v>
-      </c>
-      <c r="C589" s="4" t="s">
-        <v>3216</v>
-      </c>
-      <c r="D589" s="4" t="s">
-        <v>3217</v>
       </c>
       <c r="E589" s="24" t="s">
         <v>1469</v>
@@ -36755,16 +36754,16 @@
     </row>
     <row r="590" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C590" s="4" t="s">
         <v>3218</v>
       </c>
-      <c r="B590" s="4" t="s">
+      <c r="D590" s="4" t="s">
         <v>3219</v>
-      </c>
-      <c r="C590" s="4" t="s">
-        <v>3220</v>
-      </c>
-      <c r="D590" s="4" t="s">
-        <v>3221</v>
       </c>
       <c r="E590" s="24" t="s">
         <v>1469</v>
@@ -36772,16 +36771,16 @@
     </row>
     <row r="591" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C591" s="4" t="s">
         <v>3222</v>
       </c>
-      <c r="B591" s="4" t="s">
+      <c r="D591" s="4" t="s">
         <v>3223</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>3224</v>
-      </c>
-      <c r="D591" s="4" t="s">
-        <v>3225</v>
       </c>
       <c r="E591" s="24" t="s">
         <v>1469</v>
@@ -36789,16 +36788,16 @@
     </row>
     <row r="592" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C592" s="4" t="s">
         <v>3226</v>
       </c>
-      <c r="B592" s="4" t="s">
+      <c r="D592" s="4" t="s">
         <v>3227</v>
-      </c>
-      <c r="C592" s="4" t="s">
-        <v>3228</v>
-      </c>
-      <c r="D592" s="4" t="s">
-        <v>3229</v>
       </c>
       <c r="E592" s="24" t="s">
         <v>1469</v>
@@ -36806,16 +36805,16 @@
     </row>
     <row r="593" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C593" s="4" t="s">
         <v>3230</v>
       </c>
-      <c r="B593" s="4" t="s">
+      <c r="D593" s="4" t="s">
         <v>3231</v>
-      </c>
-      <c r="C593" s="4" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D593" s="4" t="s">
-        <v>3233</v>
       </c>
       <c r="E593" s="24" t="s">
         <v>1469</v>
@@ -36823,16 +36822,16 @@
     </row>
     <row r="594" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C594" s="4" t="s">
         <v>3234</v>
       </c>
-      <c r="B594" s="4" t="s">
+      <c r="D594" s="4" t="s">
         <v>3235</v>
-      </c>
-      <c r="C594" s="4" t="s">
-        <v>3236</v>
-      </c>
-      <c r="D594" s="4" t="s">
-        <v>3237</v>
       </c>
       <c r="E594" s="24" t="s">
         <v>1469</v>
@@ -36840,16 +36839,16 @@
     </row>
     <row r="595" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C595" s="4" t="s">
         <v>3238</v>
       </c>
-      <c r="B595" s="4" t="s">
+      <c r="D595" s="4" t="s">
         <v>3239</v>
-      </c>
-      <c r="C595" s="4" t="s">
-        <v>3240</v>
-      </c>
-      <c r="D595" s="4" t="s">
-        <v>3241</v>
       </c>
       <c r="E595" s="24" t="s">
         <v>1469</v>
@@ -36857,16 +36856,16 @@
     </row>
     <row r="596" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C596" s="4" t="s">
         <v>3242</v>
       </c>
-      <c r="B596" s="4" t="s">
+      <c r="D596" s="4" t="s">
         <v>3243</v>
-      </c>
-      <c r="C596" s="4" t="s">
-        <v>3244</v>
-      </c>
-      <c r="D596" s="4" t="s">
-        <v>3245</v>
       </c>
       <c r="E596" s="24" t="s">
         <v>1469</v>
@@ -36874,16 +36873,16 @@
     </row>
     <row r="597" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C597" s="4" t="s">
         <v>3246</v>
       </c>
-      <c r="B597" s="4" t="s">
+      <c r="D597" s="4" t="s">
         <v>3247</v>
-      </c>
-      <c r="C597" s="4" t="s">
-        <v>3248</v>
-      </c>
-      <c r="D597" s="4" t="s">
-        <v>3249</v>
       </c>
       <c r="E597" s="24" t="s">
         <v>1469</v>
@@ -36891,16 +36890,16 @@
     </row>
     <row r="598" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C598" s="4" t="s">
         <v>3250</v>
       </c>
-      <c r="B598" s="4" t="s">
+      <c r="D598" s="4" t="s">
         <v>3251</v>
-      </c>
-      <c r="C598" s="4" t="s">
-        <v>3252</v>
-      </c>
-      <c r="D598" s="4" t="s">
-        <v>3253</v>
       </c>
       <c r="E598" s="24" t="s">
         <v>1469</v>
@@ -36908,16 +36907,16 @@
     </row>
     <row r="599" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C599" s="4" t="s">
         <v>3254</v>
       </c>
-      <c r="B599" s="4" t="s">
+      <c r="D599" s="4" t="s">
         <v>3255</v>
-      </c>
-      <c r="C599" s="4" t="s">
-        <v>3256</v>
-      </c>
-      <c r="D599" s="4" t="s">
-        <v>3257</v>
       </c>
       <c r="E599" s="24" t="s">
         <v>1469</v>
@@ -36925,16 +36924,16 @@
     </row>
     <row r="600" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C600" s="4" t="s">
         <v>3258</v>
       </c>
-      <c r="B600" s="4" t="s">
+      <c r="D600" s="4" t="s">
         <v>3259</v>
-      </c>
-      <c r="C600" s="4" t="s">
-        <v>3260</v>
-      </c>
-      <c r="D600" s="4" t="s">
-        <v>3261</v>
       </c>
       <c r="E600" s="24" t="s">
         <v>1469</v>
@@ -36942,16 +36941,16 @@
     </row>
     <row r="601" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C601" s="4" t="s">
         <v>3262</v>
       </c>
-      <c r="B601" s="4" t="s">
+      <c r="D601" s="4" t="s">
         <v>3263</v>
-      </c>
-      <c r="C601" s="4" t="s">
-        <v>3264</v>
-      </c>
-      <c r="D601" s="4" t="s">
-        <v>1701</v>
       </c>
       <c r="E601" s="24" t="s">
         <v>1469</v>
@@ -36959,16 +36958,16 @@
     </row>
     <row r="602" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>3265</v>
       </c>
-      <c r="B602" s="4" t="s">
+      <c r="C602" s="4" t="s">
         <v>3266</v>
       </c>
-      <c r="C602" s="4" t="s">
+      <c r="D602" s="4" t="s">
         <v>3267</v>
-      </c>
-      <c r="D602" s="4" t="s">
-        <v>3268</v>
       </c>
       <c r="E602" s="24" t="s">
         <v>1469</v>
@@ -36976,16 +36975,16 @@
     </row>
     <row r="603" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B603" s="4" t="s">
         <v>3269</v>
-      </c>
-      <c r="B603" s="4" t="s">
-        <v>3270</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>3270</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>3270</v>
+        <v>1701</v>
       </c>
       <c r="E603" s="24" t="s">
         <v>1469</v>
@@ -37016,10 +37015,10 @@
         <v>3276</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="E605" s="24" t="s">
         <v>1469</v>
@@ -37027,16 +37026,16 @@
     </row>
     <row r="606" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C606" s="4" t="s">
         <v>3279</v>
       </c>
-      <c r="B606" s="4" t="s">
+      <c r="D606" s="4" t="s">
         <v>3280</v>
-      </c>
-      <c r="C606" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="D606" s="4" t="s">
-        <v>3282</v>
       </c>
       <c r="E606" s="24" t="s">
         <v>1469</v>
@@ -37044,16 +37043,16 @@
     </row>
     <row r="607" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C607" s="4" t="s">
         <v>3283</v>
       </c>
-      <c r="B607" s="4" t="s">
+      <c r="D607" s="4" t="s">
         <v>3284</v>
-      </c>
-      <c r="C607" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="D607" s="4" t="s">
-        <v>3286</v>
       </c>
       <c r="E607" s="24" t="s">
         <v>1469</v>
@@ -37061,16 +37060,16 @@
     </row>
     <row r="608" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C608" s="4" t="s">
         <v>3287</v>
       </c>
-      <c r="B608" s="4" t="s">
+      <c r="D608" s="4" t="s">
         <v>3288</v>
-      </c>
-      <c r="C608" s="4" t="s">
-        <v>3289</v>
-      </c>
-      <c r="D608" s="4" t="s">
-        <v>3290</v>
       </c>
       <c r="E608" s="24" t="s">
         <v>1469</v>
@@ -37078,16 +37077,16 @@
     </row>
     <row r="609" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C609" s="4" t="s">
         <v>3291</v>
       </c>
-      <c r="B609" s="4" t="s">
+      <c r="D609" s="4" t="s">
         <v>3292</v>
-      </c>
-      <c r="C609" s="4" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D609" s="4" t="s">
-        <v>3294</v>
       </c>
       <c r="E609" s="24" t="s">
         <v>1469</v>
@@ -37095,16 +37094,16 @@
     </row>
     <row r="610" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C610" s="4" t="s">
         <v>3295</v>
       </c>
-      <c r="B610" s="4" t="s">
+      <c r="D610" s="4" t="s">
         <v>3296</v>
-      </c>
-      <c r="C610" s="4" t="s">
-        <v>3297</v>
-      </c>
-      <c r="D610" s="4" t="s">
-        <v>3298</v>
       </c>
       <c r="E610" s="24" t="s">
         <v>1469</v>
@@ -37112,16 +37111,16 @@
     </row>
     <row r="611" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C611" s="4" t="s">
         <v>3299</v>
       </c>
-      <c r="B611" s="4" t="s">
+      <c r="D611" s="4" t="s">
         <v>3300</v>
-      </c>
-      <c r="C611" s="4" t="s">
-        <v>3301</v>
-      </c>
-      <c r="D611" s="4" t="s">
-        <v>3302</v>
       </c>
       <c r="E611" s="24" t="s">
         <v>1469</v>
@@ -37129,16 +37128,16 @@
     </row>
     <row r="612" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C612" s="4" t="s">
         <v>3303</v>
       </c>
-      <c r="B612" s="4" t="s">
+      <c r="D612" s="4" t="s">
         <v>3304</v>
-      </c>
-      <c r="C612" s="4" t="s">
-        <v>3305</v>
-      </c>
-      <c r="D612" s="4" t="s">
-        <v>3306</v>
       </c>
       <c r="E612" s="24" t="s">
         <v>1469</v>
@@ -37146,16 +37145,16 @@
     </row>
     <row r="613" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C613" s="4" t="s">
         <v>3307</v>
       </c>
-      <c r="B613" s="4" t="s">
+      <c r="D613" s="4" t="s">
         <v>3308</v>
-      </c>
-      <c r="C613" s="4" t="s">
-        <v>3309</v>
-      </c>
-      <c r="D613" s="4" t="s">
-        <v>3310</v>
       </c>
       <c r="E613" s="24" t="s">
         <v>1469</v>
@@ -37163,16 +37162,16 @@
     </row>
     <row r="614" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C614" s="4" t="s">
         <v>3311</v>
       </c>
-      <c r="B614" s="4" t="s">
+      <c r="D614" s="4" t="s">
         <v>3312</v>
-      </c>
-      <c r="C614" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="D614" s="4" t="s">
-        <v>1659</v>
       </c>
       <c r="E614" s="24" t="s">
         <v>1469</v>
@@ -37180,16 +37179,16 @@
     </row>
     <row r="615" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B615" s="4" t="s">
         <v>3314</v>
       </c>
-      <c r="B615" s="4" t="s">
+      <c r="C615" s="4" t="s">
         <v>3315</v>
       </c>
-      <c r="C615" s="4" t="s">
+      <c r="D615" s="4" t="s">
         <v>3316</v>
-      </c>
-      <c r="D615" s="4" t="s">
-        <v>3317</v>
       </c>
       <c r="E615" s="24" t="s">
         <v>1469</v>
@@ -37197,16 +37196,16 @@
     </row>
     <row r="616" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B616" s="4" t="s">
         <v>3318</v>
       </c>
-      <c r="B616" s="4" t="s">
+      <c r="C616" s="4" t="s">
         <v>3319</v>
       </c>
-      <c r="C616" s="4" t="s">
-        <v>3320</v>
-      </c>
       <c r="D616" s="4" t="s">
-        <v>3321</v>
+        <v>1659</v>
       </c>
       <c r="E616" s="24" t="s">
         <v>1469</v>
@@ -37214,16 +37213,16 @@
     </row>
     <row r="617" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C617" s="4" t="s">
         <v>3322</v>
       </c>
-      <c r="B617" s="4" t="s">
+      <c r="D617" s="4" t="s">
         <v>3323</v>
-      </c>
-      <c r="C617" s="4" t="s">
-        <v>3324</v>
-      </c>
-      <c r="D617" s="4" t="s">
-        <v>3325</v>
       </c>
       <c r="E617" s="24" t="s">
         <v>1469</v>
@@ -37231,16 +37230,16 @@
     </row>
     <row r="618" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C618" s="4" t="s">
         <v>3326</v>
       </c>
-      <c r="B618" s="4" t="s">
+      <c r="D618" s="4" t="s">
         <v>3327</v>
-      </c>
-      <c r="C618" s="4" t="s">
-        <v>3328</v>
-      </c>
-      <c r="D618" s="4" t="s">
-        <v>3329</v>
       </c>
       <c r="E618" s="24" t="s">
         <v>1469</v>
@@ -37248,16 +37247,16 @@
     </row>
     <row r="619" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C619" s="4" t="s">
         <v>3330</v>
       </c>
-      <c r="B619" s="4" t="s">
+      <c r="D619" s="4" t="s">
         <v>3331</v>
-      </c>
-      <c r="C619" s="4" t="s">
-        <v>3332</v>
-      </c>
-      <c r="D619" s="4" t="s">
-        <v>3333</v>
       </c>
       <c r="E619" s="24" t="s">
         <v>1469</v>
@@ -37265,16 +37264,16 @@
     </row>
     <row r="620" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C620" s="4" t="s">
         <v>3334</v>
       </c>
-      <c r="B620" s="4" t="s">
+      <c r="D620" s="4" t="s">
         <v>3335</v>
-      </c>
-      <c r="C620" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="D620" s="4" t="s">
-        <v>3337</v>
       </c>
       <c r="E620" s="24" t="s">
         <v>1469</v>
@@ -37282,16 +37281,16 @@
     </row>
     <row r="621" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C621" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="B621" s="4" t="s">
+      <c r="D621" s="4" t="s">
         <v>3339</v>
-      </c>
-      <c r="C621" s="4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="D621" s="4" t="s">
-        <v>3341</v>
       </c>
       <c r="E621" s="24" t="s">
         <v>1469</v>
@@ -37299,16 +37298,16 @@
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C622" s="4" t="s">
         <v>3342</v>
       </c>
-      <c r="B622" s="4" t="s">
+      <c r="D622" s="4" t="s">
         <v>3343</v>
-      </c>
-      <c r="C622" s="4" t="s">
-        <v>3344</v>
-      </c>
-      <c r="D622" s="4" t="s">
-        <v>3345</v>
       </c>
       <c r="E622" s="24" t="s">
         <v>1469</v>
@@ -37316,16 +37315,16 @@
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C623" s="4" t="s">
         <v>3346</v>
       </c>
-      <c r="B623" s="4" t="s">
+      <c r="D623" s="4" t="s">
         <v>3347</v>
-      </c>
-      <c r="C623" s="4" t="s">
-        <v>3348</v>
-      </c>
-      <c r="D623" s="4" t="s">
-        <v>3349</v>
       </c>
       <c r="E623" s="24" t="s">
         <v>1469</v>
@@ -37333,16 +37332,16 @@
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C624" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="B624" s="4" t="s">
+      <c r="D624" s="4" t="s">
         <v>3351</v>
-      </c>
-      <c r="C624" s="4" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D624" s="4" t="s">
-        <v>3353</v>
       </c>
       <c r="E624" s="24" t="s">
         <v>1469</v>
@@ -37350,16 +37349,16 @@
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C625" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="B625" s="4" t="s">
+      <c r="D625" s="4" t="s">
         <v>3355</v>
-      </c>
-      <c r="C625" s="4" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D625" s="4" t="s">
-        <v>3357</v>
       </c>
       <c r="E625" s="24" t="s">
         <v>1469</v>
@@ -37367,16 +37366,16 @@
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C626" s="4" t="s">
         <v>3358</v>
       </c>
-      <c r="B626" s="4" t="s">
+      <c r="D626" s="4" t="s">
         <v>3359</v>
-      </c>
-      <c r="C626" s="4" t="s">
-        <v>3360</v>
-      </c>
-      <c r="D626" s="4" t="s">
-        <v>3361</v>
       </c>
       <c r="E626" s="24" t="s">
         <v>1469</v>
@@ -37384,16 +37383,16 @@
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C627" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="B627" s="4" t="s">
+      <c r="D627" s="4" t="s">
         <v>3363</v>
-      </c>
-      <c r="C627" s="4" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D627" s="4" t="s">
-        <v>3365</v>
       </c>
       <c r="E627" s="24" t="s">
         <v>1469</v>
@@ -37401,16 +37400,16 @@
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C628" s="4" t="s">
         <v>3366</v>
       </c>
-      <c r="B628" s="4" t="s">
+      <c r="D628" s="4" t="s">
         <v>3367</v>
-      </c>
-      <c r="C628" s="4" t="s">
-        <v>3368</v>
-      </c>
-      <c r="D628" s="4" t="s">
-        <v>3369</v>
       </c>
       <c r="E628" s="24" t="s">
         <v>1469</v>
@@ -37418,16 +37417,16 @@
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C629" s="4" t="s">
         <v>3370</v>
       </c>
-      <c r="B629" s="4" t="s">
+      <c r="D629" s="4" t="s">
         <v>3371</v>
-      </c>
-      <c r="C629" s="4" t="s">
-        <v>3372</v>
-      </c>
-      <c r="D629" s="4" t="s">
-        <v>3373</v>
       </c>
       <c r="E629" s="24" t="s">
         <v>1469</v>
@@ -37435,16 +37434,16 @@
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C630" s="4" t="s">
         <v>3374</v>
       </c>
-      <c r="B630" s="4" t="s">
+      <c r="D630" s="4" t="s">
         <v>3375</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>3376</v>
-      </c>
-      <c r="D630" s="4" t="s">
-        <v>3377</v>
       </c>
       <c r="E630" s="24" t="s">
         <v>1469</v>
@@ -37452,16 +37451,16 @@
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C631" s="4" t="s">
         <v>3378</v>
       </c>
-      <c r="B631" s="4" t="s">
+      <c r="D631" s="4" t="s">
         <v>3379</v>
-      </c>
-      <c r="C631" s="4" t="s">
-        <v>3380</v>
-      </c>
-      <c r="D631" s="4" t="s">
-        <v>3381</v>
       </c>
       <c r="E631" s="24" t="s">
         <v>1469</v>
@@ -37469,16 +37468,16 @@
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C632" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="B632" s="4" t="s">
+      <c r="D632" s="4" t="s">
         <v>3383</v>
-      </c>
-      <c r="C632" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="D632" s="4" t="s">
-        <v>3385</v>
       </c>
       <c r="E632" s="24" t="s">
         <v>1469</v>
@@ -37486,16 +37485,16 @@
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C633" s="4" t="s">
         <v>3386</v>
       </c>
-      <c r="B633" s="4" t="s">
+      <c r="D633" s="4" t="s">
         <v>3387</v>
-      </c>
-      <c r="C633" s="4" t="s">
-        <v>3388</v>
-      </c>
-      <c r="D633" s="4" t="s">
-        <v>3389</v>
       </c>
       <c r="E633" s="24" t="s">
         <v>1469</v>
@@ -37503,135 +37502,135 @@
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C634" s="4" t="s">
         <v>3390</v>
       </c>
-      <c r="B634" s="4" t="s">
+      <c r="D634" s="4" t="s">
         <v>3391</v>
       </c>
-      <c r="C634" s="4" t="s">
-        <v>3392</v>
-      </c>
-      <c r="D634" s="4" t="s">
-        <v>3393</v>
-      </c>
       <c r="E634" s="24" t="s">
-        <v>1963</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C635" s="4" t="s">
         <v>3394</v>
       </c>
-      <c r="B635" s="4" t="s">
+      <c r="D635" s="4" t="s">
         <v>3395</v>
       </c>
-      <c r="C635" s="4" t="s">
-        <v>3396</v>
-      </c>
-      <c r="D635" s="4" t="s">
-        <v>3397</v>
-      </c>
       <c r="E635" s="24" t="s">
-        <v>1993</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C636" s="4" t="s">
         <v>3398</v>
       </c>
-      <c r="B636" s="4" t="s">
+      <c r="D636" s="4" t="s">
         <v>3399</v>
       </c>
-      <c r="C636" s="4" t="s">
-        <v>3400</v>
-      </c>
-      <c r="D636" s="11" t="s">
-        <v>3401</v>
-      </c>
-      <c r="E636" s="25" t="s">
-        <v>2059</v>
+      <c r="E636" s="24" t="s">
+        <v>1963</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C637" s="4" t="s">
         <v>3402</v>
       </c>
-      <c r="B637" s="4" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C637" s="4" t="s">
-        <v>1467</v>
-      </c>
       <c r="D637" s="4" t="s">
-        <v>1468</v>
+        <v>3403</v>
       </c>
       <c r="E637" s="24" t="s">
-        <v>1963</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>3404</v>
-      </c>
-      <c r="C638" s="26" t="s">
         <v>3405</v>
       </c>
-      <c r="D638" s="4" t="s">
+      <c r="C638" s="4" t="s">
         <v>3406</v>
       </c>
-      <c r="E638" s="24" t="s">
-        <v>1963</v>
+      <c r="D638" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E638" s="25" t="s">
+        <v>2059</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>20</v>
+        <v>1466</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>20</v>
+        <v>1467</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>20</v>
+        <v>1468</v>
       </c>
       <c r="E639" s="24" t="s">
-        <v>1469</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C640" s="4" t="s">
-        <v>120</v>
+        <v>3410</v>
+      </c>
+      <c r="C640" s="27" t="s">
+        <v>3411</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>120</v>
+        <v>3412</v>
       </c>
       <c r="E640" s="24" t="s">
-        <v>1469</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>3409</v>
+        <v>3413</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>3410</v>
+        <v>20</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>3410</v>
+        <v>20</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>3410</v>
+        <v>20</v>
       </c>
       <c r="E641" s="24" t="s">
         <v>1469</v>
@@ -37639,16 +37638,16 @@
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E642" s="24" t="s">
         <v>1469</v>
@@ -37656,16 +37655,16 @@
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>14</v>
+        <v>3416</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="E643" s="24" t="s">
         <v>1469</v>
@@ -37673,16 +37672,16 @@
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>3416</v>
+        <v>16</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>3417</v>
+        <v>16</v>
       </c>
       <c r="E644" s="24" t="s">
         <v>1469</v>
@@ -37693,7 +37692,7 @@
         <v>3418</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>713</v>
+        <v>14</v>
       </c>
       <c r="C645" s="4" t="s">
         <v>3419</v>
@@ -37701,8 +37700,8 @@
       <c r="D645" s="4" t="s">
         <v>3420</v>
       </c>
-      <c r="E645" s="27" t="n">
-        <v>45479</v>
+      <c r="E645" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37710,7 +37709,7 @@
         <v>3421</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>716</v>
+        <v>37</v>
       </c>
       <c r="C646" s="4" t="s">
         <v>3422</v>
@@ -37718,8 +37717,8 @@
       <c r="D646" s="4" t="s">
         <v>3423</v>
       </c>
-      <c r="E646" s="27" t="n">
-        <v>45479</v>
+      <c r="E646" s="24" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" state="visible" r:id="rId3"/>
@@ -10378,14 +10378,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -10547,120 +10546,116 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10991,10 +10986,10 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L216" activeCellId="0" sqref="L216"/>
+      <selection pane="bottomLeft" activeCell="M215" activeCellId="0" sqref="M215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17341,6 +17336,10 @@
       </c>
       <c r="L215" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="M215" s="6" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22138,7 +22137,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="M215 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22659,7 +22658,7 @@
   <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A264" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A281" activeCellId="0" sqref="A281"/>
+      <selection pane="topLeft" activeCell="A281" activeCellId="1" sqref="M215 A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26545,7 +26544,7 @@
       <c r="C282" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="D282" s="22" t="n">
+      <c r="D282" s="15" t="n">
         <v>45515</v>
       </c>
     </row>
@@ -26568,7 +26567,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="1" sqref="M215 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26945,10 +26944,10 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B654" activeCellId="0" sqref="B654"/>
+      <selection pane="bottomLeft" activeCell="B654" activeCellId="1" sqref="M215 B654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26960,19 +26959,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>1475</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1476</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>1477</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>1478</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -26989,7 +26988,7 @@
       <c r="D2" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27006,7 +27005,7 @@
       <c r="D3" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27023,7 +27022,7 @@
       <c r="D4" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27040,7 +27039,7 @@
       <c r="D5" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27057,7 +27056,7 @@
       <c r="D6" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27074,7 +27073,7 @@
       <c r="D7" s="4" t="s">
         <v>1499</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27091,7 +27090,7 @@
       <c r="D8" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27108,7 +27107,7 @@
       <c r="D9" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27125,7 +27124,7 @@
       <c r="D10" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27142,7 +27141,7 @@
       <c r="D11" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -27159,7 +27158,7 @@
       <c r="D12" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27176,7 +27175,7 @@
       <c r="D13" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27193,7 +27192,7 @@
       <c r="D14" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27210,7 +27209,7 @@
       <c r="D15" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27227,7 +27226,7 @@
       <c r="D16" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27244,7 +27243,7 @@
       <c r="D17" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27261,7 +27260,7 @@
       <c r="D18" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27278,7 +27277,7 @@
       <c r="D19" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27295,7 +27294,7 @@
       <c r="D20" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27312,7 +27311,7 @@
       <c r="D21" s="4" t="s">
         <v>1542</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27329,7 +27328,7 @@
       <c r="D22" s="4" t="s">
         <v>1545</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27346,7 +27345,7 @@
       <c r="D23" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27363,7 +27362,7 @@
       <c r="D24" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27380,7 +27379,7 @@
       <c r="D25" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27397,7 +27396,7 @@
       <c r="D26" s="4" t="s">
         <v>1557</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27414,7 +27413,7 @@
       <c r="D27" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27431,7 +27430,7 @@
       <c r="D28" s="4" t="s">
         <v>1563</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27448,7 +27447,7 @@
       <c r="D29" s="4" t="s">
         <v>1566</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27465,7 +27464,7 @@
       <c r="D30" s="4" t="s">
         <v>1569</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27482,7 +27481,7 @@
       <c r="D31" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27499,7 +27498,7 @@
       <c r="D32" s="4" t="s">
         <v>1575</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27516,7 +27515,7 @@
       <c r="D33" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27533,7 +27532,7 @@
       <c r="D34" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -27550,7 +27549,7 @@
       <c r="D35" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -27567,7 +27566,7 @@
       <c r="D36" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27584,7 +27583,7 @@
       <c r="D37" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27601,7 +27600,7 @@
       <c r="D38" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27618,7 +27617,7 @@
       <c r="D39" s="4" t="s">
         <v>1596</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -27635,7 +27634,7 @@
       <c r="D40" s="4" t="s">
         <v>1599</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27652,7 +27651,7 @@
       <c r="D41" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27669,7 +27668,7 @@
       <c r="D42" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27686,7 +27685,7 @@
       <c r="D43" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27703,7 +27702,7 @@
       <c r="D44" s="4" t="s">
         <v>1611</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27720,7 +27719,7 @@
       <c r="D45" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27737,7 +27736,7 @@
       <c r="D46" s="4" t="s">
         <v>1617</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27754,7 +27753,7 @@
       <c r="D47" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27771,7 +27770,7 @@
       <c r="D48" s="4" t="s">
         <v>1623</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27788,7 +27787,7 @@
       <c r="D49" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27805,7 +27804,7 @@
       <c r="D50" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27822,7 +27821,7 @@
       <c r="D51" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27839,7 +27838,7 @@
       <c r="D52" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27856,7 +27855,7 @@
       <c r="D53" s="4" t="s">
         <v>1638</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27873,7 +27872,7 @@
       <c r="D54" s="4" t="s">
         <v>1641</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27890,7 +27889,7 @@
       <c r="D55" s="4" t="s">
         <v>1644</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27907,7 +27906,7 @@
       <c r="D56" s="4" t="s">
         <v>1647</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27924,7 +27923,7 @@
       <c r="D57" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27941,7 +27940,7 @@
       <c r="D58" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -27958,7 +27957,7 @@
       <c r="D59" s="4" t="s">
         <v>1656</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27975,7 +27974,7 @@
       <c r="D60" s="4" t="s">
         <v>1659</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -27992,7 +27991,7 @@
       <c r="D61" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28009,7 +28008,7 @@
       <c r="D62" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28026,7 +28025,7 @@
       <c r="D63" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28043,7 +28042,7 @@
       <c r="D64" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28060,7 +28059,7 @@
       <c r="D65" s="4" t="s">
         <v>1674</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28077,7 +28076,7 @@
       <c r="D66" s="4" t="s">
         <v>1677</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28094,7 +28093,7 @@
       <c r="D67" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28111,7 +28110,7 @@
       <c r="D68" s="4" t="s">
         <v>1683</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28128,7 +28127,7 @@
       <c r="D69" s="4" t="s">
         <v>1686</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28145,7 +28144,7 @@
       <c r="D70" s="4" t="s">
         <v>1689</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28162,7 +28161,7 @@
       <c r="D71" s="4" t="s">
         <v>1692</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28179,7 +28178,7 @@
       <c r="D72" s="4" t="s">
         <v>1695</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28196,7 +28195,7 @@
       <c r="D73" s="4" t="s">
         <v>1698</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28213,7 +28212,7 @@
       <c r="D74" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28230,7 +28229,7 @@
       <c r="D75" s="4" t="s">
         <v>1704</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="E75" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28247,7 +28246,7 @@
       <c r="D76" s="4" t="s">
         <v>1707</v>
       </c>
-      <c r="E76" s="25" t="s">
+      <c r="E76" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28264,7 +28263,7 @@
       <c r="D77" s="4" t="s">
         <v>1710</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28281,7 +28280,7 @@
       <c r="D78" s="4" t="s">
         <v>1713</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28298,7 +28297,7 @@
       <c r="D79" s="4" t="s">
         <v>1716</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28315,7 +28314,7 @@
       <c r="D80" s="4" t="s">
         <v>1719</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="E80" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28332,7 +28331,7 @@
       <c r="D81" s="4" t="s">
         <v>1722</v>
       </c>
-      <c r="E81" s="25" t="s">
+      <c r="E81" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28349,7 +28348,7 @@
       <c r="D82" s="4" t="s">
         <v>1725</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28366,7 +28365,7 @@
       <c r="D83" s="4" t="s">
         <v>1728</v>
       </c>
-      <c r="E83" s="25" t="s">
+      <c r="E83" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28383,7 +28382,7 @@
       <c r="D84" s="4" t="s">
         <v>1731</v>
       </c>
-      <c r="E84" s="25" t="s">
+      <c r="E84" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28400,7 +28399,7 @@
       <c r="D85" s="4" t="s">
         <v>1734</v>
       </c>
-      <c r="E85" s="25" t="s">
+      <c r="E85" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28417,7 +28416,7 @@
       <c r="D86" s="4" t="s">
         <v>1737</v>
       </c>
-      <c r="E86" s="25" t="s">
+      <c r="E86" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28434,7 +28433,7 @@
       <c r="D87" s="4" t="s">
         <v>1740</v>
       </c>
-      <c r="E87" s="25" t="s">
+      <c r="E87" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28451,7 +28450,7 @@
       <c r="D88" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="E88" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28468,7 +28467,7 @@
       <c r="D89" s="4" t="s">
         <v>1746</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E89" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28485,7 +28484,7 @@
       <c r="D90" s="4" t="s">
         <v>1749</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28502,7 +28501,7 @@
       <c r="D91" s="4" t="s">
         <v>1752</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28519,7 +28518,7 @@
       <c r="D92" s="4" t="s">
         <v>1755</v>
       </c>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28536,7 +28535,7 @@
       <c r="D93" s="4" t="s">
         <v>1758</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28553,7 +28552,7 @@
       <c r="D94" s="4" t="s">
         <v>1761</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28570,7 +28569,7 @@
       <c r="D95" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28587,7 +28586,7 @@
       <c r="D96" s="4" t="s">
         <v>1767</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28604,7 +28603,7 @@
       <c r="D97" s="4" t="s">
         <v>1770</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28621,7 +28620,7 @@
       <c r="D98" s="4" t="s">
         <v>1773</v>
       </c>
-      <c r="E98" s="26" t="s">
+      <c r="E98" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28638,7 +28637,7 @@
       <c r="D99" s="4" t="s">
         <v>1776</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28655,7 +28654,7 @@
       <c r="D100" s="4" t="s">
         <v>1779</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28672,7 +28671,7 @@
       <c r="D101" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28689,7 +28688,7 @@
       <c r="D102" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28706,7 +28705,7 @@
       <c r="D103" s="4" t="s">
         <v>1788</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28723,7 +28722,7 @@
       <c r="D104" s="4" t="s">
         <v>1791</v>
       </c>
-      <c r="E104" s="25" t="s">
+      <c r="E104" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28740,7 +28739,7 @@
       <c r="D105" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="E105" s="25" t="s">
+      <c r="E105" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28757,7 +28756,7 @@
       <c r="D106" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="E106" s="25" t="s">
+      <c r="E106" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28774,7 +28773,7 @@
       <c r="D107" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="E107" s="25" t="s">
+      <c r="E107" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28791,7 +28790,7 @@
       <c r="D108" s="4" t="s">
         <v>1803</v>
       </c>
-      <c r="E108" s="25" t="s">
+      <c r="E108" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28808,7 +28807,7 @@
       <c r="D109" s="4" t="s">
         <v>1806</v>
       </c>
-      <c r="E109" s="25" t="s">
+      <c r="E109" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28825,7 +28824,7 @@
       <c r="D110" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28842,7 +28841,7 @@
       <c r="D111" s="4" t="s">
         <v>1812</v>
       </c>
-      <c r="E111" s="25" t="s">
+      <c r="E111" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28859,7 +28858,7 @@
       <c r="D112" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="E112" s="25" t="s">
+      <c r="E112" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28876,7 +28875,7 @@
       <c r="D113" s="4" t="s">
         <v>1818</v>
       </c>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28893,7 +28892,7 @@
       <c r="D114" s="4" t="s">
         <v>1821</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28910,7 +28909,7 @@
       <c r="D115" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -28927,7 +28926,7 @@
       <c r="D116" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="E116" s="25" t="s">
+      <c r="E116" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28944,7 +28943,7 @@
       <c r="D117" s="4" t="s">
         <v>1830</v>
       </c>
-      <c r="E117" s="25" t="s">
+      <c r="E117" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28961,7 +28960,7 @@
       <c r="D118" s="4" t="s">
         <v>1833</v>
       </c>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28978,7 +28977,7 @@
       <c r="D119" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="E119" s="25" t="s">
+      <c r="E119" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -28995,7 +28994,7 @@
       <c r="D120" s="4" t="s">
         <v>1839</v>
       </c>
-      <c r="E120" s="25" t="s">
+      <c r="E120" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29012,7 +29011,7 @@
       <c r="D121" s="4" t="s">
         <v>1842</v>
       </c>
-      <c r="E121" s="25" t="s">
+      <c r="E121" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29029,7 +29028,7 @@
       <c r="D122" s="4" t="s">
         <v>1845</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29046,7 +29045,7 @@
       <c r="D123" s="4" t="s">
         <v>1848</v>
       </c>
-      <c r="E123" s="25" t="s">
+      <c r="E123" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29063,7 +29062,7 @@
       <c r="D124" s="4" t="s">
         <v>1851</v>
       </c>
-      <c r="E124" s="25" t="s">
+      <c r="E124" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29080,7 +29079,7 @@
       <c r="D125" s="4" t="s">
         <v>1854</v>
       </c>
-      <c r="E125" s="25" t="s">
+      <c r="E125" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29097,7 +29096,7 @@
       <c r="D126" s="4" t="s">
         <v>1857</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29114,7 +29113,7 @@
       <c r="D127" s="4" t="s">
         <v>1860</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29131,7 +29130,7 @@
       <c r="D128" s="4" t="s">
         <v>1863</v>
       </c>
-      <c r="E128" s="25" t="s">
+      <c r="E128" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29148,7 +29147,7 @@
       <c r="D129" s="4" t="s">
         <v>1866</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="E129" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29165,7 +29164,7 @@
       <c r="D130" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="E130" s="25" t="s">
+      <c r="E130" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29182,7 +29181,7 @@
       <c r="D131" s="4" t="s">
         <v>1872</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29199,7 +29198,7 @@
       <c r="D132" s="4" t="s">
         <v>1875</v>
       </c>
-      <c r="E132" s="25" t="s">
+      <c r="E132" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29216,7 +29215,7 @@
       <c r="D133" s="4" t="s">
         <v>1878</v>
       </c>
-      <c r="E133" s="25" t="s">
+      <c r="E133" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29233,7 +29232,7 @@
       <c r="D134" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="E134" s="25" t="s">
+      <c r="E134" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29250,7 +29249,7 @@
       <c r="D135" s="4" t="s">
         <v>1884</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="E135" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29267,7 +29266,7 @@
       <c r="D136" s="4" t="s">
         <v>1887</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29284,7 +29283,7 @@
       <c r="D137" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29301,7 +29300,7 @@
       <c r="D138" s="4" t="s">
         <v>1893</v>
       </c>
-      <c r="E138" s="25" t="s">
+      <c r="E138" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29318,7 +29317,7 @@
       <c r="D139" s="4" t="s">
         <v>1896</v>
       </c>
-      <c r="E139" s="25" t="s">
+      <c r="E139" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29335,7 +29334,7 @@
       <c r="D140" s="4" t="s">
         <v>1899</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29352,7 +29351,7 @@
       <c r="D141" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29369,7 +29368,7 @@
       <c r="D142" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="E142" s="25" t="s">
+      <c r="E142" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29386,7 +29385,7 @@
       <c r="D143" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="E143" s="25" t="s">
+      <c r="E143" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29403,7 +29402,7 @@
       <c r="D144" s="4" t="s">
         <v>1911</v>
       </c>
-      <c r="E144" s="25" t="s">
+      <c r="E144" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29420,7 +29419,7 @@
       <c r="D145" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="E145" s="25" t="s">
+      <c r="E145" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29437,7 +29436,7 @@
       <c r="D146" s="4" t="s">
         <v>1917</v>
       </c>
-      <c r="E146" s="25" t="s">
+      <c r="E146" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29454,7 +29453,7 @@
       <c r="D147" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29471,7 +29470,7 @@
       <c r="D148" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="E148" s="25" t="s">
+      <c r="E148" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29488,7 +29487,7 @@
       <c r="D149" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="E149" s="25" t="s">
+      <c r="E149" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29505,7 +29504,7 @@
       <c r="D150" s="4" t="s">
         <v>1929</v>
       </c>
-      <c r="E150" s="25" t="s">
+      <c r="E150" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29522,7 +29521,7 @@
       <c r="D151" s="4" t="s">
         <v>1932</v>
       </c>
-      <c r="E151" s="25" t="s">
+      <c r="E151" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29539,7 +29538,7 @@
       <c r="D152" s="4" t="s">
         <v>1935</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29556,7 +29555,7 @@
       <c r="D153" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="E153" s="25" t="s">
+      <c r="E153" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29573,7 +29572,7 @@
       <c r="D154" s="4" t="s">
         <v>1941</v>
       </c>
-      <c r="E154" s="25" t="s">
+      <c r="E154" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29590,7 +29589,7 @@
       <c r="D155" s="4" t="s">
         <v>1944</v>
       </c>
-      <c r="E155" s="25" t="s">
+      <c r="E155" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29607,7 +29606,7 @@
       <c r="D156" s="4" t="s">
         <v>1947</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29624,7 +29623,7 @@
       <c r="D157" s="4" t="s">
         <v>1950</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29641,7 +29640,7 @@
       <c r="D158" s="4" t="s">
         <v>1953</v>
       </c>
-      <c r="E158" s="25" t="s">
+      <c r="E158" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29658,7 +29657,7 @@
       <c r="D159" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="E159" s="25" t="s">
+      <c r="E159" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29675,7 +29674,7 @@
       <c r="D160" s="4" t="s">
         <v>1959</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29692,7 +29691,7 @@
       <c r="D161" s="4" t="s">
         <v>1962</v>
       </c>
-      <c r="E161" s="25" t="s">
+      <c r="E161" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29709,7 +29708,7 @@
       <c r="D162" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="E162" s="25" t="s">
+      <c r="E162" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29726,7 +29725,7 @@
       <c r="D163" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="E163" s="25" t="s">
+      <c r="E163" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29743,7 +29742,7 @@
       <c r="D164" s="11" t="s">
         <v>1971</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29760,7 +29759,7 @@
       <c r="D165" s="4" t="s">
         <v>1974</v>
       </c>
-      <c r="E165" s="25" t="s">
+      <c r="E165" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29777,7 +29776,7 @@
       <c r="D166" s="4" t="s">
         <v>1977</v>
       </c>
-      <c r="E166" s="25" t="s">
+      <c r="E166" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -29794,7 +29793,7 @@
       <c r="D167" s="4" t="s">
         <v>1981</v>
       </c>
-      <c r="E167" s="25" t="s">
+      <c r="E167" s="24" t="s">
         <v>1982</v>
       </c>
     </row>
@@ -29811,7 +29810,7 @@
       <c r="D168" s="4" t="s">
         <v>1985</v>
       </c>
-      <c r="E168" s="25" t="s">
+      <c r="E168" s="24" t="s">
         <v>1986</v>
       </c>
     </row>
@@ -29828,7 +29827,7 @@
       <c r="D169" s="4" t="s">
         <v>1989</v>
       </c>
-      <c r="E169" s="25" t="s">
+      <c r="E169" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -29845,7 +29844,7 @@
       <c r="D170" s="4" t="s">
         <v>1992</v>
       </c>
-      <c r="E170" s="25" t="s">
+      <c r="E170" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29862,7 +29861,7 @@
       <c r="D171" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="E171" s="24" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -29879,7 +29878,7 @@
       <c r="D172" s="4" t="s">
         <v>1999</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29896,7 +29895,7 @@
       <c r="D173" s="4" t="s">
         <v>2002</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29913,7 +29912,7 @@
       <c r="D174" s="4" t="s">
         <v>2005</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -29930,7 +29929,7 @@
       <c r="D175" s="4" t="s">
         <v>2007</v>
       </c>
-      <c r="E175" s="25" t="s">
+      <c r="E175" s="24" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -29947,7 +29946,7 @@
       <c r="D176" s="4" t="s">
         <v>2011</v>
       </c>
-      <c r="E176" s="25" t="s">
+      <c r="E176" s="24" t="s">
         <v>2012</v>
       </c>
     </row>
@@ -29964,7 +29963,7 @@
       <c r="D177" s="4" t="s">
         <v>2015</v>
       </c>
-      <c r="E177" s="25" t="s">
+      <c r="E177" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -29981,7 +29980,7 @@
       <c r="D178" s="4" t="s">
         <v>2018</v>
       </c>
-      <c r="E178" s="25" t="s">
+      <c r="E178" s="24" t="s">
         <v>2019</v>
       </c>
     </row>
@@ -29998,7 +29997,7 @@
       <c r="D179" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="E179" s="25" t="s">
+      <c r="E179" s="24" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -30015,7 +30014,7 @@
       <c r="D180" s="4" t="s">
         <v>2026</v>
       </c>
-      <c r="E180" s="25" t="s">
+      <c r="E180" s="24" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -30032,7 +30031,7 @@
       <c r="D181" s="11" t="s">
         <v>2030</v>
       </c>
-      <c r="E181" s="26" t="s">
+      <c r="E181" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -30049,7 +30048,7 @@
       <c r="D182" s="4" t="s">
         <v>2033</v>
       </c>
-      <c r="E182" s="25" t="s">
+      <c r="E182" s="24" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -30066,7 +30065,7 @@
       <c r="D183" s="4" t="s">
         <v>2037</v>
       </c>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="25" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -30083,7 +30082,7 @@
       <c r="D184" s="4" t="s">
         <v>2041</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="25" t="s">
         <v>2042</v>
       </c>
     </row>
@@ -30100,7 +30099,7 @@
       <c r="D185" s="4" t="s">
         <v>2045</v>
       </c>
-      <c r="E185" s="26" t="s">
+      <c r="E185" s="25" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -30117,7 +30116,7 @@
       <c r="D186" s="4" t="s">
         <v>2049</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="25" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -30134,7 +30133,7 @@
       <c r="D187" s="4" t="s">
         <v>2053</v>
       </c>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="25" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -30151,7 +30150,7 @@
       <c r="D188" s="4" t="s">
         <v>2056</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="25" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -30168,7 +30167,7 @@
       <c r="D189" s="4" t="s">
         <v>2059</v>
       </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="25" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -30185,7 +30184,7 @@
       <c r="D190" s="4" t="s">
         <v>2063</v>
       </c>
-      <c r="E190" s="26" t="s">
+      <c r="E190" s="25" t="s">
         <v>2064</v>
       </c>
     </row>
@@ -30202,7 +30201,7 @@
       <c r="D191" s="4" t="s">
         <v>2067</v>
       </c>
-      <c r="E191" s="26" t="s">
+      <c r="E191" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -30219,7 +30218,7 @@
       <c r="D192" s="4" t="s">
         <v>2070</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="25" t="s">
         <v>2071</v>
       </c>
     </row>
@@ -30236,7 +30235,7 @@
       <c r="D193" s="4" t="s">
         <v>2073</v>
       </c>
-      <c r="E193" s="26" t="s">
+      <c r="E193" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -30253,7 +30252,7 @@
       <c r="D194" s="4" t="s">
         <v>2077</v>
       </c>
-      <c r="E194" s="26" t="s">
+      <c r="E194" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -30270,7 +30269,7 @@
       <c r="D195" s="4" t="s">
         <v>2080</v>
       </c>
-      <c r="E195" s="26" t="s">
+      <c r="E195" s="25" t="s">
         <v>2081</v>
       </c>
     </row>
@@ -30287,7 +30286,7 @@
       <c r="D196" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="E196" s="26" t="s">
+      <c r="E196" s="25" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -30304,7 +30303,7 @@
       <c r="D197" s="4" t="s">
         <v>2088</v>
       </c>
-      <c r="E197" s="26" t="s">
+      <c r="E197" s="25" t="s">
         <v>2089</v>
       </c>
     </row>
@@ -30321,7 +30320,7 @@
       <c r="D198" s="4" t="s">
         <v>2092</v>
       </c>
-      <c r="E198" s="27" t="n">
+      <c r="E198" s="26" t="n">
         <v>45515</v>
       </c>
     </row>
@@ -30338,7 +30337,7 @@
       <c r="D199" s="4" t="s">
         <v>2095</v>
       </c>
-      <c r="E199" s="25" t="s">
+      <c r="E199" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30355,7 +30354,7 @@
       <c r="D200" s="4" t="s">
         <v>2098</v>
       </c>
-      <c r="E200" s="25" t="s">
+      <c r="E200" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30372,7 +30371,7 @@
       <c r="D201" s="4" t="s">
         <v>2101</v>
       </c>
-      <c r="E201" s="25" t="s">
+      <c r="E201" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30389,7 +30388,7 @@
       <c r="D202" s="4" t="s">
         <v>2104</v>
       </c>
-      <c r="E202" s="25" t="s">
+      <c r="E202" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30406,7 +30405,7 @@
       <c r="D203" s="4" t="s">
         <v>2107</v>
       </c>
-      <c r="E203" s="26" t="s">
+      <c r="E203" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -30423,7 +30422,7 @@
       <c r="D204" s="4" t="s">
         <v>2110</v>
       </c>
-      <c r="E204" s="25" t="s">
+      <c r="E204" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30440,7 +30439,7 @@
       <c r="D205" s="4" t="s">
         <v>2113</v>
       </c>
-      <c r="E205" s="25" t="s">
+      <c r="E205" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30457,7 +30456,7 @@
       <c r="D206" s="4" t="s">
         <v>2116</v>
       </c>
-      <c r="E206" s="25" t="s">
+      <c r="E206" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30474,7 +30473,7 @@
       <c r="D207" s="4" t="s">
         <v>2119</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E207" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -30491,7 +30490,7 @@
       <c r="D208" s="4" t="s">
         <v>2122</v>
       </c>
-      <c r="E208" s="25" t="s">
+      <c r="E208" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30508,7 +30507,7 @@
       <c r="D209" s="4" t="s">
         <v>2125</v>
       </c>
-      <c r="E209" s="25" t="s">
+      <c r="E209" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30525,7 +30524,7 @@
       <c r="D210" s="4" t="s">
         <v>2128</v>
       </c>
-      <c r="E210" s="25" t="s">
+      <c r="E210" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30542,7 +30541,7 @@
       <c r="D211" s="4" t="s">
         <v>2131</v>
       </c>
-      <c r="E211" s="25" t="s">
+      <c r="E211" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30559,7 +30558,7 @@
       <c r="D212" s="4" t="s">
         <v>2134</v>
       </c>
-      <c r="E212" s="25" t="s">
+      <c r="E212" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30576,7 +30575,7 @@
       <c r="D213" s="4" t="s">
         <v>2137</v>
       </c>
-      <c r="E213" s="25" t="s">
+      <c r="E213" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30593,7 +30592,7 @@
       <c r="D214" s="4" t="s">
         <v>2140</v>
       </c>
-      <c r="E214" s="25" t="s">
+      <c r="E214" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30610,7 +30609,7 @@
       <c r="D215" s="4" t="s">
         <v>2143</v>
       </c>
-      <c r="E215" s="26" t="s">
+      <c r="E215" s="25" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -30627,7 +30626,7 @@
       <c r="D216" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="E216" s="25" t="s">
+      <c r="E216" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30644,7 +30643,7 @@
       <c r="D217" s="4" t="s">
         <v>2149</v>
       </c>
-      <c r="E217" s="25" t="s">
+      <c r="E217" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30661,7 +30660,7 @@
       <c r="D218" s="4" t="s">
         <v>2152</v>
       </c>
-      <c r="E218" s="25" t="s">
+      <c r="E218" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30678,7 +30677,7 @@
       <c r="D219" s="4" t="s">
         <v>2155</v>
       </c>
-      <c r="E219" s="25" t="s">
+      <c r="E219" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30695,7 +30694,7 @@
       <c r="D220" s="4" t="s">
         <v>2158</v>
       </c>
-      <c r="E220" s="25" t="s">
+      <c r="E220" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30712,7 +30711,7 @@
       <c r="D221" s="4" t="s">
         <v>2161</v>
       </c>
-      <c r="E221" s="25" t="s">
+      <c r="E221" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30729,7 +30728,7 @@
       <c r="D222" s="4" t="s">
         <v>2164</v>
       </c>
-      <c r="E222" s="25" t="s">
+      <c r="E222" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30746,7 +30745,7 @@
       <c r="D223" s="4" t="s">
         <v>2167</v>
       </c>
-      <c r="E223" s="25" t="s">
+      <c r="E223" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30763,7 +30762,7 @@
       <c r="D224" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="E224" s="25" t="s">
+      <c r="E224" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30780,7 +30779,7 @@
       <c r="D225" s="4" t="s">
         <v>2173</v>
       </c>
-      <c r="E225" s="25" t="s">
+      <c r="E225" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30797,7 +30796,7 @@
       <c r="D226" s="4" t="s">
         <v>2176</v>
       </c>
-      <c r="E226" s="25" t="s">
+      <c r="E226" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30814,7 +30813,7 @@
       <c r="D227" s="4" t="s">
         <v>2179</v>
       </c>
-      <c r="E227" s="25" t="s">
+      <c r="E227" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30831,7 +30830,7 @@
       <c r="D228" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="E228" s="25" t="s">
+      <c r="E228" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30848,7 +30847,7 @@
       <c r="D229" s="4" t="s">
         <v>2185</v>
       </c>
-      <c r="E229" s="25" t="s">
+      <c r="E229" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30865,7 +30864,7 @@
       <c r="D230" s="4" t="s">
         <v>2188</v>
       </c>
-      <c r="E230" s="25" t="s">
+      <c r="E230" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30882,7 +30881,7 @@
       <c r="D231" s="4" t="s">
         <v>2191</v>
       </c>
-      <c r="E231" s="25" t="s">
+      <c r="E231" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30899,7 +30898,7 @@
       <c r="D232" s="4" t="s">
         <v>2194</v>
       </c>
-      <c r="E232" s="25" t="s">
+      <c r="E232" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30916,7 +30915,7 @@
       <c r="D233" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="E233" s="25" t="s">
+      <c r="E233" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30933,7 +30932,7 @@
       <c r="D234" s="4" t="s">
         <v>2200</v>
       </c>
-      <c r="E234" s="25" t="s">
+      <c r="E234" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30950,7 +30949,7 @@
       <c r="D235" s="4" t="s">
         <v>2203</v>
       </c>
-      <c r="E235" s="25" t="s">
+      <c r="E235" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30967,7 +30966,7 @@
       <c r="D236" s="4" t="s">
         <v>2206</v>
       </c>
-      <c r="E236" s="25" t="s">
+      <c r="E236" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -30984,7 +30983,7 @@
       <c r="D237" s="4" t="s">
         <v>2209</v>
       </c>
-      <c r="E237" s="25" t="s">
+      <c r="E237" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31001,7 +31000,7 @@
       <c r="D238" s="4" t="s">
         <v>2212</v>
       </c>
-      <c r="E238" s="25" t="s">
+      <c r="E238" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31018,7 +31017,7 @@
       <c r="D239" s="4" t="s">
         <v>2215</v>
       </c>
-      <c r="E239" s="25" t="s">
+      <c r="E239" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31035,7 +31034,7 @@
       <c r="D240" s="4" t="s">
         <v>2218</v>
       </c>
-      <c r="E240" s="25" t="s">
+      <c r="E240" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31052,7 +31051,7 @@
       <c r="D241" s="4" t="s">
         <v>2221</v>
       </c>
-      <c r="E241" s="25" t="s">
+      <c r="E241" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31069,7 +31068,7 @@
       <c r="D242" s="4" t="s">
         <v>2224</v>
       </c>
-      <c r="E242" s="26" t="s">
+      <c r="E242" s="25" t="s">
         <v>2081</v>
       </c>
     </row>
@@ -31086,7 +31085,7 @@
       <c r="D243" s="4" t="s">
         <v>2227</v>
       </c>
-      <c r="E243" s="25" t="s">
+      <c r="E243" s="24" t="s">
         <v>2228</v>
       </c>
     </row>
@@ -31103,7 +31102,7 @@
       <c r="D244" s="4" t="s">
         <v>2231</v>
       </c>
-      <c r="E244" s="25" t="s">
+      <c r="E244" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31120,7 +31119,7 @@
       <c r="D245" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="E245" s="25" t="s">
+      <c r="E245" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31137,7 +31136,7 @@
       <c r="D246" s="4" t="s">
         <v>2237</v>
       </c>
-      <c r="E246" s="25" t="s">
+      <c r="E246" s="24" t="s">
         <v>2228</v>
       </c>
     </row>
@@ -31154,7 +31153,7 @@
       <c r="D247" s="4" t="s">
         <v>2240</v>
       </c>
-      <c r="E247" s="25" t="s">
+      <c r="E247" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31171,7 +31170,7 @@
       <c r="D248" s="4" t="s">
         <v>2243</v>
       </c>
-      <c r="E248" s="26" t="s">
+      <c r="E248" s="25" t="s">
         <v>2064</v>
       </c>
     </row>
@@ -31188,7 +31187,7 @@
       <c r="D249" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="E249" s="25" t="s">
+      <c r="E249" s="24" t="s">
         <v>2228</v>
       </c>
     </row>
@@ -31205,7 +31204,7 @@
       <c r="D250" s="4" t="s">
         <v>2249</v>
       </c>
-      <c r="E250" s="25" t="s">
+      <c r="E250" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31222,7 +31221,7 @@
       <c r="D251" s="4" t="s">
         <v>2252</v>
       </c>
-      <c r="E251" s="25" t="s">
+      <c r="E251" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31239,7 +31238,7 @@
       <c r="D252" s="4" t="s">
         <v>2255</v>
       </c>
-      <c r="E252" s="25" t="s">
+      <c r="E252" s="24" t="s">
         <v>1986</v>
       </c>
     </row>
@@ -31256,7 +31255,7 @@
       <c r="D253" s="4" t="s">
         <v>2258</v>
       </c>
-      <c r="E253" s="25" t="s">
+      <c r="E253" s="24" t="s">
         <v>2019</v>
       </c>
     </row>
@@ -31273,7 +31272,7 @@
       <c r="D254" s="4" t="s">
         <v>2261</v>
       </c>
-      <c r="E254" s="26" t="s">
+      <c r="E254" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -31290,7 +31289,7 @@
       <c r="D255" s="4" t="s">
         <v>2264</v>
       </c>
-      <c r="E255" s="26" t="s">
+      <c r="E255" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -31307,7 +31306,7 @@
       <c r="D256" s="4" t="s">
         <v>2267</v>
       </c>
-      <c r="E256" s="25" t="s">
+      <c r="E256" s="24" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -31324,7 +31323,7 @@
       <c r="D257" s="4" t="s">
         <v>2269</v>
       </c>
-      <c r="E257" s="25" t="s">
+      <c r="E257" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31341,7 +31340,7 @@
       <c r="D258" s="4" t="s">
         <v>2272</v>
       </c>
-      <c r="E258" s="25" t="s">
+      <c r="E258" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31358,7 +31357,7 @@
       <c r="D259" s="4" t="s">
         <v>2274</v>
       </c>
-      <c r="E259" s="25" t="s">
+      <c r="E259" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31375,7 +31374,7 @@
       <c r="D260" s="4" t="s">
         <v>2276</v>
       </c>
-      <c r="E260" s="25" t="s">
+      <c r="E260" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31392,7 +31391,7 @@
       <c r="D261" s="4" t="s">
         <v>2278</v>
       </c>
-      <c r="E261" s="25" t="s">
+      <c r="E261" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31409,7 +31408,7 @@
       <c r="D262" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="E262" s="25" t="s">
+      <c r="E262" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31426,7 +31425,7 @@
       <c r="D263" s="4" t="s">
         <v>2283</v>
       </c>
-      <c r="E263" s="25" t="s">
+      <c r="E263" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31443,7 +31442,7 @@
       <c r="D264" s="4" t="s">
         <v>2285</v>
       </c>
-      <c r="E264" s="25" t="s">
+      <c r="E264" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31460,7 +31459,7 @@
       <c r="D265" s="4" t="s">
         <v>2287</v>
       </c>
-      <c r="E265" s="25" t="s">
+      <c r="E265" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31477,7 +31476,7 @@
       <c r="D266" s="4" t="s">
         <v>2289</v>
       </c>
-      <c r="E266" s="25" t="s">
+      <c r="E266" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31494,7 +31493,7 @@
       <c r="D267" s="4" t="s">
         <v>2291</v>
       </c>
-      <c r="E267" s="25" t="s">
+      <c r="E267" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31511,7 +31510,7 @@
       <c r="D268" s="4" t="s">
         <v>2293</v>
       </c>
-      <c r="E268" s="25" t="s">
+      <c r="E268" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31528,7 +31527,7 @@
       <c r="D269" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="E269" s="25" t="s">
+      <c r="E269" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31545,7 +31544,7 @@
       <c r="D270" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="E270" s="25" t="s">
+      <c r="E270" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31562,7 +31561,7 @@
       <c r="D271" s="4" t="s">
         <v>2300</v>
       </c>
-      <c r="E271" s="25" t="s">
+      <c r="E271" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31579,7 +31578,7 @@
       <c r="D272" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="E272" s="25" t="s">
+      <c r="E272" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31596,7 +31595,7 @@
       <c r="D273" s="4" t="s">
         <v>2304</v>
       </c>
-      <c r="E273" s="25" t="s">
+      <c r="E273" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31613,7 +31612,7 @@
       <c r="D274" s="4" t="s">
         <v>2307</v>
       </c>
-      <c r="E274" s="25" t="s">
+      <c r="E274" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31630,7 +31629,7 @@
       <c r="D275" s="4" t="s">
         <v>2309</v>
       </c>
-      <c r="E275" s="25" t="s">
+      <c r="E275" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31647,7 +31646,7 @@
       <c r="D276" s="4" t="s">
         <v>2311</v>
       </c>
-      <c r="E276" s="25" t="s">
+      <c r="E276" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31664,7 +31663,7 @@
       <c r="D277" s="4" t="s">
         <v>2313</v>
       </c>
-      <c r="E277" s="25" t="s">
+      <c r="E277" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31681,7 +31680,7 @@
       <c r="D278" s="4" t="s">
         <v>2315</v>
       </c>
-      <c r="E278" s="25" t="s">
+      <c r="E278" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31698,7 +31697,7 @@
       <c r="D279" s="4" t="s">
         <v>2317</v>
       </c>
-      <c r="E279" s="25" t="s">
+      <c r="E279" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31715,7 +31714,7 @@
       <c r="D280" s="4" t="s">
         <v>2319</v>
       </c>
-      <c r="E280" s="25" t="s">
+      <c r="E280" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31732,7 +31731,7 @@
       <c r="D281" s="4" t="s">
         <v>2321</v>
       </c>
-      <c r="E281" s="25" t="s">
+      <c r="E281" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31749,7 +31748,7 @@
       <c r="D282" s="4" t="s">
         <v>2323</v>
       </c>
-      <c r="E282" s="25" t="s">
+      <c r="E282" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31766,7 +31765,7 @@
       <c r="D283" s="4" t="s">
         <v>2325</v>
       </c>
-      <c r="E283" s="25" t="s">
+      <c r="E283" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31783,7 +31782,7 @@
       <c r="D284" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="E284" s="25" t="s">
+      <c r="E284" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31800,7 +31799,7 @@
       <c r="D285" s="4" t="s">
         <v>2329</v>
       </c>
-      <c r="E285" s="25" t="s">
+      <c r="E285" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31817,7 +31816,7 @@
       <c r="D286" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="E286" s="25" t="s">
+      <c r="E286" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31834,7 +31833,7 @@
       <c r="D287" s="4" t="s">
         <v>2333</v>
       </c>
-      <c r="E287" s="25" t="s">
+      <c r="E287" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31851,7 +31850,7 @@
       <c r="D288" s="4" t="s">
         <v>2336</v>
       </c>
-      <c r="E288" s="25" t="s">
+      <c r="E288" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31868,7 +31867,7 @@
       <c r="D289" s="4" t="s">
         <v>2339</v>
       </c>
-      <c r="E289" s="25" t="s">
+      <c r="E289" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31885,7 +31884,7 @@
       <c r="D290" s="4" t="s">
         <v>2341</v>
       </c>
-      <c r="E290" s="26" t="s">
+      <c r="E290" s="25" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -31902,7 +31901,7 @@
       <c r="D291" s="4" t="s">
         <v>2343</v>
       </c>
-      <c r="E291" s="26" t="s">
+      <c r="E291" s="25" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -31919,7 +31918,7 @@
       <c r="D292" s="4" t="s">
         <v>2345</v>
       </c>
-      <c r="E292" s="25" t="s">
+      <c r="E292" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31936,7 +31935,7 @@
       <c r="D293" s="4" t="s">
         <v>2348</v>
       </c>
-      <c r="E293" s="25" t="s">
+      <c r="E293" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31953,7 +31952,7 @@
       <c r="D294" s="4" t="s">
         <v>2350</v>
       </c>
-      <c r="E294" s="25" t="s">
+      <c r="E294" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31970,7 +31969,7 @@
       <c r="D295" s="4" t="s">
         <v>2352</v>
       </c>
-      <c r="E295" s="25" t="s">
+      <c r="E295" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -31987,7 +31986,7 @@
       <c r="D296" s="4" t="s">
         <v>2354</v>
       </c>
-      <c r="E296" s="25" t="s">
+      <c r="E296" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32004,7 +32003,7 @@
       <c r="D297" s="4" t="s">
         <v>2357</v>
       </c>
-      <c r="E297" s="25" t="s">
+      <c r="E297" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32021,7 +32020,7 @@
       <c r="D298" s="4" t="s">
         <v>2359</v>
       </c>
-      <c r="E298" s="25" t="s">
+      <c r="E298" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32038,7 +32037,7 @@
       <c r="D299" s="4" t="s">
         <v>2361</v>
       </c>
-      <c r="E299" s="25" t="s">
+      <c r="E299" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32055,7 +32054,7 @@
       <c r="D300" s="4" t="s">
         <v>2363</v>
       </c>
-      <c r="E300" s="25" t="s">
+      <c r="E300" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32072,7 +32071,7 @@
       <c r="D301" s="4" t="s">
         <v>2365</v>
       </c>
-      <c r="E301" s="25" t="s">
+      <c r="E301" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32089,7 +32088,7 @@
       <c r="D302" s="4" t="s">
         <v>2367</v>
       </c>
-      <c r="E302" s="25" t="s">
+      <c r="E302" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32106,7 +32105,7 @@
       <c r="D303" s="4" t="s">
         <v>2369</v>
       </c>
-      <c r="E303" s="25" t="s">
+      <c r="E303" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32123,7 +32122,7 @@
       <c r="D304" s="4" t="s">
         <v>2372</v>
       </c>
-      <c r="E304" s="25" t="s">
+      <c r="E304" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32140,7 +32139,7 @@
       <c r="D305" s="4" t="s">
         <v>2375</v>
       </c>
-      <c r="E305" s="25" t="s">
+      <c r="E305" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32157,7 +32156,7 @@
       <c r="D306" s="4" t="s">
         <v>2377</v>
       </c>
-      <c r="E306" s="25" t="s">
+      <c r="E306" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32174,7 +32173,7 @@
       <c r="D307" s="4" t="s">
         <v>2379</v>
       </c>
-      <c r="E307" s="25" t="s">
+      <c r="E307" s="24" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -32191,7 +32190,7 @@
       <c r="D308" s="4" t="s">
         <v>2381</v>
       </c>
-      <c r="E308" s="26" t="s">
+      <c r="E308" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -32208,7 +32207,7 @@
       <c r="D309" s="4" t="s">
         <v>2383</v>
       </c>
-      <c r="E309" s="25" t="s">
+      <c r="E309" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32225,7 +32224,7 @@
       <c r="D310" s="4" t="s">
         <v>2385</v>
       </c>
-      <c r="E310" s="25" t="s">
+      <c r="E310" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32242,7 +32241,7 @@
       <c r="D311" s="4" t="s">
         <v>2387</v>
       </c>
-      <c r="E311" s="25" t="s">
+      <c r="E311" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32259,7 +32258,7 @@
       <c r="D312" s="4" t="s">
         <v>2389</v>
       </c>
-      <c r="E312" s="25" t="s">
+      <c r="E312" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32276,7 +32275,7 @@
       <c r="D313" s="4" t="s">
         <v>2391</v>
       </c>
-      <c r="E313" s="25" t="s">
+      <c r="E313" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32293,7 +32292,7 @@
       <c r="D314" s="4" t="s">
         <v>2393</v>
       </c>
-      <c r="E314" s="25" t="s">
+      <c r="E314" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32310,7 +32309,7 @@
       <c r="D315" s="4" t="s">
         <v>2395</v>
       </c>
-      <c r="E315" s="25" t="s">
+      <c r="E315" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32327,7 +32326,7 @@
       <c r="D316" s="4" t="s">
         <v>2397</v>
       </c>
-      <c r="E316" s="25" t="s">
+      <c r="E316" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32344,7 +32343,7 @@
       <c r="D317" s="4" t="s">
         <v>2399</v>
       </c>
-      <c r="E317" s="25" t="s">
+      <c r="E317" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32361,7 +32360,7 @@
       <c r="D318" s="4" t="s">
         <v>2401</v>
       </c>
-      <c r="E318" s="25" t="s">
+      <c r="E318" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32378,7 +32377,7 @@
       <c r="D319" s="4" t="s">
         <v>2403</v>
       </c>
-      <c r="E319" s="25" t="s">
+      <c r="E319" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32395,7 +32394,7 @@
       <c r="D320" s="4" t="s">
         <v>2405</v>
       </c>
-      <c r="E320" s="25" t="s">
+      <c r="E320" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32412,7 +32411,7 @@
       <c r="D321" s="4" t="s">
         <v>2407</v>
       </c>
-      <c r="E321" s="25" t="s">
+      <c r="E321" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32429,7 +32428,7 @@
       <c r="D322" s="4" t="s">
         <v>2409</v>
       </c>
-      <c r="E322" s="25" t="s">
+      <c r="E322" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32446,7 +32445,7 @@
       <c r="D323" s="4" t="s">
         <v>2411</v>
       </c>
-      <c r="E323" s="25" t="s">
+      <c r="E323" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32463,7 +32462,7 @@
       <c r="D324" s="4" t="s">
         <v>2413</v>
       </c>
-      <c r="E324" s="25" t="s">
+      <c r="E324" s="24" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -32480,7 +32479,7 @@
       <c r="D325" s="4" t="s">
         <v>2416</v>
       </c>
-      <c r="E325" s="25" t="s">
+      <c r="E325" s="24" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -32497,7 +32496,7 @@
       <c r="D326" s="4" t="s">
         <v>2419</v>
       </c>
-      <c r="E326" s="25" t="s">
+      <c r="E326" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32514,7 +32513,7 @@
       <c r="D327" s="4" t="s">
         <v>2421</v>
       </c>
-      <c r="E327" s="25" t="s">
+      <c r="E327" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32531,7 +32530,7 @@
       <c r="D328" s="4" t="s">
         <v>2424</v>
       </c>
-      <c r="E328" s="25" t="s">
+      <c r="E328" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32548,7 +32547,7 @@
       <c r="D329" s="4" t="s">
         <v>2427</v>
       </c>
-      <c r="E329" s="25" t="s">
+      <c r="E329" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32565,7 +32564,7 @@
       <c r="D330" s="4" t="s">
         <v>2430</v>
       </c>
-      <c r="E330" s="25" t="s">
+      <c r="E330" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32582,7 +32581,7 @@
       <c r="D331" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="E331" s="25" t="s">
+      <c r="E331" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32599,7 +32598,7 @@
       <c r="D332" s="4" t="s">
         <v>2435</v>
       </c>
-      <c r="E332" s="25" t="s">
+      <c r="E332" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32616,7 +32615,7 @@
       <c r="D333" s="4" t="s">
         <v>2437</v>
       </c>
-      <c r="E333" s="25" t="s">
+      <c r="E333" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32633,7 +32632,7 @@
       <c r="D334" s="4" t="s">
         <v>2439</v>
       </c>
-      <c r="E334" s="25" t="s">
+      <c r="E334" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32650,7 +32649,7 @@
       <c r="D335" s="4" t="s">
         <v>2441</v>
       </c>
-      <c r="E335" s="25" t="s">
+      <c r="E335" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32667,7 +32666,7 @@
       <c r="D336" s="4" t="s">
         <v>2443</v>
       </c>
-      <c r="E336" s="25" t="s">
+      <c r="E336" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32684,7 +32683,7 @@
       <c r="D337" s="4" t="s">
         <v>2445</v>
       </c>
-      <c r="E337" s="25" t="s">
+      <c r="E337" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32701,7 +32700,7 @@
       <c r="D338" s="4" t="s">
         <v>2447</v>
       </c>
-      <c r="E338" s="25" t="s">
+      <c r="E338" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32718,7 +32717,7 @@
       <c r="D339" s="4" t="s">
         <v>2449</v>
       </c>
-      <c r="E339" s="25" t="s">
+      <c r="E339" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32735,7 +32734,7 @@
       <c r="D340" s="4" t="s">
         <v>2451</v>
       </c>
-      <c r="E340" s="25" t="s">
+      <c r="E340" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32752,7 +32751,7 @@
       <c r="D341" s="4" t="s">
         <v>2453</v>
       </c>
-      <c r="E341" s="25" t="s">
+      <c r="E341" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32769,7 +32768,7 @@
       <c r="D342" s="4" t="s">
         <v>2455</v>
       </c>
-      <c r="E342" s="25" t="s">
+      <c r="E342" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32786,7 +32785,7 @@
       <c r="D343" s="4" t="s">
         <v>2458</v>
       </c>
-      <c r="E343" s="25" t="s">
+      <c r="E343" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32803,7 +32802,7 @@
       <c r="D344" s="4" t="s">
         <v>2460</v>
       </c>
-      <c r="E344" s="25" t="s">
+      <c r="E344" s="24" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -32820,7 +32819,7 @@
       <c r="D345" s="4" t="s">
         <v>2462</v>
       </c>
-      <c r="E345" s="26" t="s">
+      <c r="E345" s="25" t="s">
         <v>2071</v>
       </c>
     </row>
@@ -32837,7 +32836,7 @@
       <c r="D346" s="4" t="s">
         <v>2464</v>
       </c>
-      <c r="E346" s="26" t="s">
+      <c r="E346" s="25" t="s">
         <v>2089</v>
       </c>
     </row>
@@ -32854,7 +32853,7 @@
       <c r="D347" s="4" t="s">
         <v>2467</v>
       </c>
-      <c r="E347" s="25" t="s">
+      <c r="E347" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32871,7 +32870,7 @@
       <c r="D348" s="4" t="s">
         <v>2469</v>
       </c>
-      <c r="E348" s="25" t="s">
+      <c r="E348" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32888,7 +32887,7 @@
       <c r="D349" s="4" t="s">
         <v>2471</v>
       </c>
-      <c r="E349" s="25" t="s">
+      <c r="E349" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32905,7 +32904,7 @@
       <c r="D350" s="4" t="s">
         <v>2474</v>
       </c>
-      <c r="E350" s="25" t="s">
+      <c r="E350" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32922,7 +32921,7 @@
       <c r="D351" s="4" t="s">
         <v>2476</v>
       </c>
-      <c r="E351" s="25" t="s">
+      <c r="E351" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32939,7 +32938,7 @@
       <c r="D352" s="4" t="s">
         <v>2478</v>
       </c>
-      <c r="E352" s="25" t="s">
+      <c r="E352" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32956,7 +32955,7 @@
       <c r="D353" s="4" t="s">
         <v>2480</v>
       </c>
-      <c r="E353" s="25" t="s">
+      <c r="E353" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32973,7 +32972,7 @@
       <c r="D354" s="4" t="s">
         <v>2482</v>
       </c>
-      <c r="E354" s="25" t="s">
+      <c r="E354" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -32990,7 +32989,7 @@
       <c r="D355" s="4" t="s">
         <v>2484</v>
       </c>
-      <c r="E355" s="25" t="s">
+      <c r="E355" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33007,7 +33006,7 @@
       <c r="D356" s="4" t="s">
         <v>2486</v>
       </c>
-      <c r="E356" s="25" t="s">
+      <c r="E356" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33024,7 +33023,7 @@
       <c r="D357" s="4" t="s">
         <v>2488</v>
       </c>
-      <c r="E357" s="25" t="s">
+      <c r="E357" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33041,7 +33040,7 @@
       <c r="D358" s="4" t="s">
         <v>2490</v>
       </c>
-      <c r="E358" s="25" t="s">
+      <c r="E358" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33058,7 +33057,7 @@
       <c r="D359" s="4" t="s">
         <v>2492</v>
       </c>
-      <c r="E359" s="25" t="s">
+      <c r="E359" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33075,7 +33074,7 @@
       <c r="D360" s="4" t="s">
         <v>2494</v>
       </c>
-      <c r="E360" s="25" t="s">
+      <c r="E360" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33092,7 +33091,7 @@
       <c r="D361" s="4" t="s">
         <v>2496</v>
       </c>
-      <c r="E361" s="25" t="s">
+      <c r="E361" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33109,7 +33108,7 @@
       <c r="D362" s="4" t="s">
         <v>2499</v>
       </c>
-      <c r="E362" s="25" t="s">
+      <c r="E362" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33126,7 +33125,7 @@
       <c r="D363" s="4" t="s">
         <v>2502</v>
       </c>
-      <c r="E363" s="25" t="s">
+      <c r="E363" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33143,7 +33142,7 @@
       <c r="D364" s="4" t="s">
         <v>2504</v>
       </c>
-      <c r="E364" s="25" t="s">
+      <c r="E364" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -33160,7 +33159,7 @@
       <c r="D365" s="4" t="s">
         <v>2506</v>
       </c>
-      <c r="E365" s="25" t="s">
+      <c r="E365" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33177,7 +33176,7 @@
       <c r="D366" s="4" t="s">
         <v>2508</v>
       </c>
-      <c r="E366" s="25" t="s">
+      <c r="E366" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33194,7 +33193,7 @@
       <c r="D367" s="4" t="s">
         <v>2511</v>
       </c>
-      <c r="E367" s="25" t="s">
+      <c r="E367" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33211,7 +33210,7 @@
       <c r="D368" s="4" t="s">
         <v>2514</v>
       </c>
-      <c r="E368" s="25" t="s">
+      <c r="E368" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33228,7 +33227,7 @@
       <c r="D369" s="4" t="s">
         <v>2516</v>
       </c>
-      <c r="E369" s="25" t="s">
+      <c r="E369" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33245,7 +33244,7 @@
       <c r="D370" s="4" t="s">
         <v>2519</v>
       </c>
-      <c r="E370" s="25" t="s">
+      <c r="E370" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33262,7 +33261,7 @@
       <c r="D371" s="4" t="s">
         <v>2521</v>
       </c>
-      <c r="E371" s="25" t="s">
+      <c r="E371" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33279,7 +33278,7 @@
       <c r="D372" s="4" t="s">
         <v>2523</v>
       </c>
-      <c r="E372" s="25" t="s">
+      <c r="E372" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33296,7 +33295,7 @@
       <c r="D373" s="4" t="s">
         <v>2525</v>
       </c>
-      <c r="E373" s="25" t="s">
+      <c r="E373" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33313,7 +33312,7 @@
       <c r="D374" s="4" t="s">
         <v>2527</v>
       </c>
-      <c r="E374" s="25" t="s">
+      <c r="E374" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33330,7 +33329,7 @@
       <c r="D375" s="4" t="s">
         <v>2529</v>
       </c>
-      <c r="E375" s="25" t="s">
+      <c r="E375" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33347,7 +33346,7 @@
       <c r="D376" s="4" t="s">
         <v>2531</v>
       </c>
-      <c r="E376" s="25" t="s">
+      <c r="E376" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33364,7 +33363,7 @@
       <c r="D377" s="4" t="s">
         <v>2533</v>
       </c>
-      <c r="E377" s="25" t="s">
+      <c r="E377" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33381,7 +33380,7 @@
       <c r="D378" s="4" t="s">
         <v>2535</v>
       </c>
-      <c r="E378" s="25" t="s">
+      <c r="E378" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33398,7 +33397,7 @@
       <c r="D379" s="4" t="s">
         <v>2537</v>
       </c>
-      <c r="E379" s="25" t="s">
+      <c r="E379" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33415,7 +33414,7 @@
       <c r="D380" s="4" t="s">
         <v>2539</v>
       </c>
-      <c r="E380" s="25" t="s">
+      <c r="E380" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33432,7 +33431,7 @@
       <c r="D381" s="4" t="s">
         <v>2541</v>
       </c>
-      <c r="E381" s="25" t="s">
+      <c r="E381" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -33449,7 +33448,7 @@
       <c r="D382" s="4" t="s">
         <v>2007</v>
       </c>
-      <c r="E382" s="25" t="s">
+      <c r="E382" s="24" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -33466,7 +33465,7 @@
       <c r="D383" s="4" t="s">
         <v>2545</v>
       </c>
-      <c r="E383" s="25" t="s">
+      <c r="E383" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33483,7 +33482,7 @@
       <c r="D384" s="4" t="s">
         <v>2547</v>
       </c>
-      <c r="E384" s="25" t="s">
+      <c r="E384" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33500,7 +33499,7 @@
       <c r="D385" s="4" t="s">
         <v>2550</v>
       </c>
-      <c r="E385" s="25" t="s">
+      <c r="E385" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33517,7 +33516,7 @@
       <c r="D386" s="4" t="s">
         <v>2553</v>
       </c>
-      <c r="E386" s="25" t="s">
+      <c r="E386" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33534,7 +33533,7 @@
       <c r="D387" s="4" t="s">
         <v>2556</v>
       </c>
-      <c r="E387" s="25" t="s">
+      <c r="E387" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33551,7 +33550,7 @@
       <c r="D388" s="4" t="s">
         <v>2558</v>
       </c>
-      <c r="E388" s="25" t="s">
+      <c r="E388" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33568,7 +33567,7 @@
       <c r="D389" s="4" t="s">
         <v>2560</v>
       </c>
-      <c r="E389" s="25" t="s">
+      <c r="E389" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33585,7 +33584,7 @@
       <c r="D390" s="4" t="s">
         <v>2562</v>
       </c>
-      <c r="E390" s="25" t="s">
+      <c r="E390" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33602,7 +33601,7 @@
       <c r="D391" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="E391" s="25" t="s">
+      <c r="E391" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33619,7 +33618,7 @@
       <c r="D392" s="4" t="s">
         <v>2566</v>
       </c>
-      <c r="E392" s="25" t="s">
+      <c r="E392" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33636,7 +33635,7 @@
       <c r="D393" s="4" t="s">
         <v>2568</v>
       </c>
-      <c r="E393" s="25" t="s">
+      <c r="E393" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33653,7 +33652,7 @@
       <c r="D394" s="4" t="s">
         <v>2570</v>
       </c>
-      <c r="E394" s="25" t="s">
+      <c r="E394" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33670,7 +33669,7 @@
       <c r="D395" s="4" t="s">
         <v>2572</v>
       </c>
-      <c r="E395" s="25" t="s">
+      <c r="E395" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33687,7 +33686,7 @@
       <c r="D396" s="4" t="s">
         <v>2574</v>
       </c>
-      <c r="E396" s="25" t="s">
+      <c r="E396" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33704,7 +33703,7 @@
       <c r="D397" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="E397" s="26" t="s">
+      <c r="E397" s="25" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -33721,7 +33720,7 @@
       <c r="D398" s="4" t="s">
         <v>2579</v>
       </c>
-      <c r="E398" s="25" t="s">
+      <c r="E398" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33738,7 +33737,7 @@
       <c r="D399" s="4" t="s">
         <v>2582</v>
       </c>
-      <c r="E399" s="25" t="s">
+      <c r="E399" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33755,7 +33754,7 @@
       <c r="D400" s="4" t="s">
         <v>2584</v>
       </c>
-      <c r="E400" s="25" t="s">
+      <c r="E400" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33772,7 +33771,7 @@
       <c r="D401" s="4" t="s">
         <v>2586</v>
       </c>
-      <c r="E401" s="25" t="s">
+      <c r="E401" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33789,7 +33788,7 @@
       <c r="D402" s="4" t="s">
         <v>2588</v>
       </c>
-      <c r="E402" s="25" t="s">
+      <c r="E402" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33806,7 +33805,7 @@
       <c r="D403" s="4" t="s">
         <v>2591</v>
       </c>
-      <c r="E403" s="25" t="s">
+      <c r="E403" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33823,7 +33822,7 @@
       <c r="D404" s="4" t="s">
         <v>2593</v>
       </c>
-      <c r="E404" s="25" t="s">
+      <c r="E404" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33840,7 +33839,7 @@
       <c r="D405" s="4" t="s">
         <v>2595</v>
       </c>
-      <c r="E405" s="25" t="s">
+      <c r="E405" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33857,7 +33856,7 @@
       <c r="D406" s="4" t="s">
         <v>2597</v>
       </c>
-      <c r="E406" s="25" t="s">
+      <c r="E406" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33874,7 +33873,7 @@
       <c r="D407" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="E407" s="25" t="s">
+      <c r="E407" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33891,7 +33890,7 @@
       <c r="D408" s="4" t="s">
         <v>2601</v>
       </c>
-      <c r="E408" s="25" t="s">
+      <c r="E408" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33908,7 +33907,7 @@
       <c r="D409" s="4" t="s">
         <v>2603</v>
       </c>
-      <c r="E409" s="25" t="s">
+      <c r="E409" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33925,7 +33924,7 @@
       <c r="D410" s="4" t="s">
         <v>2606</v>
       </c>
-      <c r="E410" s="26" t="s">
+      <c r="E410" s="25" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -33942,7 +33941,7 @@
       <c r="D411" s="4" t="s">
         <v>2608</v>
       </c>
-      <c r="E411" s="25" t="s">
+      <c r="E411" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33959,7 +33958,7 @@
       <c r="D412" s="4" t="s">
         <v>2610</v>
       </c>
-      <c r="E412" s="25" t="s">
+      <c r="E412" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33976,7 +33975,7 @@
       <c r="D413" s="4" t="s">
         <v>2612</v>
       </c>
-      <c r="E413" s="25" t="s">
+      <c r="E413" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -33993,7 +33992,7 @@
       <c r="D414" s="4" t="s">
         <v>2614</v>
       </c>
-      <c r="E414" s="25" t="s">
+      <c r="E414" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34010,7 +34009,7 @@
       <c r="D415" s="4" t="s">
         <v>2616</v>
       </c>
-      <c r="E415" s="25" t="s">
+      <c r="E415" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34027,7 +34026,7 @@
       <c r="D416" s="4" t="s">
         <v>2618</v>
       </c>
-      <c r="E416" s="25" t="s">
+      <c r="E416" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34044,7 +34043,7 @@
       <c r="D417" s="4" t="s">
         <v>2620</v>
       </c>
-      <c r="E417" s="25" t="s">
+      <c r="E417" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34061,7 +34060,7 @@
       <c r="D418" s="4" t="s">
         <v>2622</v>
       </c>
-      <c r="E418" s="25" t="s">
+      <c r="E418" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34078,7 +34077,7 @@
       <c r="D419" s="4" t="s">
         <v>2624</v>
       </c>
-      <c r="E419" s="25" t="s">
+      <c r="E419" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34095,7 +34094,7 @@
       <c r="D420" s="4" t="s">
         <v>2626</v>
       </c>
-      <c r="E420" s="25" t="s">
+      <c r="E420" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34112,7 +34111,7 @@
       <c r="D421" s="4" t="s">
         <v>2628</v>
       </c>
-      <c r="E421" s="25" t="s">
+      <c r="E421" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34129,7 +34128,7 @@
       <c r="D422" s="4" t="s">
         <v>2630</v>
       </c>
-      <c r="E422" s="25" t="s">
+      <c r="E422" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34146,7 +34145,7 @@
       <c r="D423" s="4" t="s">
         <v>2632</v>
       </c>
-      <c r="E423" s="25" t="s">
+      <c r="E423" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34163,7 +34162,7 @@
       <c r="D424" s="4" t="s">
         <v>2634</v>
       </c>
-      <c r="E424" s="25" t="s">
+      <c r="E424" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34180,7 +34179,7 @@
       <c r="D425" s="4" t="s">
         <v>2636</v>
       </c>
-      <c r="E425" s="25" t="s">
+      <c r="E425" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34197,7 +34196,7 @@
       <c r="D426" s="4" t="s">
         <v>2638</v>
       </c>
-      <c r="E426" s="25" t="s">
+      <c r="E426" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34214,7 +34213,7 @@
       <c r="D427" s="4" t="s">
         <v>2640</v>
       </c>
-      <c r="E427" s="25" t="s">
+      <c r="E427" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34231,7 +34230,7 @@
       <c r="D428" s="4" t="s">
         <v>2642</v>
       </c>
-      <c r="E428" s="25" t="s">
+      <c r="E428" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34248,7 +34247,7 @@
       <c r="D429" s="4" t="s">
         <v>2644</v>
       </c>
-      <c r="E429" s="25" t="s">
+      <c r="E429" s="24" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -34265,7 +34264,7 @@
       <c r="D430" s="4" t="s">
         <v>2646</v>
       </c>
-      <c r="E430" s="25" t="s">
+      <c r="E430" s="24" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -34282,7 +34281,7 @@
       <c r="D431" s="4" t="s">
         <v>2648</v>
       </c>
-      <c r="E431" s="25" t="s">
+      <c r="E431" s="24" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -34299,7 +34298,7 @@
       <c r="D432" s="4" t="s">
         <v>2650</v>
       </c>
-      <c r="E432" s="25" t="s">
+      <c r="E432" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34316,7 +34315,7 @@
       <c r="D433" s="4" t="s">
         <v>2652</v>
       </c>
-      <c r="E433" s="25" t="s">
+      <c r="E433" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34333,7 +34332,7 @@
       <c r="D434" s="4" t="s">
         <v>2654</v>
       </c>
-      <c r="E434" s="25" t="s">
+      <c r="E434" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34350,7 +34349,7 @@
       <c r="D435" s="4" t="s">
         <v>2656</v>
       </c>
-      <c r="E435" s="25" t="s">
+      <c r="E435" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34367,7 +34366,7 @@
       <c r="D436" s="4" t="s">
         <v>2658</v>
       </c>
-      <c r="E436" s="25" t="s">
+      <c r="E436" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34384,7 +34383,7 @@
       <c r="D437" s="4" t="s">
         <v>2660</v>
       </c>
-      <c r="E437" s="25" t="s">
+      <c r="E437" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34401,7 +34400,7 @@
       <c r="D438" s="4" t="s">
         <v>2662</v>
       </c>
-      <c r="E438" s="25" t="s">
+      <c r="E438" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34418,7 +34417,7 @@
       <c r="D439" s="4" t="s">
         <v>2664</v>
       </c>
-      <c r="E439" s="25" t="s">
+      <c r="E439" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34435,7 +34434,7 @@
       <c r="D440" s="4" t="s">
         <v>2666</v>
       </c>
-      <c r="E440" s="25" t="s">
+      <c r="E440" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34452,7 +34451,7 @@
       <c r="D441" s="4" t="s">
         <v>2669</v>
       </c>
-      <c r="E441" s="25" t="s">
+      <c r="E441" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34469,7 +34468,7 @@
       <c r="D442" s="4" t="s">
         <v>2672</v>
       </c>
-      <c r="E442" s="25" t="s">
+      <c r="E442" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34486,7 +34485,7 @@
       <c r="D443" s="4" t="s">
         <v>2675</v>
       </c>
-      <c r="E443" s="25" t="s">
+      <c r="E443" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34503,7 +34502,7 @@
       <c r="D444" s="4" t="s">
         <v>2678</v>
       </c>
-      <c r="E444" s="25" t="s">
+      <c r="E444" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34520,7 +34519,7 @@
       <c r="D445" s="4" t="s">
         <v>2681</v>
       </c>
-      <c r="E445" s="25" t="s">
+      <c r="E445" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34537,7 +34536,7 @@
       <c r="D446" s="4" t="s">
         <v>2684</v>
       </c>
-      <c r="E446" s="25" t="s">
+      <c r="E446" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34554,7 +34553,7 @@
       <c r="D447" s="4" t="s">
         <v>2687</v>
       </c>
-      <c r="E447" s="25" t="s">
+      <c r="E447" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34571,7 +34570,7 @@
       <c r="D448" s="4" t="s">
         <v>2690</v>
       </c>
-      <c r="E448" s="25" t="s">
+      <c r="E448" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34588,7 +34587,7 @@
       <c r="D449" s="4" t="s">
         <v>2693</v>
       </c>
-      <c r="E449" s="25" t="s">
+      <c r="E449" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34605,7 +34604,7 @@
       <c r="D450" s="4" t="s">
         <v>2696</v>
       </c>
-      <c r="E450" s="25" t="s">
+      <c r="E450" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34622,7 +34621,7 @@
       <c r="D451" s="4" t="s">
         <v>2699</v>
       </c>
-      <c r="E451" s="25" t="s">
+      <c r="E451" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34639,7 +34638,7 @@
       <c r="D452" s="4" t="s">
         <v>2702</v>
       </c>
-      <c r="E452" s="25" t="s">
+      <c r="E452" s="24" t="s">
         <v>2703</v>
       </c>
     </row>
@@ -34656,7 +34655,7 @@
       <c r="D453" s="4" t="s">
         <v>2706</v>
       </c>
-      <c r="E453" s="25" t="s">
+      <c r="E453" s="24" t="s">
         <v>2703</v>
       </c>
     </row>
@@ -34673,7 +34672,7 @@
       <c r="D454" s="4" t="s">
         <v>2709</v>
       </c>
-      <c r="E454" s="25" t="s">
+      <c r="E454" s="24" t="s">
         <v>2703</v>
       </c>
     </row>
@@ -34690,7 +34689,7 @@
       <c r="D455" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="E455" s="26" t="s">
+      <c r="E455" s="25" t="s">
         <v>2713</v>
       </c>
     </row>
@@ -34707,7 +34706,7 @@
       <c r="D456" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="E456" s="25" t="s">
+      <c r="E456" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34724,7 +34723,7 @@
       <c r="D457" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="E457" s="25" t="s">
+      <c r="E457" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34741,7 +34740,7 @@
       <c r="D458" s="4" t="s">
         <v>2722</v>
       </c>
-      <c r="E458" s="25" t="s">
+      <c r="E458" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34758,7 +34757,7 @@
       <c r="D459" s="4" t="s">
         <v>2725</v>
       </c>
-      <c r="E459" s="25" t="s">
+      <c r="E459" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34775,7 +34774,7 @@
       <c r="D460" s="4" t="s">
         <v>2728</v>
       </c>
-      <c r="E460" s="25" t="s">
+      <c r="E460" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34792,7 +34791,7 @@
       <c r="D461" s="4" t="s">
         <v>2731</v>
       </c>
-      <c r="E461" s="25" t="s">
+      <c r="E461" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34809,7 +34808,7 @@
       <c r="D462" s="4" t="s">
         <v>2734</v>
       </c>
-      <c r="E462" s="25" t="s">
+      <c r="E462" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34826,7 +34825,7 @@
       <c r="D463" s="4" t="s">
         <v>2737</v>
       </c>
-      <c r="E463" s="25" t="s">
+      <c r="E463" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34843,7 +34842,7 @@
       <c r="D464" s="4" t="s">
         <v>2740</v>
       </c>
-      <c r="E464" s="25" t="s">
+      <c r="E464" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34860,7 +34859,7 @@
       <c r="D465" s="4" t="s">
         <v>2743</v>
       </c>
-      <c r="E465" s="25" t="s">
+      <c r="E465" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -34877,7 +34876,7 @@
       <c r="D466" s="4" t="s">
         <v>2747</v>
       </c>
-      <c r="E466" s="25" t="s">
+      <c r="E466" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34894,7 +34893,7 @@
       <c r="D467" s="4" t="s">
         <v>2752</v>
       </c>
-      <c r="E467" s="25" t="s">
+      <c r="E467" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34911,7 +34910,7 @@
       <c r="D468" s="4" t="s">
         <v>2756</v>
       </c>
-      <c r="E468" s="25" t="s">
+      <c r="E468" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34928,7 +34927,7 @@
       <c r="D469" s="4" t="s">
         <v>2760</v>
       </c>
-      <c r="E469" s="25" t="s">
+      <c r="E469" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34945,7 +34944,7 @@
       <c r="D470" s="4" t="s">
         <v>2764</v>
       </c>
-      <c r="E470" s="25" t="s">
+      <c r="E470" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34962,7 +34961,7 @@
       <c r="D471" s="4" t="s">
         <v>2768</v>
       </c>
-      <c r="E471" s="25" t="s">
+      <c r="E471" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34979,7 +34978,7 @@
       <c r="D472" s="4" t="s">
         <v>2772</v>
       </c>
-      <c r="E472" s="25" t="s">
+      <c r="E472" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -34996,7 +34995,7 @@
       <c r="D473" s="4" t="s">
         <v>2776</v>
       </c>
-      <c r="E473" s="25" t="s">
+      <c r="E473" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35007,13 +35006,13 @@
       <c r="B474" s="4" t="s">
         <v>2778</v>
       </c>
-      <c r="C474" s="28" t="s">
+      <c r="C474" s="27" t="s">
         <v>2779</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>2780</v>
       </c>
-      <c r="E474" s="25" t="s">
+      <c r="E474" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35030,7 +35029,7 @@
       <c r="D475" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="E475" s="25" t="s">
+      <c r="E475" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35047,7 +35046,7 @@
       <c r="D476" s="4" t="s">
         <v>2788</v>
       </c>
-      <c r="E476" s="25" t="s">
+      <c r="E476" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35064,7 +35063,7 @@
       <c r="D477" s="4" t="s">
         <v>2792</v>
       </c>
-      <c r="E477" s="25" t="s">
+      <c r="E477" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35081,7 +35080,7 @@
       <c r="D478" s="4" t="s">
         <v>2796</v>
       </c>
-      <c r="E478" s="25" t="s">
+      <c r="E478" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35098,7 +35097,7 @@
       <c r="D479" s="4" t="s">
         <v>2800</v>
       </c>
-      <c r="E479" s="25" t="s">
+      <c r="E479" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35115,7 +35114,7 @@
       <c r="D480" s="4" t="s">
         <v>2804</v>
       </c>
-      <c r="E480" s="25" t="s">
+      <c r="E480" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35132,7 +35131,7 @@
       <c r="D481" s="4" t="s">
         <v>2808</v>
       </c>
-      <c r="E481" s="25" t="s">
+      <c r="E481" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35149,7 +35148,7 @@
       <c r="D482" s="4" t="s">
         <v>2812</v>
       </c>
-      <c r="E482" s="25" t="s">
+      <c r="E482" s="24" t="s">
         <v>2813</v>
       </c>
     </row>
@@ -35166,7 +35165,7 @@
       <c r="D483" s="4" t="s">
         <v>2817</v>
       </c>
-      <c r="E483" s="25" t="s">
+      <c r="E483" s="24" t="s">
         <v>2818</v>
       </c>
     </row>
@@ -35183,7 +35182,7 @@
       <c r="D484" s="4" t="s">
         <v>2822</v>
       </c>
-      <c r="E484" s="25" t="s">
+      <c r="E484" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35200,7 +35199,7 @@
       <c r="D485" s="4" t="s">
         <v>2827</v>
       </c>
-      <c r="E485" s="25" t="s">
+      <c r="E485" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35217,7 +35216,7 @@
       <c r="D486" s="4" t="s">
         <v>2831</v>
       </c>
-      <c r="E486" s="25" t="s">
+      <c r="E486" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35234,7 +35233,7 @@
       <c r="D487" s="4" t="s">
         <v>2835</v>
       </c>
-      <c r="E487" s="25" t="s">
+      <c r="E487" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35251,7 +35250,7 @@
       <c r="D488" s="4" t="s">
         <v>2839</v>
       </c>
-      <c r="E488" s="25" t="s">
+      <c r="E488" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35268,7 +35267,7 @@
       <c r="D489" s="4" t="s">
         <v>2843</v>
       </c>
-      <c r="E489" s="25" t="s">
+      <c r="E489" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35285,7 +35284,7 @@
       <c r="D490" s="4" t="s">
         <v>2847</v>
       </c>
-      <c r="E490" s="25" t="s">
+      <c r="E490" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35302,7 +35301,7 @@
       <c r="D491" s="4" t="s">
         <v>2850</v>
       </c>
-      <c r="E491" s="25" t="s">
+      <c r="E491" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35319,7 +35318,7 @@
       <c r="D492" s="4" t="s">
         <v>2854</v>
       </c>
-      <c r="E492" s="25" t="s">
+      <c r="E492" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35336,7 +35335,7 @@
       <c r="D493" s="4" t="s">
         <v>2857</v>
       </c>
-      <c r="E493" s="25" t="s">
+      <c r="E493" s="24" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -35353,7 +35352,7 @@
       <c r="D494" s="4" t="s">
         <v>2861</v>
       </c>
-      <c r="E494" s="25" t="s">
+      <c r="E494" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35370,7 +35369,7 @@
       <c r="D495" s="4" t="s">
         <v>2864</v>
       </c>
-      <c r="E495" s="25" t="s">
+      <c r="E495" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35387,7 +35386,7 @@
       <c r="D496" s="4" t="s">
         <v>2868</v>
       </c>
-      <c r="E496" s="25" t="s">
+      <c r="E496" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35404,7 +35403,7 @@
       <c r="D497" s="4" t="s">
         <v>2872</v>
       </c>
-      <c r="E497" s="25" t="s">
+      <c r="E497" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35421,7 +35420,7 @@
       <c r="D498" s="4" t="s">
         <v>2876</v>
       </c>
-      <c r="E498" s="25" t="s">
+      <c r="E498" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35438,7 +35437,7 @@
       <c r="D499" s="4" t="s">
         <v>2880</v>
       </c>
-      <c r="E499" s="25" t="s">
+      <c r="E499" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35455,7 +35454,7 @@
       <c r="D500" s="4" t="s">
         <v>2884</v>
       </c>
-      <c r="E500" s="25" t="s">
+      <c r="E500" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35466,13 +35465,13 @@
       <c r="B501" s="4" t="s">
         <v>2886</v>
       </c>
-      <c r="C501" s="28" t="s">
+      <c r="C501" s="27" t="s">
         <v>2887</v>
       </c>
       <c r="D501" s="4" t="s">
         <v>2888</v>
       </c>
-      <c r="E501" s="25" t="s">
+      <c r="E501" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35489,7 +35488,7 @@
       <c r="D502" s="4" t="s">
         <v>2892</v>
       </c>
-      <c r="E502" s="25" t="s">
+      <c r="E502" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35506,7 +35505,7 @@
       <c r="D503" s="4" t="s">
         <v>2896</v>
       </c>
-      <c r="E503" s="25" t="s">
+      <c r="E503" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35523,7 +35522,7 @@
       <c r="D504" s="4" t="s">
         <v>2900</v>
       </c>
-      <c r="E504" s="25" t="s">
+      <c r="E504" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35540,7 +35539,7 @@
       <c r="D505" s="4" t="s">
         <v>2904</v>
       </c>
-      <c r="E505" s="25" t="s">
+      <c r="E505" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35557,7 +35556,7 @@
       <c r="D506" s="4" t="s">
         <v>2908</v>
       </c>
-      <c r="E506" s="25" t="s">
+      <c r="E506" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35574,7 +35573,7 @@
       <c r="D507" s="4" t="s">
         <v>2912</v>
       </c>
-      <c r="E507" s="25" t="s">
+      <c r="E507" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35591,7 +35590,7 @@
       <c r="D508" s="4" t="s">
         <v>2916</v>
       </c>
-      <c r="E508" s="25" t="s">
+      <c r="E508" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35608,7 +35607,7 @@
       <c r="D509" s="4" t="s">
         <v>2920</v>
       </c>
-      <c r="E509" s="25" t="s">
+      <c r="E509" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35625,7 +35624,7 @@
       <c r="D510" s="4" t="s">
         <v>2924</v>
       </c>
-      <c r="E510" s="25" t="s">
+      <c r="E510" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35642,7 +35641,7 @@
       <c r="D511" s="4" t="s">
         <v>2928</v>
       </c>
-      <c r="E511" s="25" t="s">
+      <c r="E511" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35659,7 +35658,7 @@
       <c r="D512" s="4" t="s">
         <v>2932</v>
       </c>
-      <c r="E512" s="25" t="s">
+      <c r="E512" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35676,7 +35675,7 @@
       <c r="D513" s="4" t="s">
         <v>2936</v>
       </c>
-      <c r="E513" s="25" t="s">
+      <c r="E513" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35693,7 +35692,7 @@
       <c r="D514" s="4" t="s">
         <v>2940</v>
       </c>
-      <c r="E514" s="25" t="s">
+      <c r="E514" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35710,7 +35709,7 @@
       <c r="D515" s="4" t="s">
         <v>2944</v>
       </c>
-      <c r="E515" s="25" t="s">
+      <c r="E515" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35727,7 +35726,7 @@
       <c r="D516" s="4" t="s">
         <v>2948</v>
       </c>
-      <c r="E516" s="25" t="s">
+      <c r="E516" s="24" t="s">
         <v>2818</v>
       </c>
     </row>
@@ -35744,7 +35743,7 @@
       <c r="D517" s="4" t="s">
         <v>2952</v>
       </c>
-      <c r="E517" s="25" t="s">
+      <c r="E517" s="24" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -35761,7 +35760,7 @@
       <c r="D518" s="4" t="s">
         <v>2956</v>
       </c>
-      <c r="E518" s="25" t="s">
+      <c r="E518" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35778,7 +35777,7 @@
       <c r="D519" s="4" t="s">
         <v>2960</v>
       </c>
-      <c r="E519" s="25" t="s">
+      <c r="E519" s="24" t="s">
         <v>2961</v>
       </c>
     </row>
@@ -35795,7 +35794,7 @@
       <c r="D520" s="4" t="s">
         <v>2965</v>
       </c>
-      <c r="E520" s="25" t="s">
+      <c r="E520" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35812,7 +35811,7 @@
       <c r="D521" s="4" t="s">
         <v>2969</v>
       </c>
-      <c r="E521" s="25" t="s">
+      <c r="E521" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35829,7 +35828,7 @@
       <c r="D522" s="4" t="s">
         <v>2971</v>
       </c>
-      <c r="E522" s="25" t="s">
+      <c r="E522" s="24" t="s">
         <v>2972</v>
       </c>
     </row>
@@ -35846,7 +35845,7 @@
       <c r="D523" s="4" t="s">
         <v>2974</v>
       </c>
-      <c r="E523" s="25" t="s">
+      <c r="E523" s="24" t="s">
         <v>2972</v>
       </c>
     </row>
@@ -35863,7 +35862,7 @@
       <c r="D524" s="4" t="s">
         <v>2976</v>
       </c>
-      <c r="E524" s="25" t="s">
+      <c r="E524" s="24" t="s">
         <v>2972</v>
       </c>
     </row>
@@ -35880,7 +35879,7 @@
       <c r="D525" s="4" t="s">
         <v>2979</v>
       </c>
-      <c r="E525" s="25" t="s">
+      <c r="E525" s="24" t="s">
         <v>2972</v>
       </c>
     </row>
@@ -35897,7 +35896,7 @@
       <c r="D526" s="4" t="s">
         <v>2981</v>
       </c>
-      <c r="E526" s="25" t="s">
+      <c r="E526" s="24" t="s">
         <v>2972</v>
       </c>
     </row>
@@ -35914,7 +35913,7 @@
       <c r="D527" s="4" t="s">
         <v>2985</v>
       </c>
-      <c r="E527" s="25" t="s">
+      <c r="E527" s="24" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -35931,7 +35930,7 @@
       <c r="D528" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="E528" s="26" t="s">
+      <c r="E528" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -35948,7 +35947,7 @@
       <c r="D529" s="4" t="s">
         <v>2991</v>
       </c>
-      <c r="E529" s="25" t="s">
+      <c r="E529" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -35965,7 +35964,7 @@
       <c r="D530" s="4" t="s">
         <v>2995</v>
       </c>
-      <c r="E530" s="25" t="s">
+      <c r="E530" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -35982,7 +35981,7 @@
       <c r="D531" s="4" t="s">
         <v>2999</v>
       </c>
-      <c r="E531" s="25" t="s">
+      <c r="E531" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -35999,7 +35998,7 @@
       <c r="D532" s="4" t="s">
         <v>3003</v>
       </c>
-      <c r="E532" s="25" t="s">
+      <c r="E532" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -36016,7 +36015,7 @@
       <c r="D533" s="4" t="s">
         <v>3007</v>
       </c>
-      <c r="E533" s="25" t="s">
+      <c r="E533" s="24" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -36033,7 +36032,7 @@
       <c r="D534" s="4" t="s">
         <v>3011</v>
       </c>
-      <c r="E534" s="25" t="s">
+      <c r="E534" s="24" t="s">
         <v>3012</v>
       </c>
     </row>
@@ -36050,7 +36049,7 @@
       <c r="D535" s="4" t="s">
         <v>3016</v>
       </c>
-      <c r="E535" s="25" t="s">
+      <c r="E535" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36067,7 +36066,7 @@
       <c r="D536" s="4" t="s">
         <v>3019</v>
       </c>
-      <c r="E536" s="25" t="s">
+      <c r="E536" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36084,7 +36083,7 @@
       <c r="D537" s="4" t="s">
         <v>3022</v>
       </c>
-      <c r="E537" s="25" t="s">
+      <c r="E537" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36101,7 +36100,7 @@
       <c r="D538" s="4" t="s">
         <v>3026</v>
       </c>
-      <c r="E538" s="25" t="s">
+      <c r="E538" s="24" t="s">
         <v>3012</v>
       </c>
     </row>
@@ -36116,7 +36115,7 @@
         <v>3029</v>
       </c>
       <c r="D539" s="3"/>
-      <c r="E539" s="25" t="s">
+      <c r="E539" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36133,7 +36132,7 @@
       <c r="D540" s="4" t="s">
         <v>3033</v>
       </c>
-      <c r="E540" s="25" t="s">
+      <c r="E540" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36150,7 +36149,7 @@
       <c r="D541" s="4" t="s">
         <v>3037</v>
       </c>
-      <c r="E541" s="25" t="s">
+      <c r="E541" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36167,7 +36166,7 @@
       <c r="D542" s="4" t="s">
         <v>3041</v>
       </c>
-      <c r="E542" s="25" t="s">
+      <c r="E542" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36184,7 +36183,7 @@
       <c r="D543" s="4" t="s">
         <v>3045</v>
       </c>
-      <c r="E543" s="25" t="s">
+      <c r="E543" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36201,7 +36200,7 @@
       <c r="D544" s="4" t="s">
         <v>3049</v>
       </c>
-      <c r="E544" s="25" t="s">
+      <c r="E544" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36218,7 +36217,7 @@
       <c r="D545" s="4" t="s">
         <v>3053</v>
       </c>
-      <c r="E545" s="25" t="s">
+      <c r="E545" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36235,7 +36234,7 @@
       <c r="D546" s="4" t="s">
         <v>3057</v>
       </c>
-      <c r="E546" s="25" t="s">
+      <c r="E546" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36252,7 +36251,7 @@
       <c r="D547" s="4" t="s">
         <v>3061</v>
       </c>
-      <c r="E547" s="25" t="s">
+      <c r="E547" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36269,7 +36268,7 @@
       <c r="D548" s="4" t="s">
         <v>3065</v>
       </c>
-      <c r="E548" s="25" t="s">
+      <c r="E548" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36286,7 +36285,7 @@
       <c r="D549" s="4" t="s">
         <v>3069</v>
       </c>
-      <c r="E549" s="25" t="s">
+      <c r="E549" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36303,7 +36302,7 @@
       <c r="D550" s="4" t="s">
         <v>3073</v>
       </c>
-      <c r="E550" s="25" t="s">
+      <c r="E550" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36320,7 +36319,7 @@
       <c r="D551" s="4" t="s">
         <v>3077</v>
       </c>
-      <c r="E551" s="25" t="s">
+      <c r="E551" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36337,7 +36336,7 @@
       <c r="D552" s="4" t="s">
         <v>3081</v>
       </c>
-      <c r="E552" s="25" t="s">
+      <c r="E552" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36354,7 +36353,7 @@
       <c r="D553" s="4" t="s">
         <v>3085</v>
       </c>
-      <c r="E553" s="25" t="s">
+      <c r="E553" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36371,7 +36370,7 @@
       <c r="D554" s="4" t="s">
         <v>3089</v>
       </c>
-      <c r="E554" s="25" t="s">
+      <c r="E554" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36388,7 +36387,7 @@
       <c r="D555" s="4" t="s">
         <v>3093</v>
       </c>
-      <c r="E555" s="25" t="s">
+      <c r="E555" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36405,7 +36404,7 @@
       <c r="D556" s="4" t="s">
         <v>3097</v>
       </c>
-      <c r="E556" s="25" t="s">
+      <c r="E556" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36422,7 +36421,7 @@
       <c r="D557" s="4" t="s">
         <v>3101</v>
       </c>
-      <c r="E557" s="25" t="s">
+      <c r="E557" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36439,7 +36438,7 @@
       <c r="D558" s="4" t="s">
         <v>3105</v>
       </c>
-      <c r="E558" s="25" t="s">
+      <c r="E558" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36456,7 +36455,7 @@
       <c r="D559" s="4" t="s">
         <v>3109</v>
       </c>
-      <c r="E559" s="25" t="s">
+      <c r="E559" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36473,7 +36472,7 @@
       <c r="D560" s="4" t="s">
         <v>3113</v>
       </c>
-      <c r="E560" s="25" t="s">
+      <c r="E560" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36490,7 +36489,7 @@
       <c r="D561" s="4" t="s">
         <v>3117</v>
       </c>
-      <c r="E561" s="25" t="s">
+      <c r="E561" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36507,7 +36506,7 @@
       <c r="D562" s="4" t="s">
         <v>3121</v>
       </c>
-      <c r="E562" s="25" t="s">
+      <c r="E562" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36524,7 +36523,7 @@
       <c r="D563" s="4" t="s">
         <v>3125</v>
       </c>
-      <c r="E563" s="25" t="s">
+      <c r="E563" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36541,7 +36540,7 @@
       <c r="D564" s="4" t="s">
         <v>3129</v>
       </c>
-      <c r="E564" s="25" t="s">
+      <c r="E564" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36558,7 +36557,7 @@
       <c r="D565" s="4" t="s">
         <v>3133</v>
       </c>
-      <c r="E565" s="25" t="s">
+      <c r="E565" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36575,7 +36574,7 @@
       <c r="D566" s="4" t="s">
         <v>3136</v>
       </c>
-      <c r="E566" s="25" t="s">
+      <c r="E566" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36592,7 +36591,7 @@
       <c r="D567" s="4" t="s">
         <v>3140</v>
       </c>
-      <c r="E567" s="25" t="s">
+      <c r="E567" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36609,7 +36608,7 @@
       <c r="D568" s="4" t="s">
         <v>3144</v>
       </c>
-      <c r="E568" s="25" t="s">
+      <c r="E568" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36626,7 +36625,7 @@
       <c r="D569" s="4" t="s">
         <v>3148</v>
       </c>
-      <c r="E569" s="25" t="s">
+      <c r="E569" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36643,7 +36642,7 @@
       <c r="D570" s="4" t="s">
         <v>3152</v>
       </c>
-      <c r="E570" s="25" t="s">
+      <c r="E570" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36660,7 +36659,7 @@
       <c r="D571" s="4" t="s">
         <v>3156</v>
       </c>
-      <c r="E571" s="25" t="s">
+      <c r="E571" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36677,7 +36676,7 @@
       <c r="D572" s="4" t="s">
         <v>3160</v>
       </c>
-      <c r="E572" s="25" t="s">
+      <c r="E572" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36694,7 +36693,7 @@
       <c r="D573" s="4" t="s">
         <v>3164</v>
       </c>
-      <c r="E573" s="25" t="s">
+      <c r="E573" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36711,7 +36710,7 @@
       <c r="D574" s="4" t="s">
         <v>3168</v>
       </c>
-      <c r="E574" s="25" t="s">
+      <c r="E574" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36728,7 +36727,7 @@
       <c r="D575" s="4" t="s">
         <v>3172</v>
       </c>
-      <c r="E575" s="25" t="s">
+      <c r="E575" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36745,7 +36744,7 @@
       <c r="D576" s="4" t="s">
         <v>3176</v>
       </c>
-      <c r="E576" s="25" t="s">
+      <c r="E576" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36762,7 +36761,7 @@
       <c r="D577" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="E577" s="25" t="s">
+      <c r="E577" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36779,7 +36778,7 @@
       <c r="D578" s="4" t="s">
         <v>3183</v>
       </c>
-      <c r="E578" s="25" t="s">
+      <c r="E578" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36796,7 +36795,7 @@
       <c r="D579" s="4" t="s">
         <v>3187</v>
       </c>
-      <c r="E579" s="25" t="s">
+      <c r="E579" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36813,7 +36812,7 @@
       <c r="D580" s="4" t="s">
         <v>3191</v>
       </c>
-      <c r="E580" s="25" t="s">
+      <c r="E580" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36830,7 +36829,7 @@
       <c r="D581" s="4" t="s">
         <v>3195</v>
       </c>
-      <c r="E581" s="25" t="s">
+      <c r="E581" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36847,7 +36846,7 @@
       <c r="D582" s="4" t="s">
         <v>3199</v>
       </c>
-      <c r="E582" s="25" t="s">
+      <c r="E582" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36864,7 +36863,7 @@
       <c r="D583" s="4" t="s">
         <v>3203</v>
       </c>
-      <c r="E583" s="25" t="s">
+      <c r="E583" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36881,7 +36880,7 @@
       <c r="D584" s="4" t="s">
         <v>3207</v>
       </c>
-      <c r="E584" s="25" t="s">
+      <c r="E584" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36898,7 +36897,7 @@
       <c r="D585" s="4" t="s">
         <v>3211</v>
       </c>
-      <c r="E585" s="25" t="s">
+      <c r="E585" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36915,7 +36914,7 @@
       <c r="D586" s="4" t="s">
         <v>3215</v>
       </c>
-      <c r="E586" s="25" t="s">
+      <c r="E586" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36932,7 +36931,7 @@
       <c r="D587" s="4" t="s">
         <v>3219</v>
       </c>
-      <c r="E587" s="25" t="s">
+      <c r="E587" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36949,7 +36948,7 @@
       <c r="D588" s="4" t="s">
         <v>3223</v>
       </c>
-      <c r="E588" s="25" t="s">
+      <c r="E588" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36966,7 +36965,7 @@
       <c r="D589" s="4" t="s">
         <v>3227</v>
       </c>
-      <c r="E589" s="25" t="s">
+      <c r="E589" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -36983,7 +36982,7 @@
       <c r="D590" s="4" t="s">
         <v>3231</v>
       </c>
-      <c r="E590" s="25" t="s">
+      <c r="E590" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37000,7 +36999,7 @@
       <c r="D591" s="4" t="s">
         <v>3235</v>
       </c>
-      <c r="E591" s="25" t="s">
+      <c r="E591" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37017,7 +37016,7 @@
       <c r="D592" s="4" t="s">
         <v>3239</v>
       </c>
-      <c r="E592" s="25" t="s">
+      <c r="E592" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37034,7 +37033,7 @@
       <c r="D593" s="4" t="s">
         <v>3243</v>
       </c>
-      <c r="E593" s="25" t="s">
+      <c r="E593" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37051,7 +37050,7 @@
       <c r="D594" s="4" t="s">
         <v>3247</v>
       </c>
-      <c r="E594" s="25" t="s">
+      <c r="E594" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37068,7 +37067,7 @@
       <c r="D595" s="4" t="s">
         <v>3251</v>
       </c>
-      <c r="E595" s="25" t="s">
+      <c r="E595" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37085,7 +37084,7 @@
       <c r="D596" s="4" t="s">
         <v>3255</v>
       </c>
-      <c r="E596" s="25" t="s">
+      <c r="E596" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37102,7 +37101,7 @@
       <c r="D597" s="4" t="s">
         <v>3259</v>
       </c>
-      <c r="E597" s="25" t="s">
+      <c r="E597" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37119,7 +37118,7 @@
       <c r="D598" s="4" t="s">
         <v>3263</v>
       </c>
-      <c r="E598" s="25" t="s">
+      <c r="E598" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37136,7 +37135,7 @@
       <c r="D599" s="4" t="s">
         <v>3267</v>
       </c>
-      <c r="E599" s="25" t="s">
+      <c r="E599" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37153,7 +37152,7 @@
       <c r="D600" s="4" t="s">
         <v>3271</v>
       </c>
-      <c r="E600" s="25" t="s">
+      <c r="E600" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37170,7 +37169,7 @@
       <c r="D601" s="4" t="s">
         <v>3275</v>
       </c>
-      <c r="E601" s="25" t="s">
+      <c r="E601" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37187,7 +37186,7 @@
       <c r="D602" s="4" t="s">
         <v>3279</v>
       </c>
-      <c r="E602" s="25" t="s">
+      <c r="E602" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37204,7 +37203,7 @@
       <c r="D603" s="4" t="s">
         <v>3283</v>
       </c>
-      <c r="E603" s="25" t="s">
+      <c r="E603" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37221,7 +37220,7 @@
       <c r="D604" s="4" t="s">
         <v>3287</v>
       </c>
-      <c r="E604" s="25" t="s">
+      <c r="E604" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37238,7 +37237,7 @@
       <c r="D605" s="4" t="s">
         <v>3291</v>
       </c>
-      <c r="E605" s="25" t="s">
+      <c r="E605" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37255,7 +37254,7 @@
       <c r="D606" s="4" t="s">
         <v>1716</v>
       </c>
-      <c r="E606" s="25" t="s">
+      <c r="E606" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37272,7 +37271,7 @@
       <c r="D607" s="4" t="s">
         <v>3298</v>
       </c>
-      <c r="E607" s="25" t="s">
+      <c r="E607" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37289,7 +37288,7 @@
       <c r="D608" s="4" t="s">
         <v>3300</v>
       </c>
-      <c r="E608" s="25" t="s">
+      <c r="E608" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37306,7 +37305,7 @@
       <c r="D609" s="4" t="s">
         <v>3304</v>
       </c>
-      <c r="E609" s="25" t="s">
+      <c r="E609" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37323,7 +37322,7 @@
       <c r="D610" s="4" t="s">
         <v>3308</v>
       </c>
-      <c r="E610" s="25" t="s">
+      <c r="E610" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37340,7 +37339,7 @@
       <c r="D611" s="4" t="s">
         <v>3312</v>
       </c>
-      <c r="E611" s="25" t="s">
+      <c r="E611" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37357,7 +37356,7 @@
       <c r="D612" s="4" t="s">
         <v>3316</v>
       </c>
-      <c r="E612" s="25" t="s">
+      <c r="E612" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37374,7 +37373,7 @@
       <c r="D613" s="4" t="s">
         <v>3320</v>
       </c>
-      <c r="E613" s="25" t="s">
+      <c r="E613" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37391,7 +37390,7 @@
       <c r="D614" s="4" t="s">
         <v>3324</v>
       </c>
-      <c r="E614" s="25" t="s">
+      <c r="E614" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37408,7 +37407,7 @@
       <c r="D615" s="4" t="s">
         <v>3328</v>
       </c>
-      <c r="E615" s="25" t="s">
+      <c r="E615" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37425,7 +37424,7 @@
       <c r="D616" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="E616" s="25" t="s">
+      <c r="E616" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37442,7 +37441,7 @@
       <c r="D617" s="4" t="s">
         <v>3336</v>
       </c>
-      <c r="E617" s="25" t="s">
+      <c r="E617" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37459,7 +37458,7 @@
       <c r="D618" s="4" t="s">
         <v>3340</v>
       </c>
-      <c r="E618" s="25" t="s">
+      <c r="E618" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37476,7 +37475,7 @@
       <c r="D619" s="4" t="s">
         <v>1674</v>
       </c>
-      <c r="E619" s="25" t="s">
+      <c r="E619" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37493,7 +37492,7 @@
       <c r="D620" s="4" t="s">
         <v>3347</v>
       </c>
-      <c r="E620" s="25" t="s">
+      <c r="E620" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37510,7 +37509,7 @@
       <c r="D621" s="4" t="s">
         <v>3351</v>
       </c>
-      <c r="E621" s="25" t="s">
+      <c r="E621" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37527,7 +37526,7 @@
       <c r="D622" s="4" t="s">
         <v>3355</v>
       </c>
-      <c r="E622" s="25" t="s">
+      <c r="E622" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37544,7 +37543,7 @@
       <c r="D623" s="4" t="s">
         <v>3359</v>
       </c>
-      <c r="E623" s="25" t="s">
+      <c r="E623" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37561,7 +37560,7 @@
       <c r="D624" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="E624" s="25" t="s">
+      <c r="E624" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37578,7 +37577,7 @@
       <c r="D625" s="4" t="s">
         <v>3367</v>
       </c>
-      <c r="E625" s="25" t="s">
+      <c r="E625" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37595,7 +37594,7 @@
       <c r="D626" s="4" t="s">
         <v>3371</v>
       </c>
-      <c r="E626" s="25" t="s">
+      <c r="E626" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37612,7 +37611,7 @@
       <c r="D627" s="4" t="s">
         <v>3375</v>
       </c>
-      <c r="E627" s="25" t="s">
+      <c r="E627" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37629,7 +37628,7 @@
       <c r="D628" s="4" t="s">
         <v>3379</v>
       </c>
-      <c r="E628" s="25" t="s">
+      <c r="E628" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37646,7 +37645,7 @@
       <c r="D629" s="4" t="s">
         <v>3383</v>
       </c>
-      <c r="E629" s="25" t="s">
+      <c r="E629" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37663,7 +37662,7 @@
       <c r="D630" s="4" t="s">
         <v>3387</v>
       </c>
-      <c r="E630" s="25" t="s">
+      <c r="E630" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37674,13 +37673,13 @@
       <c r="B631" s="4" t="s">
         <v>3389</v>
       </c>
-      <c r="C631" s="1" t="s">
+      <c r="C631" s="4" t="s">
         <v>3390</v>
       </c>
       <c r="D631" s="4" t="s">
         <v>3391</v>
       </c>
-      <c r="E631" s="25" t="s">
+      <c r="E631" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37697,7 +37696,7 @@
       <c r="D632" s="4" t="s">
         <v>3395</v>
       </c>
-      <c r="E632" s="25" t="s">
+      <c r="E632" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37714,7 +37713,7 @@
       <c r="D633" s="4" t="s">
         <v>3399</v>
       </c>
-      <c r="E633" s="25" t="s">
+      <c r="E633" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37731,7 +37730,7 @@
       <c r="D634" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="E634" s="25" t="s">
+      <c r="E634" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37748,7 +37747,7 @@
       <c r="D635" s="4" t="s">
         <v>3407</v>
       </c>
-      <c r="E635" s="25" t="s">
+      <c r="E635" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37765,7 +37764,7 @@
       <c r="D636" s="4" t="s">
         <v>3411</v>
       </c>
-      <c r="E636" s="25" t="s">
+      <c r="E636" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37782,7 +37781,7 @@
       <c r="D637" s="4" t="s">
         <v>3415</v>
       </c>
-      <c r="E637" s="25" t="s">
+      <c r="E637" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37799,7 +37798,7 @@
       <c r="D638" s="4" t="s">
         <v>3419</v>
       </c>
-      <c r="E638" s="25" t="s">
+      <c r="E638" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37816,7 +37815,7 @@
       <c r="D639" s="4" t="s">
         <v>3423</v>
       </c>
-      <c r="E639" s="25" t="s">
+      <c r="E639" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -37833,7 +37832,7 @@
       <c r="D640" s="4" t="s">
         <v>3427</v>
       </c>
-      <c r="E640" s="25" t="s">
+      <c r="E640" s="24" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -37850,7 +37849,7 @@
       <c r="D641" s="11" t="s">
         <v>3431</v>
       </c>
-      <c r="E641" s="26" t="s">
+      <c r="E641" s="25" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -37867,7 +37866,7 @@
       <c r="D642" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="E642" s="25" t="s">
+      <c r="E642" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -37878,13 +37877,13 @@
       <c r="B643" s="4" t="s">
         <v>3434</v>
       </c>
-      <c r="C643" s="28" t="s">
+      <c r="C643" s="27" t="s">
         <v>3435</v>
       </c>
       <c r="D643" s="4" t="s">
         <v>3436</v>
       </c>
-      <c r="E643" s="25" t="s">
+      <c r="E643" s="24" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -37901,7 +37900,7 @@
       <c r="D644" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E644" s="25" t="s">
+      <c r="E644" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37918,7 +37917,7 @@
       <c r="D645" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E645" s="25" t="s">
+      <c r="E645" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37935,7 +37934,7 @@
       <c r="D646" s="4" t="s">
         <v>3440</v>
       </c>
-      <c r="E646" s="25" t="s">
+      <c r="E646" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37952,7 +37951,7 @@
       <c r="D647" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E647" s="25" t="s">
+      <c r="E647" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37969,7 +37968,7 @@
       <c r="D648" s="4" t="s">
         <v>3444</v>
       </c>
-      <c r="E648" s="25" t="s">
+      <c r="E648" s="24" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -37986,7 +37985,7 @@
       <c r="D649" s="4" t="s">
         <v>3447</v>
       </c>
-      <c r="E649" s="25" t="s">
+      <c r="E649" s="24" t="s">
         <v>1484</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2271,7 +2271,7 @@
     <t xml:space="preserve">아이스 돌</t>
   </si>
   <si>
-    <t xml:space="preserve">가시나무 저주의 여인 셰이네 </t>
+    <t xml:space="preserve">가시나무 저주의 여인 셰이네</t>
   </si>
   <si>
     <t xml:space="preserve">101070151</t>
@@ -9300,1225 +9300,1225 @@
     <t xml:space="preserve">You don't have this character for now.</t>
   </si>
   <si>
-    <t xml:space="preserve">personality.104</t>
+    <t xml:space="preserve">personality.p000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">風</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">땅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그림자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">번개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지팡이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">검</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도끼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">창</t>
+  </si>
+  <si>
+    <t xml:space="preserve">槍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">권갑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">망치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">槌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕족</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王族</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엘프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エルフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정령 대화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精霊対話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">봉인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">封印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">과학자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科学者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로스트 랩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロストラボ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">만능의 지배자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万能の支配者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power to Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성직자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聖職者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미술</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美術</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">애견가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いぬ好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낯가림</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人見知り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독서가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">読書家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bookworm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">料理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔獣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요괴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA스쿨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDAスクール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">북방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">첩자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">忍び</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음유시인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吟遊詩人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メガネ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘체르토 아트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンチェルトアーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerto Artes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">천계의 인도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天の導き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiding Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呪い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">낮잠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お昼寝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동물 대화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動物対話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">죽마고우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹馬の友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childhood Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바르오키</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バルオキー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마음의 괴도단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心の怪盗団</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Thieves of Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간의 상흔의 윤무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時の傷痕の輪舞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scars of the Wheel of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영매 체질</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊媒体質</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit-fused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">단것 애호가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘党</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet tooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">채집</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">복수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">復讐者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상사병</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恋わずらい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovesick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기억상실</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記憶喪失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amnesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">명계의 부름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冥の誘い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luring Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용궁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜宮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マシナリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대식가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大食い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">테일즈 오브</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テイルズオブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">귀가 밝음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地獄耳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp Ears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미글랜스 왕궁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミグランス王宮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miglance Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대장간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鍛冶屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">합성인간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合成人間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synth Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">라이더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">騎乗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アウトロー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작명가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニックネーマー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicknamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리아레스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フリアレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleareth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">채굴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採掘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드워프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドワーフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장례</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フューネラル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신 몽상 과격단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新夢想過激団</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Radical Dreamers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부천수 애호가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辛党</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">총</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타이탄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">짚단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巻きワラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straw Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드래곤 킬러</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラゴンキラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Killer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연옥계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉獄界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purgatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジオ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">혐묘가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねこ嫌い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Hater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미식</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주인공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主人公</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protagonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">괭이갈매기 애호가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うみねこ好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scallywag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMS사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMS社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간 제국</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時間帝国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronos Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">애묘가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねこ好き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밀리터리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミリタリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나무꾼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木こり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodcutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연금술사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">錬金術師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신 시공 초한 유파</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新時空超限流派</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Time Drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보현일도류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普賢一刀流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itto-Ryu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배리몽상단 리더</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背理夢想団リーダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradoxical Dreamers Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간의 황자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時の皇子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince of Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래혁명가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未来革命家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Revolutionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아르카디아</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アルカディア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcadia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인도의 트래블러</t>
+  </si>
+  <si>
+    <t xml:space="preserve">導きのトラベラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마검</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔剣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personality.p107</t>
   </si>
   <si>
     <t xml:space="preserve">KOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">땅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그림자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">번개</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">결정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지팡이</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">검</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도끼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">창</t>
-  </si>
-  <si>
-    <t xml:space="preserve">槍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">활</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">권갑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">망치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">槌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왕족</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王族</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エルフ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정령 대화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">精霊対話</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">봉인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">封印</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">과학자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科学者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로스트 랩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロストラボ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">만능의 지배자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万能の支配者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power to Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">성직자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聖職者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미술</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美術</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">애견가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いぬ好き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dog lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장비</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">낯가림</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人見知り</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">독서가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">読書家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bookworm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">料理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔獣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요괴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA스쿨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDAスクール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">북방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">첩자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">忍び</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">음유시인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吟遊詩人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">안경</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メガネ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">콘체르토 아트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンチェルトアーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concerto Artes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가면</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">천계의 인도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天の導き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiding Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저주</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呪い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cursed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">낮잠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お昼寝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동물 대화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">動物対話</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fishman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">죽마고우</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹馬の友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Childhood Friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바르오키</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バルオキー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baruoki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마음의 괴도단</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心の怪盗団</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom Thieves of Hearts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간의 상흔의 윤무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時の傷痕の輪舞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scars of the Wheel of Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">영매 체질</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊媒体質</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit-fused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단것 애호가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘党</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet tooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">채집</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">복수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">復讐者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생물</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상사병</t>
-  </si>
-  <si>
-    <t xml:space="preserve">恋わずらい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lovesick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">東方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방패</t>
-  </si>
-  <si>
-    <t xml:space="preserve">盾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기억상실</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記憶喪失</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amnesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">명계의 부름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冥の誘い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luring Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용궁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜宮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マシナリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machinery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대식가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大食い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">테일즈 오브</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テイルズオブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tales of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">귀가 밝음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地獄耳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp Ears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미글랜스 왕궁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミグランス王宮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miglance Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대장간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鍛冶屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">합성인간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合成人間</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synth Human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">라이더</t>
-  </si>
-  <si>
-    <t xml:space="preserve">騎乗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mounted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アウトロー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작명가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ニックネーマー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicknamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아레스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フリアレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleareth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">채굴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採掘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드워프</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドワーフ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwarf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장례</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フューネラル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신 몽상 과격단</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新夢想過激団</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Radical Dreamers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부천수 애호가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辛党</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spicy Lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">총</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">타이탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">짚단</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巻きワラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straw Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드래곤 킬러</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドラゴンキラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Killer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연옥계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉獄界</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purgatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지오</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジオ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">혐묘가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねこ嫌い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat Hater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미식</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美食</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gourmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주인공</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主人公</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protagonist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">괭이갈매기 애호가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うみねこ好き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scallywag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMS사</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMS社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간 제국</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時間帝国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronos Empire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">애묘가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねこ好き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">밀리터리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミリタリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Military</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나무꾼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木こり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woodcutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연금술사</t>
-  </si>
-  <si>
-    <t xml:space="preserve">錬金術師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신 시공 초한 유파</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新時空超限流派</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Time Drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">보현일도류</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普賢一刀流</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itto-Ryu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배리몽상단 리더</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背理夢想団リーダー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradoxical Dreamers Leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간의 황자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時の皇子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince of Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미래혁명가</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未来革命家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future Revolutionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아르카디아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アルカディア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcadia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인도의 트래블러</t>
-  </si>
-  <si>
-    <t xml:space="preserve">導きのトラベラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traveler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personality.p106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마검</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔剣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon Sword</t>
   </si>
   <si>
     <t xml:space="preserve">staralign.false</t>
@@ -11188,7 +11188,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E394" activeCellId="0" sqref="E394"/>
+      <selection pane="bottomLeft" activeCell="B389" activeCellId="0" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27508,9 +27508,9 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A643" activeCellId="0" sqref="A643"/>
+      <selection pane="bottomLeft" activeCell="B417" activeCellId="0" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36845,42 +36845,42 @@
         <v>3091</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>3091</v>
-      </c>
-      <c r="D549" s="4" t="s">
-        <v>3091</v>
-      </c>
-      <c r="E549" s="27" t="n">
-        <v>45528</v>
+        <v>3092</v>
+      </c>
+      <c r="D549" s="3"/>
+      <c r="E549" s="25" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>3094</v>
-      </c>
-      <c r="D550" s="3"/>
+        <v>3095</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>3096</v>
+      </c>
       <c r="E550" s="25" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="E551" s="25" t="s">
         <v>1520</v>
@@ -36888,16 +36888,16 @@
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>3100</v>
+        <v>3102</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="E552" s="25" t="s">
         <v>1520</v>
@@ -36905,16 +36905,16 @@
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="E553" s="25" t="s">
         <v>1520</v>
@@ -36922,16 +36922,16 @@
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="E554" s="25" t="s">
         <v>1520</v>
@@ -36939,16 +36939,16 @@
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="E555" s="25" t="s">
         <v>1520</v>
@@ -36956,16 +36956,16 @@
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="E556" s="25" t="s">
         <v>1520</v>
@@ -36973,16 +36973,16 @@
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>3121</v>
+        <v>3123</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="E557" s="25" t="s">
         <v>1520</v>
@@ -36990,16 +36990,16 @@
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="E558" s="25" t="s">
         <v>1520</v>
@@ -37007,16 +37007,16 @@
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="E559" s="25" t="s">
         <v>1520</v>
@@ -37024,16 +37024,16 @@
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="E560" s="25" t="s">
         <v>1520</v>
@@ -37041,16 +37041,16 @@
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="E561" s="25" t="s">
         <v>1520</v>
@@ -37058,16 +37058,16 @@
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="E562" s="25" t="s">
         <v>1520</v>
@@ -37075,16 +37075,16 @@
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="E563" s="25" t="s">
         <v>1520</v>
@@ -37092,16 +37092,16 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="E564" s="25" t="s">
         <v>1520</v>
@@ -37109,16 +37109,16 @@
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="E565" s="25" t="s">
         <v>1520</v>
@@ -37126,16 +37126,16 @@
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="E566" s="25" t="s">
         <v>1520</v>
@@ -37143,16 +37143,16 @@
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="E567" s="25" t="s">
         <v>1520</v>
@@ -37160,16 +37160,16 @@
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="E568" s="25" t="s">
         <v>1520</v>
@@ -37177,16 +37177,16 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="E569" s="25" t="s">
         <v>1520</v>
@@ -37194,16 +37194,16 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="E570" s="25" t="s">
         <v>1520</v>
@@ -37211,16 +37211,16 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="E571" s="25" t="s">
         <v>1520</v>
@@ -37228,16 +37228,16 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="E572" s="25" t="s">
         <v>1520</v>
@@ -37245,16 +37245,16 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="E573" s="25" t="s">
         <v>1520</v>
@@ -37262,16 +37262,16 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="E574" s="25" t="s">
         <v>1520</v>
@@ -37279,16 +37279,16 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="E575" s="25" t="s">
         <v>1520</v>
@@ -37296,16 +37296,16 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>3197</v>
+        <v>3031</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="E576" s="25" t="s">
         <v>1520</v>
@@ -37313,16 +37313,16 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>3031</v>
+        <v>3202</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="E577" s="25" t="s">
         <v>1520</v>
@@ -37330,16 +37330,16 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="E578" s="25" t="s">
         <v>1520</v>
@@ -37347,16 +37347,16 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="E579" s="25" t="s">
         <v>1520</v>
@@ -37364,16 +37364,16 @@
     </row>
     <row r="580" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>3211</v>
+        <v>3213</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>3213</v>
+        <v>3215</v>
       </c>
       <c r="E580" s="25" t="s">
         <v>1520</v>
@@ -37381,16 +37381,16 @@
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>3214</v>
+        <v>3216</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="E581" s="25" t="s">
         <v>1520</v>
@@ -37398,16 +37398,16 @@
     </row>
     <row r="582" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="E582" s="25" t="s">
         <v>1520</v>
@@ -37415,16 +37415,16 @@
     </row>
     <row r="583" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="E583" s="25" t="s">
         <v>1520</v>
@@ -37432,16 +37432,16 @@
     </row>
     <row r="584" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="E584" s="25" t="s">
         <v>1520</v>
@@ -37449,16 +37449,16 @@
     </row>
     <row r="585" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="E585" s="25" t="s">
         <v>1520</v>
@@ -37466,16 +37466,16 @@
     </row>
     <row r="586" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="E586" s="25" t="s">
         <v>1520</v>
@@ -37483,16 +37483,16 @@
     </row>
     <row r="587" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>3241</v>
+        <v>1668</v>
       </c>
       <c r="E587" s="25" t="s">
         <v>1520</v>
@@ -37500,16 +37500,16 @@
     </row>
     <row r="588" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1668</v>
+        <v>3246</v>
       </c>
       <c r="E588" s="25" t="s">
         <v>1520</v>
@@ -37517,16 +37517,16 @@
     </row>
     <row r="589" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="E589" s="25" t="s">
         <v>1520</v>
@@ -37534,16 +37534,16 @@
     </row>
     <row r="590" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>3252</v>
+        <v>3254</v>
       </c>
       <c r="E590" s="25" t="s">
         <v>1520</v>
@@ -37551,16 +37551,16 @@
     </row>
     <row r="591" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="E591" s="25" t="s">
         <v>1520</v>
@@ -37568,16 +37568,16 @@
     </row>
     <row r="592" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>3260</v>
+        <v>3262</v>
       </c>
       <c r="E592" s="25" t="s">
         <v>1520</v>
@@ -37585,16 +37585,16 @@
     </row>
     <row r="593" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="E593" s="25" t="s">
         <v>1520</v>
@@ -37602,16 +37602,16 @@
     </row>
     <row r="594" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
       <c r="E594" s="25" t="s">
         <v>1520</v>
@@ -37619,16 +37619,16 @@
     </row>
     <row r="595" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="E595" s="25" t="s">
         <v>1520</v>
@@ -37636,16 +37636,16 @@
     </row>
     <row r="596" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="E596" s="25" t="s">
         <v>1520</v>
@@ -37653,16 +37653,16 @@
     </row>
     <row r="597" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="E597" s="25" t="s">
         <v>1520</v>
@@ -37670,16 +37670,16 @@
     </row>
     <row r="598" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="E598" s="25" t="s">
         <v>1520</v>
@@ -37687,16 +37687,16 @@
     </row>
     <row r="599" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="E599" s="25" t="s">
         <v>1520</v>
@@ -37704,16 +37704,16 @@
     </row>
     <row r="600" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="E600" s="25" t="s">
         <v>1520</v>
@@ -37721,16 +37721,16 @@
     </row>
     <row r="601" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="E601" s="25" t="s">
         <v>1520</v>
@@ -37738,16 +37738,16 @@
     </row>
     <row r="602" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="E602" s="25" t="s">
         <v>1520</v>
@@ -37755,16 +37755,16 @@
     </row>
     <row r="603" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="E603" s="25" t="s">
         <v>1520</v>
@@ -37772,16 +37772,16 @@
     </row>
     <row r="604" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="E604" s="25" t="s">
         <v>1520</v>
@@ -37789,16 +37789,16 @@
     </row>
     <row r="605" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="E605" s="25" t="s">
         <v>1520</v>
@@ -37806,16 +37806,16 @@
     </row>
     <row r="606" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="E606" s="25" t="s">
         <v>1520</v>
@@ -37823,16 +37823,16 @@
     </row>
     <row r="607" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="E607" s="25" t="s">
         <v>1520</v>
@@ -37840,16 +37840,16 @@
     </row>
     <row r="608" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="E608" s="25" t="s">
         <v>1520</v>
@@ -37857,16 +37857,16 @@
     </row>
     <row r="609" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="E609" s="25" t="s">
         <v>1520</v>
@@ -37874,16 +37874,16 @@
     </row>
     <row r="610" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="E610" s="25" t="s">
         <v>1520</v>
@@ -37891,16 +37891,16 @@
     </row>
     <row r="611" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="E611" s="25" t="s">
         <v>1520</v>
@@ -37908,16 +37908,16 @@
     </row>
     <row r="612" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="E612" s="25" t="s">
         <v>1520</v>
@@ -37925,16 +37925,16 @@
     </row>
     <row r="613" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>3342</v>
+        <v>3344</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="E613" s="25" t="s">
         <v>1520</v>
@@ -37942,16 +37942,16 @@
     </row>
     <row r="614" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="E614" s="25" t="s">
         <v>1520</v>
@@ -37959,16 +37959,16 @@
     </row>
     <row r="615" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="E615" s="25" t="s">
         <v>1520</v>
@@ -37976,16 +37976,16 @@
     </row>
     <row r="616" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>3356</v>
+        <v>1752</v>
       </c>
       <c r="E616" s="25" t="s">
         <v>1520</v>
@@ -37993,16 +37993,16 @@
     </row>
     <row r="617" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>1752</v>
+        <v>3361</v>
       </c>
       <c r="E617" s="25" t="s">
         <v>1520</v>
@@ -38010,13 +38010,13 @@
     </row>
     <row r="618" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="D618" s="4" t="s">
         <v>3363</v>
@@ -38033,10 +38033,10 @@
         <v>3365</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="E619" s="25" t="s">
         <v>1520</v>
@@ -38044,16 +38044,16 @@
     </row>
     <row r="620" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="E620" s="25" t="s">
         <v>1520</v>
@@ -38061,16 +38061,16 @@
     </row>
     <row r="621" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="E621" s="25" t="s">
         <v>1520</v>
@@ -38078,16 +38078,16 @@
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="E622" s="25" t="s">
         <v>1520</v>
@@ -38095,16 +38095,16 @@
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="E623" s="25" t="s">
         <v>1520</v>
@@ -38112,16 +38112,16 @@
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="E624" s="25" t="s">
         <v>1520</v>
@@ -38129,16 +38129,16 @@
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="E625" s="25" t="s">
         <v>1520</v>
@@ -38146,16 +38146,16 @@
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="E626" s="25" t="s">
         <v>1520</v>
@@ -38163,16 +38163,16 @@
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="E627" s="25" t="s">
         <v>1520</v>
@@ -38180,16 +38180,16 @@
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="E628" s="25" t="s">
         <v>1520</v>
@@ -38197,16 +38197,16 @@
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>3405</v>
+        <v>1710</v>
       </c>
       <c r="E629" s="25" t="s">
         <v>1520</v>
@@ -38214,16 +38214,16 @@
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>1710</v>
+        <v>3410</v>
       </c>
       <c r="E630" s="25" t="s">
         <v>1520</v>
@@ -38231,16 +38231,16 @@
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="E631" s="25" t="s">
         <v>1520</v>
@@ -38248,16 +38248,16 @@
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="E632" s="25" t="s">
         <v>1520</v>
@@ -38265,16 +38265,16 @@
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="E633" s="25" t="s">
         <v>1520</v>
@@ -38282,16 +38282,16 @@
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>3422</v>
+        <v>3424</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="E634" s="25" t="s">
         <v>1520</v>
@@ -38299,16 +38299,16 @@
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="E635" s="25" t="s">
         <v>1520</v>
@@ -38316,16 +38316,16 @@
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="E636" s="25" t="s">
         <v>1520</v>
@@ -38333,16 +38333,16 @@
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="E637" s="25" t="s">
         <v>1520</v>
@@ -38350,16 +38350,16 @@
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
       <c r="E638" s="25" t="s">
         <v>1520</v>
@@ -38367,16 +38367,16 @@
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>3442</v>
+        <v>3444</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
       <c r="E639" s="25" t="s">
         <v>1520</v>
@@ -38384,16 +38384,16 @@
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="E640" s="25" t="s">
         <v>1520</v>
@@ -38401,16 +38401,16 @@
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>3450</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>3451</v>
+        <v>3452</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>3453</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="E641" s="25" t="s">
         <v>1520</v>
@@ -38418,16 +38418,16 @@
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="E642" s="25" t="s">
         <v>1520</v>
@@ -38435,16 +38435,16 @@
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="E643" s="25" t="s">
         <v>1520</v>
@@ -38452,16 +38452,16 @@
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="E644" s="25" t="s">
         <v>1520</v>
@@ -38469,16 +38469,16 @@
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="E645" s="25" t="s">
         <v>1520</v>
@@ -38486,16 +38486,16 @@
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="E646" s="25" t="s">
         <v>1520</v>
@@ -38503,16 +38503,16 @@
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="E647" s="25" t="s">
         <v>1520</v>
@@ -38520,16 +38520,16 @@
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>3480</v>
+        <v>3482</v>
       </c>
       <c r="E648" s="25" t="s">
         <v>1520</v>
@@ -38537,70 +38537,70 @@
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>3483</v>
+        <v>3485</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="E649" s="25" t="s">
-        <v>1520</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E650" s="25" t="s">
-        <v>2014</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>3491</v>
-      </c>
-      <c r="D651" s="4" t="s">
-        <v>3492</v>
-      </c>
-      <c r="E651" s="25" t="s">
-        <v>2044</v>
+        <v>3493</v>
+      </c>
+      <c r="D651" s="11" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E651" s="26" t="s">
+        <v>2110</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>3495</v>
-      </c>
-      <c r="D652" s="11" t="s">
         <v>3496</v>
       </c>
-      <c r="E652" s="26" t="s">
-        <v>2110</v>
+      <c r="D652" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E652" s="27" t="n">
+        <v>45528</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data.xlsx
+++ b/data.xlsx
@@ -6498,6 +6498,15 @@
     <t xml:space="preserve">Judgment</t>
   </si>
   <si>
+    <t xml:space="preserve">book.char390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">九天玄女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiutian Xuannu</t>
+  </si>
+  <si>
     <t xml:space="preserve">book.char40</t>
   </si>
   <si>
@@ -10588,29 +10597,19 @@
   </si>
   <si>
     <t xml:space="preserve">Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book.char390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九天玄女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiutian Xuannu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -10777,115 +10776,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -27624,7 +27623,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E662" activeCellId="0" sqref="E662"/>
+      <selection pane="bottomLeft" activeCell="A647" activeCellId="0" sqref="A647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31108,7 +31107,7 @@
         <v>2156</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>84</v>
+        <v>754</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>2157</v>
@@ -31116,8 +31115,8 @@
       <c r="D205" s="4" t="s">
         <v>2158</v>
       </c>
-      <c r="E205" s="25" t="s">
-        <v>1527</v>
+      <c r="E205" s="27" t="n">
+        <v>45542</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31125,7 +31124,7 @@
         <v>2159</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>2160</v>
@@ -31142,7 +31141,7 @@
         <v>2162</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>2163</v>
@@ -31159,7 +31158,7 @@
         <v>2165</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>2166</v>
@@ -31167,8 +31166,8 @@
       <c r="D208" s="4" t="s">
         <v>2167</v>
       </c>
-      <c r="E208" s="26" t="s">
-        <v>1555</v>
+      <c r="E208" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31176,7 +31175,7 @@
         <v>2168</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>2169</v>
@@ -31184,8 +31183,8 @@
       <c r="D209" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="E209" s="25" t="s">
-        <v>1527</v>
+      <c r="E209" s="26" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31193,7 +31192,7 @@
         <v>2171</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>2172</v>
@@ -31210,7 +31209,7 @@
         <v>2174</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>2175</v>
@@ -31227,7 +31226,7 @@
         <v>2177</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>2178</v>
@@ -31235,8 +31234,8 @@
       <c r="D212" s="4" t="s">
         <v>2179</v>
       </c>
-      <c r="E212" s="26" t="s">
-        <v>1555</v>
+      <c r="E212" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31244,7 +31243,7 @@
         <v>2180</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>2181</v>
@@ -31252,8 +31251,8 @@
       <c r="D213" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="E213" s="25" t="s">
-        <v>1527</v>
+      <c r="E213" s="26" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31261,7 +31260,7 @@
         <v>2183</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>2184</v>
@@ -31278,7 +31277,7 @@
         <v>2186</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>2187</v>
@@ -31295,7 +31294,7 @@
         <v>2189</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>2190</v>
@@ -31312,7 +31311,7 @@
         <v>2192</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>2193</v>
@@ -31329,7 +31328,7 @@
         <v>2195</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>2196</v>
@@ -31346,7 +31345,7 @@
         <v>2198</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>2199</v>
@@ -31363,7 +31362,7 @@
         <v>2201</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2202</v>
@@ -31371,8 +31370,8 @@
       <c r="D220" s="4" t="s">
         <v>2203</v>
       </c>
-      <c r="E220" s="26" t="s">
-        <v>1555</v>
+      <c r="E220" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31380,7 +31379,7 @@
         <v>2204</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2205</v>
@@ -31388,8 +31387,8 @@
       <c r="D221" s="4" t="s">
         <v>2206</v>
       </c>
-      <c r="E221" s="25" t="s">
-        <v>1527</v>
+      <c r="E221" s="26" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31397,7 +31396,7 @@
         <v>2207</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>2208</v>
@@ -31414,7 +31413,7 @@
         <v>2210</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2211</v>
@@ -31431,7 +31430,7 @@
         <v>2213</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2214</v>
@@ -31448,7 +31447,7 @@
         <v>2216</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2217</v>
@@ -31465,7 +31464,7 @@
         <v>2219</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2220</v>
@@ -31482,7 +31481,7 @@
         <v>2222</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>2223</v>
@@ -31499,7 +31498,7 @@
         <v>2225</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>2226</v>
@@ -31516,7 +31515,7 @@
         <v>2228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>2229</v>
@@ -31533,7 +31532,7 @@
         <v>2231</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2232</v>
@@ -31550,7 +31549,7 @@
         <v>2234</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>2235</v>
@@ -31567,7 +31566,7 @@
         <v>2237</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>2238</v>
@@ -31584,7 +31583,7 @@
         <v>2240</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>2241</v>
@@ -31601,7 +31600,7 @@
         <v>2243</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>2244</v>
@@ -31618,7 +31617,7 @@
         <v>2246</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>2247</v>
@@ -31635,7 +31634,7 @@
         <v>2249</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>2250</v>
@@ -31652,7 +31651,7 @@
         <v>2252</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>2253</v>
@@ -31669,7 +31668,7 @@
         <v>2255</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2256</v>
@@ -31686,7 +31685,7 @@
         <v>2258</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>2259</v>
@@ -31703,7 +31702,7 @@
         <v>2261</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>2262</v>
@@ -31720,7 +31719,7 @@
         <v>2264</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>2265</v>
@@ -31737,7 +31736,7 @@
         <v>2267</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>2268</v>
@@ -31754,7 +31753,7 @@
         <v>2270</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>2271</v>
@@ -31771,7 +31770,7 @@
         <v>2273</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>2274</v>
@@ -31788,7 +31787,7 @@
         <v>2276</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>2277</v>
@@ -31805,7 +31804,7 @@
         <v>2279</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>762</v>
+        <v>187</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>2280</v>
@@ -31822,7 +31821,7 @@
         <v>2282</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>2283</v>
@@ -31830,8 +31829,8 @@
       <c r="D247" s="4" t="s">
         <v>2284</v>
       </c>
-      <c r="E247" s="26" t="s">
-        <v>2124</v>
+      <c r="E247" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31839,7 +31838,7 @@
         <v>2285</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>2286</v>
@@ -31847,25 +31846,25 @@
       <c r="D248" s="4" t="s">
         <v>2287</v>
       </c>
-      <c r="E248" s="25" t="s">
-        <v>2288</v>
+      <c r="E248" s="26" t="s">
+        <v>2124</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>2289</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C249" s="4" t="s">
+      <c r="D249" s="4" t="s">
         <v>2290</v>
       </c>
-      <c r="D249" s="4" t="s">
+      <c r="E249" s="25" t="s">
         <v>2291</v>
-      </c>
-      <c r="E249" s="25" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31873,7 +31872,7 @@
         <v>2292</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>2293</v>
@@ -31890,7 +31889,7 @@
         <v>2295</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>2296</v>
@@ -31899,7 +31898,7 @@
         <v>2297</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>2288</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31907,7 +31906,7 @@
         <v>2298</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>2299</v>
@@ -31916,7 +31915,7 @@
         <v>2300</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>1527</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31924,7 +31923,7 @@
         <v>2301</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>2302</v>
@@ -31932,8 +31931,8 @@
       <c r="D253" s="4" t="s">
         <v>2303</v>
       </c>
-      <c r="E253" s="26" t="s">
-        <v>2107</v>
+      <c r="E253" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31941,7 +31940,7 @@
         <v>2304</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>2305</v>
@@ -31949,8 +31948,8 @@
       <c r="D254" s="4" t="s">
         <v>2306</v>
       </c>
-      <c r="E254" s="25" t="s">
-        <v>2288</v>
+      <c r="E254" s="26" t="s">
+        <v>2107</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31958,7 +31957,7 @@
         <v>2307</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>2308</v>
@@ -31967,7 +31966,7 @@
         <v>2309</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>1527</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31975,7 +31974,7 @@
         <v>2310</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>2311</v>
@@ -31992,7 +31991,7 @@
         <v>2313</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>2314</v>
@@ -32001,7 +32000,7 @@
         <v>2315</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>2029</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32009,7 +32008,7 @@
         <v>2316</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>2317</v>
@@ -32018,7 +32017,7 @@
         <v>2318</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>2062</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32026,7 +32025,7 @@
         <v>2319</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>2320</v>
@@ -32034,8 +32033,8 @@
       <c r="D259" s="4" t="s">
         <v>2321</v>
       </c>
-      <c r="E259" s="26" t="s">
-        <v>2117</v>
+      <c r="E259" s="25" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32043,7 +32042,7 @@
         <v>2322</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>2323</v>
@@ -32060,7 +32059,7 @@
         <v>2325</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>2326</v>
@@ -32068,8 +32067,8 @@
       <c r="D261" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="E261" s="25" t="s">
-        <v>2070</v>
+      <c r="E261" s="26" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32077,27 +32076,27 @@
         <v>2328</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>13</v>
+        <v>783</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1243</v>
+        <v>2329</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="E262" s="25" t="s">
-        <v>1527</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>2331</v>
+        <v>13</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1370</v>
+        <v>1243</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>2332</v>
@@ -32111,13 +32110,13 @@
         <v>2333</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>23</v>
+        <v>2334</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1312</v>
+        <v>1370</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>1527</v>
@@ -32125,16 +32124,16 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E265" s="25" t="s">
         <v>1527</v>
@@ -32142,16 +32141,16 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="E266" s="25" t="s">
         <v>1527</v>
@@ -32159,16 +32158,16 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1149</v>
+        <v>1310</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="E267" s="25" t="s">
         <v>1527</v>
@@ -32176,13 +32175,13 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>2342</v>
+        <v>47</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1326</v>
+        <v>1149</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>2343</v>
@@ -32196,13 +32195,13 @@
         <v>2344</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>50</v>
+        <v>2345</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1296</v>
+        <v>1326</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="E269" s="25" t="s">
         <v>1527</v>
@@ -32210,16 +32209,16 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>462</v>
+        <v>50</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1372</v>
+        <v>1296</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="E270" s="25" t="s">
         <v>1527</v>
@@ -32227,16 +32226,16 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>55</v>
+        <v>462</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>941</v>
+        <v>1372</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="E271" s="25" t="s">
         <v>1527</v>
@@ -32244,16 +32243,16 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1298</v>
+        <v>941</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="E272" s="25" t="s">
         <v>1527</v>
@@ -32261,16 +32260,16 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>1032</v>
+        <v>1298</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="E273" s="25" t="s">
         <v>1527</v>
@@ -32278,13 +32277,13 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>2355</v>
+        <v>61</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1319</v>
+        <v>1032</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>2356</v>
@@ -32298,13 +32297,13 @@
         <v>2357</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>617</v>
+        <v>2358</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1355</v>
+        <v>1319</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="E275" s="25" t="s">
         <v>1527</v>
@@ -32312,16 +32311,16 @@
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>65</v>
+        <v>617</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>1234</v>
+        <v>1355</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="E276" s="25" t="s">
         <v>1527</v>
@@ -32329,16 +32328,16 @@
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1339</v>
+        <v>1234</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>1527</v>
@@ -32346,16 +32345,16 @@
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>1291</v>
+        <v>1339</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="E278" s="25" t="s">
         <v>1527</v>
@@ -32363,13 +32362,13 @@
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>2366</v>
+        <v>71</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1345</v>
+        <v>1291</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>2367</v>
@@ -32383,13 +32382,13 @@
         <v>2368</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>73</v>
+        <v>2369</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1282</v>
+        <v>1345</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>1527</v>
@@ -32397,16 +32396,16 @@
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1330</v>
+        <v>1282</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="E281" s="25" t="s">
         <v>1527</v>
@@ -32414,16 +32413,16 @@
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1209</v>
+        <v>1330</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E282" s="25" t="s">
         <v>1527</v>
@@ -32431,16 +32430,16 @@
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="E283" s="25" t="s">
         <v>1527</v>
@@ -32448,16 +32447,16 @@
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1081</v>
+        <v>1186</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="E284" s="25" t="s">
         <v>1527</v>
@@ -32465,16 +32464,16 @@
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>960</v>
+        <v>1081</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="E285" s="25" t="s">
         <v>1527</v>
@@ -32482,16 +32481,16 @@
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="E286" s="25" t="s">
         <v>1527</v>
@@ -32499,16 +32498,16 @@
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="E287" s="25" t="s">
         <v>1527</v>
@@ -32516,16 +32515,16 @@
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>451</v>
+        <v>102</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>919</v>
+        <v>949</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>1527</v>
@@ -32533,16 +32532,16 @@
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E289" s="25" t="s">
         <v>1527</v>
@@ -32550,16 +32549,16 @@
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>844</v>
+        <v>897</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="E290" s="25" t="s">
         <v>1527</v>
@@ -32567,16 +32566,16 @@
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="E291" s="25" t="s">
         <v>1527</v>
@@ -32584,16 +32583,16 @@
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1375</v>
+        <v>841</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="E292" s="25" t="s">
         <v>1527</v>
@@ -32601,13 +32600,13 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>2395</v>
+        <v>1375</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>2396</v>
@@ -32621,7 +32620,7 @@
         <v>2397</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>2398</v>
@@ -32638,61 +32637,61 @@
         <v>2400</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1420</v>
+        <v>2401</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>2401</v>
-      </c>
-      <c r="E295" s="26" t="s">
-        <v>2089</v>
+        <v>2402</v>
+      </c>
+      <c r="E295" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="E296" s="26" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>104</v>
+        <v>690</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1305</v>
+        <v>1426</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E297" s="25" t="s">
-        <v>1527</v>
+        <v>2406</v>
+      </c>
+      <c r="E297" s="26" t="s">
+        <v>2093</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>2407</v>
+        <v>104</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1353</v>
+        <v>1305</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>2408</v>
@@ -32706,13 +32705,13 @@
         <v>2409</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>111</v>
+        <v>2410</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E299" s="25" t="s">
         <v>1527</v>
@@ -32720,16 +32719,16 @@
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1271</v>
+        <v>1367</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="E300" s="25" t="s">
         <v>1527</v>
@@ -32737,16 +32736,16 @@
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1130</v>
+        <v>1271</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="E301" s="25" t="s">
         <v>1527</v>
@@ -32754,13 +32753,13 @@
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>2416</v>
+        <v>124</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1357</v>
+        <v>1130</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>2417</v>
@@ -32774,13 +32773,13 @@
         <v>2418</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>126</v>
+        <v>2419</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1284</v>
+        <v>1357</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="E303" s="25" t="s">
         <v>1527</v>
@@ -32788,16 +32787,16 @@
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1258</v>
+        <v>1284</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E304" s="25" t="s">
         <v>1527</v>
@@ -32805,16 +32804,16 @@
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1120</v>
+        <v>1258</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E305" s="25" t="s">
         <v>1527</v>
@@ -32822,16 +32821,16 @@
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="E306" s="25" t="s">
         <v>1527</v>
@@ -32839,16 +32838,16 @@
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1107</v>
+        <v>1135</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="E307" s="25" t="s">
         <v>1527</v>
@@ -32856,16 +32855,16 @@
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>496</v>
+        <v>144</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>879</v>
+        <v>1107</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="E308" s="25" t="s">
         <v>1527</v>
@@ -32873,13 +32872,13 @@
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>2431</v>
+        <v>879</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>2432</v>
@@ -32893,7 +32892,7 @@
         <v>2433</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>2434</v>
@@ -32910,13 +32909,13 @@
         <v>2436</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>812</v>
+        <v>2437</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="E311" s="25" t="s">
         <v>1527</v>
@@ -32924,67 +32923,67 @@
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>657</v>
+        <v>583</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1410</v>
+        <v>812</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="E312" s="25" t="s">
-        <v>2070</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1437</v>
+        <v>1410</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E313" s="26" t="s">
-        <v>2117</v>
+        <v>2442</v>
+      </c>
+      <c r="E313" s="25" t="s">
+        <v>2070</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>150</v>
+        <v>706</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1304</v>
+        <v>1437</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>2443</v>
-      </c>
-      <c r="E314" s="25" t="s">
-        <v>1527</v>
+        <v>2444</v>
+      </c>
+      <c r="E314" s="26" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>1342</v>
+        <v>1304</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="E315" s="25" t="s">
         <v>1527</v>
@@ -32992,16 +32991,16 @@
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1307</v>
+        <v>1342</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="E316" s="25" t="s">
         <v>1527</v>
@@ -33009,16 +33008,16 @@
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E317" s="25" t="s">
         <v>1527</v>
@@ -33026,16 +33025,16 @@
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E318" s="25" t="s">
         <v>1527</v>
@@ -33043,16 +33042,16 @@
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="E319" s="25" t="s">
         <v>1527</v>
@@ -33060,16 +33059,16 @@
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1264</v>
+        <v>1300</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="E320" s="25" t="s">
         <v>1527</v>
@@ -33077,16 +33076,16 @@
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="E321" s="25" t="s">
         <v>1527</v>
@@ -33094,16 +33093,16 @@
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1214</v>
+        <v>1248</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="E322" s="25" t="s">
         <v>1527</v>
@@ -33111,16 +33110,16 @@
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1102</v>
+        <v>1214</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="E323" s="25" t="s">
         <v>1527</v>
@@ -33128,16 +33127,16 @@
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="E324" s="25" t="s">
         <v>1527</v>
@@ -33145,16 +33144,16 @@
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1034</v>
+        <v>1093</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="E325" s="25" t="s">
         <v>1527</v>
@@ -33162,16 +33161,16 @@
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>976</v>
+        <v>1034</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="E326" s="25" t="s">
         <v>1527</v>
@@ -33179,16 +33178,16 @@
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="E327" s="25" t="s">
         <v>1527</v>
@@ -33196,16 +33195,16 @@
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>563</v>
+        <v>202</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>826</v>
+        <v>957</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="E328" s="25" t="s">
         <v>1527</v>
@@ -33213,36 +33212,36 @@
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1390</v>
+        <v>826</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="E329" s="25" t="s">
-        <v>2039</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>2475</v>
+        <v>1390</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>2476</v>
       </c>
       <c r="E330" s="25" t="s">
-        <v>2066</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33250,16 +33249,16 @@
         <v>2477</v>
       </c>
       <c r="B331" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>2478</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>1317</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>2479</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>1527</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33267,13 +33266,13 @@
         <v>2480</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>578</v>
+        <v>2481</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>815</v>
+        <v>1317</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="E332" s="25" t="s">
         <v>1527</v>
@@ -33281,13 +33280,13 @@
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>2483</v>
+        <v>578</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1340</v>
+        <v>815</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>2484</v>
@@ -33304,7 +33303,7 @@
         <v>2486</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>2487</v>
@@ -33321,7 +33320,7 @@
         <v>2489</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1324</v>
+        <v>1359</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>2490</v>
@@ -33338,7 +33337,7 @@
         <v>2492</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1361</v>
+        <v>1324</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>2493</v>
@@ -33352,13 +33351,13 @@
         <v>2494</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>204</v>
+        <v>2495</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1294</v>
+        <v>1361</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="E337" s="25" t="s">
         <v>1527</v>
@@ -33366,16 +33365,16 @@
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>723</v>
+        <v>204</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1334</v>
+        <v>1294</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E338" s="25" t="s">
         <v>1527</v>
@@ -33383,16 +33382,16 @@
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>212</v>
+        <v>723</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1253</v>
+        <v>1334</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="E339" s="25" t="s">
         <v>1527</v>
@@ -33400,16 +33399,16 @@
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>1233</v>
+        <v>1253</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="E340" s="25" t="s">
         <v>1527</v>
@@ -33417,16 +33416,16 @@
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1202</v>
+        <v>1233</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="E341" s="25" t="s">
         <v>1527</v>
@@ -33434,16 +33433,16 @@
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="E342" s="25" t="s">
         <v>1527</v>
@@ -33451,16 +33450,16 @@
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1125</v>
+        <v>1173</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E343" s="25" t="s">
         <v>1527</v>
@@ -33468,16 +33467,16 @@
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>439</v>
+        <v>231</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="E344" s="25" t="s">
         <v>1527</v>
@@ -33485,16 +33484,16 @@
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>235</v>
+        <v>439</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1019</v>
+        <v>1113</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E345" s="25" t="s">
         <v>1527</v>
@@ -33502,16 +33501,16 @@
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>970</v>
+        <v>1019</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="E346" s="25" t="s">
         <v>1527</v>
@@ -33519,16 +33518,16 @@
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>926</v>
+        <v>970</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="E347" s="25" t="s">
         <v>1527</v>
@@ -33536,13 +33535,13 @@
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>572</v>
+        <v>240</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>2517</v>
+        <v>926</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>2518</v>
@@ -33556,67 +33555,67 @@
         <v>2519</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>667</v>
+        <v>572</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1413</v>
+        <v>2520</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E349" s="25" t="s">
-        <v>2077</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>2522</v>
-      </c>
-      <c r="E350" s="26" t="s">
-        <v>2114</v>
+        <v>2523</v>
+      </c>
+      <c r="E350" s="25" t="s">
+        <v>2077</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="E351" s="26" t="s">
-        <v>2132</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>2526</v>
+        <v>718</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1328</v>
+        <v>1447</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>2527</v>
       </c>
-      <c r="E352" s="25" t="s">
-        <v>1527</v>
+      <c r="E352" s="26" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33624,13 +33623,13 @@
         <v>2528</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>475</v>
+        <v>2529</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="E353" s="25" t="s">
         <v>1527</v>
@@ -33638,16 +33637,16 @@
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>244</v>
+        <v>475</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1309</v>
+        <v>1336</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="E354" s="25" t="s">
         <v>1527</v>
@@ -33655,13 +33654,13 @@
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>2533</v>
+        <v>244</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1349</v>
+        <v>1309</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>2534</v>
@@ -33675,13 +33674,13 @@
         <v>2535</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>254</v>
+        <v>2536</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="E356" s="25" t="s">
         <v>1527</v>
@@ -33689,16 +33688,16 @@
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1104</v>
+        <v>1352</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="E357" s="25" t="s">
         <v>1527</v>
@@ -33706,16 +33705,16 @@
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>1333</v>
+        <v>1104</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="E358" s="25" t="s">
         <v>1527</v>
@@ -33723,16 +33722,16 @@
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="E359" s="25" t="s">
         <v>1527</v>
@@ -33740,16 +33739,16 @@
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="E360" s="25" t="s">
         <v>1527</v>
@@ -33757,16 +33756,16 @@
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1191</v>
+        <v>1274</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="E361" s="25" t="s">
         <v>1527</v>
@@ -33774,16 +33773,16 @@
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1147</v>
+        <v>1191</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="E362" s="25" t="s">
         <v>1527</v>
@@ -33791,16 +33790,16 @@
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1073</v>
+        <v>1147</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="E363" s="25" t="s">
         <v>1527</v>
@@ -33808,16 +33807,16 @@
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="E364" s="25" t="s">
         <v>1527</v>
@@ -33825,16 +33824,16 @@
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1014</v>
+        <v>1057</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="E365" s="25" t="s">
         <v>1527</v>
@@ -33842,16 +33841,16 @@
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>954</v>
+        <v>1014</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="E366" s="25" t="s">
         <v>1527</v>
@@ -33859,13 +33858,13 @@
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>2558</v>
+        <v>954</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>2559</v>
@@ -33879,7 +33878,7 @@
         <v>2560</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>2561</v>
@@ -33896,47 +33895,47 @@
         <v>2563</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>662</v>
+        <v>537</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1385</v>
+        <v>2564</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="E369" s="25" t="s">
-        <v>2021</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>290</v>
+        <v>662</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1256</v>
+        <v>1385</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="E370" s="25" t="s">
-        <v>1527</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>598</v>
+        <v>290</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1351</v>
+        <v>1256</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="E371" s="25" t="s">
         <v>1527</v>
@@ -33944,13 +33943,13 @@
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>2570</v>
+        <v>598</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>2571</v>
@@ -33967,7 +33966,7 @@
         <v>2573</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>1373</v>
+        <v>1337</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>2574</v>
@@ -33981,13 +33980,13 @@
         <v>2575</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>296</v>
+        <v>2576</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1302</v>
+        <v>1373</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="E374" s="25" t="s">
         <v>1527</v>
@@ -33995,13 +33994,13 @@
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>2578</v>
+        <v>296</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1363</v>
+        <v>1302</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>2579</v>
@@ -34015,13 +34014,13 @@
         <v>2580</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>300</v>
+        <v>2581</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>1266</v>
+        <v>1363</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="E376" s="25" t="s">
         <v>1527</v>
@@ -34029,16 +34028,16 @@
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>1225</v>
+        <v>1266</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="E377" s="25" t="s">
         <v>1527</v>
@@ -34046,16 +34045,16 @@
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>1195</v>
+        <v>1225</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="E378" s="25" t="s">
         <v>1527</v>
@@ -34063,16 +34062,16 @@
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1163</v>
+        <v>1195</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="E379" s="25" t="s">
         <v>1527</v>
@@ -34080,16 +34079,16 @@
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1100</v>
+        <v>1163</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="E380" s="25" t="s">
         <v>1527</v>
@@ -34097,16 +34096,16 @@
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="E381" s="25" t="s">
         <v>1527</v>
@@ -34114,16 +34113,16 @@
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>999</v>
+        <v>1095</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="E382" s="25" t="s">
         <v>1527</v>
@@ -34131,16 +34130,16 @@
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>951</v>
+        <v>999</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="E383" s="25" t="s">
         <v>1527</v>
@@ -34148,16 +34147,16 @@
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>487</v>
+        <v>317</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="E384" s="25" t="s">
         <v>1527</v>
@@ -34165,16 +34164,16 @@
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>910</v>
+        <v>881</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="E385" s="25" t="s">
         <v>1527</v>
@@ -34182,67 +34181,67 @@
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>621</v>
+        <v>456</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1388</v>
+        <v>910</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="E386" s="25" t="s">
-        <v>2021</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>2050</v>
+        <v>2604</v>
       </c>
       <c r="E387" s="25" t="s">
-        <v>2051</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>751</v>
+        <v>646</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1365</v>
+        <v>1393</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>2604</v>
+        <v>2050</v>
       </c>
       <c r="E388" s="25" t="s">
-        <v>1527</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>332</v>
+        <v>751</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1313</v>
+        <v>1365</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="E389" s="25" t="s">
         <v>1527</v>
@@ -34250,13 +34249,13 @@
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>2608</v>
+        <v>332</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1368</v>
+        <v>1313</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>2609</v>
@@ -34273,7 +34272,7 @@
         <v>2611</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1315</v>
+        <v>1368</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>2612</v>
@@ -34290,7 +34289,7 @@
         <v>2614</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1343</v>
+        <v>1315</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>2615</v>
@@ -34304,13 +34303,13 @@
         <v>2616</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>336</v>
+        <v>2617</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1288</v>
+        <v>1343</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="E393" s="25" t="s">
         <v>1527</v>
@@ -34318,16 +34317,16 @@
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="E394" s="25" t="s">
         <v>1527</v>
@@ -34335,16 +34334,16 @@
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>1236</v>
+        <v>1273</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="E395" s="25" t="s">
         <v>1527</v>
@@ -34352,16 +34351,16 @@
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1216</v>
+        <v>1236</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="E396" s="25" t="s">
         <v>1527</v>
@@ -34369,16 +34368,16 @@
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E397" s="25" t="s">
         <v>1527</v>
@@ -34386,16 +34385,16 @@
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1116</v>
+        <v>1200</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="E398" s="25" t="s">
         <v>1527</v>
@@ -34403,16 +34402,16 @@
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>973</v>
+        <v>1116</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="E399" s="25" t="s">
         <v>1527</v>
@@ -34420,16 +34419,16 @@
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>902</v>
+        <v>973</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="E400" s="25" t="s">
         <v>1527</v>
@@ -34437,16 +34436,16 @@
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="E401" s="25" t="s">
         <v>1527</v>
@@ -34454,19 +34453,19 @@
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>714</v>
+        <v>502</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>2635</v>
+        <v>876</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>2636</v>
       </c>
-      <c r="E402" s="26" t="s">
-        <v>2128</v>
+      <c r="E402" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34474,27 +34473,27 @@
         <v>2637</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>366</v>
+        <v>714</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1025</v>
+        <v>2638</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>2638</v>
-      </c>
-      <c r="E403" s="25" t="s">
-        <v>1527</v>
+        <v>2639</v>
+      </c>
+      <c r="E403" s="26" t="s">
+        <v>2128</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>2640</v>
+        <v>366</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1331</v>
+        <v>1025</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>2641</v>
@@ -34508,13 +34507,13 @@
         <v>2642</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>367</v>
+        <v>2643</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>1009</v>
+        <v>1331</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="E405" s="25" t="s">
         <v>1527</v>
@@ -34522,16 +34521,16 @@
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>1293</v>
+        <v>1009</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="E406" s="25" t="s">
         <v>1527</v>
@@ -34539,16 +34538,16 @@
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="E407" s="25" t="s">
         <v>1527</v>
@@ -34556,13 +34555,13 @@
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>2649</v>
+        <v>373</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>1347</v>
+        <v>1289</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>2650</v>
@@ -34576,13 +34575,13 @@
         <v>2651</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>381</v>
+        <v>2652</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>1221</v>
+        <v>1347</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="E409" s="25" t="s">
         <v>1527</v>
@@ -34590,16 +34589,16 @@
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>1158</v>
+        <v>1221</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="E410" s="25" t="s">
         <v>1527</v>
@@ -34607,16 +34606,16 @@
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>1085</v>
+        <v>1158</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="E411" s="25" t="s">
         <v>1527</v>
@@ -34624,16 +34623,16 @@
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>982</v>
+        <v>1085</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="E412" s="25" t="s">
         <v>1527</v>
@@ -34641,16 +34640,16 @@
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>929</v>
+        <v>982</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="E413" s="25" t="s">
         <v>1527</v>
@@ -34658,16 +34657,16 @@
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>605</v>
+        <v>398</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>795</v>
+        <v>929</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="E414" s="25" t="s">
         <v>1527</v>
@@ -34675,19 +34674,19 @@
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="C415" s="11" t="s">
-        <v>2664</v>
+        <v>605</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>2665</v>
       </c>
-      <c r="E415" s="26" t="s">
-        <v>2103</v>
+      <c r="E415" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34695,16 +34694,16 @@
         <v>2666</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C416" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C416" s="11" t="s">
         <v>2667</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>2668</v>
       </c>
       <c r="E416" s="26" t="s">
-        <v>2140</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34712,30 +34711,30 @@
         <v>2669</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>400</v>
+        <v>747</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>1170</v>
+        <v>2670</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>2670</v>
-      </c>
-      <c r="E417" s="25" t="s">
-        <v>1527</v>
+        <v>2671</v>
+      </c>
+      <c r="E417" s="26" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>1133</v>
+        <v>1170</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="E418" s="25" t="s">
         <v>1527</v>
@@ -34743,16 +34742,16 @@
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>1069</v>
+        <v>1133</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="E419" s="25" t="s">
         <v>1527</v>
@@ -34760,16 +34759,16 @@
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="E420" s="25" t="s">
         <v>1527</v>
@@ -34777,16 +34776,16 @@
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>1137</v>
+        <v>1066</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="E421" s="25" t="s">
         <v>1527</v>
@@ -34794,16 +34793,16 @@
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="E422" s="25" t="s">
         <v>1527</v>
@@ -34811,16 +34810,16 @@
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>1046</v>
+        <v>1142</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="E423" s="25" t="s">
         <v>1527</v>
@@ -34828,16 +34827,16 @@
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="E424" s="25" t="s">
         <v>1527</v>
@@ -34845,16 +34844,16 @@
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="E425" s="25" t="s">
         <v>1527</v>
@@ -34862,16 +34861,16 @@
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E426" s="25" t="s">
         <v>1527</v>
@@ -34879,16 +34878,16 @@
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>964</v>
+        <v>1049</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="E427" s="25" t="s">
         <v>1527</v>
@@ -34896,16 +34895,16 @@
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="E428" s="25" t="s">
         <v>1527</v>
@@ -34913,16 +34912,16 @@
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E429" s="25" t="s">
         <v>1527</v>
@@ -34930,16 +34929,16 @@
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="E430" s="25" t="s">
         <v>1527</v>
@@ -34947,16 +34946,16 @@
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>865</v>
+        <v>921</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="E431" s="25" t="s">
         <v>1527</v>
@@ -34964,16 +34963,16 @@
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="E432" s="25" t="s">
         <v>1527</v>
@@ -34981,16 +34980,16 @@
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="E433" s="25" t="s">
         <v>1527</v>
@@ -34998,16 +34997,16 @@
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="E434" s="25" t="s">
         <v>1527</v>
@@ -35015,33 +35014,33 @@
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>631</v>
+        <v>530</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>1398</v>
+        <v>863</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="E435" s="25" t="s">
-        <v>2051</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="E436" s="25" t="s">
         <v>2051</v>
@@ -35049,16 +35048,16 @@
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="E437" s="25" t="s">
         <v>2051</v>
@@ -35066,33 +35065,33 @@
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>727</v>
+        <v>641</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>1453</v>
+        <v>1400</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>2712</v>
-      </c>
-      <c r="E438" s="26" t="s">
-        <v>2140</v>
+        <v>2713</v>
+      </c>
+      <c r="E438" s="25" t="s">
+        <v>2051</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="E439" s="26" t="s">
         <v>2140</v>
@@ -35100,16 +35099,16 @@
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="E440" s="26" t="s">
         <v>2140</v>
@@ -35117,16 +35116,16 @@
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="E441" s="26" t="s">
         <v>2140</v>
@@ -35134,33 +35133,33 @@
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>426</v>
+        <v>742</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>1241</v>
+        <v>1460</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2720</v>
-      </c>
-      <c r="E442" s="25" t="s">
-        <v>1527</v>
+        <v>2721</v>
+      </c>
+      <c r="E442" s="26" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E443" s="25" t="s">
         <v>1527</v>
@@ -35168,16 +35167,16 @@
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>685</v>
+        <v>428</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>1322</v>
+        <v>1223</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E444" s="25" t="s">
         <v>1527</v>
@@ -35185,16 +35184,16 @@
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>430</v>
+        <v>685</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>1165</v>
+        <v>1322</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E445" s="25" t="s">
         <v>1527</v>
@@ -35202,16 +35201,16 @@
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>1020</v>
+        <v>1165</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="E446" s="25" t="s">
         <v>1527</v>
@@ -35219,16 +35218,16 @@
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>1276</v>
+        <v>1020</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E447" s="25" t="s">
         <v>1527</v>
@@ -35236,16 +35235,16 @@
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>1227</v>
+        <v>1276</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E448" s="25" t="s">
         <v>1527</v>
@@ -35253,16 +35252,16 @@
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E449" s="25" t="s">
         <v>1527</v>
@@ -35270,16 +35269,16 @@
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>1204</v>
+        <v>1245</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E450" s="25" t="s">
         <v>1527</v>
@@ -35287,13 +35286,13 @@
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>2738</v>
+        <v>1204</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>2739</v>
@@ -35307,7 +35306,7 @@
         <v>2740</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>2741</v>
@@ -35324,7 +35323,7 @@
         <v>2743</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>2744</v>
@@ -35341,7 +35340,7 @@
         <v>2746</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>2747</v>
@@ -35358,7 +35357,7 @@
         <v>2749</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>2750</v>
@@ -35375,7 +35374,7 @@
         <v>2752</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>2753</v>
@@ -35392,7 +35391,7 @@
         <v>2755</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>2756</v>
@@ -35409,7 +35408,7 @@
         <v>2758</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>2759</v>
@@ -35426,7 +35425,7 @@
         <v>2761</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>2762</v>
@@ -35443,7 +35442,7 @@
         <v>2764</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>2765</v>
@@ -35460,7 +35459,7 @@
         <v>2767</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>2768</v>
@@ -35477,7 +35476,7 @@
         <v>2770</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>2771</v>
@@ -35486,24 +35485,24 @@
         <v>2772</v>
       </c>
       <c r="E462" s="25" t="s">
-        <v>2773</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C463" s="4" t="s">
         <v>2774</v>
       </c>
-      <c r="B463" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C463" s="4" t="s">
+      <c r="D463" s="4" t="s">
         <v>2775</v>
       </c>
-      <c r="D463" s="4" t="s">
+      <c r="E463" s="25" t="s">
         <v>2776</v>
-      </c>
-      <c r="E463" s="25" t="s">
-        <v>2773</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35511,7 +35510,7 @@
         <v>2777</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>2778</v>
@@ -35520,7 +35519,7 @@
         <v>2779</v>
       </c>
       <c r="E464" s="25" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35528,7 +35527,7 @@
         <v>2780</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>2781</v>
@@ -35536,25 +35535,25 @@
       <c r="D465" s="4" t="s">
         <v>2782</v>
       </c>
-      <c r="E465" s="26" t="s">
-        <v>2783</v>
+      <c r="E465" s="25" t="s">
+        <v>2776</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C466" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="B466" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C466" s="4" t="s">
+      <c r="D466" s="4" t="s">
         <v>2785</v>
       </c>
-      <c r="D466" s="4" t="s">
+      <c r="E466" s="26" t="s">
         <v>2786</v>
-      </c>
-      <c r="E466" s="25" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35562,7 +35561,7 @@
         <v>2787</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>2788</v>
@@ -35579,7 +35578,7 @@
         <v>2790</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1495</v>
+        <v>403</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>2791</v>
@@ -35596,7 +35595,7 @@
         <v>2793</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>2794</v>
@@ -35613,7 +35612,7 @@
         <v>2796</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>2797</v>
@@ -35630,7 +35629,7 @@
         <v>2799</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>2800</v>
@@ -35647,7 +35646,7 @@
         <v>2802</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>2803</v>
@@ -35664,7 +35663,7 @@
         <v>2805</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>2806</v>
@@ -35681,7 +35680,7 @@
         <v>2808</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>2809</v>
@@ -35698,7 +35697,7 @@
         <v>2811</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>436</v>
+        <v>1513</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>2812</v>
@@ -35715,432 +35714,432 @@
         <v>2814</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>2815</v>
       </c>
-      <c r="C476" s="4" t="s">
+      <c r="D476" s="4" t="s">
         <v>2816</v>
       </c>
-      <c r="D476" s="4" t="s">
-        <v>2817</v>
-      </c>
       <c r="E476" s="25" t="s">
-        <v>2818</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C477" s="4" t="s">
         <v>2819</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="D477" s="4" t="s">
         <v>2820</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="E477" s="25" t="s">
         <v>2821</v>
-      </c>
-      <c r="D477" s="4" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E477" s="25" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B478" s="4" t="s">
         <v>2823</v>
       </c>
-      <c r="B478" s="4" t="s">
+      <c r="C478" s="4" t="s">
         <v>2824</v>
       </c>
-      <c r="C478" s="4" t="s">
+      <c r="D478" s="4" t="s">
         <v>2825</v>
       </c>
-      <c r="D478" s="4" t="s">
-        <v>2826</v>
-      </c>
       <c r="E478" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B479" s="4" t="s">
         <v>2827</v>
       </c>
-      <c r="B479" s="4" t="s">
+      <c r="C479" s="4" t="s">
         <v>2828</v>
       </c>
-      <c r="C479" s="4" t="s">
+      <c r="D479" s="4" t="s">
         <v>2829</v>
       </c>
-      <c r="D479" s="4" t="s">
-        <v>2830</v>
-      </c>
       <c r="E479" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B480" s="4" t="s">
         <v>2831</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="C480" s="4" t="s">
         <v>2832</v>
       </c>
-      <c r="C480" s="4" t="s">
+      <c r="D480" s="4" t="s">
         <v>2833</v>
       </c>
-      <c r="D480" s="4" t="s">
-        <v>2834</v>
-      </c>
       <c r="E480" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B481" s="4" t="s">
         <v>2835</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="C481" s="4" t="s">
         <v>2836</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="D481" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="D481" s="4" t="s">
-        <v>2838</v>
-      </c>
       <c r="E481" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B482" s="4" t="s">
         <v>2839</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="C482" s="4" t="s">
         <v>2840</v>
       </c>
-      <c r="C482" s="4" t="s">
+      <c r="D482" s="4" t="s">
         <v>2841</v>
       </c>
-      <c r="D482" s="4" t="s">
-        <v>2842</v>
-      </c>
       <c r="E482" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B483" s="4" t="s">
         <v>2843</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="C483" s="4" t="s">
         <v>2844</v>
       </c>
-      <c r="C483" s="4" t="s">
+      <c r="D483" s="4" t="s">
         <v>2845</v>
       </c>
-      <c r="D483" s="4" t="s">
-        <v>2846</v>
-      </c>
       <c r="E483" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B484" s="4" t="s">
         <v>2847</v>
       </c>
-      <c r="B484" s="4" t="s">
+      <c r="C484" s="4" t="s">
         <v>2848</v>
       </c>
-      <c r="C484" s="27" t="s">
+      <c r="D484" s="4" t="s">
         <v>2849</v>
       </c>
-      <c r="D484" s="4" t="s">
-        <v>2850</v>
-      </c>
       <c r="E484" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B485" s="4" t="s">
         <v>2851</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="C485" s="28" t="s">
         <v>2852</v>
       </c>
-      <c r="C485" s="4" t="s">
+      <c r="D485" s="4" t="s">
         <v>2853</v>
       </c>
-      <c r="D485" s="4" t="s">
-        <v>2854</v>
-      </c>
       <c r="E485" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="4" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B486" s="4" t="s">
         <v>2855</v>
       </c>
-      <c r="B486" s="4" t="s">
+      <c r="C486" s="4" t="s">
         <v>2856</v>
       </c>
-      <c r="C486" s="4" t="s">
+      <c r="D486" s="4" t="s">
         <v>2857</v>
       </c>
-      <c r="D486" s="4" t="s">
-        <v>2858</v>
-      </c>
       <c r="E486" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B487" s="4" t="s">
         <v>2859</v>
       </c>
-      <c r="B487" s="4" t="s">
+      <c r="C487" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="C487" s="4" t="s">
+      <c r="D487" s="4" t="s">
         <v>2861</v>
       </c>
-      <c r="D487" s="4" t="s">
-        <v>2862</v>
-      </c>
       <c r="E487" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B488" s="4" t="s">
         <v>2863</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="C488" s="4" t="s">
         <v>2864</v>
       </c>
-      <c r="C488" s="4" t="s">
+      <c r="D488" s="4" t="s">
         <v>2865</v>
       </c>
-      <c r="D488" s="4" t="s">
-        <v>2866</v>
-      </c>
       <c r="E488" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B489" s="4" t="s">
         <v>2867</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="C489" s="4" t="s">
         <v>2868</v>
       </c>
-      <c r="C489" s="4" t="s">
+      <c r="D489" s="4" t="s">
         <v>2869</v>
       </c>
-      <c r="D489" s="4" t="s">
-        <v>2870</v>
-      </c>
       <c r="E489" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B490" s="4" t="s">
         <v>2871</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="C490" s="4" t="s">
         <v>2872</v>
       </c>
-      <c r="C490" s="4" t="s">
+      <c r="D490" s="4" t="s">
         <v>2873</v>
       </c>
-      <c r="D490" s="4" t="s">
-        <v>2874</v>
-      </c>
       <c r="E490" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B491" s="4" t="s">
         <v>2875</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="C491" s="4" t="s">
         <v>2876</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="D491" s="4" t="s">
         <v>2877</v>
       </c>
-      <c r="D491" s="4" t="s">
-        <v>2878</v>
-      </c>
       <c r="E491" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B492" s="4" t="s">
         <v>2879</v>
       </c>
-      <c r="B492" s="4" t="s">
+      <c r="C492" s="4" t="s">
         <v>2880</v>
       </c>
-      <c r="C492" s="4" t="s">
+      <c r="D492" s="4" t="s">
         <v>2881</v>
       </c>
-      <c r="D492" s="4" t="s">
-        <v>2882</v>
-      </c>
       <c r="E492" s="25" t="s">
-        <v>2883</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="4" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C493" s="4" t="s">
         <v>2884</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="D493" s="4" t="s">
         <v>2885</v>
       </c>
-      <c r="C493" s="4" t="s">
+      <c r="E493" s="25" t="s">
         <v>2886</v>
-      </c>
-      <c r="D493" s="4" t="s">
-        <v>2887</v>
-      </c>
-      <c r="E493" s="25" t="s">
-        <v>2888</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>2889</v>
       </c>
-      <c r="B494" s="4" t="s">
+      <c r="D494" s="4" t="s">
         <v>2890</v>
       </c>
-      <c r="C494" s="4" t="s">
+      <c r="E494" s="25" t="s">
         <v>2891</v>
-      </c>
-      <c r="D494" s="4" t="s">
-        <v>2892</v>
-      </c>
-      <c r="E494" s="25" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C495" s="4" t="s">
         <v>2894</v>
       </c>
-      <c r="B495" s="4" t="s">
+      <c r="D495" s="4" t="s">
         <v>2895</v>
       </c>
-      <c r="C495" s="4" t="s">
+      <c r="E495" s="25" t="s">
         <v>2896</v>
-      </c>
-      <c r="D495" s="4" t="s">
-        <v>2897</v>
-      </c>
-      <c r="E495" s="25" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B496" s="4" t="s">
         <v>2898</v>
       </c>
-      <c r="B496" s="4" t="s">
+      <c r="C496" s="4" t="s">
         <v>2899</v>
       </c>
-      <c r="C496" s="4" t="s">
+      <c r="D496" s="4" t="s">
         <v>2900</v>
       </c>
-      <c r="D496" s="4" t="s">
-        <v>2901</v>
-      </c>
       <c r="E496" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B497" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="C497" s="4" t="s">
         <v>2903</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="D497" s="4" t="s">
         <v>2904</v>
       </c>
-      <c r="D497" s="4" t="s">
-        <v>2905</v>
-      </c>
       <c r="E497" s="25" t="s">
-        <v>2818</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="4" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>2906</v>
       </c>
-      <c r="B498" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>2907</v>
       </c>
-      <c r="C498" s="4" t="s">
+      <c r="D498" s="4" t="s">
         <v>2908</v>
       </c>
-      <c r="D498" s="4" t="s">
-        <v>2909</v>
-      </c>
       <c r="E498" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B499" s="4" t="s">
         <v>2910</v>
       </c>
-      <c r="B499" s="4" t="s">
+      <c r="C499" s="4" t="s">
         <v>2911</v>
       </c>
-      <c r="C499" s="4" t="s">
+      <c r="D499" s="4" t="s">
         <v>2912</v>
       </c>
-      <c r="D499" s="4" t="s">
-        <v>2913</v>
-      </c>
       <c r="E499" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B500" s="4" t="s">
         <v>2914</v>
       </c>
-      <c r="B500" s="4" t="s">
+      <c r="C500" s="4" t="s">
         <v>2915</v>
       </c>
-      <c r="C500" s="4" t="s">
+      <c r="D500" s="4" t="s">
         <v>2916</v>
       </c>
-      <c r="D500" s="4" t="s">
-        <v>2917</v>
-      </c>
       <c r="E500" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="4" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B501" s="4" t="s">
         <v>2918</v>
-      </c>
-      <c r="B501" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>2919</v>
@@ -36149,7 +36148,7 @@
         <v>2920</v>
       </c>
       <c r="E501" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36157,24 +36156,24 @@
         <v>2921</v>
       </c>
       <c r="B502" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C502" s="4" t="s">
         <v>2922</v>
       </c>
-      <c r="C502" s="4" t="s">
+      <c r="D502" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="D502" s="4" t="s">
-        <v>2924</v>
-      </c>
       <c r="E502" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B503" s="4" t="s">
         <v>2925</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>2926</v>
@@ -36183,7 +36182,7 @@
         <v>2927</v>
       </c>
       <c r="E503" s="25" t="s">
-        <v>2070</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36191,24 +36190,24 @@
         <v>2928</v>
       </c>
       <c r="B504" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504" s="4" t="s">
         <v>2929</v>
       </c>
-      <c r="C504" s="4" t="s">
+      <c r="D504" s="4" t="s">
         <v>2930</v>
       </c>
-      <c r="D504" s="4" t="s">
-        <v>2931</v>
-      </c>
       <c r="E504" s="25" t="s">
-        <v>2818</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B505" s="4" t="s">
         <v>2932</v>
-      </c>
-      <c r="B505" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>2933</v>
@@ -36217,7 +36216,7 @@
         <v>2934</v>
       </c>
       <c r="E505" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36225,466 +36224,466 @@
         <v>2935</v>
       </c>
       <c r="B506" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506" s="4" t="s">
         <v>2936</v>
       </c>
-      <c r="C506" s="4" t="s">
+      <c r="D506" s="4" t="s">
         <v>2937</v>
       </c>
-      <c r="D506" s="4" t="s">
-        <v>2938</v>
-      </c>
       <c r="E506" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B507" s="4" t="s">
         <v>2939</v>
       </c>
-      <c r="B507" s="4" t="s">
+      <c r="C507" s="4" t="s">
         <v>2940</v>
       </c>
-      <c r="C507" s="4" t="s">
+      <c r="D507" s="4" t="s">
         <v>2941</v>
       </c>
-      <c r="D507" s="4" t="s">
-        <v>2942</v>
-      </c>
       <c r="E507" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B508" s="4" t="s">
         <v>2943</v>
       </c>
-      <c r="B508" s="4" t="s">
+      <c r="C508" s="4" t="s">
         <v>2944</v>
       </c>
-      <c r="C508" s="4" t="s">
+      <c r="D508" s="4" t="s">
         <v>2945</v>
       </c>
-      <c r="D508" s="4" t="s">
-        <v>2946</v>
-      </c>
       <c r="E508" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B509" s="4" t="s">
         <v>2947</v>
       </c>
-      <c r="B509" s="4" t="s">
+      <c r="C509" s="4" t="s">
         <v>2948</v>
       </c>
-      <c r="C509" s="4" t="s">
+      <c r="D509" s="4" t="s">
         <v>2949</v>
       </c>
-      <c r="D509" s="4" t="s">
-        <v>2950</v>
-      </c>
       <c r="E509" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="4" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B510" s="4" t="s">
         <v>2951</v>
       </c>
-      <c r="B510" s="4" t="s">
+      <c r="C510" s="4" t="s">
         <v>2952</v>
       </c>
-      <c r="C510" s="4" t="s">
+      <c r="D510" s="4" t="s">
         <v>2953</v>
       </c>
-      <c r="D510" s="4" t="s">
-        <v>2954</v>
-      </c>
       <c r="E510" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="4" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B511" s="4" t="s">
         <v>2955</v>
       </c>
-      <c r="B511" s="4" t="s">
+      <c r="C511" s="4" t="s">
         <v>2956</v>
       </c>
-      <c r="C511" s="27" t="s">
+      <c r="D511" s="4" t="s">
         <v>2957</v>
       </c>
-      <c r="D511" s="4" t="s">
-        <v>2958</v>
-      </c>
       <c r="E511" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B512" s="4" t="s">
         <v>2959</v>
       </c>
-      <c r="B512" s="4" t="s">
+      <c r="C512" s="28" t="s">
         <v>2960</v>
       </c>
-      <c r="C512" s="4" t="s">
+      <c r="D512" s="4" t="s">
         <v>2961</v>
       </c>
-      <c r="D512" s="4" t="s">
-        <v>2962</v>
-      </c>
       <c r="E512" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="4" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B513" s="4" t="s">
         <v>2963</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="C513" s="4" t="s">
         <v>2964</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="D513" s="4" t="s">
         <v>2965</v>
       </c>
-      <c r="D513" s="4" t="s">
-        <v>2966</v>
-      </c>
       <c r="E513" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B514" s="4" t="s">
         <v>2967</v>
       </c>
-      <c r="B514" s="4" t="s">
+      <c r="C514" s="4" t="s">
         <v>2968</v>
       </c>
-      <c r="C514" s="4" t="s">
+      <c r="D514" s="4" t="s">
         <v>2969</v>
       </c>
-      <c r="D514" s="4" t="s">
-        <v>2970</v>
-      </c>
       <c r="E514" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B515" s="4" t="s">
         <v>2971</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="C515" s="4" t="s">
         <v>2972</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="D515" s="4" t="s">
         <v>2973</v>
       </c>
-      <c r="D515" s="4" t="s">
-        <v>2974</v>
-      </c>
       <c r="E515" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B516" s="4" t="s">
         <v>2975</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="C516" s="4" t="s">
         <v>2976</v>
       </c>
-      <c r="C516" s="4" t="s">
+      <c r="D516" s="4" t="s">
         <v>2977</v>
       </c>
-      <c r="D516" s="4" t="s">
-        <v>2978</v>
-      </c>
       <c r="E516" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B517" s="4" t="s">
         <v>2979</v>
       </c>
-      <c r="B517" s="4" t="s">
+      <c r="C517" s="4" t="s">
         <v>2980</v>
       </c>
-      <c r="C517" s="4" t="s">
+      <c r="D517" s="4" t="s">
         <v>2981</v>
       </c>
-      <c r="D517" s="4" t="s">
-        <v>2982</v>
-      </c>
       <c r="E517" s="25" t="s">
-        <v>2893</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B518" s="4" t="s">
         <v>2983</v>
       </c>
-      <c r="B518" s="4" t="s">
+      <c r="C518" s="4" t="s">
         <v>2984</v>
       </c>
-      <c r="C518" s="4" t="s">
+      <c r="D518" s="4" t="s">
         <v>2985</v>
       </c>
-      <c r="D518" s="4" t="s">
-        <v>2986</v>
-      </c>
       <c r="E518" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B519" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="C519" s="4" t="s">
         <v>2988</v>
       </c>
-      <c r="C519" s="4" t="s">
+      <c r="D519" s="4" t="s">
         <v>2989</v>
       </c>
-      <c r="D519" s="4" t="s">
-        <v>2990</v>
-      </c>
       <c r="E519" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B520" s="4" t="s">
         <v>2991</v>
       </c>
-      <c r="B520" s="4" t="s">
+      <c r="C520" s="4" t="s">
         <v>2992</v>
       </c>
-      <c r="C520" s="4" t="s">
+      <c r="D520" s="4" t="s">
         <v>2993</v>
       </c>
-      <c r="D520" s="4" t="s">
-        <v>2994</v>
-      </c>
       <c r="E520" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B521" s="4" t="s">
         <v>2995</v>
       </c>
-      <c r="B521" s="4" t="s">
+      <c r="C521" s="4" t="s">
         <v>2996</v>
       </c>
-      <c r="C521" s="4" t="s">
+      <c r="D521" s="4" t="s">
         <v>2997</v>
       </c>
-      <c r="D521" s="4" t="s">
-        <v>2998</v>
-      </c>
       <c r="E521" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B522" s="4" t="s">
         <v>2999</v>
       </c>
-      <c r="B522" s="4" t="s">
+      <c r="C522" s="4" t="s">
         <v>3000</v>
       </c>
-      <c r="C522" s="4" t="s">
+      <c r="D522" s="4" t="s">
         <v>3001</v>
       </c>
-      <c r="D522" s="4" t="s">
-        <v>3002</v>
-      </c>
       <c r="E522" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B523" s="4" t="s">
         <v>3003</v>
       </c>
-      <c r="B523" s="4" t="s">
+      <c r="C523" s="4" t="s">
         <v>3004</v>
       </c>
-      <c r="C523" s="4" t="s">
+      <c r="D523" s="4" t="s">
         <v>3005</v>
       </c>
-      <c r="D523" s="4" t="s">
-        <v>3006</v>
-      </c>
       <c r="E523" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B524" s="4" t="s">
         <v>3007</v>
       </c>
-      <c r="B524" s="4" t="s">
+      <c r="C524" s="4" t="s">
         <v>3008</v>
       </c>
-      <c r="C524" s="4" t="s">
+      <c r="D524" s="4" t="s">
         <v>3009</v>
       </c>
-      <c r="D524" s="4" t="s">
-        <v>3010</v>
-      </c>
       <c r="E524" s="25" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B525" s="4" t="s">
         <v>3011</v>
       </c>
-      <c r="B525" s="4" t="s">
+      <c r="C525" s="4" t="s">
         <v>3012</v>
       </c>
-      <c r="C525" s="4" t="s">
+      <c r="D525" s="4" t="s">
         <v>3013</v>
       </c>
-      <c r="D525" s="4" t="s">
+      <c r="E525" s="25" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A526" s="4" t="s">
         <v>3014</v>
       </c>
-      <c r="E525" s="25" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="11" t="s">
+      <c r="B526" s="4" t="s">
         <v>3015</v>
       </c>
-      <c r="B526" s="4" t="s">
+      <c r="C526" s="4" t="s">
         <v>3016</v>
       </c>
-      <c r="C526" s="4" t="s">
+      <c r="D526" s="4" t="s">
         <v>3017</v>
       </c>
-      <c r="D526" s="4" t="s">
+      <c r="E526" s="25" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A527" s="11" t="s">
         <v>3018</v>
       </c>
-      <c r="E526" s="25" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="4" t="s">
+      <c r="B527" s="4" t="s">
         <v>3019</v>
       </c>
-      <c r="B527" s="4" t="s">
+      <c r="C527" s="4" t="s">
         <v>3020</v>
       </c>
-      <c r="C527" s="4" t="s">
+      <c r="D527" s="4" t="s">
         <v>3021</v>
       </c>
-      <c r="D527" s="4" t="s">
-        <v>3022</v>
-      </c>
       <c r="E527" s="25" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B528" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="B528" s="4" t="s">
+      <c r="C528" s="4" t="s">
         <v>3024</v>
       </c>
-      <c r="C528" s="4" t="s">
+      <c r="D528" s="4" t="s">
         <v>3025</v>
       </c>
-      <c r="D528" s="4" t="s">
-        <v>3026</v>
-      </c>
       <c r="E528" s="25" t="s">
-        <v>2818</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B529" s="4" t="s">
         <v>3027</v>
       </c>
-      <c r="B529" s="4" t="s">
+      <c r="C529" s="4" t="s">
         <v>3028</v>
       </c>
-      <c r="C529" s="4" t="s">
+      <c r="D529" s="4" t="s">
         <v>3029</v>
       </c>
-      <c r="D529" s="4" t="s">
-        <v>3030</v>
-      </c>
       <c r="E529" s="25" t="s">
-        <v>3031</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C530" s="4" t="s">
         <v>3032</v>
       </c>
-      <c r="B530" s="4" t="s">
+      <c r="D530" s="4" t="s">
         <v>3033</v>
       </c>
-      <c r="C530" s="4" t="s">
+      <c r="E530" s="25" t="s">
         <v>3034</v>
-      </c>
-      <c r="D530" s="4" t="s">
-        <v>3035</v>
-      </c>
-      <c r="E530" s="25" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B531" s="4" t="s">
         <v>3036</v>
       </c>
-      <c r="B531" s="4" t="s">
+      <c r="C531" s="4" t="s">
         <v>3037</v>
       </c>
-      <c r="C531" s="4" t="s">
+      <c r="D531" s="4" t="s">
         <v>3038</v>
       </c>
-      <c r="D531" s="4" t="s">
-        <v>3039</v>
-      </c>
       <c r="E531" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
-        <v>765</v>
+        <v>3039</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>766</v>
+        <v>3040</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="E532" s="25" t="s">
-        <v>3042</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>3043</v>
@@ -36693,32 +36692,32 @@
         <v>3044</v>
       </c>
       <c r="E533" s="25" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C534" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E534" s="25" t="s">
         <v>3045</v>
-      </c>
-      <c r="D534" s="4" t="s">
-        <v>3046</v>
-      </c>
-      <c r="E534" s="25" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>3047</v>
+        <v>772</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>3048</v>
@@ -36727,89 +36726,89 @@
         <v>3049</v>
       </c>
       <c r="E535" s="25" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>781</v>
+        <v>3050</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="E536" s="25" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>3052</v>
+        <v>780</v>
       </c>
       <c r="B537" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C537" s="4" t="s">
         <v>3053</v>
       </c>
-      <c r="C537" s="4" t="s">
+      <c r="D537" s="4" t="s">
         <v>3054</v>
       </c>
-      <c r="D537" s="4" t="s">
-        <v>3055</v>
-      </c>
       <c r="E537" s="25" t="s">
-        <v>2070</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>788</v>
+        <v>3055</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>789</v>
+        <v>3056</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>3057</v>
-      </c>
-      <c r="E538" s="26" t="s">
-        <v>2117</v>
+        <v>3058</v>
+      </c>
+      <c r="E538" s="25" t="s">
+        <v>2070</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>3058</v>
+        <v>788</v>
       </c>
       <c r="B539" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C539" s="4" t="s">
         <v>3059</v>
       </c>
-      <c r="C539" s="4" t="s">
+      <c r="D539" s="4" t="s">
         <v>3060</v>
       </c>
-      <c r="D539" s="4" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E539" s="25" t="s">
-        <v>1527</v>
+      <c r="E539" s="26" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B540" s="4" t="s">
         <v>3062</v>
       </c>
-      <c r="B540" s="4" t="s">
+      <c r="C540" s="4" t="s">
         <v>3063</v>
       </c>
-      <c r="C540" s="4" t="s">
+      <c r="D540" s="4" t="s">
         <v>3064</v>
-      </c>
-      <c r="D540" s="4" t="s">
-        <v>3065</v>
       </c>
       <c r="E540" s="25" t="s">
         <v>1527</v>
@@ -36817,95 +36816,95 @@
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B541" s="4" t="s">
         <v>3066</v>
       </c>
-      <c r="B541" s="4" t="s">
+      <c r="C541" s="4" t="s">
         <v>3067</v>
       </c>
-      <c r="C541" s="4" t="s">
+      <c r="D541" s="4" t="s">
         <v>3068</v>
       </c>
-      <c r="D541" s="4" t="s">
-        <v>3069</v>
-      </c>
       <c r="E541" s="25" t="s">
-        <v>2818</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B542" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="B542" s="4" t="s">
+      <c r="C542" s="4" t="s">
         <v>3071</v>
       </c>
-      <c r="C542" s="4" t="s">
+      <c r="D542" s="4" t="s">
         <v>3072</v>
       </c>
-      <c r="D542" s="4" t="s">
-        <v>3073</v>
-      </c>
       <c r="E542" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B543" s="4" t="s">
         <v>3074</v>
       </c>
-      <c r="B543" s="4" t="s">
+      <c r="C543" s="4" t="s">
         <v>3075</v>
       </c>
-      <c r="C543" s="4" t="s">
+      <c r="D543" s="4" t="s">
         <v>3076</v>
       </c>
-      <c r="D543" s="4" t="s">
-        <v>3077</v>
-      </c>
       <c r="E543" s="25" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B544" s="4" t="s">
         <v>3078</v>
       </c>
-      <c r="B544" s="4" t="s">
+      <c r="C544" s="4" t="s">
         <v>3079</v>
       </c>
-      <c r="C544" s="4" t="s">
+      <c r="D544" s="4" t="s">
         <v>3080</v>
       </c>
-      <c r="D544" s="4" t="s">
-        <v>3081</v>
-      </c>
       <c r="E544" s="25" t="s">
-        <v>3082</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C545" s="4" t="s">
         <v>3083</v>
       </c>
-      <c r="B545" s="4" t="s">
+      <c r="D545" s="4" t="s">
         <v>3084</v>
       </c>
-      <c r="C545" s="4" t="s">
+      <c r="E545" s="25" t="s">
         <v>3085</v>
-      </c>
-      <c r="D545" s="4" t="s">
-        <v>3086</v>
-      </c>
-      <c r="E545" s="25" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B546" s="4" t="s">
         <v>3087</v>
-      </c>
-      <c r="B546" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>3088</v>
@@ -36922,7 +36921,7 @@
         <v>3090</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C547" s="4" t="s">
         <v>3091</v>
@@ -36939,31 +36938,33 @@
         <v>3093</v>
       </c>
       <c r="B548" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C548" s="4" t="s">
         <v>3094</v>
       </c>
-      <c r="C548" s="4" t="s">
+      <c r="D548" s="4" t="s">
         <v>3095</v>
       </c>
-      <c r="D548" s="4" t="s">
-        <v>3096</v>
-      </c>
       <c r="E548" s="25" t="s">
-        <v>3082</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B549" s="4" t="s">
         <v>3097</v>
       </c>
-      <c r="B549" s="4" t="s">
+      <c r="C549" s="4" t="s">
         <v>3098</v>
       </c>
-      <c r="C549" s="4" t="s">
+      <c r="D549" s="4" t="s">
         <v>3099</v>
       </c>
-      <c r="D549" s="3"/>
       <c r="E549" s="25" t="s">
-        <v>1527</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36976,25 +36977,23 @@
       <c r="C550" s="4" t="s">
         <v>3102</v>
       </c>
-      <c r="D550" s="4" t="s">
-        <v>3103</v>
-      </c>
+      <c r="D550" s="3"/>
       <c r="E550" s="25" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B551" s="4" t="s">
         <v>3104</v>
       </c>
-      <c r="B551" s="4" t="s">
+      <c r="C551" s="4" t="s">
         <v>3105</v>
       </c>
-      <c r="C551" s="4" t="s">
+      <c r="D551" s="4" t="s">
         <v>3106</v>
-      </c>
-      <c r="D551" s="4" t="s">
-        <v>3107</v>
       </c>
       <c r="E551" s="25" t="s">
         <v>1527</v>
@@ -37002,16 +37001,16 @@
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B552" s="4" t="s">
         <v>3108</v>
       </c>
-      <c r="B552" s="4" t="s">
+      <c r="C552" s="4" t="s">
         <v>3109</v>
       </c>
-      <c r="C552" s="4" t="s">
+      <c r="D552" s="4" t="s">
         <v>3110</v>
-      </c>
-      <c r="D552" s="4" t="s">
-        <v>3111</v>
       </c>
       <c r="E552" s="25" t="s">
         <v>1527</v>
@@ -37019,16 +37018,16 @@
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B553" s="4" t="s">
         <v>3112</v>
       </c>
-      <c r="B553" s="4" t="s">
+      <c r="C553" s="4" t="s">
         <v>3113</v>
       </c>
-      <c r="C553" s="4" t="s">
+      <c r="D553" s="4" t="s">
         <v>3114</v>
-      </c>
-      <c r="D553" s="4" t="s">
-        <v>3115</v>
       </c>
       <c r="E553" s="25" t="s">
         <v>1527</v>
@@ -37036,16 +37035,16 @@
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B554" s="4" t="s">
         <v>3116</v>
       </c>
-      <c r="B554" s="4" t="s">
+      <c r="C554" s="4" t="s">
         <v>3117</v>
       </c>
-      <c r="C554" s="4" t="s">
+      <c r="D554" s="4" t="s">
         <v>3118</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>3119</v>
       </c>
       <c r="E554" s="25" t="s">
         <v>1527</v>
@@ -37053,16 +37052,16 @@
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B555" s="4" t="s">
         <v>3120</v>
       </c>
-      <c r="B555" s="4" t="s">
+      <c r="C555" s="4" t="s">
         <v>3121</v>
       </c>
-      <c r="C555" s="4" t="s">
+      <c r="D555" s="4" t="s">
         <v>3122</v>
-      </c>
-      <c r="D555" s="4" t="s">
-        <v>3123</v>
       </c>
       <c r="E555" s="25" t="s">
         <v>1527</v>
@@ -37070,16 +37069,16 @@
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B556" s="4" t="s">
         <v>3124</v>
       </c>
-      <c r="B556" s="4" t="s">
+      <c r="C556" s="4" t="s">
         <v>3125</v>
       </c>
-      <c r="C556" s="4" t="s">
+      <c r="D556" s="4" t="s">
         <v>3126</v>
-      </c>
-      <c r="D556" s="4" t="s">
-        <v>3127</v>
       </c>
       <c r="E556" s="25" t="s">
         <v>1527</v>
@@ -37087,16 +37086,16 @@
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B557" s="4" t="s">
         <v>3128</v>
       </c>
-      <c r="B557" s="4" t="s">
+      <c r="C557" s="4" t="s">
         <v>3129</v>
       </c>
-      <c r="C557" s="4" t="s">
+      <c r="D557" s="4" t="s">
         <v>3130</v>
-      </c>
-      <c r="D557" s="4" t="s">
-        <v>3131</v>
       </c>
       <c r="E557" s="25" t="s">
         <v>1527</v>
@@ -37104,16 +37103,16 @@
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B558" s="4" t="s">
         <v>3132</v>
       </c>
-      <c r="B558" s="4" t="s">
+      <c r="C558" s="4" t="s">
         <v>3133</v>
       </c>
-      <c r="C558" s="4" t="s">
+      <c r="D558" s="4" t="s">
         <v>3134</v>
-      </c>
-      <c r="D558" s="4" t="s">
-        <v>3135</v>
       </c>
       <c r="E558" s="25" t="s">
         <v>1527</v>
@@ -37121,16 +37120,16 @@
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B559" s="4" t="s">
         <v>3136</v>
       </c>
-      <c r="B559" s="4" t="s">
+      <c r="C559" s="4" t="s">
         <v>3137</v>
       </c>
-      <c r="C559" s="4" t="s">
+      <c r="D559" s="4" t="s">
         <v>3138</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>3139</v>
       </c>
       <c r="E559" s="25" t="s">
         <v>1527</v>
@@ -37138,16 +37137,16 @@
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B560" s="4" t="s">
         <v>3140</v>
       </c>
-      <c r="B560" s="4" t="s">
+      <c r="C560" s="4" t="s">
         <v>3141</v>
       </c>
-      <c r="C560" s="4" t="s">
+      <c r="D560" s="4" t="s">
         <v>3142</v>
-      </c>
-      <c r="D560" s="4" t="s">
-        <v>3143</v>
       </c>
       <c r="E560" s="25" t="s">
         <v>1527</v>
@@ -37155,16 +37154,16 @@
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B561" s="4" t="s">
         <v>3144</v>
       </c>
-      <c r="B561" s="4" t="s">
+      <c r="C561" s="4" t="s">
         <v>3145</v>
       </c>
-      <c r="C561" s="4" t="s">
+      <c r="D561" s="4" t="s">
         <v>3146</v>
-      </c>
-      <c r="D561" s="4" t="s">
-        <v>3147</v>
       </c>
       <c r="E561" s="25" t="s">
         <v>1527</v>
@@ -37172,16 +37171,16 @@
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B562" s="4" t="s">
         <v>3148</v>
       </c>
-      <c r="B562" s="4" t="s">
+      <c r="C562" s="4" t="s">
         <v>3149</v>
       </c>
-      <c r="C562" s="4" t="s">
+      <c r="D562" s="4" t="s">
         <v>3150</v>
-      </c>
-      <c r="D562" s="4" t="s">
-        <v>3151</v>
       </c>
       <c r="E562" s="25" t="s">
         <v>1527</v>
@@ -37189,16 +37188,16 @@
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B563" s="4" t="s">
         <v>3152</v>
       </c>
-      <c r="B563" s="4" t="s">
+      <c r="C563" s="4" t="s">
         <v>3153</v>
       </c>
-      <c r="C563" s="4" t="s">
+      <c r="D563" s="4" t="s">
         <v>3154</v>
-      </c>
-      <c r="D563" s="4" t="s">
-        <v>3155</v>
       </c>
       <c r="E563" s="25" t="s">
         <v>1527</v>
@@ -37206,16 +37205,16 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B564" s="4" t="s">
         <v>3156</v>
       </c>
-      <c r="B564" s="4" t="s">
+      <c r="C564" s="4" t="s">
         <v>3157</v>
       </c>
-      <c r="C564" s="4" t="s">
+      <c r="D564" s="4" t="s">
         <v>3158</v>
-      </c>
-      <c r="D564" s="4" t="s">
-        <v>3159</v>
       </c>
       <c r="E564" s="25" t="s">
         <v>1527</v>
@@ -37223,16 +37222,16 @@
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B565" s="4" t="s">
         <v>3160</v>
       </c>
-      <c r="B565" s="4" t="s">
+      <c r="C565" s="4" t="s">
         <v>3161</v>
       </c>
-      <c r="C565" s="4" t="s">
+      <c r="D565" s="4" t="s">
         <v>3162</v>
-      </c>
-      <c r="D565" s="4" t="s">
-        <v>3163</v>
       </c>
       <c r="E565" s="25" t="s">
         <v>1527</v>
@@ -37240,16 +37239,16 @@
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B566" s="4" t="s">
         <v>3164</v>
       </c>
-      <c r="B566" s="4" t="s">
+      <c r="C566" s="4" t="s">
         <v>3165</v>
       </c>
-      <c r="C566" s="4" t="s">
+      <c r="D566" s="4" t="s">
         <v>3166</v>
-      </c>
-      <c r="D566" s="4" t="s">
-        <v>3167</v>
       </c>
       <c r="E566" s="25" t="s">
         <v>1527</v>
@@ -37257,16 +37256,16 @@
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B567" s="4" t="s">
         <v>3168</v>
       </c>
-      <c r="B567" s="4" t="s">
+      <c r="C567" s="4" t="s">
         <v>3169</v>
       </c>
-      <c r="C567" s="4" t="s">
+      <c r="D567" s="4" t="s">
         <v>3170</v>
-      </c>
-      <c r="D567" s="4" t="s">
-        <v>3171</v>
       </c>
       <c r="E567" s="25" t="s">
         <v>1527</v>
@@ -37274,16 +37273,16 @@
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B568" s="4" t="s">
         <v>3172</v>
       </c>
-      <c r="B568" s="4" t="s">
+      <c r="C568" s="4" t="s">
         <v>3173</v>
       </c>
-      <c r="C568" s="4" t="s">
+      <c r="D568" s="4" t="s">
         <v>3174</v>
-      </c>
-      <c r="D568" s="4" t="s">
-        <v>3175</v>
       </c>
       <c r="E568" s="25" t="s">
         <v>1527</v>
@@ -37291,16 +37290,16 @@
     </row>
     <row r="569" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B569" s="4" t="s">
         <v>3176</v>
       </c>
-      <c r="B569" s="4" t="s">
+      <c r="C569" s="4" t="s">
         <v>3177</v>
       </c>
-      <c r="C569" s="4" t="s">
+      <c r="D569" s="4" t="s">
         <v>3178</v>
-      </c>
-      <c r="D569" s="4" t="s">
-        <v>3179</v>
       </c>
       <c r="E569" s="25" t="s">
         <v>1527</v>
@@ -37308,16 +37307,16 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B570" s="4" t="s">
         <v>3180</v>
       </c>
-      <c r="B570" s="4" t="s">
+      <c r="C570" s="4" t="s">
         <v>3181</v>
       </c>
-      <c r="C570" s="4" t="s">
+      <c r="D570" s="4" t="s">
         <v>3182</v>
-      </c>
-      <c r="D570" s="4" t="s">
-        <v>3183</v>
       </c>
       <c r="E570" s="25" t="s">
         <v>1527</v>
@@ -37325,16 +37324,16 @@
     </row>
     <row r="571" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B571" s="4" t="s">
         <v>3184</v>
       </c>
-      <c r="B571" s="4" t="s">
+      <c r="C571" s="4" t="s">
         <v>3185</v>
       </c>
-      <c r="C571" s="4" t="s">
+      <c r="D571" s="4" t="s">
         <v>3186</v>
-      </c>
-      <c r="D571" s="4" t="s">
-        <v>3187</v>
       </c>
       <c r="E571" s="25" t="s">
         <v>1527</v>
@@ -37342,16 +37341,16 @@
     </row>
     <row r="572" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B572" s="4" t="s">
         <v>3188</v>
       </c>
-      <c r="B572" s="4" t="s">
+      <c r="C572" s="4" t="s">
         <v>3189</v>
       </c>
-      <c r="C572" s="4" t="s">
+      <c r="D572" s="4" t="s">
         <v>3190</v>
-      </c>
-      <c r="D572" s="4" t="s">
-        <v>3191</v>
       </c>
       <c r="E572" s="25" t="s">
         <v>1527</v>
@@ -37359,16 +37358,16 @@
     </row>
     <row r="573" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B573" s="4" t="s">
         <v>3192</v>
       </c>
-      <c r="B573" s="4" t="s">
+      <c r="C573" s="4" t="s">
         <v>3193</v>
       </c>
-      <c r="C573" s="4" t="s">
+      <c r="D573" s="4" t="s">
         <v>3194</v>
-      </c>
-      <c r="D573" s="4" t="s">
-        <v>3195</v>
       </c>
       <c r="E573" s="25" t="s">
         <v>1527</v>
@@ -37376,16 +37375,16 @@
     </row>
     <row r="574" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B574" s="4" t="s">
         <v>3196</v>
       </c>
-      <c r="B574" s="4" t="s">
+      <c r="C574" s="4" t="s">
         <v>3197</v>
       </c>
-      <c r="C574" s="4" t="s">
+      <c r="D574" s="4" t="s">
         <v>3198</v>
-      </c>
-      <c r="D574" s="4" t="s">
-        <v>3199</v>
       </c>
       <c r="E574" s="25" t="s">
         <v>1527</v>
@@ -37393,16 +37392,16 @@
     </row>
     <row r="575" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B575" s="4" t="s">
         <v>3200</v>
       </c>
-      <c r="B575" s="4" t="s">
+      <c r="C575" s="4" t="s">
         <v>3201</v>
       </c>
-      <c r="C575" s="4" t="s">
+      <c r="D575" s="4" t="s">
         <v>3202</v>
-      </c>
-      <c r="D575" s="4" t="s">
-        <v>3203</v>
       </c>
       <c r="E575" s="25" t="s">
         <v>1527</v>
@@ -37410,13 +37409,13 @@
     </row>
     <row r="576" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B576" s="4" t="s">
         <v>3204</v>
       </c>
-      <c r="B576" s="4" t="s">
+      <c r="C576" s="4" t="s">
         <v>3205</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>3038</v>
       </c>
       <c r="D576" s="4" t="s">
         <v>3206</v>
@@ -37433,10 +37432,10 @@
         <v>3208</v>
       </c>
       <c r="C577" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D577" s="4" t="s">
         <v>3209</v>
-      </c>
-      <c r="D577" s="4" t="s">
-        <v>3210</v>
       </c>
       <c r="E577" s="25" t="s">
         <v>1527</v>
@@ -37444,16 +37443,16 @@
     </row>
     <row r="578" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B578" s="4" t="s">
         <v>3211</v>
       </c>
-      <c r="B578" s="4" t="s">
+      <c r="C578" s="4" t="s">
         <v>3212</v>
       </c>
-      <c r="C578" s="4" t="s">
+      <c r="D578" s="4" t="s">
         <v>3213</v>
-      </c>
-      <c r="D578" s="4" t="s">
-        <v>3214</v>
       </c>
       <c r="E578" s="25" t="s">
         <v>1527</v>
@@ -37461,16 +37460,16 @@
     </row>
     <row r="579" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B579" s="4" t="s">
         <v>3215</v>
       </c>
-      <c r="B579" s="4" t="s">
+      <c r="C579" s="4" t="s">
         <v>3216</v>
       </c>
-      <c r="C579" s="4" t="s">
+      <c r="D579" s="4" t="s">
         <v>3217</v>
-      </c>
-      <c r="D579" s="4" t="s">
-        <v>3218</v>
       </c>
       <c r="E579" s="25" t="s">
         <v>1527</v>
@@ -37478,16 +37477,16 @@
     </row>
     <row r="580" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B580" s="4" t="s">
         <v>3219</v>
       </c>
-      <c r="B580" s="4" t="s">
+      <c r="C580" s="4" t="s">
         <v>3220</v>
       </c>
-      <c r="C580" s="4" t="s">
+      <c r="D580" s="4" t="s">
         <v>3221</v>
-      </c>
-      <c r="D580" s="4" t="s">
-        <v>3222</v>
       </c>
       <c r="E580" s="25" t="s">
         <v>1527</v>
@@ -37495,16 +37494,16 @@
     </row>
     <row r="581" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B581" s="4" t="s">
         <v>3223</v>
       </c>
-      <c r="B581" s="4" t="s">
+      <c r="C581" s="4" t="s">
         <v>3224</v>
       </c>
-      <c r="C581" s="4" t="s">
+      <c r="D581" s="4" t="s">
         <v>3225</v>
-      </c>
-      <c r="D581" s="4" t="s">
-        <v>3226</v>
       </c>
       <c r="E581" s="25" t="s">
         <v>1527</v>
@@ -37512,16 +37511,16 @@
     </row>
     <row r="582" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B582" s="4" t="s">
         <v>3227</v>
       </c>
-      <c r="B582" s="4" t="s">
+      <c r="C582" s="4" t="s">
         <v>3228</v>
       </c>
-      <c r="C582" s="4" t="s">
+      <c r="D582" s="4" t="s">
         <v>3229</v>
-      </c>
-      <c r="D582" s="4" t="s">
-        <v>3230</v>
       </c>
       <c r="E582" s="25" t="s">
         <v>1527</v>
@@ -37529,16 +37528,16 @@
     </row>
     <row r="583" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B583" s="4" t="s">
         <v>3231</v>
       </c>
-      <c r="B583" s="4" t="s">
+      <c r="C583" s="4" t="s">
         <v>3232</v>
       </c>
-      <c r="C583" s="4" t="s">
+      <c r="D583" s="4" t="s">
         <v>3233</v>
-      </c>
-      <c r="D583" s="4" t="s">
-        <v>3234</v>
       </c>
       <c r="E583" s="25" t="s">
         <v>1527</v>
@@ -37546,16 +37545,16 @@
     </row>
     <row r="584" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B584" s="4" t="s">
         <v>3235</v>
       </c>
-      <c r="B584" s="4" t="s">
+      <c r="C584" s="4" t="s">
         <v>3236</v>
       </c>
-      <c r="C584" s="4" t="s">
+      <c r="D584" s="4" t="s">
         <v>3237</v>
-      </c>
-      <c r="D584" s="4" t="s">
-        <v>3238</v>
       </c>
       <c r="E584" s="25" t="s">
         <v>1527</v>
@@ -37563,16 +37562,16 @@
     </row>
     <row r="585" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B585" s="4" t="s">
         <v>3239</v>
       </c>
-      <c r="B585" s="4" t="s">
+      <c r="C585" s="4" t="s">
         <v>3240</v>
       </c>
-      <c r="C585" s="4" t="s">
+      <c r="D585" s="4" t="s">
         <v>3241</v>
-      </c>
-      <c r="D585" s="4" t="s">
-        <v>3242</v>
       </c>
       <c r="E585" s="25" t="s">
         <v>1527</v>
@@ -37580,16 +37579,16 @@
     </row>
     <row r="586" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B586" s="4" t="s">
         <v>3243</v>
       </c>
-      <c r="B586" s="4" t="s">
+      <c r="C586" s="4" t="s">
         <v>3244</v>
       </c>
-      <c r="C586" s="4" t="s">
+      <c r="D586" s="4" t="s">
         <v>3245</v>
-      </c>
-      <c r="D586" s="4" t="s">
-        <v>3246</v>
       </c>
       <c r="E586" s="25" t="s">
         <v>1527</v>
@@ -37597,16 +37596,16 @@
     </row>
     <row r="587" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B587" s="4" t="s">
         <v>3247</v>
       </c>
-      <c r="B587" s="4" t="s">
+      <c r="C587" s="4" t="s">
         <v>3248</v>
       </c>
-      <c r="C587" s="4" t="s">
+      <c r="D587" s="4" t="s">
         <v>3249</v>
-      </c>
-      <c r="D587" s="4" t="s">
-        <v>1675</v>
       </c>
       <c r="E587" s="25" t="s">
         <v>1527</v>
@@ -37623,7 +37622,7 @@
         <v>3252</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>3253</v>
+        <v>1675</v>
       </c>
       <c r="E588" s="25" t="s">
         <v>1527</v>
@@ -37631,16 +37630,16 @@
     </row>
     <row r="589" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B589" s="4" t="s">
         <v>3254</v>
       </c>
-      <c r="B589" s="4" t="s">
+      <c r="C589" s="4" t="s">
         <v>3255</v>
       </c>
-      <c r="C589" s="4" t="s">
+      <c r="D589" s="4" t="s">
         <v>3256</v>
-      </c>
-      <c r="D589" s="4" t="s">
-        <v>3257</v>
       </c>
       <c r="E589" s="25" t="s">
         <v>1527</v>
@@ -37648,16 +37647,16 @@
     </row>
     <row r="590" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B590" s="4" t="s">
         <v>3258</v>
       </c>
-      <c r="B590" s="4" t="s">
+      <c r="C590" s="4" t="s">
         <v>3259</v>
       </c>
-      <c r="C590" s="4" t="s">
+      <c r="D590" s="4" t="s">
         <v>3260</v>
-      </c>
-      <c r="D590" s="4" t="s">
-        <v>3261</v>
       </c>
       <c r="E590" s="25" t="s">
         <v>1527</v>
@@ -37665,16 +37664,16 @@
     </row>
     <row r="591" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B591" s="4" t="s">
         <v>3262</v>
       </c>
-      <c r="B591" s="4" t="s">
+      <c r="C591" s="4" t="s">
         <v>3263</v>
       </c>
-      <c r="C591" s="4" t="s">
+      <c r="D591" s="4" t="s">
         <v>3264</v>
-      </c>
-      <c r="D591" s="4" t="s">
-        <v>3265</v>
       </c>
       <c r="E591" s="25" t="s">
         <v>1527</v>
@@ -37682,16 +37681,16 @@
     </row>
     <row r="592" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B592" s="4" t="s">
         <v>3266</v>
       </c>
-      <c r="B592" s="4" t="s">
+      <c r="C592" s="4" t="s">
         <v>3267</v>
       </c>
-      <c r="C592" s="4" t="s">
+      <c r="D592" s="4" t="s">
         <v>3268</v>
-      </c>
-      <c r="D592" s="4" t="s">
-        <v>3269</v>
       </c>
       <c r="E592" s="25" t="s">
         <v>1527</v>
@@ -37699,16 +37698,16 @@
     </row>
     <row r="593" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B593" s="4" t="s">
         <v>3270</v>
       </c>
-      <c r="B593" s="4" t="s">
+      <c r="C593" s="4" t="s">
         <v>3271</v>
       </c>
-      <c r="C593" s="4" t="s">
+      <c r="D593" s="4" t="s">
         <v>3272</v>
-      </c>
-      <c r="D593" s="4" t="s">
-        <v>3273</v>
       </c>
       <c r="E593" s="25" t="s">
         <v>1527</v>
@@ -37716,16 +37715,16 @@
     </row>
     <row r="594" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B594" s="4" t="s">
         <v>3274</v>
       </c>
-      <c r="B594" s="4" t="s">
+      <c r="C594" s="4" t="s">
         <v>3275</v>
       </c>
-      <c r="C594" s="4" t="s">
+      <c r="D594" s="4" t="s">
         <v>3276</v>
-      </c>
-      <c r="D594" s="4" t="s">
-        <v>3277</v>
       </c>
       <c r="E594" s="25" t="s">
         <v>1527</v>
@@ -37733,16 +37732,16 @@
     </row>
     <row r="595" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B595" s="4" t="s">
         <v>3278</v>
       </c>
-      <c r="B595" s="4" t="s">
+      <c r="C595" s="4" t="s">
         <v>3279</v>
       </c>
-      <c r="C595" s="4" t="s">
+      <c r="D595" s="4" t="s">
         <v>3280</v>
-      </c>
-      <c r="D595" s="4" t="s">
-        <v>3281</v>
       </c>
       <c r="E595" s="25" t="s">
         <v>1527</v>
@@ -37750,16 +37749,16 @@
     </row>
     <row r="596" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B596" s="4" t="s">
         <v>3282</v>
       </c>
-      <c r="B596" s="4" t="s">
+      <c r="C596" s="4" t="s">
         <v>3283</v>
       </c>
-      <c r="C596" s="4" t="s">
+      <c r="D596" s="4" t="s">
         <v>3284</v>
-      </c>
-      <c r="D596" s="4" t="s">
-        <v>3285</v>
       </c>
       <c r="E596" s="25" t="s">
         <v>1527</v>
@@ -37767,16 +37766,16 @@
     </row>
     <row r="597" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B597" s="4" t="s">
         <v>3286</v>
       </c>
-      <c r="B597" s="4" t="s">
+      <c r="C597" s="4" t="s">
         <v>3287</v>
       </c>
-      <c r="C597" s="4" t="s">
+      <c r="D597" s="4" t="s">
         <v>3288</v>
-      </c>
-      <c r="D597" s="4" t="s">
-        <v>3289</v>
       </c>
       <c r="E597" s="25" t="s">
         <v>1527</v>
@@ -37784,16 +37783,16 @@
     </row>
     <row r="598" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B598" s="4" t="s">
         <v>3290</v>
       </c>
-      <c r="B598" s="4" t="s">
+      <c r="C598" s="4" t="s">
         <v>3291</v>
       </c>
-      <c r="C598" s="4" t="s">
+      <c r="D598" s="4" t="s">
         <v>3292</v>
-      </c>
-      <c r="D598" s="4" t="s">
-        <v>3293</v>
       </c>
       <c r="E598" s="25" t="s">
         <v>1527</v>
@@ -37801,16 +37800,16 @@
     </row>
     <row r="599" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B599" s="4" t="s">
         <v>3294</v>
       </c>
-      <c r="B599" s="4" t="s">
+      <c r="C599" s="4" t="s">
         <v>3295</v>
       </c>
-      <c r="C599" s="4" t="s">
+      <c r="D599" s="4" t="s">
         <v>3296</v>
-      </c>
-      <c r="D599" s="4" t="s">
-        <v>3297</v>
       </c>
       <c r="E599" s="25" t="s">
         <v>1527</v>
@@ -37818,16 +37817,16 @@
     </row>
     <row r="600" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B600" s="4" t="s">
         <v>3298</v>
       </c>
-      <c r="B600" s="4" t="s">
+      <c r="C600" s="4" t="s">
         <v>3299</v>
       </c>
-      <c r="C600" s="4" t="s">
+      <c r="D600" s="4" t="s">
         <v>3300</v>
-      </c>
-      <c r="D600" s="4" t="s">
-        <v>3301</v>
       </c>
       <c r="E600" s="25" t="s">
         <v>1527</v>
@@ -37835,16 +37834,16 @@
     </row>
     <row r="601" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B601" s="4" t="s">
         <v>3302</v>
       </c>
-      <c r="B601" s="4" t="s">
+      <c r="C601" s="4" t="s">
         <v>3303</v>
       </c>
-      <c r="C601" s="4" t="s">
+      <c r="D601" s="4" t="s">
         <v>3304</v>
-      </c>
-      <c r="D601" s="4" t="s">
-        <v>3305</v>
       </c>
       <c r="E601" s="25" t="s">
         <v>1527</v>
@@ -37852,16 +37851,16 @@
     </row>
     <row r="602" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>3306</v>
       </c>
-      <c r="B602" s="4" t="s">
+      <c r="C602" s="4" t="s">
         <v>3307</v>
       </c>
-      <c r="C602" s="4" t="s">
+      <c r="D602" s="4" t="s">
         <v>3308</v>
-      </c>
-      <c r="D602" s="4" t="s">
-        <v>3309</v>
       </c>
       <c r="E602" s="25" t="s">
         <v>1527</v>
@@ -37869,16 +37868,16 @@
     </row>
     <row r="603" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B603" s="4" t="s">
         <v>3310</v>
       </c>
-      <c r="B603" s="4" t="s">
+      <c r="C603" s="4" t="s">
         <v>3311</v>
       </c>
-      <c r="C603" s="4" t="s">
+      <c r="D603" s="4" t="s">
         <v>3312</v>
-      </c>
-      <c r="D603" s="4" t="s">
-        <v>3313</v>
       </c>
       <c r="E603" s="25" t="s">
         <v>1527</v>
@@ -37886,16 +37885,16 @@
     </row>
     <row r="604" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B604" s="4" t="s">
         <v>3314</v>
       </c>
-      <c r="B604" s="4" t="s">
+      <c r="C604" s="4" t="s">
         <v>3315</v>
       </c>
-      <c r="C604" s="4" t="s">
+      <c r="D604" s="4" t="s">
         <v>3316</v>
-      </c>
-      <c r="D604" s="4" t="s">
-        <v>3317</v>
       </c>
       <c r="E604" s="25" t="s">
         <v>1527</v>
@@ -37903,16 +37902,16 @@
     </row>
     <row r="605" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B605" s="4" t="s">
         <v>3318</v>
       </c>
-      <c r="B605" s="4" t="s">
+      <c r="C605" s="4" t="s">
         <v>3319</v>
       </c>
-      <c r="C605" s="4" t="s">
+      <c r="D605" s="4" t="s">
         <v>3320</v>
-      </c>
-      <c r="D605" s="4" t="s">
-        <v>3321</v>
       </c>
       <c r="E605" s="25" t="s">
         <v>1527</v>
@@ -37920,16 +37919,16 @@
     </row>
     <row r="606" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B606" s="4" t="s">
         <v>3322</v>
       </c>
-      <c r="B606" s="4" t="s">
+      <c r="C606" s="4" t="s">
         <v>3323</v>
       </c>
-      <c r="C606" s="4" t="s">
+      <c r="D606" s="4" t="s">
         <v>3324</v>
-      </c>
-      <c r="D606" s="4" t="s">
-        <v>3325</v>
       </c>
       <c r="E606" s="25" t="s">
         <v>1527</v>
@@ -37937,16 +37936,16 @@
     </row>
     <row r="607" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B607" s="4" t="s">
         <v>3326</v>
       </c>
-      <c r="B607" s="4" t="s">
+      <c r="C607" s="4" t="s">
         <v>3327</v>
       </c>
-      <c r="C607" s="4" t="s">
+      <c r="D607" s="4" t="s">
         <v>3328</v>
-      </c>
-      <c r="D607" s="4" t="s">
-        <v>3329</v>
       </c>
       <c r="E607" s="25" t="s">
         <v>1527</v>
@@ -37954,16 +37953,16 @@
     </row>
     <row r="608" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B608" s="4" t="s">
         <v>3330</v>
       </c>
-      <c r="B608" s="4" t="s">
+      <c r="C608" s="4" t="s">
         <v>3331</v>
       </c>
-      <c r="C608" s="4" t="s">
+      <c r="D608" s="4" t="s">
         <v>3332</v>
-      </c>
-      <c r="D608" s="4" t="s">
-        <v>3333</v>
       </c>
       <c r="E608" s="25" t="s">
         <v>1527</v>
@@ -37971,16 +37970,16 @@
     </row>
     <row r="609" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B609" s="4" t="s">
         <v>3334</v>
       </c>
-      <c r="B609" s="4" t="s">
+      <c r="C609" s="4" t="s">
         <v>3335</v>
       </c>
-      <c r="C609" s="4" t="s">
+      <c r="D609" s="4" t="s">
         <v>3336</v>
-      </c>
-      <c r="D609" s="4" t="s">
-        <v>3337</v>
       </c>
       <c r="E609" s="25" t="s">
         <v>1527</v>
@@ -37988,16 +37987,16 @@
     </row>
     <row r="610" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B610" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="B610" s="4" t="s">
+      <c r="C610" s="4" t="s">
         <v>3339</v>
       </c>
-      <c r="C610" s="4" t="s">
+      <c r="D610" s="4" t="s">
         <v>3340</v>
-      </c>
-      <c r="D610" s="4" t="s">
-        <v>3341</v>
       </c>
       <c r="E610" s="25" t="s">
         <v>1527</v>
@@ -38005,16 +38004,16 @@
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B611" s="4" t="s">
         <v>3342</v>
       </c>
-      <c r="B611" s="4" t="s">
+      <c r="C611" s="4" t="s">
         <v>3343</v>
       </c>
-      <c r="C611" s="4" t="s">
+      <c r="D611" s="4" t="s">
         <v>3344</v>
-      </c>
-      <c r="D611" s="4" t="s">
-        <v>3345</v>
       </c>
       <c r="E611" s="25" t="s">
         <v>1527</v>
@@ -38022,16 +38021,16 @@
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B612" s="4" t="s">
         <v>3346</v>
       </c>
-      <c r="B612" s="4" t="s">
+      <c r="C612" s="4" t="s">
         <v>3347</v>
       </c>
-      <c r="C612" s="4" t="s">
+      <c r="D612" s="4" t="s">
         <v>3348</v>
-      </c>
-      <c r="D612" s="4" t="s">
-        <v>3349</v>
       </c>
       <c r="E612" s="25" t="s">
         <v>1527</v>
@@ -38039,16 +38038,16 @@
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B613" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="B613" s="4" t="s">
+      <c r="C613" s="4" t="s">
         <v>3351</v>
       </c>
-      <c r="C613" s="4" t="s">
+      <c r="D613" s="4" t="s">
         <v>3352</v>
-      </c>
-      <c r="D613" s="4" t="s">
-        <v>3353</v>
       </c>
       <c r="E613" s="25" t="s">
         <v>1527</v>
@@ -38056,16 +38055,16 @@
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B614" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="B614" s="4" t="s">
+      <c r="C614" s="4" t="s">
         <v>3355</v>
       </c>
-      <c r="C614" s="4" t="s">
+      <c r="D614" s="4" t="s">
         <v>3356</v>
-      </c>
-      <c r="D614" s="4" t="s">
-        <v>3357</v>
       </c>
       <c r="E614" s="25" t="s">
         <v>1527</v>
@@ -38073,16 +38072,16 @@
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B615" s="4" t="s">
         <v>3358</v>
       </c>
-      <c r="B615" s="4" t="s">
+      <c r="C615" s="4" t="s">
         <v>3359</v>
       </c>
-      <c r="C615" s="4" t="s">
+      <c r="D615" s="4" t="s">
         <v>3360</v>
-      </c>
-      <c r="D615" s="4" t="s">
-        <v>3361</v>
       </c>
       <c r="E615" s="25" t="s">
         <v>1527</v>
@@ -38090,16 +38089,16 @@
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B616" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="B616" s="4" t="s">
+      <c r="C616" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="C616" s="4" t="s">
+      <c r="D616" s="4" t="s">
         <v>3364</v>
-      </c>
-      <c r="D616" s="4" t="s">
-        <v>1759</v>
       </c>
       <c r="E616" s="25" t="s">
         <v>1527</v>
@@ -38116,7 +38115,7 @@
         <v>3367</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>3368</v>
+        <v>1759</v>
       </c>
       <c r="E617" s="25" t="s">
         <v>1527</v>
@@ -38124,16 +38123,16 @@
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B618" s="4" t="s">
         <v>3369</v>
-      </c>
-      <c r="B618" s="4" t="s">
-        <v>3370</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>3370</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E618" s="25" t="s">
         <v>1527</v>
@@ -38141,16 +38140,16 @@
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>3373</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="E619" s="25" t="s">
         <v>1527</v>
@@ -38158,16 +38157,16 @@
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B620" s="4" t="s">
         <v>3375</v>
       </c>
-      <c r="B620" s="4" t="s">
+      <c r="C620" s="4" t="s">
         <v>3376</v>
       </c>
-      <c r="C620" s="4" t="s">
+      <c r="D620" s="4" t="s">
         <v>3377</v>
-      </c>
-      <c r="D620" s="4" t="s">
-        <v>3378</v>
       </c>
       <c r="E620" s="25" t="s">
         <v>1527</v>
@@ -38175,16 +38174,16 @@
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B621" s="4" t="s">
         <v>3379</v>
       </c>
-      <c r="B621" s="4" t="s">
+      <c r="C621" s="4" t="s">
         <v>3380</v>
       </c>
-      <c r="C621" s="4" t="s">
+      <c r="D621" s="4" t="s">
         <v>3381</v>
-      </c>
-      <c r="D621" s="4" t="s">
-        <v>3382</v>
       </c>
       <c r="E621" s="25" t="s">
         <v>1527</v>
@@ -38192,16 +38191,16 @@
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B622" s="4" t="s">
         <v>3383</v>
       </c>
-      <c r="B622" s="4" t="s">
+      <c r="C622" s="4" t="s">
         <v>3384</v>
       </c>
-      <c r="C622" s="4" t="s">
+      <c r="D622" s="4" t="s">
         <v>3385</v>
-      </c>
-      <c r="D622" s="4" t="s">
-        <v>3386</v>
       </c>
       <c r="E622" s="25" t="s">
         <v>1527</v>
@@ -38209,16 +38208,16 @@
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B623" s="4" t="s">
         <v>3387</v>
       </c>
-      <c r="B623" s="4" t="s">
+      <c r="C623" s="4" t="s">
         <v>3388</v>
       </c>
-      <c r="C623" s="4" t="s">
+      <c r="D623" s="4" t="s">
         <v>3389</v>
-      </c>
-      <c r="D623" s="4" t="s">
-        <v>3390</v>
       </c>
       <c r="E623" s="25" t="s">
         <v>1527</v>
@@ -38226,16 +38225,16 @@
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B624" s="4" t="s">
         <v>3391</v>
       </c>
-      <c r="B624" s="4" t="s">
+      <c r="C624" s="4" t="s">
         <v>3392</v>
       </c>
-      <c r="C624" s="4" t="s">
+      <c r="D624" s="4" t="s">
         <v>3393</v>
-      </c>
-      <c r="D624" s="4" t="s">
-        <v>3394</v>
       </c>
       <c r="E624" s="25" t="s">
         <v>1527</v>
@@ -38243,16 +38242,16 @@
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B625" s="4" t="s">
         <v>3395</v>
       </c>
-      <c r="B625" s="4" t="s">
+      <c r="C625" s="4" t="s">
         <v>3396</v>
       </c>
-      <c r="C625" s="4" t="s">
+      <c r="D625" s="4" t="s">
         <v>3397</v>
-      </c>
-      <c r="D625" s="4" t="s">
-        <v>3398</v>
       </c>
       <c r="E625" s="25" t="s">
         <v>1527</v>
@@ -38260,16 +38259,16 @@
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B626" s="4" t="s">
         <v>3399</v>
       </c>
-      <c r="B626" s="4" t="s">
+      <c r="C626" s="4" t="s">
         <v>3400</v>
       </c>
-      <c r="C626" s="4" t="s">
+      <c r="D626" s="4" t="s">
         <v>3401</v>
-      </c>
-      <c r="D626" s="4" t="s">
-        <v>3402</v>
       </c>
       <c r="E626" s="25" t="s">
         <v>1527</v>
@@ -38277,16 +38276,16 @@
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B627" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="B627" s="4" t="s">
+      <c r="C627" s="4" t="s">
         <v>3404</v>
       </c>
-      <c r="C627" s="4" t="s">
+      <c r="D627" s="4" t="s">
         <v>3405</v>
-      </c>
-      <c r="D627" s="4" t="s">
-        <v>3406</v>
       </c>
       <c r="E627" s="25" t="s">
         <v>1527</v>
@@ -38294,16 +38293,16 @@
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B628" s="4" t="s">
         <v>3407</v>
       </c>
-      <c r="B628" s="4" t="s">
+      <c r="C628" s="4" t="s">
         <v>3408</v>
       </c>
-      <c r="C628" s="4" t="s">
+      <c r="D628" s="4" t="s">
         <v>3409</v>
-      </c>
-      <c r="D628" s="4" t="s">
-        <v>3410</v>
       </c>
       <c r="E628" s="25" t="s">
         <v>1527</v>
@@ -38311,16 +38310,16 @@
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B629" s="4" t="s">
         <v>3411</v>
       </c>
-      <c r="B629" s="4" t="s">
+      <c r="C629" s="4" t="s">
         <v>3412</v>
       </c>
-      <c r="C629" s="4" t="s">
+      <c r="D629" s="4" t="s">
         <v>3413</v>
-      </c>
-      <c r="D629" s="4" t="s">
-        <v>1717</v>
       </c>
       <c r="E629" s="25" t="s">
         <v>1527</v>
@@ -38333,11 +38332,11 @@
       <c r="B630" s="4" t="s">
         <v>3415</v>
       </c>
-      <c r="C630" s="1" t="s">
+      <c r="C630" s="4" t="s">
         <v>3416</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>3417</v>
+        <v>1717</v>
       </c>
       <c r="E630" s="25" t="s">
         <v>1527</v>
@@ -38345,16 +38344,16 @@
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B631" s="4" t="s">
         <v>3418</v>
       </c>
-      <c r="B631" s="4" t="s">
+      <c r="C631" s="1" t="s">
         <v>3419</v>
       </c>
-      <c r="C631" s="4" t="s">
+      <c r="D631" s="4" t="s">
         <v>3420</v>
-      </c>
-      <c r="D631" s="4" t="s">
-        <v>3421</v>
       </c>
       <c r="E631" s="25" t="s">
         <v>1527</v>
@@ -38362,16 +38361,16 @@
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B632" s="4" t="s">
         <v>3422</v>
       </c>
-      <c r="B632" s="4" t="s">
+      <c r="C632" s="4" t="s">
         <v>3423</v>
       </c>
-      <c r="C632" s="4" t="s">
+      <c r="D632" s="4" t="s">
         <v>3424</v>
-      </c>
-      <c r="D632" s="4" t="s">
-        <v>3425</v>
       </c>
       <c r="E632" s="25" t="s">
         <v>1527</v>
@@ -38379,16 +38378,16 @@
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B633" s="4" t="s">
         <v>3426</v>
       </c>
-      <c r="B633" s="4" t="s">
+      <c r="C633" s="4" t="s">
         <v>3427</v>
       </c>
-      <c r="C633" s="4" t="s">
+      <c r="D633" s="4" t="s">
         <v>3428</v>
-      </c>
-      <c r="D633" s="4" t="s">
-        <v>3429</v>
       </c>
       <c r="E633" s="25" t="s">
         <v>1527</v>
@@ -38396,16 +38395,16 @@
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B634" s="4" t="s">
         <v>3430</v>
       </c>
-      <c r="B634" s="4" t="s">
+      <c r="C634" s="4" t="s">
         <v>3431</v>
       </c>
-      <c r="C634" s="4" t="s">
+      <c r="D634" s="4" t="s">
         <v>3432</v>
-      </c>
-      <c r="D634" s="4" t="s">
-        <v>3433</v>
       </c>
       <c r="E634" s="25" t="s">
         <v>1527</v>
@@ -38413,16 +38412,16 @@
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B635" s="4" t="s">
         <v>3434</v>
       </c>
-      <c r="B635" s="4" t="s">
+      <c r="C635" s="4" t="s">
         <v>3435</v>
       </c>
-      <c r="C635" s="4" t="s">
+      <c r="D635" s="4" t="s">
         <v>3436</v>
-      </c>
-      <c r="D635" s="4" t="s">
-        <v>3437</v>
       </c>
       <c r="E635" s="25" t="s">
         <v>1527</v>
@@ -38430,16 +38429,16 @@
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B636" s="4" t="s">
         <v>3438</v>
       </c>
-      <c r="B636" s="4" t="s">
+      <c r="C636" s="4" t="s">
         <v>3439</v>
       </c>
-      <c r="C636" s="4" t="s">
+      <c r="D636" s="4" t="s">
         <v>3440</v>
-      </c>
-      <c r="D636" s="4" t="s">
-        <v>3441</v>
       </c>
       <c r="E636" s="25" t="s">
         <v>1527</v>
@@ -38447,16 +38446,16 @@
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B637" s="4" t="s">
         <v>3442</v>
       </c>
-      <c r="B637" s="4" t="s">
+      <c r="C637" s="4" t="s">
         <v>3443</v>
       </c>
-      <c r="C637" s="4" t="s">
+      <c r="D637" s="4" t="s">
         <v>3444</v>
-      </c>
-      <c r="D637" s="4" t="s">
-        <v>3445</v>
       </c>
       <c r="E637" s="25" t="s">
         <v>1527</v>
@@ -38464,16 +38463,16 @@
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B638" s="4" t="s">
         <v>3446</v>
       </c>
-      <c r="B638" s="4" t="s">
+      <c r="C638" s="4" t="s">
         <v>3447</v>
       </c>
-      <c r="C638" s="4" t="s">
+      <c r="D638" s="4" t="s">
         <v>3448</v>
-      </c>
-      <c r="D638" s="4" t="s">
-        <v>3449</v>
       </c>
       <c r="E638" s="25" t="s">
         <v>1527</v>
@@ -38481,16 +38480,16 @@
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B639" s="4" t="s">
         <v>3450</v>
       </c>
-      <c r="B639" s="4" t="s">
+      <c r="C639" s="4" t="s">
         <v>3451</v>
       </c>
-      <c r="C639" s="4" t="s">
+      <c r="D639" s="4" t="s">
         <v>3452</v>
-      </c>
-      <c r="D639" s="4" t="s">
-        <v>3453</v>
       </c>
       <c r="E639" s="25" t="s">
         <v>1527</v>
@@ -38498,16 +38497,16 @@
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B640" s="4" t="s">
         <v>3454</v>
       </c>
-      <c r="B640" s="4" t="s">
+      <c r="C640" s="4" t="s">
         <v>3455</v>
       </c>
-      <c r="C640" s="4" t="s">
+      <c r="D640" s="4" t="s">
         <v>3456</v>
-      </c>
-      <c r="D640" s="4" t="s">
-        <v>3457</v>
       </c>
       <c r="E640" s="25" t="s">
         <v>1527</v>
@@ -38515,16 +38514,16 @@
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B641" s="4" t="s">
         <v>3458</v>
       </c>
-      <c r="B641" s="4" t="s">
+      <c r="C641" s="4" t="s">
         <v>3459</v>
       </c>
-      <c r="C641" s="4" t="s">
+      <c r="D641" s="4" t="s">
         <v>3460</v>
-      </c>
-      <c r="D641" s="4" t="s">
-        <v>3461</v>
       </c>
       <c r="E641" s="25" t="s">
         <v>1527</v>
@@ -38532,16 +38531,16 @@
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B642" s="4" t="s">
         <v>3462</v>
       </c>
-      <c r="B642" s="4" t="s">
+      <c r="C642" s="4" t="s">
         <v>3463</v>
       </c>
-      <c r="C642" s="4" t="s">
+      <c r="D642" s="4" t="s">
         <v>3464</v>
-      </c>
-      <c r="D642" s="4" t="s">
-        <v>3465</v>
       </c>
       <c r="E642" s="25" t="s">
         <v>1527</v>
@@ -38549,16 +38548,16 @@
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B643" s="4" t="s">
         <v>3466</v>
       </c>
-      <c r="B643" s="4" t="s">
+      <c r="C643" s="4" t="s">
         <v>3467</v>
       </c>
-      <c r="C643" s="4" t="s">
+      <c r="D643" s="4" t="s">
         <v>3468</v>
-      </c>
-      <c r="D643" s="4" t="s">
-        <v>3469</v>
       </c>
       <c r="E643" s="25" t="s">
         <v>1527</v>
@@ -38566,16 +38565,16 @@
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B644" s="4" t="s">
         <v>3470</v>
       </c>
-      <c r="B644" s="4" t="s">
+      <c r="C644" s="4" t="s">
         <v>3471</v>
       </c>
-      <c r="C644" s="4" t="s">
+      <c r="D644" s="4" t="s">
         <v>3472</v>
-      </c>
-      <c r="D644" s="4" t="s">
-        <v>3473</v>
       </c>
       <c r="E644" s="25" t="s">
         <v>1527</v>
@@ -38583,16 +38582,16 @@
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B645" s="4" t="s">
         <v>3474</v>
       </c>
-      <c r="B645" s="4" t="s">
+      <c r="C645" s="4" t="s">
         <v>3475</v>
       </c>
-      <c r="C645" s="4" t="s">
+      <c r="D645" s="4" t="s">
         <v>3476</v>
-      </c>
-      <c r="D645" s="4" t="s">
-        <v>3477</v>
       </c>
       <c r="E645" s="25" t="s">
         <v>1527</v>
@@ -38600,16 +38599,16 @@
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B646" s="4" t="s">
         <v>3478</v>
       </c>
-      <c r="B646" s="4" t="s">
+      <c r="C646" s="4" t="s">
         <v>3479</v>
       </c>
-      <c r="C646" s="4" t="s">
+      <c r="D646" s="4" t="s">
         <v>3480</v>
-      </c>
-      <c r="D646" s="4" t="s">
-        <v>3481</v>
       </c>
       <c r="E646" s="25" t="s">
         <v>1527</v>
@@ -38617,16 +38616,16 @@
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B647" s="4" t="s">
         <v>3482</v>
       </c>
-      <c r="B647" s="4" t="s">
+      <c r="C647" s="4" t="s">
         <v>3483</v>
       </c>
-      <c r="C647" s="4" t="s">
+      <c r="D647" s="4" t="s">
         <v>3484</v>
-      </c>
-      <c r="D647" s="4" t="s">
-        <v>3485</v>
       </c>
       <c r="E647" s="25" t="s">
         <v>1527</v>
@@ -38634,16 +38633,16 @@
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B648" s="4" t="s">
         <v>3486</v>
       </c>
-      <c r="B648" s="4" t="s">
+      <c r="C648" s="4" t="s">
         <v>3487</v>
       </c>
-      <c r="C648" s="4" t="s">
+      <c r="D648" s="4" t="s">
         <v>3488</v>
-      </c>
-      <c r="D648" s="4" t="s">
-        <v>3489</v>
       </c>
       <c r="E648" s="25" t="s">
         <v>1527</v>
@@ -38651,101 +38650,101 @@
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B649" s="4" t="s">
         <v>3490</v>
       </c>
-      <c r="B649" s="4" t="s">
+      <c r="C649" s="4" t="s">
         <v>3491</v>
       </c>
-      <c r="C649" s="4" t="s">
+      <c r="D649" s="4" t="s">
         <v>3492</v>
       </c>
-      <c r="D649" s="4" t="s">
-        <v>3493</v>
-      </c>
       <c r="E649" s="25" t="s">
-        <v>2021</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B650" s="4" t="s">
         <v>3494</v>
       </c>
-      <c r="B650" s="4" t="s">
+      <c r="C650" s="4" t="s">
         <v>3495</v>
       </c>
-      <c r="C650" s="4" t="s">
+      <c r="D650" s="4" t="s">
         <v>3496</v>
       </c>
-      <c r="D650" s="4" t="s">
-        <v>3497</v>
-      </c>
       <c r="E650" s="25" t="s">
-        <v>2051</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B651" s="4" t="s">
         <v>3498</v>
       </c>
-      <c r="B651" s="4" t="s">
+      <c r="C651" s="4" t="s">
         <v>3499</v>
       </c>
-      <c r="C651" s="4" t="s">
+      <c r="D651" s="4" t="s">
         <v>3500</v>
       </c>
-      <c r="D651" s="11" t="s">
-        <v>3501</v>
-      </c>
-      <c r="E651" s="26" t="s">
-        <v>2117</v>
+      <c r="E651" s="25" t="s">
+        <v>2051</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B652" s="4" t="s">
         <v>3502</v>
-      </c>
-      <c r="B652" s="4" t="s">
-        <v>3503</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>3503</v>
       </c>
-      <c r="D652" s="4" t="s">
-        <v>3503</v>
+      <c r="D652" s="11" t="s">
+        <v>3504</v>
       </c>
       <c r="E652" s="26" t="s">
-        <v>2140</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1524</v>
+        <v>3506</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>1525</v>
+        <v>3506</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E653" s="25" t="s">
-        <v>2021</v>
+        <v>3506</v>
+      </c>
+      <c r="E653" s="26" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>3506</v>
-      </c>
-      <c r="C654" s="27" t="s">
-        <v>3507</v>
+        <v>1524</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>1525</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>3508</v>
+        <v>1526</v>
       </c>
       <c r="E654" s="25" t="s">
         <v>2021</v>
@@ -38753,33 +38752,33 @@
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B655" s="4" t="s">
         <v>3509</v>
       </c>
-      <c r="B655" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C655" s="4" t="s">
-        <v>20</v>
+      <c r="C655" s="28" t="s">
+        <v>3510</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>20</v>
+        <v>3511</v>
       </c>
       <c r="E655" s="25" t="s">
-        <v>1527</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E656" s="25" t="s">
         <v>1527</v>
@@ -38787,16 +38786,16 @@
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>3512</v>
+        <v>120</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>3512</v>
+        <v>120</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>3512</v>
+        <v>120</v>
       </c>
       <c r="E657" s="25" t="s">
         <v>1527</v>
@@ -38804,16 +38803,16 @@
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>16</v>
+        <v>3515</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>3515</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>16</v>
+        <v>3515</v>
       </c>
       <c r="E658" s="25" t="s">
         <v>1527</v>
@@ -38821,16 +38820,16 @@
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C659" s="4" t="s">
-        <v>3515</v>
+        <v>16</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>3516</v>
+        <v>16</v>
       </c>
       <c r="E659" s="25" t="s">
         <v>1527</v>
@@ -38841,7 +38840,7 @@
         <v>3517</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C660" s="4" t="s">
         <v>3518</v>
@@ -38858,7 +38857,7 @@
         <v>3520</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>754</v>
+        <v>37</v>
       </c>
       <c r="C661" s="4" t="s">
         <v>3521</v>
@@ -38866,8 +38865,8 @@
       <c r="D661" s="4" t="s">
         <v>3522</v>
       </c>
-      <c r="E661" s="28" t="n">
-        <v>45542</v>
+      <c r="E661" s="25" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" state="visible" r:id="rId3"/>
@@ -10666,14 +10666,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -10840,115 +10839,115 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11279,10 +11278,10 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M82" activeCellId="0" sqref="M82"/>
+      <selection pane="bottomLeft" activeCell="F390" activeCellId="0" sqref="F390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22633,11 +22632,11 @@
         <v>750</v>
       </c>
       <c r="E389" s="6" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H389" s="2" t="s">
         <v>751</v>
@@ -27791,10 +27790,10 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A643" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B665" activeCellId="0" sqref="B665"/>
+      <selection pane="bottomLeft" activeCell="C679" activeCellId="0" sqref="C679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38554,7 +38553,7 @@
       <c r="B633" s="4" t="s">
         <v>3436</v>
       </c>
-      <c r="C633" s="1" t="s">
+      <c r="C633" s="4" t="s">
         <v>3437</v>
       </c>
       <c r="D633" s="4" t="s">
@@ -39030,7 +39029,7 @@
       <c r="B661" s="4" t="s">
         <v>3536</v>
       </c>
-      <c r="C661" s="1" t="s">
+      <c r="C661" s="4" t="s">
         <v>3536</v>
       </c>
       <c r="D661" s="4" t="s">
